--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t xml:space="preserve">day</t>
+    <t xml:space="preserve">date</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -447,8 +447,8 @@
       <c r="D2" t="n">
         <v>0.13596180717365</v>
       </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
+      <c r="E2" t="n">
+        <v>0.96009522655409</v>
       </c>
       <c r="F2" t="n">
         <v>6744.45857142857</v>
@@ -470,8 +470,8 @@
       <c r="D3" t="n">
         <v>0.399047598709821</v>
       </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
+      <c r="E3" t="n">
+        <v>2.15542943540432</v>
       </c>
       <c r="F3" t="n">
         <v>2949.00214285714</v>
@@ -488,19 +488,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>442.961367598926</v>
+        <v>519.836014016264</v>
       </c>
       <c r="D4" t="n">
-        <v>0.179033277012746</v>
+        <v>0.292536199651649</v>
       </c>
       <c r="E4" t="n">
-        <v>2.11398960347163</v>
+        <v>1.69234839560588</v>
       </c>
       <c r="F4" t="n">
-        <v>4515.06642857143</v>
+        <v>3847.36714285714</v>
       </c>
       <c r="G4" t="n">
-        <v>857450.978571427</v>
+        <v>447159.985714286</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         <v>0.0872003372604311</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0551824124671</v>
+        <v>1.07758722290172</v>
       </c>
       <c r="F5" t="n">
         <v>17274.5014285714</v>
@@ -528,227 +528,204 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44665</v>
+        <v>44733</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>20.8538613531028</v>
+        <v>2.87311845116259</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160062138915729</v>
+        <v>0.0406457351860475</v>
       </c>
       <c r="E6" t="n">
-        <v>1.29095314351468</v>
+        <v>1.22703041951538</v>
       </c>
       <c r="F6" t="n">
-        <v>4795.275</v>
+        <v>34805.3871428571</v>
       </c>
       <c r="G6" t="n">
-        <v>698040.825</v>
+        <v>15413596.6714286</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44733</v>
+        <v>44817</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2.87311845116259</v>
+        <v>288.324133991433</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0406457351860475</v>
+        <v>0.194918677610752</v>
       </c>
       <c r="E7" t="n">
-        <v>1.22720288671638</v>
+        <v>1.49757641515283</v>
       </c>
       <c r="F7" t="n">
-        <v>34805.3871428571</v>
+        <v>2774.655</v>
       </c>
       <c r="G7" t="n">
-        <v>15413596.6714286</v>
+        <v>538080.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44817</v>
+        <v>44879</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>288.324133991433</v>
+        <v>11.2151018074899</v>
       </c>
       <c r="D8" t="n">
-        <v>0.194918677610752</v>
+        <v>0.0351128684887311</v>
       </c>
       <c r="E8" t="n">
-        <v>1.49609686673919</v>
+        <v>1.26005605374847</v>
       </c>
       <c r="F8" t="n">
-        <v>2774.655</v>
+        <v>22291.3714285714</v>
       </c>
       <c r="G8" t="n">
-        <v>538080.6</v>
+        <v>12696981.1285714</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44879</v>
+        <v>44959</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>11.2151018074899</v>
+        <v>2.98137175043788</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0351128684887311</v>
+        <v>0.0129171130222743</v>
       </c>
       <c r="E9" t="n">
-        <v>0.851335002013438</v>
+        <v>1.24406283994386</v>
       </c>
       <c r="F9" t="n">
-        <v>22291.3714285714</v>
+        <v>16770.8035714286</v>
       </c>
       <c r="G9" t="n">
-        <v>12696981.1285714</v>
+        <v>28563478.3821429</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44959</v>
+        <v>44999</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>2.68544359519209</v>
+        <v>30.839871018848</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0123437852669211</v>
+        <v>0.115971738074685</v>
       </c>
       <c r="E10" t="n">
-        <v>0.829098720167137</v>
+        <v>1.32284879297031</v>
       </c>
       <c r="F10" t="n">
-        <v>18618.8978571429</v>
+        <v>4863.83357142857</v>
       </c>
       <c r="G10" t="n">
-        <v>33183966.1821429</v>
+        <v>1425953.80714286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44999</v>
+        <v>45078</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>30.839871018848</v>
+        <v>5.46253380723155</v>
       </c>
       <c r="D11" t="n">
-        <v>0.115971738074685</v>
+        <v>0.0391666376832519</v>
       </c>
       <c r="E11" t="n">
-        <v>0.90289706852141</v>
+        <v>1.24855432619956</v>
       </c>
       <c r="F11" t="n">
-        <v>4863.83357142857</v>
+        <v>9153.26142857143</v>
       </c>
       <c r="G11" t="n">
-        <v>1425953.80714286</v>
+        <v>3739207.43571429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45078</v>
+        <v>45197</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="n">
-        <v>48.3070784362028</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.00119231592920607</v>
-      </c>
+      <c r="C12"/>
+      <c r="D12"/>
       <c r="E12" t="n">
-        <v>0.832889616253541</v>
+        <v>1.21603948844261</v>
       </c>
       <c r="F12" t="n">
-        <v>1035.04500000001</v>
+        <v>82252.1078571429</v>
       </c>
       <c r="G12" t="n">
-        <v>-13889540.175</v>
+        <v>58777993.6071429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="C13" t="n">
+        <v>2.03832511291375</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0366654380801947</v>
+      </c>
       <c r="E13" t="n">
-        <v>0.804143083134651</v>
+        <v>1.21047356821986</v>
       </c>
       <c r="F13" t="n">
-        <v>82252.1078571429</v>
+        <v>24529.9435714286</v>
       </c>
       <c r="G13" t="n">
-        <v>58777993.6071429</v>
+        <v>16725521.9464286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45198</v>
+        <v>45279</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>2.03832511291375</v>
+        <v>320.614113433273</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0366654380801947</v>
+        <v>0.274291524526629</v>
       </c>
       <c r="E14" t="n">
-        <v>0.798709265448834</v>
+        <v>1.70055636656728</v>
       </c>
       <c r="F14" t="n">
-        <v>24529.9435714286</v>
+        <v>1871.40857142857</v>
       </c>
       <c r="G14" t="n">
-        <v>16725521.9464286</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>320.614113433273</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.274291524526629</v>
-      </c>
-      <c r="E15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1871.40857142857</v>
-      </c>
-      <c r="G15" t="n">
         <v>156922.082142857</v>
       </c>
     </row>
@@ -803,7 +780,7 @@
         <v>-0.415059873828465</v>
       </c>
       <c r="E2" t="n">
-        <v>0.805120661779785</v>
+        <v>0.561989668524792</v>
       </c>
       <c r="F2" t="n">
         <v>2055.11785714286</v>
@@ -820,19 +797,19 @@
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>-1522.72807611465</v>
+        <v>1450.59080491212</v>
       </c>
       <c r="D3" t="n">
-        <v>0.574939578921141</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
+        <v>0.581036633340369</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.49479210231148</v>
       </c>
       <c r="F3" t="n">
-        <v>-1313.43214285714</v>
+        <v>1378.74857142857</v>
       </c>
       <c r="G3" t="n">
-        <v>-73103.0357142857</v>
+        <v>75933.1714285714</v>
       </c>
     </row>
     <row r="4">
@@ -849,7 +826,7 @@
         <v>0.166262713408938</v>
       </c>
       <c r="E4" t="n">
-        <v>0.586108897296258</v>
+        <v>0.610911641368737</v>
       </c>
       <c r="F4" t="n">
         <v>4953.66642857143</v>
@@ -872,7 +849,7 @@
         <v>0.0375554805809119</v>
       </c>
       <c r="E5" t="n">
-        <v>0.517084102072244</v>
+        <v>0.515695068359833</v>
       </c>
       <c r="F5" t="n">
         <v>29225.04</v>
@@ -895,7 +872,7 @@
         <v>0.426859527793496</v>
       </c>
       <c r="E6" t="n">
-        <v>0.702648046432457</v>
+        <v>0.700626877617393</v>
       </c>
       <c r="F6" t="n">
         <v>2600.08928571429</v>
@@ -918,7 +895,7 @@
         <v>0.131401183260687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.436553212702385</v>
+        <v>0.56429705950321</v>
       </c>
       <c r="F7" t="n">
         <v>20644.0714285714</v>
@@ -941,7 +918,7 @@
         <v>0.0192449199286524</v>
       </c>
       <c r="E8" t="n">
-        <v>0.351646287648636</v>
+        <v>0.517092419639386</v>
       </c>
       <c r="F8" t="n">
         <v>63472.4142857143</v>
@@ -964,7 +941,7 @@
         <v>0.0323205086994282</v>
       </c>
       <c r="E9" t="n">
-        <v>0.465836454475939</v>
+        <v>0.636336976310317</v>
       </c>
       <c r="F9" t="n">
         <v>11464.035</v>
@@ -987,7 +964,7 @@
         <v>0.20143331114612</v>
       </c>
       <c r="E10" t="n">
-        <v>0.338975335223398</v>
+        <v>0.588075516151033</v>
       </c>
       <c r="F10" t="n">
         <v>1878.47571428571</v>
@@ -1009,8 +986,8 @@
       <c r="D11" t="n">
         <v>0.138009949764872</v>
       </c>
-      <c r="E11" t="e">
-        <v>#NUM!</v>
+      <c r="E11" t="n">
+        <v>0.814305514065574</v>
       </c>
       <c r="F11" t="n">
         <v>2495.43</v>
@@ -1058,207 +1035,140 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44292</v>
+        <v>44452</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>45.7971257985546</v>
+        <v>7.31312382905134</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0462709643091429</v>
+        <v>0.0186472739593504</v>
       </c>
       <c r="E2" t="n">
-        <v>1.20979881664309</v>
+        <v>1.09512941116791</v>
       </c>
       <c r="F2" t="n">
-        <v>5458.85785714287</v>
+        <v>13674.0471428571</v>
       </c>
       <c r="G2" t="n">
-        <v>3562871.65714287</v>
+        <v>7186340.60357143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44517</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>7.31312382905134</v>
+        <v>22.5234747698149</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0186472739593504</v>
+        <v>0.026820127000421</v>
       </c>
       <c r="E3" t="n">
-        <v>1.07790324035194</v>
+        <v>1.15214486610791</v>
       </c>
       <c r="F3" t="n">
-        <v>13674.0471428571</v>
+        <v>11099.5307142857</v>
       </c>
       <c r="G3" t="n">
-        <v>7186340.60357143</v>
+        <v>11091201.1392857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44517</v>
+        <v>44589</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5234747698149</v>
+        <v>13.3793659977175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.026820127000421</v>
+        <v>0.0205672011357402</v>
       </c>
       <c r="E4" t="n">
-        <v>1.14604906793147</v>
+        <v>1.18605118392055</v>
       </c>
       <c r="F4" t="n">
-        <v>11099.5307142857</v>
+        <v>3737.09785714286</v>
       </c>
       <c r="G4" t="n">
-        <v>11091201.1392857</v>
+        <v>1835188.37142857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44818</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>13.3793659977175</v>
+        <v>80.2971338081475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0205672011357402</v>
+        <v>0.0756138674831853</v>
       </c>
       <c r="E5" t="n">
-        <v>1.15697656532308</v>
+        <v>1.33613727954729</v>
       </c>
       <c r="F5" t="n">
-        <v>3737.09785714286</v>
+        <v>4981.49785714286</v>
       </c>
       <c r="G5" t="n">
-        <v>1835188.37142857</v>
+        <v>1686547.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44666</v>
+        <v>44998</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>8.55028667889765</v>
+        <v>73.3277604235412</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0127442482204935</v>
+        <v>0.0601797177022106</v>
       </c>
       <c r="E6" t="n">
-        <v>1.13564203007194</v>
+        <v>1.28317296907321</v>
       </c>
       <c r="F6" t="n">
-        <v>17543.2714285714</v>
+        <v>6818.7</v>
       </c>
       <c r="G6" t="n">
-        <v>11838449.1321429</v>
+        <v>2266112.325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44818</v>
+        <v>45140</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>80.2971338081475</v>
+        <v>203.61423579318</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0756138674831853</v>
+        <v>0.151213418262108</v>
       </c>
       <c r="E7" t="n">
-        <v>1.35380599386199</v>
+        <v>1.47757506242285</v>
       </c>
       <c r="F7" t="n">
-        <v>4981.49785714286</v>
+        <v>6875.74714285714</v>
       </c>
       <c r="G7" t="n">
-        <v>1686547.05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>44998</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>73.3277604235412</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0601797177022106</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.24278759368125</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6818.7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2266112.325</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45140</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>203.61423579318</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.151213418262108</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.50181571590416</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6875.74714285714</v>
-      </c>
-      <c r="G9" t="n">
         <v>682057.242857143</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>587.941323455919</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.116204075358259</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="n">
-        <v>2041.02</v>
-      </c>
-      <c r="G10" t="n">
-        <v>298589.7</v>
       </c>
     </row>
   </sheetData>
@@ -1306,19 +1216,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>191.781610061411</v>
+        <v>218.653058116812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0247622262125784</v>
+        <v>0.0308372725815327</v>
       </c>
       <c r="E2" t="n">
-        <v>1.05344544680825</v>
+        <v>1.11553844289507</v>
       </c>
       <c r="F2" t="n">
-        <v>6257.11714285714</v>
+        <v>5488.14642857143</v>
       </c>
       <c r="G2" t="n">
-        <v>6923650.89642856</v>
+        <v>4876410.9</v>
       </c>
     </row>
     <row r="3">
@@ -1335,7 +1245,7 @@
         <v>0.028469917352607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.79805472226329</v>
+        <v>0.813657725497269</v>
       </c>
       <c r="F3" t="n">
         <v>24196.695</v>
@@ -1358,7 +1268,7 @@
         <v>0.230530622192957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.929157175246169</v>
+        <v>0.925645449472718</v>
       </c>
       <c r="F4" t="n">
         <v>7971.19071428572</v>
@@ -1381,7 +1291,7 @@
         <v>0.0173910258844274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.832412029104361</v>
+        <v>0.857244517216307</v>
       </c>
       <c r="F5" t="n">
         <v>11892.435</v>
@@ -1392,116 +1302,93 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44659</v>
+        <v>44733</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>37.7739793942942</v>
+        <v>5.84854833181856</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0147219520870121</v>
+        <v>0.0217811972641943</v>
       </c>
       <c r="E6" t="n">
-        <v>0.948484510302354</v>
+        <v>0.838387320411005</v>
       </c>
       <c r="F6" t="n">
-        <v>7941.975</v>
+        <v>8549.13</v>
       </c>
       <c r="G6" t="n">
-        <v>7714346.7</v>
+        <v>3925004.625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44733</v>
+        <v>44806</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>5.84854833181856</v>
+        <v>94.0961393698247</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0217811972641943</v>
+        <v>0.125964440018116</v>
       </c>
       <c r="E7" t="n">
-        <v>0.838920867879614</v>
+        <v>1.03416328014474</v>
       </c>
       <c r="F7" t="n">
-        <v>8549.13</v>
+        <v>6376.45714285715</v>
       </c>
       <c r="G7" t="n">
-        <v>3925004.625</v>
+        <v>1543943.21785715</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44806</v>
+        <v>44998</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>94.0961393698247</v>
+        <v>4.110400422878</v>
       </c>
       <c r="D8" t="n">
-        <v>0.125964440018116</v>
+        <v>0.0135347353218176</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0467996217053</v>
+        <v>0.852390189325833</v>
       </c>
       <c r="F8" t="n">
-        <v>6376.45714285715</v>
+        <v>121642.65</v>
       </c>
       <c r="G8" t="n">
-        <v>1543943.21785715</v>
+        <v>139305352.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44998</v>
+        <v>45279</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>4.110400422878</v>
+        <v>850.231688135016</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0135347353218176</v>
+        <v>-0.264707017120813</v>
       </c>
       <c r="E9" t="n">
-        <v>0.806710352094947</v>
+        <v>1.23215856249894</v>
       </c>
       <c r="F9" t="n">
-        <v>121642.65</v>
+        <v>1999.455</v>
       </c>
       <c r="G9" t="n">
-        <v>139305352.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>850.231688135016</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.264707017120813</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1999.455</v>
-      </c>
-      <c r="G10" t="n">
         <v>-105748.499999999</v>
       </c>
     </row>
@@ -1550,19 +1437,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>190.28163721039</v>
+        <v>201.556447682785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0860186407696766</v>
+        <v>0.0966260418499097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.984838957026399</v>
+        <v>0.947540539626533</v>
       </c>
       <c r="F2" t="n">
-        <v>2102.14714285714</v>
+        <v>1984.55571428571</v>
       </c>
       <c r="G2" t="n">
-        <v>745367.36785714</v>
+        <v>626424.803571428</v>
       </c>
     </row>
     <row r="3">
@@ -1579,7 +1466,7 @@
         <v>0.0482196240014123</v>
       </c>
       <c r="E3" t="n">
-        <v>0.956786249405832</v>
+        <v>0.954603621934516</v>
       </c>
       <c r="F3" t="n">
         <v>14294.7535714286</v>
@@ -1602,7 +1489,7 @@
         <v>0.0396467471682954</v>
       </c>
       <c r="E4" t="n">
-        <v>0.992405077407557</v>
+        <v>0.994357678715358</v>
       </c>
       <c r="F4" t="n">
         <v>9733.09499999999</v>
@@ -1625,7 +1512,7 @@
         <v>0.0240540549037401</v>
       </c>
       <c r="E5" t="n">
-        <v>0.915689097744538</v>
+        <v>0.925241631392354</v>
       </c>
       <c r="F5" t="n">
         <v>5443.77642857143</v>
@@ -1636,47 +1523,24 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44666</v>
+        <v>44818</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>43.1380098171326</v>
+        <v>268.141444612033</v>
       </c>
       <c r="D6" t="n">
-        <v>0.026222037675287</v>
+        <v>0.117343468865951</v>
       </c>
       <c r="E6" t="n">
-        <v>0.917982841622249</v>
+        <v>1.29046111183131</v>
       </c>
       <c r="F6" t="n">
-        <v>9272.565</v>
+        <v>2237.625</v>
       </c>
       <c r="G6" t="n">
-        <v>14109328.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>44818</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>268.141444612033</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.117343468865951</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.29257475242223</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2237.625</v>
-      </c>
-      <c r="G7" t="n">
         <v>444308.174999999</v>
       </c>
     </row>
@@ -1730,8 +1594,8 @@
       <c r="D2" t="n">
         <v>0.387436294953374</v>
       </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
+      <c r="E2" t="n">
+        <v>1.72322186462555</v>
       </c>
       <c r="F2" t="n">
         <v>1203.56357142857</v>
@@ -1754,7 +1618,7 @@
         <v>0.0748083206536477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.877273800351796</v>
+        <v>0.929733787750404</v>
       </c>
       <c r="F3" t="n">
         <v>11714.8821428571</v>
@@ -1777,7 +1641,7 @@
         <v>0.181034619271933</v>
       </c>
       <c r="E4" t="n">
-        <v>1.16981620446827</v>
+        <v>1.16430483770059</v>
       </c>
       <c r="F4" t="n">
         <v>4287.97071428572</v>
@@ -1800,7 +1664,7 @@
         <v>0.0466003004043193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.937617911788854</v>
+        <v>0.95598794379407</v>
       </c>
       <c r="F5" t="n">
         <v>3619.28785714286</v>
@@ -1823,7 +1687,7 @@
         <v>0.0247248402753767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.874297936664055</v>
+        <v>0.878364493092622</v>
       </c>
       <c r="F6" t="n">
         <v>20718.7864285714</v>
@@ -1840,87 +1704,64 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>83.1668955835468</v>
+        <v>83.4160791046595</v>
       </c>
       <c r="D7" t="n">
-        <v>0.103420283876735</v>
+        <v>0.104270024651914</v>
       </c>
       <c r="E7" t="n">
-        <v>1.16006263382476</v>
+        <v>1.12718696043453</v>
       </c>
       <c r="F7" t="n">
-        <v>12024.015</v>
+        <v>11988.0964285714</v>
       </c>
       <c r="G7" t="n">
-        <v>4290127.01249999</v>
+        <v>4242453.76071428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44879</v>
+        <v>44959</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>62.1041048151678</v>
+        <v>30.1205661719794</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0624314324451668</v>
+        <v>0.017179789481342</v>
       </c>
       <c r="E8" t="n">
-        <v>0.822189599549654</v>
+        <v>0.994350520519222</v>
       </c>
       <c r="F8" t="n">
-        <v>7245.89785714286</v>
+        <v>6639.98142857143</v>
       </c>
       <c r="G8" t="n">
-        <v>3017604.06428571</v>
+        <v>10435488.675</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44959</v>
+        <v>44999</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>27.7456390791777</v>
+        <v>203.383280877396</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0274136731817164</v>
+        <v>0.223866557705922</v>
       </c>
       <c r="E9" t="n">
-        <v>0.971485525319535</v>
+        <v>1.16293097131649</v>
       </c>
       <c r="F9" t="n">
-        <v>7208.34</v>
+        <v>2950.095</v>
       </c>
       <c r="G9" t="n">
-        <v>7099565.925</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="n">
-        <v>203.383280877396</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.223866557705922</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.16201921604601</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2950.095</v>
-      </c>
-      <c r="G10" t="n">
         <v>466498.274999997</v>
       </c>
     </row>
@@ -1975,7 +1816,7 @@
         <v>0.0288993102026876</v>
       </c>
       <c r="E2" t="n">
-        <v>0.986430878316302</v>
+        <v>0.235947559167846</v>
       </c>
       <c r="F2" t="n">
         <v>4290.66642857143</v>
@@ -1997,8 +1838,8 @@
       <c r="D3" t="n">
         <v>0.233297132170326</v>
       </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
+      <c r="E3" t="n">
+        <v>3.00425309577892</v>
       </c>
       <c r="F3" t="n">
         <v>3691.38</v>
@@ -2020,8 +1861,8 @@
       <c r="D4" t="n">
         <v>0.0334046106509795</v>
       </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
+      <c r="E4" t="n">
+        <v>1.11679553298501</v>
       </c>
       <c r="F4" t="n">
         <v>24413.1324193548</v>
@@ -2032,93 +1873,70 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44510</v>
+        <v>44659</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>21.1919407049499</v>
+        <v>10.1562152863735</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0277510769684758</v>
+        <v>0.0160991553702436</v>
       </c>
       <c r="E5" t="n">
-        <v>1.14205940927033</v>
+        <v>1.20205744593307</v>
       </c>
       <c r="F5" t="n">
-        <v>9437.55</v>
+        <v>19692.375</v>
       </c>
       <c r="G5" t="n">
-        <v>5271219.75</v>
+        <v>12231930.525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44659</v>
+        <v>44806</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>10.1562152863735</v>
+        <v>35.2877784497159</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0160991553702436</v>
+        <v>0.0598939505762173</v>
       </c>
       <c r="E6" t="n">
-        <v>1.19490494036932</v>
+        <v>1.21757509060473</v>
       </c>
       <c r="F6" t="n">
-        <v>19692.375</v>
+        <v>22670.7385714286</v>
       </c>
       <c r="G6" t="n">
-        <v>12231930.525</v>
+        <v>9576420.99642858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44806</v>
+        <v>45197</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2877784497159</v>
+        <v>18.5478970626159</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0598939505762173</v>
+        <v>0.0380123901994629</v>
       </c>
       <c r="E7" t="n">
-        <v>1.21849834055729</v>
+        <v>1.19617447962169</v>
       </c>
       <c r="F7" t="n">
-        <v>22670.7385714286</v>
+        <v>10782.8935714286</v>
       </c>
       <c r="G7" t="n">
-        <v>9576420.99642858</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45197</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.5478970626159</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0380123901994629</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.28420761962736</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10782.8935714286</v>
-      </c>
-      <c r="G8" t="n">
         <v>5673357.30000001</v>
       </c>
     </row>
@@ -2167,19 +1985,19 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>1506.92945363582</v>
+        <v>1474.27392009435</v>
       </c>
       <c r="D2" t="n">
-        <v>0.638751845267524</v>
+        <v>0.609595398242257</v>
       </c>
       <c r="E2" t="n">
-        <v>0.953145766518806</v>
+        <v>0.588459099645472</v>
       </c>
       <c r="F2" t="n">
-        <v>1327.20214285714</v>
+        <v>1356.6</v>
       </c>
       <c r="G2" t="n">
-        <v>103890.278571429</v>
+        <v>111270.525</v>
       </c>
     </row>
     <row r="3">
@@ -2196,7 +2014,7 @@
         <v>0.19909322659857</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0572381622036</v>
+        <v>1.05548560188029</v>
       </c>
       <c r="F3" t="n">
         <v>6115.665</v>
@@ -2219,7 +2037,7 @@
         <v>0.09276270132275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.981083073137467</v>
+        <v>1.01102869478466</v>
       </c>
       <c r="F4" t="n">
         <v>7616.01214285714</v>
@@ -2236,19 +2054,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>32.9631299151117</v>
+        <v>33.6536236839781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.130442083405527</v>
+        <v>0.132219643097552</v>
       </c>
       <c r="E5" t="n">
-        <v>1.08686776782644</v>
+        <v>0.907178487084247</v>
       </c>
       <c r="F5" t="n">
-        <v>18202.155</v>
+        <v>17828.6892857143</v>
       </c>
       <c r="G5" t="n">
-        <v>3767635.2</v>
+        <v>3640719.33214286</v>
       </c>
     </row>
     <row r="6">
@@ -2264,8 +2082,8 @@
       <c r="D6" t="n">
         <v>0.370207050897618</v>
       </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
+      <c r="E6" t="n">
+        <v>1.43410908639999</v>
       </c>
       <c r="F6" t="n">
         <v>1394.12142857143</v>
@@ -2288,7 +2106,7 @@
         <v>0.108285591446864</v>
       </c>
       <c r="E7" t="n">
-        <v>1.02273348879362</v>
+        <v>0.684173748145478</v>
       </c>
       <c r="F7" t="n">
         <v>9619.32857142857</v>
@@ -2311,7 +2129,7 @@
         <v>0.0176083819768147</v>
       </c>
       <c r="E8" t="n">
-        <v>1.3112326247001</v>
+        <v>1.13760053883744</v>
       </c>
       <c r="F8" t="n">
         <v>19459.2321428571</v>
@@ -2334,7 +2152,7 @@
         <v>0.0942639400766061</v>
       </c>
       <c r="E9" t="n">
-        <v>1.40222411823612</v>
+        <v>1.2351274384367</v>
       </c>
       <c r="F9" t="n">
         <v>18083.6892857143</v>
@@ -2357,7 +2175,7 @@
         <v>-0.624858780565361</v>
       </c>
       <c r="E10" t="n">
-        <v>1.85235323819132</v>
+        <v>1.70007552742378</v>
       </c>
       <c r="F10" t="n">
         <v>1823.90571428572</v>
@@ -2380,7 +2198,7 @@
         <v>0.0966021881464723</v>
       </c>
       <c r="E11" t="n">
-        <v>1.55357252699354</v>
+        <v>1.38542489812252</v>
       </c>
       <c r="F11" t="n">
         <v>750.027857142865</v>
@@ -2403,7 +2221,7 @@
         <v>0.0456410932698102</v>
       </c>
       <c r="E12" t="n">
-        <v>1.53012743843669</v>
+        <v>1.2714292155857</v>
       </c>
       <c r="F12" t="n">
         <v>2880.99</v>
@@ -2425,8 +2243,8 @@
       <c r="D13" t="n">
         <v>0.229962718506469</v>
       </c>
-      <c r="E13" t="e">
-        <v>#NUM!</v>
+      <c r="E13" t="n">
+        <v>1.46778642648194</v>
       </c>
       <c r="F13" t="n">
         <v>2535.975</v>
@@ -2486,7 +2304,7 @@
         <v>0.0836415522456026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.955689483651695</v>
+        <v>0.391831821845463</v>
       </c>
       <c r="F2" t="n">
         <v>2500.85785714285</v>
@@ -2509,7 +2327,7 @@
         <v>0.10472695502504</v>
       </c>
       <c r="E3" t="n">
-        <v>1.00749398277837</v>
+        <v>0.999480006838803</v>
       </c>
       <c r="F3" t="n">
         <v>13985.22</v>
@@ -2520,117 +2338,71 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44517</v>
+        <v>44589</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>18.4922954162685</v>
+        <v>6.79493167987407</v>
       </c>
       <c r="D4" t="n">
-        <v>0.068927815528573</v>
+        <v>0.0279077813421051</v>
       </c>
       <c r="E4" t="n">
-        <v>1.03909095253797</v>
+        <v>1.01485820994369</v>
       </c>
       <c r="F4" t="n">
-        <v>10815.315</v>
+        <v>14716.8514285714</v>
       </c>
       <c r="G4" t="n">
-        <v>3342137.1</v>
+        <v>4798781.61428571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44818</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>-1084.1619428182</v>
+        <v>52.7801968701343</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0419823989213417</v>
+        <v>0.0490018181170012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.992939568297968</v>
+        <v>1.15128049983373</v>
       </c>
       <c r="F5" t="n">
-        <v>-92.2371428571427</v>
+        <v>7578.6</v>
       </c>
       <c r="G5" t="n">
-        <v>-19993.0928571428</v>
+        <v>3433442.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44665</v>
+        <v>45279</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>5.55093440266534</v>
+        <v>409.296138546743</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143169282902277</v>
+        <v>0.0895346799829791</v>
       </c>
       <c r="E6" t="n">
-        <v>0.986715966159205</v>
+        <v>1.36819286547664</v>
       </c>
       <c r="F6" t="n">
-        <v>18014.985</v>
+        <v>1954.575</v>
       </c>
       <c r="G6" t="n">
-        <v>1535125.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>44818</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="n">
-        <v>52.7801968701343</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0490018181170012</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.11766819484688</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7578.6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3433442.4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="n">
-        <v>409.983838583506</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0897427663635656</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1951.29642857143</v>
-      </c>
-      <c r="G8" t="n">
-        <v>456607.553571429</v>
+        <v>458437.725</v>
       </c>
     </row>
   </sheetData>
@@ -2684,7 +2456,7 @@
         <v>0.0578152666505854</v>
       </c>
       <c r="E2" t="n">
-        <v>0.97482200093188</v>
+        <v>0.871378375484023</v>
       </c>
       <c r="F2" t="n">
         <v>2261.85</v>
@@ -2695,94 +2467,163 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44589</v>
+        <v>44452</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>4.49444319884161</v>
+        <v>19.0713037906123</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0437964783271548</v>
+        <v>0.111120888231963</v>
       </c>
       <c r="E3" t="n">
-        <v>0.817167425950112</v>
+        <v>0.875693725023813</v>
       </c>
       <c r="F3" t="n">
-        <v>11124.8485714286</v>
+        <v>7865.22</v>
       </c>
       <c r="G3" t="n">
-        <v>2159105.4</v>
+        <v>1033398.975</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44666</v>
+        <v>44517</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>2.89214023293876</v>
+        <v>16.9350140609002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0252018268584692</v>
+        <v>0.0463166323010258</v>
       </c>
       <c r="E4" t="n">
-        <v>0.789406482890101</v>
+        <v>0.861109604946484</v>
       </c>
       <c r="F4" t="n">
-        <v>17288.235</v>
+        <v>11809.8514285714</v>
       </c>
       <c r="G4" t="n">
-        <v>11318857.125</v>
+        <v>10479710.4107143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44966</v>
+        <v>44589</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>8.00184819830957</v>
+        <v>4.49444319884161</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0131382698505472</v>
+        <v>0.0437964783271548</v>
       </c>
       <c r="E5" t="n">
-        <v>0.81136811023622</v>
+        <v>0.829087949994082</v>
       </c>
       <c r="F5" t="n">
-        <v>6248.55642857143</v>
+        <v>11124.8485714286</v>
       </c>
       <c r="G5" t="n">
-        <v>6658394.97857143</v>
+        <v>2159105.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44998</v>
+        <v>44666</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>148.679429308878</v>
+        <v>2.89214023293876</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.15252734905357</v>
+        <v>0.0252018268584692</v>
       </c>
       <c r="E6" t="n">
-        <v>1.02550045137969</v>
+        <v>0.631433198623971</v>
       </c>
       <c r="F6" t="n">
-        <v>3362.94000000001</v>
+        <v>17288.235</v>
       </c>
       <c r="G6" t="n">
-        <v>-81700.7249999963</v>
+        <v>11318857.125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>105.628429740967</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.142353917790553</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.04927645855292</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7573.71857142857</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2255825.98928571</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.00184819830957</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0131382698505472</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.778096370738196</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6248.55642857143</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6658394.97857143</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>126.543034122329</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.154867311917387</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.09144358834172</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3951.225</v>
+      </c>
+      <c r="G9" t="n">
+        <v>714381.225</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">m_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logQ</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -433,13 +436,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44299</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>14.8269870651483</v>
@@ -448,13 +454,16 @@
         <v>0.13596180717365</v>
       </c>
       <c r="E2" t="n">
-        <v>0.96009522655409</v>
+        <v>-0.236734445416943</v>
       </c>
       <c r="F2" t="n">
         <v>6744.45857142857</v>
       </c>
       <c r="G2" t="n">
         <v>997071.310714285</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.17105290868724</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +471,7 @@
         <v>44386</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>406.917303504357</v>
@@ -471,13 +480,16 @@
         <v>0.399047598709821</v>
       </c>
       <c r="E3" t="n">
-        <v>2.15542943540432</v>
+        <v>0.571842117623629</v>
       </c>
       <c r="F3" t="n">
         <v>2949.00214285714</v>
       </c>
       <c r="G3" t="n">
         <v>204705.803571429</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.60950615792082</v>
       </c>
     </row>
     <row r="4">
@@ -485,7 +497,7 @@
         <v>44459</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>519.836014016264</v>
@@ -494,13 +506,16 @@
         <v>0.292536199651649</v>
       </c>
       <c r="E4" t="n">
-        <v>1.69234839560588</v>
+        <v>0.533948504904586</v>
       </c>
       <c r="F4" t="n">
         <v>3847.36714285714</v>
       </c>
       <c r="G4" t="n">
         <v>447159.985714286</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.71586636394285</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +523,7 @@
         <v>44589</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>11.5777581672607</v>
@@ -517,7 +532,7 @@
         <v>0.0872003372604311</v>
       </c>
       <c r="E5" t="n">
-        <v>1.07758722290172</v>
+        <v>-0.112291787026756</v>
       </c>
       <c r="F5" t="n">
         <v>17274.5014285714</v>
@@ -525,208 +540,266 @@
       <c r="G5" t="n">
         <v>3328102.08214286</v>
       </c>
+      <c r="H5" t="n">
+        <v>1.06362447391267</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44733</v>
+        <v>44665</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2.87311845116259</v>
+        <v>20.8538613531028</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0406457351860475</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.22703041951538</v>
-      </c>
+        <v>0.160062138915729</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" t="n">
-        <v>34805.3871428571</v>
+        <v>4795.275</v>
       </c>
       <c r="G6" t="n">
-        <v>15413596.6714286</v>
+        <v>698040.825</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.31918648180763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44817</v>
+        <v>44733</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>288.324133991433</v>
+        <v>2.87311845116259</v>
       </c>
       <c r="D7" t="n">
-        <v>0.194918677610752</v>
+        <v>0.0406457351860475</v>
       </c>
       <c r="E7" t="n">
-        <v>1.49757641515283</v>
+        <v>0.0569027203963497</v>
       </c>
       <c r="F7" t="n">
-        <v>2774.655</v>
+        <v>34805.3871428571</v>
       </c>
       <c r="G7" t="n">
-        <v>538080.6</v>
+        <v>15413596.6714286</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.458353531187161</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44879</v>
+        <v>44817</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>11.2151018074899</v>
+        <v>288.324133991433</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0351128684887311</v>
+        <v>0.194918677610752</v>
       </c>
       <c r="E8" t="n">
-        <v>1.26005605374847</v>
+        <v>0.326424187469587</v>
       </c>
       <c r="F8" t="n">
-        <v>22291.3714285714</v>
+        <v>2774.655</v>
       </c>
       <c r="G8" t="n">
-        <v>12696981.1285714</v>
+        <v>538080.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.45988099625789</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44959</v>
+        <v>44879</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.98137175043788</v>
+        <v>11.2151018074899</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0129171130222743</v>
+        <v>0.0351128684887311</v>
       </c>
       <c r="E9" t="n">
-        <v>1.24406283994386</v>
+        <v>0.0913046673568094</v>
       </c>
       <c r="F9" t="n">
-        <v>16770.8035714286</v>
+        <v>22291.3714285714</v>
       </c>
       <c r="G9" t="n">
-        <v>28563478.3821429</v>
+        <v>12696981.1285714</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.0498032203381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44999</v>
+        <v>44959</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>30.839871018848</v>
+        <v>2.98137175043788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115971738074685</v>
+        <v>0.0129171130222743</v>
       </c>
       <c r="E10" t="n">
-        <v>1.32284879297031</v>
+        <v>0.0686781937579025</v>
       </c>
       <c r="F10" t="n">
-        <v>4863.83357142857</v>
+        <v>16770.8035714286</v>
       </c>
       <c r="G10" t="n">
-        <v>1425953.80714286</v>
+        <v>28563478.3821429</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.474416132053351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45078</v>
+        <v>44999</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>5.46253380723155</v>
+        <v>30.839871018848</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0391666376832519</v>
+        <v>0.115971738074685</v>
       </c>
       <c r="E11" t="n">
-        <v>1.24855432619956</v>
+        <v>0.143757202817436</v>
       </c>
       <c r="F11" t="n">
-        <v>9153.26142857143</v>
+        <v>4863.83357142857</v>
       </c>
       <c r="G11" t="n">
-        <v>3739207.43571429</v>
+        <v>1425953.80714286</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.48911255303911</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45197</v>
+        <v>45078</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.46253380723155</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0391666376832519</v>
+      </c>
       <c r="E12" t="n">
-        <v>1.21603948844261</v>
+        <v>0.0728896162535407</v>
       </c>
       <c r="F12" t="n">
-        <v>82252.1078571429</v>
+        <v>9153.26142857143</v>
       </c>
       <c r="G12" t="n">
-        <v>58777993.6071429</v>
+        <v>3739207.43571429</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.737394137804323</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45198</v>
+        <v>45142</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>2.03832511291375</v>
+        <v>54.429152876328</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0366654380801947</v>
+        <v>0.145089110762292</v>
       </c>
       <c r="E13" t="n">
-        <v>1.21047356821986</v>
+        <v>0.19325455560002</v>
       </c>
       <c r="F13" t="n">
-        <v>24529.9435714286</v>
+        <v>11023.5042857143</v>
       </c>
       <c r="G13" t="n">
-        <v>16725521.9464286</v>
+        <v>2583234.15</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.73583157510342</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.03832511291375</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0366654380801947</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.038709265448834</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24529.9435714286</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16725521.9464286</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.309273455177549</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>45279</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
         <v>320.614113433273</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>0.274291524526629</v>
       </c>
-      <c r="E14" t="n">
-        <v>1.70055636656728</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
+        <v>0.535585069806503</v>
+      </c>
+      <c r="F15" t="n">
         <v>1871.40857142857</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>156922.082142857</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.50598263608201</v>
       </c>
     </row>
   </sheetData>
@@ -765,13 +838,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44302</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>243.295049119533</v>
@@ -780,13 +856,16 @@
         <v>-0.415059873828465</v>
       </c>
       <c r="E2" t="n">
-        <v>0.561989668524792</v>
+        <v>0.144474375522178</v>
       </c>
       <c r="F2" t="n">
         <v>2055.11785714286</v>
       </c>
       <c r="G2" t="n">
         <v>-165871.125</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.38613327143824</v>
       </c>
     </row>
     <row r="3">
@@ -794,22 +873,25 @@
         <v>44386</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>1450.59080491212</v>
+        <v>1444.94054069675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.581036633340369</v>
+        <v>0.577927133588421</v>
       </c>
       <c r="E3" t="n">
-        <v>1.49479210231148</v>
+        <v>0.835018144430228</v>
       </c>
       <c r="F3" t="n">
-        <v>1378.74857142857</v>
+        <v>1384.14</v>
       </c>
       <c r="G3" t="n">
-        <v>75933.1714285714</v>
+        <v>76640.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.15984997624233</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +899,7 @@
         <v>44589</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>60.5612033684141</v>
@@ -826,7 +908,7 @@
         <v>0.166262713408938</v>
       </c>
       <c r="E4" t="n">
-        <v>0.610911641368737</v>
+        <v>-0.0713653021975958</v>
       </c>
       <c r="F4" t="n">
         <v>4953.66642857143</v>
@@ -834,167 +916,233 @@
       <c r="G4" t="n">
         <v>953414.764285715</v>
       </c>
+      <c r="H4" t="n">
+        <v>1.78219449613319</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44733</v>
+        <v>44665</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>3.42172328934366</v>
+        <v>156.869264340194</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0375554805809119</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.515695068359833</v>
-      </c>
+        <v>0.0999742912566901</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="n">
-        <v>29225.04</v>
+        <v>3506.10428571429</v>
       </c>
       <c r="G5" t="n">
-        <v>9727288.65000001</v>
+        <v>1052101.76785714</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.1955378598709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44817</v>
+        <v>44733</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>173.070979705367</v>
+        <v>3.42172328934366</v>
       </c>
       <c r="D6" t="n">
-        <v>0.426859527793496</v>
+        <v>0.0375554805809119</v>
       </c>
       <c r="E6" t="n">
-        <v>0.700626877617393</v>
+        <v>-0.143216064247785</v>
       </c>
       <c r="F6" t="n">
-        <v>2600.08928571429</v>
+        <v>29225.04</v>
       </c>
       <c r="G6" t="n">
-        <v>200400.675000005</v>
+        <v>9727288.65000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.534244885751498</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44879</v>
+        <v>44817</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>16.9540200057436</v>
+        <v>173.070979705367</v>
       </c>
       <c r="D7" t="n">
-        <v>0.131401183260687</v>
+        <v>0.426859527793496</v>
       </c>
       <c r="E7" t="n">
-        <v>0.56429705950321</v>
+        <v>0.0429753671628554</v>
       </c>
       <c r="F7" t="n">
-        <v>20644.0714285714</v>
+        <v>2600.08928571429</v>
       </c>
       <c r="G7" t="n">
-        <v>3189276.075</v>
+        <v>200400.675000005</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.23822425210174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44953</v>
+        <v>44879</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>1.57548757401697</v>
+        <v>16.9540200057436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0192449199286524</v>
+        <v>0.131401183260687</v>
       </c>
       <c r="E8" t="n">
-        <v>0.517092419639386</v>
+        <v>-0.0888937886209107</v>
       </c>
       <c r="F8" t="n">
-        <v>63472.4142857143</v>
+        <v>20644.0714285714</v>
       </c>
       <c r="G8" t="n">
-        <v>64313703.7285714</v>
+        <v>3189276.075</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.22927269128908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44999</v>
+        <v>44953</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>17.4458643924238</v>
+        <v>1.57548757401697</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0323205086994282</v>
+        <v>0.0192449199286524</v>
       </c>
       <c r="E9" t="n">
-        <v>0.636336976310317</v>
+        <v>0.0323948686912526</v>
       </c>
       <c r="F9" t="n">
-        <v>11464.035</v>
+        <v>63472.4142857143</v>
       </c>
       <c r="G9" t="n">
-        <v>11705049.525</v>
+        <v>64313703.7285714</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.197414982211926</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45231</v>
+        <v>44999</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>26.617325749677</v>
+        <v>17.4458643924238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.20143331114612</v>
+        <v>0.0323205086994282</v>
       </c>
       <c r="E10" t="n">
-        <v>0.588075516151033</v>
+        <v>0.146696588771965</v>
       </c>
       <c r="F10" t="n">
-        <v>1878.47571428571</v>
+        <v>11464.035</v>
       </c>
       <c r="G10" t="n">
-        <v>141748.307142857</v>
+        <v>11705049.525</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.24169249236021</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.617325749677</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.20143331114612</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.102308668556731</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1878.47571428571</v>
+      </c>
+      <c r="G11" t="n">
+        <v>141748.307142857</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.42516441963977</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45296</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
         <v>160.293015632576</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>0.138009949764872</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.814305514065574</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0.404619300450722</v>
+      </c>
+      <c r="F12" t="n">
         <v>2495.43</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>524364.15</v>
       </c>
+      <c r="H12" t="n">
+        <v>2.20491459947009</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" t="n">
+        <v>3919.605</v>
+      </c>
+      <c r="G13" t="n">
+        <v>539592.75</v>
+      </c>
+      <c r="H13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1032,143 +1180,238 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44452</v>
+        <v>44292</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>7.31312382905134</v>
+        <v>45.7971257985546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0186472739593504</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.09512941116791</v>
-      </c>
+        <v>0.0462709643091429</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
-        <v>13674.0471428571</v>
+        <v>5458.85785714287</v>
       </c>
       <c r="G2" t="n">
-        <v>7186340.60357143</v>
+        <v>3562871.65714287</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.6608382227856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44517</v>
+        <v>44452</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>22.5234747698149</v>
+        <v>7.31312382905134</v>
       </c>
       <c r="D3" t="n">
-        <v>0.026820127000421</v>
+        <v>0.0186472739593504</v>
       </c>
       <c r="E3" t="n">
-        <v>1.15214486610791</v>
+        <v>0.479715570908414</v>
       </c>
       <c r="F3" t="n">
-        <v>11099.5307142857</v>
+        <v>13674.0471428571</v>
       </c>
       <c r="G3" t="n">
-        <v>11091201.1392857</v>
+        <v>7186340.60357143</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.864102927153004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44589</v>
+        <v>44517</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>13.3793659977175</v>
+        <v>22.5234747698149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0205672011357402</v>
+        <v>0.026820127000421</v>
       </c>
       <c r="E4" t="n">
-        <v>1.18605118392055</v>
+        <v>0.52563734835803</v>
       </c>
       <c r="F4" t="n">
-        <v>3737.09785714286</v>
+        <v>11099.5307142857</v>
       </c>
       <c r="G4" t="n">
-        <v>1835188.37142857</v>
+        <v>11091201.1392857</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.35263539137228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44818</v>
+        <v>44589</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>80.2971338081475</v>
+        <v>13.3793659977175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0756138674831853</v>
+        <v>0.0205672011357402</v>
       </c>
       <c r="E5" t="n">
-        <v>1.33613727954729</v>
+        <v>0.539502365829227</v>
       </c>
       <c r="F5" t="n">
-        <v>4981.49785714286</v>
+        <v>3737.09785714286</v>
       </c>
       <c r="G5" t="n">
-        <v>1686547.05</v>
+        <v>1835188.37142857</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.1264355341929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44998</v>
+        <v>44666</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>73.3277604235412</v>
+        <v>8.55028667889765</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0601797177022106</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.28317296907321</v>
-      </c>
+        <v>0.0127442482204935</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" t="n">
-        <v>6818.7</v>
+        <v>17543.2714285714</v>
       </c>
       <c r="G6" t="n">
-        <v>2266112.325</v>
+        <v>11838449.1321429</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.931980676245845</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>80.2971338081475</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0756138674831853</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.734125241659574</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4981.49785714286</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1686547.05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.90470004349137</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>73.3277604235412</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0601797177022106</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.604004404826991</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6818.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2266112.325</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.8652684209761</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45140</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
         <v>203.61423579318</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>0.151213418262108</v>
       </c>
-      <c r="E7" t="n">
-        <v>1.47757506242285</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E9" t="n">
+        <v>0.861815715904159</v>
+      </c>
+      <c r="F9" t="n">
         <v>6875.74714285714</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G9" t="n">
         <v>682057.242857143</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.30880813864651</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>587.941323455919</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.116204075358259</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.08829296279805</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2041.02</v>
+      </c>
+      <c r="G10" t="n">
+        <v>298589.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.7693339856495</v>
       </c>
     </row>
   </sheetData>
@@ -1207,13 +1450,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44285</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>218.653058116812</v>
@@ -1222,13 +1468,16 @@
         <v>0.0308372725815327</v>
       </c>
       <c r="E2" t="n">
-        <v>1.11553844289507</v>
+        <v>0.33357194499513</v>
       </c>
       <c r="F2" t="n">
         <v>5488.14642857143</v>
       </c>
       <c r="G2" t="n">
         <v>4876410.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.33975555583577</v>
       </c>
     </row>
     <row r="3">
@@ -1236,7 +1485,7 @@
         <v>44452</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.06639791095437</v>
@@ -1245,13 +1494,16 @@
         <v>0.028469917352607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.813657725497269</v>
+        <v>0.103446523483956</v>
       </c>
       <c r="F3" t="n">
         <v>24196.695</v>
       </c>
       <c r="G3" t="n">
         <v>9603914.55</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.315213954111133</v>
       </c>
     </row>
     <row r="4">
@@ -1259,7 +1511,7 @@
         <v>44510</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>56.4532973967771</v>
@@ -1268,13 +1520,16 @@
         <v>0.230530622192957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.925645449472718</v>
+        <v>0.20838584321108</v>
       </c>
       <c r="F4" t="n">
         <v>7971.19071428572</v>
       </c>
       <c r="G4" t="n">
         <v>926679.107142858</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.75168931383232</v>
       </c>
     </row>
     <row r="5">
@@ -1282,7 +1537,7 @@
         <v>44589</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>4.20435343981279</v>
@@ -1291,7 +1546,7 @@
         <v>0.0173910258844274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.857244517216307</v>
+        <v>0.114937829610508</v>
       </c>
       <c r="F5" t="n">
         <v>11892.435</v>
@@ -1299,97 +1554,136 @@
       <c r="G5" t="n">
         <v>9368415.675</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.623699217943341</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44733</v>
+        <v>44659</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>5.84854833181856</v>
+        <v>45.7221685893927</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0217811972641943</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.838387320411005</v>
-      </c>
+        <v>0.0816494874119976</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" t="n">
-        <v>8549.13</v>
+        <v>6561.36857142857</v>
       </c>
       <c r="G6" t="n">
-        <v>3925004.625</v>
+        <v>1149150.76071429</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.66012682067494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44806</v>
+        <v>44733</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>94.0961393698247</v>
+        <v>5.84854833181856</v>
       </c>
       <c r="D7" t="n">
-        <v>0.125964440018116</v>
+        <v>0.0217811972641943</v>
       </c>
       <c r="E7" t="n">
-        <v>1.03416328014474</v>
+        <v>0.118620701559585</v>
       </c>
       <c r="F7" t="n">
-        <v>6376.45714285715</v>
+        <v>8549.13</v>
       </c>
       <c r="G7" t="n">
-        <v>1543943.21785715</v>
+        <v>3925004.625</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.767048083224665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44998</v>
+        <v>44806</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>4.110400422878</v>
+        <v>94.0961393698247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0135347353218176</v>
+        <v>0.125964440018116</v>
       </c>
       <c r="E8" t="n">
-        <v>0.852390189325833</v>
+        <v>0.326952273525759</v>
       </c>
       <c r="F8" t="n">
-        <v>121642.65</v>
+        <v>6376.45714285715</v>
       </c>
       <c r="G8" t="n">
-        <v>139305352.5</v>
+        <v>1543943.21785715</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.97357180531061</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.110400422878</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0135347353218176</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.14792716324069</v>
+      </c>
+      <c r="F9" t="n">
+        <v>121642.65</v>
+      </c>
+      <c r="G9" t="n">
+        <v>139305352.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.61388413160249</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45279</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
         <v>850.231688135016</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>-0.264707017120813</v>
       </c>
-      <c r="E9" t="n">
-        <v>1.23215856249894</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E10" t="n">
+        <v>0.528260069853473</v>
+      </c>
+      <c r="F10" t="n">
         <v>1999.455</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>-105748.499999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.92953728708808</v>
       </c>
     </row>
   </sheetData>
@@ -1428,13 +1722,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44299</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>201.556447682785</v>
@@ -1443,7 +1740,7 @@
         <v>0.0966260418499097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.947540539626533</v>
+        <v>0.535718906702965</v>
       </c>
       <c r="F2" t="n">
         <v>1984.55571428571</v>
@@ -1451,97 +1748,162 @@
       <c r="G2" t="n">
         <v>626424.803571428</v>
       </c>
+      <c r="H2" t="n">
+        <v>2.30439669555911</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44371</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>41.9734413050142</v>
+        <v>416.243786340365</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0482196240014123</v>
+        <v>0.214345900534267</v>
       </c>
       <c r="E3" t="n">
-        <v>0.954603621934516</v>
+        <v>0.89859430101436</v>
       </c>
       <c r="F3" t="n">
-        <v>14294.7535714286</v>
+        <v>3363.41357142857</v>
       </c>
       <c r="G3" t="n">
-        <v>4980376.03928571</v>
+        <v>643352.432142857</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.61934776344354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44517</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>61.6453450829362</v>
+        <v>41.9734413050142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0396467471682954</v>
+        <v>0.0482196240014123</v>
       </c>
       <c r="E4" t="n">
-        <v>0.994357678715358</v>
+        <v>0.506400216436797</v>
       </c>
       <c r="F4" t="n">
-        <v>9733.09499999999</v>
+        <v>14294.7535714286</v>
       </c>
       <c r="G4" t="n">
-        <v>7413961.79999999</v>
+        <v>4980376.03928571</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.62297457746762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44517</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>18.3696008298861</v>
+        <v>61.6453450829362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0240540549037401</v>
+        <v>0.0396467471682954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.925241631392354</v>
+        <v>0.542257562907983</v>
       </c>
       <c r="F5" t="n">
-        <v>5443.77642857143</v>
+        <v>9733.09499999999</v>
       </c>
       <c r="G5" t="n">
-        <v>2896822.95</v>
+        <v>7413961.79999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.78990028805065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18.3696008298861</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0240540549037401</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.47259266099701</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5443.77642857143</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2896822.95</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.26409971922027</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44666</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43.1380098171326</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.026222037675287</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>9272.565</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14109328.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.63486010494421</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>44818</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
         <v>268.141444612033</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8" t="n">
         <v>0.117343468865951</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.29046111183131</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E8" t="n">
+        <v>0.83771589530192</v>
+      </c>
+      <c r="F8" t="n">
         <v>2237.625</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G8" t="n">
         <v>444308.174999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.42836394481183</v>
       </c>
     </row>
   </sheetData>
@@ -1580,13 +1942,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44386</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>1661.73191635079</v>
@@ -1595,13 +1960,16 @@
         <v>0.387436294953374</v>
       </c>
       <c r="E2" t="n">
-        <v>1.72322186462555</v>
+        <v>0.843910837480766</v>
       </c>
       <c r="F2" t="n">
         <v>1203.56357142857</v>
       </c>
       <c r="G2" t="n">
         <v>178933.317857143</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.22056096130097</v>
       </c>
     </row>
     <row r="3">
@@ -1609,7 +1977,7 @@
         <v>44452</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>25.6084522525835</v>
@@ -1618,13 +1986,16 @@
         <v>0.0748083206536477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.929733787750404</v>
+        <v>0.0302828318577513</v>
       </c>
       <c r="F3" t="n">
         <v>11714.8821428571</v>
       </c>
       <c r="G3" t="n">
         <v>3774027.50357143</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.40838333096844</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +2003,7 @@
         <v>44510</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>326.494767171751</v>
@@ -1641,13 +2012,16 @@
         <v>0.181034619271933</v>
       </c>
       <c r="E4" t="n">
-        <v>1.16430483770059</v>
+        <v>0.299044872433179</v>
       </c>
       <c r="F4" t="n">
         <v>4287.97071428572</v>
       </c>
       <c r="G4" t="n">
         <v>959279.58214286</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.51387622510069</v>
       </c>
     </row>
     <row r="5">
@@ -1655,7 +2029,7 @@
         <v>44589</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>55.2594896825599</v>
@@ -1664,7 +2038,7 @@
         <v>0.0466003004043193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.95598794379407</v>
+        <v>0.0701437122950006</v>
       </c>
       <c r="F5" t="n">
         <v>3619.28785714286</v>
@@ -1672,97 +2046,212 @@
       <c r="G5" t="n">
         <v>1654299.02142857</v>
       </c>
+      <c r="H5" t="n">
+        <v>1.74240686992049</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44733</v>
+        <v>44659</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3061500671871</v>
+        <v>-59.2075325514556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0247248402753767</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.878364493092622</v>
-      </c>
+        <v>0.00694043951640586</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" t="n">
-        <v>20718.7864285714</v>
+        <v>-20267.6914285714</v>
       </c>
       <c r="G6" t="n">
-        <v>24301261.3928571</v>
+        <v>-90527182.4357143</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44806</v>
+        <v>44733</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>83.4160791046595</v>
+        <v>19.3061500671871</v>
       </c>
       <c r="D7" t="n">
-        <v>0.104270024651914</v>
+        <v>0.0247248402753767</v>
       </c>
       <c r="E7" t="n">
-        <v>1.12718696043453</v>
+        <v>0.00399777034402538</v>
       </c>
       <c r="F7" t="n">
-        <v>11988.0964285714</v>
+        <v>20718.7864285714</v>
       </c>
       <c r="G7" t="n">
-        <v>4242453.76071428</v>
+        <v>24301261.3928571</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.28569567764907</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44959</v>
+        <v>44806</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>30.1205661719794</v>
+        <v>83.4160791046595</v>
       </c>
       <c r="D8" t="n">
-        <v>0.017179789481342</v>
+        <v>0.104270024651914</v>
       </c>
       <c r="E8" t="n">
-        <v>0.994350520519222</v>
+        <v>0.290215285645218</v>
       </c>
       <c r="F8" t="n">
-        <v>6639.98142857143</v>
+        <v>11988.0964285714</v>
       </c>
       <c r="G8" t="n">
-        <v>10435488.675</v>
+        <v>4242453.76071428</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.92124977238071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>62.1041048151678</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0624314324451668</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="n">
+        <v>7245.89785714286</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3017604.06428571</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.79312030612925</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.1205661719794</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.017179789481342</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.101064998910301</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6639.98142857143</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10435488.675</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.47886313097672</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>44999</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
         <v>203.383280877396</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D11" t="n">
         <v>0.223866557705922</v>
       </c>
-      <c r="E9" t="n">
-        <v>1.16293097131649</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E11" t="n">
+        <v>0.292879350342034</v>
+      </c>
+      <c r="F11" t="n">
         <v>2950.095</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G11" t="n">
         <v>466498.274999997</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.30831524887617</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.12054440834328</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0106085660132641</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0222071233915194</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7021.935</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16680177.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.852513199325168</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1159.08432338453</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.192383869915185</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.69658739105357</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3105.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>613482.825</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.06411503203648</v>
       </c>
     </row>
   </sheetData>
@@ -1801,13 +2290,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44299</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>23.3064027849153</v>
@@ -1816,13 +2308,16 @@
         <v>0.0288993102026876</v>
       </c>
       <c r="E2" t="n">
-        <v>0.235947559167846</v>
+        <v>0.346751698763138</v>
       </c>
       <c r="F2" t="n">
         <v>4290.66642857143</v>
       </c>
       <c r="G2" t="n">
         <v>2672451.18214286</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.36747524772831</v>
       </c>
     </row>
     <row r="3">
@@ -1830,7 +2325,7 @@
         <v>44386</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>270.901397309407</v>
@@ -1839,13 +2334,16 @@
         <v>0.233297132170326</v>
       </c>
       <c r="E3" t="n">
-        <v>3.00425309577892</v>
+        <v>2.32073631840445</v>
       </c>
       <c r="F3" t="n">
         <v>3691.38</v>
       </c>
       <c r="G3" t="n">
         <v>424047.15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.43281124512988</v>
       </c>
     </row>
     <row r="4">
@@ -1853,7 +2351,7 @@
         <v>44452</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>2.04807802379181</v>
@@ -1862,7 +2360,7 @@
         <v>0.0334046106509795</v>
       </c>
       <c r="E4" t="n">
-        <v>1.11679553298501</v>
+        <v>0.478400138466944</v>
       </c>
       <c r="F4" t="n">
         <v>24413.1324193548</v>
@@ -1870,74 +2368,162 @@
       <c r="G4" t="n">
         <v>4019571.72048387</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.311346497546363</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44659</v>
+        <v>44510</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>10.1562152863735</v>
+        <v>21.1919407049499</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0160991553702436</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.20205744593307</v>
-      </c>
+        <v>0.0277510769684758</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="n">
-        <v>19692.375</v>
+        <v>9437.55</v>
       </c>
       <c r="G5" t="n">
-        <v>12231930.525</v>
+        <v>5271219.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.32617073013491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44806</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>35.2877784497159</v>
+        <v>138.347849975591</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0598939505762173</v>
+        <v>0.00958213989251452</v>
       </c>
       <c r="E6" t="n">
-        <v>1.21757509060473</v>
+        <v>0.455538766986625</v>
       </c>
       <c r="F6" t="n">
-        <v>22670.7385714286</v>
+        <v>722.815714285718</v>
       </c>
       <c r="G6" t="n">
-        <v>9576420.99642858</v>
+        <v>618555.867857144</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.14097241428295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.1562152863735</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0160991553702436</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.554925263836542</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19692.375</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12231930.525</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.00673189825654</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35.2877784497159</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0598939505762173</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.578650992377742</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22670.7385714286</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9576420.99642858</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.54762431811064</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>139.040343548826</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.114325713526605</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.603687349344395</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6113.33357142857</v>
+      </c>
+      <c r="G9" t="n">
+        <v>962513.164285714</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.14314083218554</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45197</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
         <v>18.5478970626159</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D10" t="n">
         <v>0.0380123901994629</v>
       </c>
-      <c r="E7" t="n">
-        <v>1.19617447962169</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E10" t="n">
+        <v>0.46420761962736</v>
+      </c>
+      <c r="F10" t="n">
         <v>10782.8935714286</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G10" t="n">
         <v>5673357.30000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.26829467697673</v>
       </c>
     </row>
   </sheetData>
@@ -1976,13 +2562,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>1474.27392009435</v>
@@ -1991,13 +2580,16 @@
         <v>0.609595398242257</v>
       </c>
       <c r="E2" t="n">
-        <v>0.588459099645472</v>
+        <v>0.642692214475338</v>
       </c>
       <c r="F2" t="n">
         <v>1356.6</v>
       </c>
       <c r="G2" t="n">
         <v>111270.525</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.16857818293498</v>
       </c>
     </row>
     <row r="3">
@@ -2005,7 +2597,7 @@
         <v>44452</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
         <v>163.514515592335</v>
@@ -2014,13 +2606,16 @@
         <v>0.19909322659857</v>
       </c>
       <c r="E3" t="n">
-        <v>1.05548560188029</v>
+        <v>0.456852129234562</v>
       </c>
       <c r="F3" t="n">
         <v>6115.665</v>
       </c>
       <c r="G3" t="n">
         <v>1170340.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.21355631211454</v>
       </c>
     </row>
     <row r="4">
@@ -2028,7 +2623,7 @@
         <v>44589</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>65.6511558308027</v>
@@ -2037,13 +2632,16 @@
         <v>0.09276270132275</v>
       </c>
       <c r="E4" t="n">
-        <v>1.01102869478466</v>
+        <v>0.387986636389939</v>
       </c>
       <c r="F4" t="n">
         <v>7616.01214285714</v>
       </c>
       <c r="G4" t="n">
         <v>2101813.63928571</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.81724237652635</v>
       </c>
     </row>
     <row r="5">
@@ -2051,7 +2649,7 @@
         <v>44665</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>33.6536236839781</v>
@@ -2060,13 +2658,16 @@
         <v>0.132219643097552</v>
       </c>
       <c r="E5" t="n">
-        <v>0.907178487084247</v>
+        <v>0.317426441464453</v>
       </c>
       <c r="F5" t="n">
         <v>17828.6892857143</v>
       </c>
       <c r="G5" t="n">
         <v>3640719.33214286</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.5270318341239</v>
       </c>
     </row>
     <row r="6">
@@ -2074,7 +2675,7 @@
         <v>44817</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>1147.67621184873</v>
@@ -2083,13 +2684,16 @@
         <v>0.370207050897618</v>
       </c>
       <c r="E6" t="n">
-        <v>1.43410908639999</v>
+        <v>0.810269715804584</v>
       </c>
       <c r="F6" t="n">
         <v>1394.12142857143</v>
       </c>
       <c r="G6" t="n">
         <v>158539.692857143</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.05981938001173</v>
       </c>
     </row>
     <row r="7">
@@ -2097,7 +2701,7 @@
         <v>44880</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>20.7914719322554</v>
@@ -2106,13 +2710,16 @@
         <v>0.108285591446864</v>
       </c>
       <c r="E7" t="n">
-        <v>0.684173748145478</v>
+        <v>0.252628149252128</v>
       </c>
       <c r="F7" t="n">
         <v>9619.32857142857</v>
       </c>
       <c r="G7" t="n">
         <v>1687826.05714286</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.31788523629769</v>
       </c>
     </row>
     <row r="8">
@@ -2120,7 +2727,7 @@
         <v>44953</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
         <v>5.13894891976541</v>
@@ -2129,13 +2736,16 @@
         <v>0.0176083819768147</v>
       </c>
       <c r="E8" t="n">
-        <v>1.13760053883744</v>
+        <v>0.371862313459475</v>
       </c>
       <c r="F8" t="n">
         <v>19459.2321428571</v>
       </c>
       <c r="G8" t="n">
         <v>27627797.0464286</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.710874300897029</v>
       </c>
     </row>
     <row r="9">
@@ -2143,7 +2753,7 @@
         <v>44998</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>33.1790704053949</v>
@@ -2152,13 +2762,16 @@
         <v>0.0942639400766061</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2351274384367</v>
+        <v>0.463727151545212</v>
       </c>
       <c r="F9" t="n">
         <v>18083.6892857143</v>
       </c>
       <c r="G9" t="n">
         <v>4604184.19285714</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.52086421401315</v>
       </c>
     </row>
     <row r="10">
@@ -2166,7 +2779,7 @@
         <v>45140</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>657.928746316773</v>
@@ -2175,13 +2788,16 @@
         <v>-0.624858780565361</v>
       </c>
       <c r="E10" t="n">
-        <v>1.70007552742378</v>
+        <v>0.912353238191325</v>
       </c>
       <c r="F10" t="n">
         <v>1823.90571428572</v>
       </c>
       <c r="G10" t="n">
         <v>-61297.0821428564</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.81817886206828</v>
       </c>
     </row>
     <row r="11">
@@ -2189,7 +2805,7 @@
         <v>45197</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
         <v>133.328381136318</v>
@@ -2198,13 +2814,16 @@
         <v>0.0966021881464723</v>
       </c>
       <c r="E11" t="n">
-        <v>1.38542489812252</v>
+        <v>0.613572526993539</v>
       </c>
       <c r="F11" t="n">
         <v>750.027857142865</v>
       </c>
       <c r="G11" t="n">
         <v>273295.885714292</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.12492260596996</v>
       </c>
     </row>
     <row r="12">
@@ -2212,7 +2831,7 @@
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
         <v>17.3551452799212</v>
@@ -2221,13 +2840,16 @@
         <v>0.0456410932698102</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2714292155857</v>
+        <v>0.465127438436695</v>
       </c>
       <c r="F12" t="n">
         <v>2880.99</v>
       </c>
       <c r="G12" t="n">
         <v>1527569.85</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.23942825350176</v>
       </c>
     </row>
     <row r="13">
@@ -2235,7 +2857,7 @@
         <v>45296</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
         <v>236.595392304735</v>
@@ -2244,7 +2866,7 @@
         <v>0.229962718506469</v>
       </c>
       <c r="E13" t="n">
-        <v>1.46778642648194</v>
+        <v>0.550454897727977</v>
       </c>
       <c r="F13" t="n">
         <v>2535.975</v>
@@ -2252,6 +2874,27 @@
       <c r="G13" t="n">
         <v>628582.649999999</v>
       </c>
+      <c r="H13" t="n">
+        <v>2.37400628248923</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" t="n">
+        <v>47179.08</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17329386.9</v>
+      </c>
+      <c r="H14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2289,13 +2932,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>79.9725579879591</v>
@@ -2304,7 +2950,7 @@
         <v>0.0836415522456026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.391831821845463</v>
+        <v>0.175235931608227</v>
       </c>
       <c r="F2" t="n">
         <v>2500.85785714285</v>
@@ -2312,97 +2958,188 @@
       <c r="G2" t="n">
         <v>774402.396428567</v>
       </c>
+      <c r="H2" t="n">
+        <v>1.90294098750518</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44371</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>14.3008118570891</v>
+        <v>97.517092917943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.10472695502504</v>
+        <v>0.0844166976160872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999480006838803</v>
+        <v>0.428172659072591</v>
       </c>
       <c r="F3" t="n">
-        <v>13985.22</v>
+        <v>12305.535</v>
       </c>
       <c r="G3" t="n">
-        <v>1949681.55</v>
+        <v>5685082.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.9890807460505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44589</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>6.79493167987407</v>
+        <v>14.3008118570891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0279077813421051</v>
+        <v>0.10472695502504</v>
       </c>
       <c r="E4" t="n">
-        <v>1.01485820994369</v>
+        <v>0.227107949809334</v>
       </c>
       <c r="F4" t="n">
-        <v>14716.8514285714</v>
+        <v>13985.22</v>
       </c>
       <c r="G4" t="n">
-        <v>4798781.61428571</v>
+        <v>1949681.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.15536069306266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44818</v>
+        <v>44517</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>52.7801968701343</v>
+        <v>19.273719443755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0490018181170012</v>
+        <v>0.0768117708525735</v>
       </c>
       <c r="E5" t="n">
-        <v>1.15128049983373</v>
+        <v>0.258943438038391</v>
       </c>
       <c r="F5" t="n">
-        <v>7578.6</v>
+        <v>10376.8242857143</v>
       </c>
       <c r="G5" t="n">
-        <v>3433442.4</v>
+        <v>2877506.33571429</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.28496553292348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.79493167987407</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0279077813421051</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.21984313155044</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14716.8514285714</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4798781.61428571</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.832185094445576</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.52548180523963</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0835954778785003</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>18097.9692857143</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2641234.08214286</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.74237015316871</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>52.7801968701343</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0490018181170012</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.346273489592434</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7578.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3433442.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.72247100580547</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45279</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
         <v>409.296138546743</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D9" t="n">
         <v>0.0895346799829791</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.36819286547664</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E9" t="n">
+        <v>0.686132065900496</v>
+      </c>
+      <c r="F9" t="n">
         <v>1954.575</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G9" t="n">
         <v>458437.725</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.61203764736759</v>
       </c>
     </row>
   </sheetData>
@@ -2441,13 +3178,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>110.528991754537</v>
@@ -2456,7 +3196,7 @@
         <v>0.0578152666505854</v>
       </c>
       <c r="E2" t="n">
-        <v>0.871378375484023</v>
+        <v>0.334368448888413</v>
       </c>
       <c r="F2" t="n">
         <v>2261.85</v>
@@ -2464,166 +3204,216 @@
       <c r="G2" t="n">
         <v>1490548.95</v>
       </c>
+      <c r="H2" t="n">
+        <v>2.04347620840636</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44371</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0713037906123</v>
+        <v>145.543610583516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.111120888231963</v>
+        <v>0.0876716470388422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.875693725023813</v>
+        <v>0.432978589290512</v>
       </c>
       <c r="F3" t="n">
-        <v>7865.22</v>
+        <v>4122.47571428571</v>
       </c>
       <c r="G3" t="n">
-        <v>1033398.975</v>
+        <v>1650464.00357143</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.16299314451045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44517</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9350140609002</v>
+        <v>19.0713037906123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0463166323010258</v>
+        <v>0.111120888231963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.861109604946484</v>
+        <v>0.237758928017856</v>
       </c>
       <c r="F4" t="n">
-        <v>11809.8514285714</v>
+        <v>7865.22</v>
       </c>
       <c r="G4" t="n">
-        <v>10479710.4107143</v>
+        <v>1033398.975</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.28038038416888</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44517</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>4.49444319884161</v>
+        <v>16.9350140609002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0437964783271548</v>
+        <v>0.0463166323010258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.829087949994082</v>
+        <v>0.218569566722467</v>
       </c>
       <c r="F5" t="n">
-        <v>11124.8485714286</v>
+        <v>11809.8514285714</v>
       </c>
       <c r="G5" t="n">
-        <v>2159105.4</v>
+        <v>10479710.4107143</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.2287855615693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44666</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>2.89214023293876</v>
+        <v>4.49444319884161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0252018268584692</v>
+        <v>0.0437964783271548</v>
       </c>
       <c r="E6" t="n">
-        <v>0.631433198623971</v>
+        <v>0.184070989202584</v>
       </c>
       <c r="F6" t="n">
-        <v>17288.235</v>
+        <v>11124.8485714286</v>
       </c>
       <c r="G6" t="n">
-        <v>11318857.125</v>
+        <v>2159105.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.652675896147369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44818</v>
+        <v>44666</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>105.628429740967</v>
+        <v>2.89214023293876</v>
       </c>
       <c r="D7" t="n">
-        <v>0.142353917790553</v>
+        <v>0.0252018268584692</v>
       </c>
       <c r="E7" t="n">
-        <v>1.04927645855292</v>
+        <v>0.14985963462285</v>
       </c>
       <c r="F7" t="n">
-        <v>7573.71857142857</v>
+        <v>17288.235</v>
       </c>
       <c r="G7" t="n">
-        <v>2255825.98928571</v>
+        <v>11318857.125</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.461219347030154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44966</v>
+        <v>44818</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>8.00184819830957</v>
+        <v>105.628429740967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0131382698505472</v>
+        <v>0.142353917790553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.778096370738196</v>
+        <v>0.398722933657988</v>
       </c>
       <c r="F8" t="n">
-        <v>6248.55642857143</v>
+        <v>7573.71857142857</v>
       </c>
       <c r="G8" t="n">
-        <v>6658394.97857143</v>
+        <v>2255825.98928571</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.02378082367035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.00184819830957</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0131382698505472</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.110956390662781</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6248.55642857143</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6658394.97857143</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.903190308194961</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>44998</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
         <v>126.543034122329</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.154867311917387</v>
       </c>
-      <c r="E9" t="n">
-        <v>1.09144358834172</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E10" t="n">
+        <v>0.327003484688787</v>
+      </c>
+      <c r="F10" t="n">
         <v>3951.225</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>714381.225</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.10223824332676</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">logQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logh</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -439,13 +442,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44299</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>14.8269870651483</v>
@@ -453,9 +459,7 @@
       <c r="D2" t="n">
         <v>0.13596180717365</v>
       </c>
-      <c r="E2" t="n">
-        <v>-0.236734445416943</v>
-      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
         <v>6744.45857142857</v>
       </c>
@@ -465,13 +469,14 @@
       <c r="H2" t="n">
         <v>1.17105290868724</v>
       </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>44386</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>406.917303504357</v>
@@ -490,6 +495,9 @@
       </c>
       <c r="H3" t="n">
         <v>2.60950615792082</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.242723860908932</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +505,7 @@
         <v>44459</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>519.836014016264</v>
@@ -506,7 +514,7 @@
         <v>0.292536199651649</v>
       </c>
       <c r="E4" t="n">
-        <v>0.533948504904586</v>
+        <v>0.491693805811854</v>
       </c>
       <c r="F4" t="n">
         <v>3847.36714285714</v>
@@ -516,6 +524,9 @@
       </c>
       <c r="H4" t="n">
         <v>2.71586636394285</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.308305262766735</v>
       </c>
     </row>
     <row r="5">
@@ -523,7 +534,7 @@
         <v>44589</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>11.5777581672607</v>
@@ -531,9 +542,7 @@
       <c r="D5" t="n">
         <v>0.0872003372604311</v>
       </c>
-      <c r="E5" t="n">
-        <v>-0.112291787026756</v>
-      </c>
+      <c r="E5"/>
       <c r="F5" t="n">
         <v>17274.5014285714</v>
       </c>
@@ -543,13 +552,14 @@
       <c r="H5" t="n">
         <v>1.06362447391267</v>
       </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44665</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>20.8538613531028</v>
@@ -567,13 +577,14 @@
       <c r="H6" t="n">
         <v>1.31918648180763</v>
       </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44733</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>2.87311845116259</v>
@@ -592,6 +603,9 @@
       </c>
       <c r="H7" t="n">
         <v>0.458353531187161</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.24486697042599</v>
       </c>
     </row>
     <row r="8">
@@ -599,7 +613,7 @@
         <v>44817</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>288.324133991433</v>
@@ -618,6 +632,9 @@
       </c>
       <c r="H8" t="n">
         <v>2.45988099625789</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.486217668253406</v>
       </c>
     </row>
     <row r="9">
@@ -625,7 +642,7 @@
         <v>44879</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>11.2151018074899</v>
@@ -644,6 +661,9 @@
       </c>
       <c r="H9" t="n">
         <v>1.0498032203381</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.03950702141972</v>
       </c>
     </row>
     <row r="10">
@@ -651,7 +671,7 @@
         <v>44959</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>2.98137175043788</v>
@@ -670,6 +690,9 @@
       </c>
       <c r="H10" t="n">
         <v>0.474416132053351</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1.16318113534122</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +700,7 @@
         <v>44999</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>30.839871018848</v>
@@ -696,6 +719,9 @@
       </c>
       <c r="H11" t="n">
         <v>1.48911255303911</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.842370386182687</v>
       </c>
     </row>
     <row r="12">
@@ -703,7 +729,7 @@
         <v>45078</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>5.46253380723155</v>
@@ -712,7 +738,7 @@
         <v>0.0391666376832519</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0728896162535407</v>
+        <v>0.0770005487413572</v>
       </c>
       <c r="F12" t="n">
         <v>9153.26142857143</v>
@@ -722,6 +748,9 @@
       </c>
       <c r="H12" t="n">
         <v>0.737394137804323</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.11350617983409</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +758,7 @@
         <v>45142</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>54.429152876328</v>
@@ -748,6 +777,9 @@
       </c>
       <c r="H13" t="n">
         <v>1.73583157510342</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.713870259641819</v>
       </c>
     </row>
     <row r="14">
@@ -755,7 +787,7 @@
         <v>45198</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>2.03832511291375</v>
@@ -774,6 +806,9 @@
       </c>
       <c r="H14" t="n">
         <v>0.309273455177549</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1.41218506982144</v>
       </c>
     </row>
     <row r="15">
@@ -781,7 +816,7 @@
         <v>45279</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>320.614113433273</v>
@@ -790,7 +825,7 @@
         <v>0.274291524526629</v>
       </c>
       <c r="E15" t="n">
-        <v>0.535585069806503</v>
+        <v>0.335585069806503</v>
       </c>
       <c r="F15" t="n">
         <v>1871.40857142857</v>
@@ -800,6 +835,9 @@
       </c>
       <c r="H15" t="n">
         <v>2.50598263608201</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.47419736919282</v>
       </c>
     </row>
   </sheetData>
@@ -841,13 +879,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44302</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
         <v>243.295049119533</v>
@@ -856,7 +897,7 @@
         <v>-0.415059873828465</v>
       </c>
       <c r="E2" t="n">
-        <v>0.144474375522178</v>
+        <v>0.190023104440148</v>
       </c>
       <c r="F2" t="n">
         <v>2055.11785714286</v>
@@ -866,6 +907,9 @@
       </c>
       <c r="H2" t="n">
         <v>2.38613327143824</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.721193591042821</v>
       </c>
     </row>
     <row r="3">
@@ -873,7 +917,7 @@
         <v>44386</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>1444.94054069675</v>
@@ -892,6 +936,9 @@
       </c>
       <c r="H3" t="n">
         <v>3.15984997624233</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.0783040874621337</v>
       </c>
     </row>
     <row r="4">
@@ -899,7 +946,7 @@
         <v>44589</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>60.5612033684141</v>
@@ -918,6 +965,9 @@
       </c>
       <c r="H4" t="n">
         <v>1.78219449613319</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5">
@@ -925,7 +975,7 @@
         <v>44665</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>156.869264340194</v>
@@ -943,13 +993,14 @@
       <c r="H5" t="n">
         <v>2.1955378598709</v>
       </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44733</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>3.42172328934366</v>
@@ -958,7 +1009,7 @@
         <v>0.0375554805809119</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.143216064247785</v>
+        <v>-0.14320460248576</v>
       </c>
       <c r="F6" t="n">
         <v>29225.04</v>
@@ -968,6 +1019,9 @@
       </c>
       <c r="H6" t="n">
         <v>0.534244885751498</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7">
@@ -975,7 +1029,7 @@
         <v>44817</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
         <v>173.070979705367</v>
@@ -984,7 +1038,7 @@
         <v>0.426859527793496</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0429753671628554</v>
+        <v>0.0430583138148867</v>
       </c>
       <c r="F7" t="n">
         <v>2600.08928571429</v>
@@ -994,6 +1048,9 @@
       </c>
       <c r="H7" t="n">
         <v>2.23822425210174</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.36594298136875</v>
       </c>
     </row>
     <row r="8">
@@ -1001,7 +1058,7 @@
         <v>44879</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>16.9540200057436</v>
@@ -1020,6 +1077,9 @@
       </c>
       <c r="H8" t="n">
         <v>1.22927269128908</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
@@ -1027,7 +1087,7 @@
         <v>44953</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>1.57548757401697</v>
@@ -1046,6 +1106,9 @@
       </c>
       <c r="H9" t="n">
         <v>0.197414982211926</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.48952377607612</v>
       </c>
     </row>
     <row r="10">
@@ -1053,7 +1116,7 @@
         <v>44999</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
         <v>17.4458643924238</v>
@@ -1072,6 +1135,9 @@
       </c>
       <c r="H10" t="n">
         <v>1.24169249236021</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.833579984962012</v>
       </c>
     </row>
     <row r="11">
@@ -1079,7 +1145,7 @@
         <v>45231</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
         <v>26.617325749677</v>
@@ -1098,6 +1164,9 @@
       </c>
       <c r="H11" t="n">
         <v>1.42516441963977</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.990087567198308</v>
       </c>
     </row>
     <row r="12">
@@ -1105,7 +1174,7 @@
         <v>45296</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
         <v>160.293015632576</v>
@@ -1114,7 +1183,7 @@
         <v>0.138009949764872</v>
       </c>
       <c r="E12" t="n">
-        <v>0.404619300450722</v>
+        <v>0.304619300450722</v>
       </c>
       <c r="F12" t="n">
         <v>2495.43</v>
@@ -1124,6 +1193,9 @@
       </c>
       <c r="H12" t="n">
         <v>2.20491459947009</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.51624258355513</v>
       </c>
     </row>
     <row r="13">
@@ -1131,11 +1203,13 @@
         <v>45331</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13"/>
+      <c r="E13" t="n">
+        <v>0.262243742214757</v>
+      </c>
       <c r="F13" t="n">
         <v>3919.605</v>
       </c>
@@ -1143,6 +1217,9 @@
         <v>539592.75</v>
       </c>
       <c r="H13"/>
+      <c r="I13" t="n">
+        <v>-0.581294866352805</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1183,13 +1260,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>45.7971257985546</v>
@@ -1207,13 +1287,14 @@
       <c r="H2" t="n">
         <v>1.6608382227856</v>
       </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>44452</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>7.31312382905134</v>
@@ -1232,6 +1313,9 @@
       </c>
       <c r="H3" t="n">
         <v>0.864102927153004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.319016184703056</v>
       </c>
     </row>
     <row r="4">
@@ -1239,7 +1323,7 @@
         <v>44517</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>22.5234747698149</v>
@@ -1258,6 +1342,9 @@
       </c>
       <c r="H4" t="n">
         <v>1.35263539137228</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.279313784221608</v>
       </c>
     </row>
     <row r="5">
@@ -1265,7 +1352,7 @@
         <v>44589</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>13.3793659977175</v>
@@ -1284,6 +1371,9 @@
       </c>
       <c r="H5" t="n">
         <v>1.1264355341929</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.268006646505954</v>
       </c>
     </row>
     <row r="6">
@@ -1291,7 +1381,7 @@
         <v>44666</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>8.55028667889765</v>
@@ -1309,13 +1399,14 @@
       <c r="H6" t="n">
         <v>0.931980676245845</v>
       </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44818</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
         <v>80.2971338081475</v>
@@ -1334,6 +1425,9 @@
       </c>
       <c r="H7" t="n">
         <v>1.90470004349137</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.134229843187771</v>
       </c>
     </row>
     <row r="8">
@@ -1341,7 +1435,7 @@
         <v>44998</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>73.3277604235412</v>
@@ -1360,6 +1454,9 @@
       </c>
       <c r="H8" t="n">
         <v>1.8652684209761</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.218959894185026</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1464,7 @@
         <v>45140</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>203.61423579318</v>
@@ -1386,6 +1483,9 @@
       </c>
       <c r="H9" t="n">
         <v>2.30880813864651</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.0645855904655424</v>
       </c>
     </row>
     <row r="10">
@@ -1393,7 +1493,7 @@
         <v>45279</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>587.941323455919</v>
@@ -1412,6 +1512,9 @@
       </c>
       <c r="H10" t="n">
         <v>2.7693339856495</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0367458209135808</v>
       </c>
     </row>
   </sheetData>
@@ -1453,13 +1556,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44285</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>218.653058116812</v>
@@ -1468,7 +1574,7 @@
         <v>0.0308372725815327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33357194499513</v>
+        <v>0.344292899072056</v>
       </c>
       <c r="F2" t="n">
         <v>5488.14642857143</v>
@@ -1478,6 +1584,9 @@
       </c>
       <c r="H2" t="n">
         <v>2.33975555583577</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.463071934383983</v>
       </c>
     </row>
     <row r="3">
@@ -1485,7 +1594,7 @@
         <v>44452</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>2.06639791095437</v>
@@ -1504,6 +1613,9 @@
       </c>
       <c r="H3" t="n">
         <v>0.315213954111133</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.985284100040337</v>
       </c>
     </row>
     <row r="4">
@@ -1511,7 +1623,7 @@
         <v>44510</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>56.4532973967771</v>
@@ -1530,6 +1642,9 @@
       </c>
       <c r="H4" t="n">
         <v>1.75168931383232</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.681131788367453</v>
       </c>
     </row>
     <row r="5">
@@ -1537,7 +1652,7 @@
         <v>44589</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>4.20435343981279</v>
@@ -1556,6 +1671,9 @@
       </c>
       <c r="H5" t="n">
         <v>0.623699217943341</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.93953700797733</v>
       </c>
     </row>
     <row r="6">
@@ -1563,7 +1681,7 @@
         <v>44659</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>45.7221685893927</v>
@@ -1581,13 +1699,14 @@
       <c r="H6" t="n">
         <v>1.66012682067494</v>
       </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44733</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>5.84854833181856</v>
@@ -1596,7 +1715,7 @@
         <v>0.0217811972641943</v>
       </c>
       <c r="E7" t="n">
-        <v>0.118620701559585</v>
+        <v>0.118623158203254</v>
       </c>
       <c r="F7" t="n">
         <v>8549.13</v>
@@ -1606,6 +1725,9 @@
       </c>
       <c r="H7" t="n">
         <v>0.767048083224665</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.925830517564636</v>
       </c>
     </row>
     <row r="8">
@@ -1613,7 +1735,7 @@
         <v>44806</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>94.0961393698247</v>
@@ -1632,6 +1754,9 @@
       </c>
       <c r="H8" t="n">
         <v>1.97357180531061</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.485515638340187</v>
       </c>
     </row>
     <row r="9">
@@ -1639,7 +1764,7 @@
         <v>44998</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>4.110400422878</v>
@@ -1658,6 +1783,9 @@
       </c>
       <c r="H9" t="n">
         <v>0.61388413160249</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.829952071017485</v>
       </c>
     </row>
     <row r="10">
@@ -1665,7 +1793,7 @@
         <v>45279</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>850.231688135016</v>
@@ -1684,6 +1812,9 @@
       </c>
       <c r="H10" t="n">
         <v>2.92953728708808</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.277152215543772</v>
       </c>
     </row>
   </sheetData>
@@ -1725,13 +1856,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44299</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>201.556447682785</v>
@@ -1740,7 +1874,7 @@
         <v>0.0966260418499097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.535718906702965</v>
+        <v>0.550747337517402</v>
       </c>
       <c r="F2" t="n">
         <v>1984.55571428571</v>
@@ -1750,6 +1884,9 @@
       </c>
       <c r="H2" t="n">
         <v>2.30439669555911</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.259047593685675</v>
       </c>
     </row>
     <row r="3">
@@ -1757,7 +1894,7 @@
         <v>44371</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>416.243786340365</v>
@@ -1776,6 +1913,9 @@
       </c>
       <c r="H3" t="n">
         <v>2.61934776344354</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.0464363400784758</v>
       </c>
     </row>
     <row r="4">
@@ -1783,7 +1923,7 @@
         <v>44452</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>41.9734413050142</v>
@@ -1802,6 +1942,9 @@
       </c>
       <c r="H4" t="n">
         <v>1.62297457746762</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.295506117372047</v>
       </c>
     </row>
     <row r="5">
@@ -1809,7 +1952,7 @@
         <v>44517</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>61.6453450829362</v>
@@ -1828,6 +1971,9 @@
       </c>
       <c r="H5" t="n">
         <v>1.78990028805065</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.26579438213295</v>
       </c>
     </row>
     <row r="6">
@@ -1835,7 +1981,7 @@
         <v>44589</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>18.3696008298861</v>
@@ -1854,6 +2000,9 @@
       </c>
       <c r="H6" t="n">
         <v>1.26409971922027</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.32551302691281</v>
       </c>
     </row>
     <row r="7">
@@ -1861,7 +2010,7 @@
         <v>44666</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>43.1380098171326</v>
@@ -1879,13 +2028,14 @@
       <c r="H7" t="n">
         <v>1.63486010494421</v>
       </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44818</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>268.141444612033</v>
@@ -1894,7 +2044,7 @@
         <v>0.117343468865951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.83771589530192</v>
+        <v>0.837560505687049</v>
       </c>
       <c r="F8" t="n">
         <v>2237.625</v>
@@ -1904,6 +2054,9 @@
       </c>
       <c r="H8" t="n">
         <v>2.42836394481183</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.0769838095605552</v>
       </c>
     </row>
   </sheetData>
@@ -1945,13 +2098,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44386</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>1661.73191635079</v>
@@ -1970,6 +2126,9 @@
       </c>
       <c r="H2" t="n">
         <v>3.22056096130097</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.0737034358810179</v>
       </c>
     </row>
     <row r="3">
@@ -1977,7 +2136,7 @@
         <v>44452</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>25.6084522525835</v>
@@ -1996,6 +2155,9 @@
       </c>
       <c r="H3" t="n">
         <v>1.40838333096844</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.51880351481632</v>
       </c>
     </row>
     <row r="4">
@@ -2003,7 +2165,7 @@
         <v>44510</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>326.494767171751</v>
@@ -2012,7 +2174,7 @@
         <v>0.181034619271933</v>
       </c>
       <c r="E4" t="n">
-        <v>0.299044872433179</v>
+        <v>0.29923926144503</v>
       </c>
       <c r="F4" t="n">
         <v>4287.97071428572</v>
@@ -2022,6 +2184,9 @@
       </c>
       <c r="H4" t="n">
         <v>2.51387622510069</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.523981425813272</v>
       </c>
     </row>
     <row r="5">
@@ -2029,7 +2194,7 @@
         <v>44589</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>55.2594896825599</v>
@@ -2048,6 +2213,9 @@
       </c>
       <c r="H5" t="n">
         <v>1.74240686992049</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1.15401125318833</v>
       </c>
     </row>
     <row r="6">
@@ -2055,7 +2223,7 @@
         <v>44659</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>-59.2075325514556</v>
@@ -2073,13 +2241,14 @@
       <c r="H6" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44733</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>19.3061500671871</v>
@@ -2098,6 +2267,9 @@
       </c>
       <c r="H7" t="n">
         <v>1.28569567764907</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2.3981821579886</v>
       </c>
     </row>
     <row r="8">
@@ -2105,7 +2277,7 @@
         <v>44806</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>83.4160791046595</v>
@@ -2114,7 +2286,7 @@
         <v>0.104270024651914</v>
       </c>
       <c r="E8" t="n">
-        <v>0.290215285645218</v>
+        <v>0.290562952226383</v>
       </c>
       <c r="F8" t="n">
         <v>11988.0964285714</v>
@@ -2124,6 +2296,9 @@
       </c>
       <c r="H8" t="n">
         <v>1.92124977238071</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.536759760545043</v>
       </c>
     </row>
     <row r="9">
@@ -2131,7 +2306,7 @@
         <v>44879</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>62.1041048151678</v>
@@ -2139,7 +2314,9 @@
       <c r="D9" t="n">
         <v>0.0624314324451668</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="n">
+        <v>0.100958463791928</v>
+      </c>
       <c r="F9" t="n">
         <v>7245.89785714286</v>
       </c>
@@ -2148,6 +2325,9 @@
       </c>
       <c r="H9" t="n">
         <v>1.79312030612925</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.995857266378117</v>
       </c>
     </row>
     <row r="10">
@@ -2155,7 +2335,7 @@
         <v>44959</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
         <v>30.1205661719794</v>
@@ -2174,6 +2354,9 @@
       </c>
       <c r="H10" t="n">
         <v>1.47886313097672</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.995399224349649</v>
       </c>
     </row>
     <row r="11">
@@ -2181,7 +2364,7 @@
         <v>44999</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>203.383280877396</v>
@@ -2200,6 +2383,9 @@
       </c>
       <c r="H11" t="n">
         <v>2.30831524887617</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.533311247467084</v>
       </c>
     </row>
     <row r="12">
@@ -2207,7 +2393,7 @@
         <v>45047</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
         <v>7.12054440834328</v>
@@ -2216,7 +2402,7 @@
         <v>0.0106085660132641</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0222071233915194</v>
+        <v>0.0435957774013449</v>
       </c>
       <c r="F12" t="n">
         <v>7021.935</v>
@@ -2226,6 +2412,9 @@
       </c>
       <c r="H12" t="n">
         <v>0.852513199325168</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.36055557357783</v>
       </c>
     </row>
     <row r="13">
@@ -2233,7 +2422,7 @@
         <v>45279</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
         <v>1159.08432338453</v>
@@ -2252,6 +2441,9 @@
       </c>
       <c r="H13" t="n">
         <v>3.06411503203648</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.157024390982315</v>
       </c>
     </row>
   </sheetData>
@@ -2293,13 +2485,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44299</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>23.3064027849153</v>
@@ -2307,9 +2502,7 @@
       <c r="D2" t="n">
         <v>0.0288993102026876</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.346751698763138</v>
-      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
         <v>4290.66642857143</v>
       </c>
@@ -2319,13 +2512,14 @@
       <c r="H2" t="n">
         <v>1.36747524772831</v>
       </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>44386</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
         <v>270.901397309407</v>
@@ -2333,9 +2527,7 @@
       <c r="D3" t="n">
         <v>0.233297132170326</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.32073631840445</v>
-      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>3691.38</v>
       </c>
@@ -2345,13 +2537,14 @@
       <c r="H3" t="n">
         <v>2.43281124512988</v>
       </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>44452</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>2.04807802379181</v>
@@ -2360,7 +2553,7 @@
         <v>0.0334046106509795</v>
       </c>
       <c r="E4" t="n">
-        <v>0.478400138466944</v>
+        <v>0.47844128219725</v>
       </c>
       <c r="F4" t="n">
         <v>24413.1324193548</v>
@@ -2370,6 +2563,9 @@
       </c>
       <c r="H4" t="n">
         <v>0.311346497546363</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.320171354402254</v>
       </c>
     </row>
     <row r="5">
@@ -2377,7 +2573,7 @@
         <v>44510</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>21.1919407049499</v>
@@ -2395,13 +2591,14 @@
       <c r="H5" t="n">
         <v>1.32617073013491</v>
       </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44589</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>138.347849975591</v>
@@ -2420,6 +2617,9 @@
       </c>
       <c r="H6" t="n">
         <v>2.14097241428295</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.341474658050028</v>
       </c>
     </row>
     <row r="7">
@@ -2427,7 +2627,7 @@
         <v>44659</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>10.1562152863735</v>
@@ -2436,7 +2636,7 @@
         <v>0.0160991553702436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.554925263836542</v>
+        <v>0.554639976552681</v>
       </c>
       <c r="F7" t="n">
         <v>19692.375</v>
@@ -2446,6 +2646,9 @@
       </c>
       <c r="H7" t="n">
         <v>1.00673189825654</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.255988831169016</v>
       </c>
     </row>
     <row r="8">
@@ -2453,7 +2656,7 @@
         <v>44806</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
         <v>35.2877784497159</v>
@@ -2472,6 +2675,9 @@
       </c>
       <c r="H8" t="n">
         <v>1.54762431811064</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.23758329773181</v>
       </c>
     </row>
     <row r="9">
@@ -2479,7 +2685,7 @@
         <v>45140</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>139.040343548826</v>
@@ -2498,6 +2704,9 @@
       </c>
       <c r="H9" t="n">
         <v>2.14314083218554</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.219187924970591</v>
       </c>
     </row>
     <row r="10">
@@ -2505,7 +2714,7 @@
         <v>45197</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>18.5478970626159</v>
@@ -2524,6 +2733,9 @@
       </c>
       <c r="H10" t="n">
         <v>1.26829467697673</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.333287735196435</v>
       </c>
     </row>
   </sheetData>
@@ -2565,13 +2777,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>1474.27392009435</v>
@@ -2590,6 +2805,9 @@
       </c>
       <c r="H2" t="n">
         <v>3.16857818293498</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.191996961068096</v>
       </c>
     </row>
     <row r="3">
@@ -2597,7 +2815,7 @@
         <v>44452</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>163.514515592335</v>
@@ -2616,6 +2834,9 @@
       </c>
       <c r="H3" t="n">
         <v>2.21355631211454</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.340224346646562</v>
       </c>
     </row>
     <row r="4">
@@ -2623,7 +2844,7 @@
         <v>44589</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>65.6511558308027</v>
@@ -2642,6 +2863,9 @@
       </c>
       <c r="H4" t="n">
         <v>1.81724237652635</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.41118323276161</v>
       </c>
     </row>
     <row r="5">
@@ -2649,7 +2873,7 @@
         <v>44665</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>33.6536236839781</v>
@@ -2658,7 +2882,7 @@
         <v>0.132219643097552</v>
       </c>
       <c r="E5" t="n">
-        <v>0.317426441464453</v>
+        <v>0.317914439292082</v>
       </c>
       <c r="F5" t="n">
         <v>17828.6892857143</v>
@@ -2668,6 +2892,9 @@
       </c>
       <c r="H5" t="n">
         <v>1.5270318341239</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.497689746503399</v>
       </c>
     </row>
     <row r="6">
@@ -2675,7 +2902,7 @@
         <v>44817</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>1147.67621184873</v>
@@ -2684,7 +2911,7 @@
         <v>0.370207050897618</v>
       </c>
       <c r="E6" t="n">
-        <v>0.810269715804584</v>
+        <v>0.810018775061474</v>
       </c>
       <c r="F6" t="n">
         <v>1394.12142857143</v>
@@ -2694,6 +2921,9 @@
       </c>
       <c r="H6" t="n">
         <v>3.05981938001173</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.0915049146878972</v>
       </c>
     </row>
     <row r="7">
@@ -2701,7 +2931,7 @@
         <v>44880</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>20.7914719322554</v>
@@ -2709,9 +2939,7 @@
       <c r="D7" t="n">
         <v>0.108285591446864</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.252628149252128</v>
-      </c>
+      <c r="E7"/>
       <c r="F7" t="n">
         <v>9619.32857142857</v>
       </c>
@@ -2721,13 +2949,14 @@
       <c r="H7" t="n">
         <v>1.31788523629769</v>
       </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44953</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
         <v>5.13894891976541</v>
@@ -2736,7 +2965,7 @@
         <v>0.0176083819768147</v>
       </c>
       <c r="E8" t="n">
-        <v>0.371862313459475</v>
+        <v>-0.0508658047240336</v>
       </c>
       <c r="F8" t="n">
         <v>19459.2321428571</v>
@@ -2746,6 +2975,9 @@
       </c>
       <c r="H8" t="n">
         <v>0.710874300897029</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
@@ -2753,7 +2985,7 @@
         <v>44998</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
         <v>33.1790704053949</v>
@@ -2762,7 +2994,7 @@
         <v>0.0942639400766061</v>
       </c>
       <c r="E9" t="n">
-        <v>0.463727151545212</v>
+        <v>0.0409990333617032</v>
       </c>
       <c r="F9" t="n">
         <v>18083.6892857143</v>
@@ -2772,6 +3004,9 @@
       </c>
       <c r="H9" t="n">
         <v>1.52086421401315</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.38722638256385</v>
       </c>
     </row>
     <row r="10">
@@ -2779,7 +3014,7 @@
         <v>45140</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>657.928746316773</v>
@@ -2788,7 +3023,7 @@
         <v>-0.624858780565361</v>
       </c>
       <c r="E10" t="n">
-        <v>0.912353238191325</v>
+        <v>0.489625120007815</v>
       </c>
       <c r="F10" t="n">
         <v>1823.90571428572</v>
@@ -2798,6 +3033,9 @@
       </c>
       <c r="H10" t="n">
         <v>2.81817886206828</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.310136308997868</v>
       </c>
     </row>
     <row r="11">
@@ -2805,7 +3043,7 @@
         <v>45197</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>133.328381136318</v>
@@ -2814,7 +3052,7 @@
         <v>0.0966021881464723</v>
       </c>
       <c r="E11" t="n">
-        <v>0.613572526993539</v>
+        <v>0.19084440881003</v>
       </c>
       <c r="F11" t="n">
         <v>750.027857142865</v>
@@ -2824,6 +3062,9 @@
       </c>
       <c r="H11" t="n">
         <v>2.12492260596996</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.719320559102468</v>
       </c>
     </row>
     <row r="12">
@@ -2831,7 +3072,7 @@
         <v>45231</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
         <v>17.3551452799212</v>
@@ -2840,7 +3081,7 @@
         <v>0.0456410932698102</v>
       </c>
       <c r="E12" t="n">
-        <v>0.465127438436695</v>
+        <v>0.0833480434549802</v>
       </c>
       <c r="F12" t="n">
         <v>2880.99</v>
@@ -2850,6 +3091,9 @@
       </c>
       <c r="H12" t="n">
         <v>1.23942825350176</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.07910459051719</v>
       </c>
     </row>
     <row r="13">
@@ -2857,7 +3101,7 @@
         <v>45296</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>236.595392304735</v>
@@ -2866,7 +3110,7 @@
         <v>0.229962718506469</v>
       </c>
       <c r="E13" t="n">
-        <v>0.550454897727977</v>
+        <v>0.287726779544469</v>
       </c>
       <c r="F13" t="n">
         <v>2535.975</v>
@@ -2876,6 +3120,9 @@
       </c>
       <c r="H13" t="n">
         <v>2.37400628248923</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.541019715213791</v>
       </c>
     </row>
     <row r="14">
@@ -2883,11 +3130,13 @@
         <v>45331</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14"/>
+      <c r="E14" t="n">
+        <v>0.162702002979764</v>
+      </c>
       <c r="F14" t="n">
         <v>47179.08</v>
       </c>
@@ -2895,6 +3144,9 @@
         <v>17329386.9</v>
       </c>
       <c r="H14"/>
+      <c r="I14" t="n">
+        <v>-0.7886071005499</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2935,13 +3187,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>79.9725579879591</v>
@@ -2960,6 +3215,9 @@
       </c>
       <c r="H2" t="n">
         <v>1.90294098750518</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.756376838240995</v>
       </c>
     </row>
     <row r="3">
@@ -2967,7 +3225,7 @@
         <v>44371</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>97.517092917943</v>
@@ -2986,6 +3244,9 @@
       </c>
       <c r="H3" t="n">
         <v>1.9890807460505</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.368381067992078</v>
       </c>
     </row>
     <row r="4">
@@ -2993,7 +3254,7 @@
         <v>44452</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>14.3008118570891</v>
@@ -3012,6 +3273,9 @@
       </c>
       <c r="H4" t="n">
         <v>1.15536069306266</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.643767663235581</v>
       </c>
     </row>
     <row r="5">
@@ -3019,7 +3283,7 @@
         <v>44517</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>19.273719443755</v>
@@ -3038,6 +3302,9 @@
       </c>
       <c r="H5" t="n">
         <v>1.28496553292348</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.586795090090482</v>
       </c>
     </row>
     <row r="6">
@@ -3045,7 +3312,7 @@
         <v>44589</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>6.79493167987407</v>
@@ -3054,7 +3321,7 @@
         <v>0.0279077813421051</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21984313155044</v>
+        <v>0.18522684647642</v>
       </c>
       <c r="F6" t="n">
         <v>14716.8514285714</v>
@@ -3064,6 +3331,9 @@
       </c>
       <c r="H6" t="n">
         <v>0.832185094445576</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.732296067159545</v>
       </c>
     </row>
     <row r="7">
@@ -3071,7 +3341,7 @@
         <v>44665</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>5.52548180523963</v>
@@ -3089,13 +3359,14 @@
       <c r="H7" t="n">
         <v>0.74237015316871</v>
       </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44818</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>52.7801968701343</v>
@@ -3114,6 +3385,9 @@
       </c>
       <c r="H8" t="n">
         <v>1.72247100580547</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.460580756398657</v>
       </c>
     </row>
     <row r="9">
@@ -3121,7 +3395,7 @@
         <v>45279</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>409.296138546743</v>
@@ -3130,7 +3404,7 @@
         <v>0.0895346799829791</v>
       </c>
       <c r="E9" t="n">
-        <v>0.686132065900496</v>
+        <v>0.386132065900496</v>
       </c>
       <c r="F9" t="n">
         <v>1954.575</v>
@@ -3140,6 +3414,9 @@
       </c>
       <c r="H9" t="n">
         <v>2.61203764736759</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.413264131384523</v>
       </c>
     </row>
   </sheetData>
@@ -3181,13 +3458,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>110.528991754537</v>
@@ -3206,6 +3486,9 @@
       </c>
       <c r="H2" t="n">
         <v>2.04347620840636</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.475774709463059</v>
       </c>
     </row>
     <row r="3">
@@ -3213,7 +3496,7 @@
         <v>44371</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>145.543610583516</v>
@@ -3232,6 +3515,9 @@
       </c>
       <c r="H3" t="n">
         <v>2.16299314451045</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.363533578895795</v>
       </c>
     </row>
     <row r="4">
@@ -3239,7 +3525,7 @@
         <v>44452</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>19.0713037906123</v>
@@ -3258,6 +3544,9 @@
       </c>
       <c r="H4" t="n">
         <v>1.28038038416888</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.623863166015831</v>
       </c>
     </row>
     <row r="5">
@@ -3265,7 +3554,7 @@
         <v>44517</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>16.9350140609002</v>
@@ -3284,6 +3573,9 @@
       </c>
       <c r="H5" t="n">
         <v>1.2287855615693</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.660410308647128</v>
       </c>
     </row>
     <row r="6">
@@ -3291,7 +3583,7 @@
         <v>44589</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>4.49444319884161</v>
@@ -3310,6 +3602,9 @@
       </c>
       <c r="H6" t="n">
         <v>0.652675896147369</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.735014653766717</v>
       </c>
     </row>
     <row r="7">
@@ -3317,7 +3612,7 @@
         <v>44666</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>2.89214023293876</v>
@@ -3326,7 +3621,7 @@
         <v>0.0252018268584692</v>
       </c>
       <c r="E7" t="n">
-        <v>0.14985963462285</v>
+        <v>0.153543970343754</v>
       </c>
       <c r="F7" t="n">
         <v>17288.235</v>
@@ -3336,6 +3631,9 @@
       </c>
       <c r="H7" t="n">
         <v>0.461219347030154</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.813767233586602</v>
       </c>
     </row>
     <row r="8">
@@ -3343,7 +3641,7 @@
         <v>44818</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>105.628429740967</v>
@@ -3362,6 +3660,9 @@
       </c>
       <c r="H8" t="n">
         <v>2.02378082367035</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.399328783964715</v>
       </c>
     </row>
     <row r="9">
@@ -3369,7 +3670,7 @@
         <v>44966</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
         <v>8.00184819830957</v>
@@ -3388,6 +3689,9 @@
       </c>
       <c r="H9" t="n">
         <v>0.903190308194961</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.95484767901419</v>
       </c>
     </row>
     <row r="10">
@@ -3395,7 +3699,7 @@
         <v>44998</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
         <v>126.543034122329</v>
@@ -3414,6 +3718,9 @@
       </c>
       <c r="H10" t="n">
         <v>2.10223824332676</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.48544761928758</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -7,21 +7,20 @@
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="14" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="15" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="5a" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="6a" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="7" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5a" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="6a" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -51,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
@@ -846,387 +842,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>44302</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>243.295049119533</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.415059873828465</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.190023104440148</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2055.11785714286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-165871.125</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.38613327143824</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.721193591042821</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44386</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1444.94054069675</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.577927133588421</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.835018144430228</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1384.14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>76640.25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.15984997624233</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.0783040874621337</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>44589</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="n">
-        <v>60.5612033684141</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.166262713408938</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.0713653021975958</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4953.66642857143</v>
-      </c>
-      <c r="G4" t="n">
-        <v>953414.764285715</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.78219449613319</v>
-      </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>44665</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="n">
-        <v>156.869264340194</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0999742912566901</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
-        <v>3506.10428571429</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1052101.76785714</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.1955378598709</v>
-      </c>
-      <c r="I5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>44733</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.42172328934366</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0375554805809119</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.14320460248576</v>
-      </c>
-      <c r="F6" t="n">
-        <v>29225.04</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9727288.65000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.534244885751498</v>
-      </c>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>44817</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="n">
-        <v>173.070979705367</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.426859527793496</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0430583138148867</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2600.08928571429</v>
-      </c>
-      <c r="G7" t="n">
-        <v>200400.675000005</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.23822425210174</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-1.36594298136875</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16.9540200057436</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.131401183260687</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.0888937886209107</v>
-      </c>
-      <c r="F8" t="n">
-        <v>20644.0714285714</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3189276.075</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.22927269128908</v>
-      </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>44953</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.57548757401697</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0192449199286524</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0323948686912526</v>
-      </c>
-      <c r="F9" t="n">
-        <v>63472.4142857143</v>
-      </c>
-      <c r="G9" t="n">
-        <v>64313703.7285714</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.197414982211926</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-1.48952377607612</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17.4458643924238</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0323205086994282</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.146696588771965</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11464.035</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11705049.525</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.24169249236021</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.833579984962012</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="n">
-        <v>26.617325749677</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.20143331114612</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.102308668556731</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1878.47571428571</v>
-      </c>
-      <c r="G11" t="n">
-        <v>141748.307142857</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.42516441963977</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.990087567198308</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="n">
-        <v>160.293015632576</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.138009949764872</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.304619300450722</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2495.43</v>
-      </c>
-      <c r="G12" t="n">
-        <v>524364.15</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.20491459947009</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0.51624258355513</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" t="n">
-        <v>0.262243742214757</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3919.605</v>
-      </c>
-      <c r="G13" t="n">
-        <v>539592.75</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13" t="n">
-        <v>-0.581294866352805</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -1266,28 +881,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44292</v>
+        <v>44285</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>45.7971257985546</v>
+        <v>218.653058116812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0462709643091429</v>
-      </c>
-      <c r="E2"/>
+        <v>0.0308372725815327</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.344292899072056</v>
+      </c>
       <c r="F2" t="n">
-        <v>5458.85785714287</v>
+        <v>5488.14642857143</v>
       </c>
       <c r="G2" t="n">
-        <v>3562871.65714287</v>
+        <v>4876410.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.6608382227856</v>
-      </c>
-      <c r="I2"/>
+        <v>2.33975555583577</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.463071934383983</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1297,54 +916,54 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>7.31312382905134</v>
+        <v>2.06639791095437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0186472739593504</v>
+        <v>0.028469917352607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.479715570908414</v>
+        <v>0.103446523483956</v>
       </c>
       <c r="F3" t="n">
-        <v>13674.0471428571</v>
+        <v>24196.695</v>
       </c>
       <c r="G3" t="n">
-        <v>7186340.60357143</v>
+        <v>9603914.55</v>
       </c>
       <c r="H3" t="n">
-        <v>0.864102927153004</v>
+        <v>0.315213954111133</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.319016184703056</v>
+        <v>-0.985284100040337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44517</v>
+        <v>44510</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5234747698149</v>
+        <v>56.4532973967771</v>
       </c>
       <c r="D4" t="n">
-        <v>0.026820127000421</v>
+        <v>0.230530622192957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.52563734835803</v>
+        <v>0.20838584321108</v>
       </c>
       <c r="F4" t="n">
-        <v>11099.5307142857</v>
+        <v>7971.19071428572</v>
       </c>
       <c r="G4" t="n">
-        <v>11091201.1392857</v>
+        <v>926679.107142858</v>
       </c>
       <c r="H4" t="n">
-        <v>1.35263539137228</v>
+        <v>1.75168931383232</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.279313784221608</v>
+        <v>-0.681131788367453</v>
       </c>
     </row>
     <row r="5">
@@ -1355,137 +974,137 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>13.3793659977175</v>
+        <v>4.20435343981279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0205672011357402</v>
+        <v>0.0173910258844274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.539502365829227</v>
+        <v>0.114937829610508</v>
       </c>
       <c r="F5" t="n">
-        <v>3737.09785714286</v>
+        <v>11892.435</v>
       </c>
       <c r="G5" t="n">
-        <v>1835188.37142857</v>
+        <v>9368415.675</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1264355341929</v>
+        <v>0.623699217943341</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.268006646505954</v>
+        <v>-0.93953700797733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44666</v>
+        <v>44659</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>8.55028667889765</v>
+        <v>45.7221685893927</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0127442482204935</v>
+        <v>0.0816494874119976</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>17543.2714285714</v>
+        <v>6561.36857142857</v>
       </c>
       <c r="G6" t="n">
-        <v>11838449.1321429</v>
+        <v>1149150.76071429</v>
       </c>
       <c r="H6" t="n">
-        <v>0.931980676245845</v>
+        <v>1.66012682067494</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44818</v>
+        <v>44733</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>80.2971338081475</v>
+        <v>5.84854833181856</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0756138674831853</v>
+        <v>0.0217811972641943</v>
       </c>
       <c r="E7" t="n">
-        <v>0.734125241659574</v>
+        <v>0.118623158203254</v>
       </c>
       <c r="F7" t="n">
-        <v>4981.49785714286</v>
+        <v>8549.13</v>
       </c>
       <c r="G7" t="n">
-        <v>1686547.05</v>
+        <v>3925004.625</v>
       </c>
       <c r="H7" t="n">
-        <v>1.90470004349137</v>
+        <v>0.767048083224665</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.134229843187771</v>
+        <v>-0.925830517564636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44998</v>
+        <v>44806</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>73.3277604235412</v>
+        <v>94.0961393698247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0601797177022106</v>
+        <v>0.125964440018116</v>
       </c>
       <c r="E8" t="n">
-        <v>0.604004404826991</v>
+        <v>0.326952273525759</v>
       </c>
       <c r="F8" t="n">
-        <v>6818.7</v>
+        <v>6376.45714285715</v>
       </c>
       <c r="G8" t="n">
-        <v>2266112.325</v>
+        <v>1543943.21785715</v>
       </c>
       <c r="H8" t="n">
-        <v>1.8652684209761</v>
+        <v>1.97357180531061</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.218959894185026</v>
+        <v>-0.485515638340187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45140</v>
+        <v>44998</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>203.61423579318</v>
+        <v>4.110400422878</v>
       </c>
       <c r="D9" t="n">
-        <v>0.151213418262108</v>
+        <v>0.0135347353218176</v>
       </c>
       <c r="E9" t="n">
-        <v>0.861815715904159</v>
+        <v>0.14792716324069</v>
       </c>
       <c r="F9" t="n">
-        <v>6875.74714285714</v>
+        <v>121642.65</v>
       </c>
       <c r="G9" t="n">
-        <v>682057.242857143</v>
+        <v>139305352.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.30880813864651</v>
+        <v>0.61388413160249</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0645855904655424</v>
+        <v>-0.829952071017485</v>
       </c>
     </row>
     <row r="10">
@@ -1496,25 +1115,25 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>587.941323455919</v>
+        <v>850.231688135016</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116204075358259</v>
+        <v>-0.264707017120813</v>
       </c>
       <c r="E10" t="n">
-        <v>1.08829296279805</v>
+        <v>0.528260069853473</v>
       </c>
       <c r="F10" t="n">
-        <v>2041.02</v>
+        <v>1999.455</v>
       </c>
       <c r="G10" t="n">
-        <v>298589.7</v>
+        <v>-105748.499999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7693339856495</v>
+        <v>2.92953728708808</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0367458209135808</v>
+        <v>-0.277152215543772</v>
       </c>
     </row>
   </sheetData>
@@ -1562,259 +1181,201 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44285</v>
+        <v>44299</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>218.653058116812</v>
+        <v>201.556447682785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0308372725815327</v>
+        <v>0.0966260418499097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.344292899072056</v>
+        <v>0.550747337517402</v>
       </c>
       <c r="F2" t="n">
-        <v>5488.14642857143</v>
+        <v>1984.55571428571</v>
       </c>
       <c r="G2" t="n">
-        <v>4876410.9</v>
+        <v>626424.803571428</v>
       </c>
       <c r="H2" t="n">
-        <v>2.33975555583577</v>
+        <v>2.30439669555911</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.463071934383983</v>
+        <v>-0.259047593685675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44371</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>2.06639791095437</v>
+        <v>416.243786340365</v>
       </c>
       <c r="D3" t="n">
-        <v>0.028469917352607</v>
+        <v>0.214345900534267</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103446523483956</v>
+        <v>0.89859430101436</v>
       </c>
       <c r="F3" t="n">
-        <v>24196.695</v>
+        <v>3363.41357142857</v>
       </c>
       <c r="G3" t="n">
-        <v>9603914.55</v>
+        <v>643352.432142857</v>
       </c>
       <c r="H3" t="n">
-        <v>0.315213954111133</v>
+        <v>2.61934776344354</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.985284100040337</v>
+        <v>-0.0464363400784758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44510</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>56.4532973967771</v>
+        <v>41.9734413050142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230530622192957</v>
+        <v>0.0482196240014123</v>
       </c>
       <c r="E4" t="n">
-        <v>0.20838584321108</v>
+        <v>0.506400216436797</v>
       </c>
       <c r="F4" t="n">
-        <v>7971.19071428572</v>
+        <v>14294.7535714286</v>
       </c>
       <c r="G4" t="n">
-        <v>926679.107142858</v>
+        <v>4980376.03928571</v>
       </c>
       <c r="H4" t="n">
-        <v>1.75168931383232</v>
+        <v>1.62297457746762</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.681131788367453</v>
+        <v>-0.295506117372047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44517</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>4.20435343981279</v>
+        <v>61.6453450829362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0173910258844274</v>
+        <v>0.0396467471682954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.114937829610508</v>
+        <v>0.542257562907983</v>
       </c>
       <c r="F5" t="n">
-        <v>11892.435</v>
+        <v>9733.09499999999</v>
       </c>
       <c r="G5" t="n">
-        <v>9368415.675</v>
+        <v>7413961.79999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.623699217943341</v>
+        <v>1.78990028805065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.93953700797733</v>
+        <v>-0.26579438213295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44659</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>45.7221685893927</v>
+        <v>18.3696008298861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0816494874119976</v>
-      </c>
-      <c r="E6"/>
+        <v>0.0240540549037401</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.47259266099701</v>
+      </c>
       <c r="F6" t="n">
-        <v>6561.36857142857</v>
+        <v>5443.77642857143</v>
       </c>
       <c r="G6" t="n">
-        <v>1149150.76071429</v>
+        <v>2896822.95</v>
       </c>
       <c r="H6" t="n">
-        <v>1.66012682067494</v>
-      </c>
-      <c r="I6"/>
+        <v>1.26409971922027</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.32551302691281</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44733</v>
+        <v>44666</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>5.84854833181856</v>
+        <v>43.1380098171326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0217811972641943</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.118623158203254</v>
-      </c>
+        <v>0.026222037675287</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="n">
-        <v>8549.13</v>
+        <v>9272.565</v>
       </c>
       <c r="G7" t="n">
-        <v>3925004.625</v>
+        <v>14109328.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.767048083224665</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.925830517564636</v>
-      </c>
+        <v>1.63486010494421</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44806</v>
+        <v>44818</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>94.0961393698247</v>
+        <v>268.141444612033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.125964440018116</v>
+        <v>0.117343468865951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.326952273525759</v>
+        <v>0.837560505687049</v>
       </c>
       <c r="F8" t="n">
-        <v>6376.45714285715</v>
+        <v>2237.625</v>
       </c>
       <c r="G8" t="n">
-        <v>1543943.21785715</v>
+        <v>444308.174999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1.97357180531061</v>
+        <v>2.42836394481183</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.485515638340187</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>44998</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.110400422878</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0135347353218176</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.14792716324069</v>
-      </c>
-      <c r="F9" t="n">
-        <v>121642.65</v>
-      </c>
-      <c r="G9" t="n">
-        <v>139305352.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.61388413160249</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.829952071017485</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="n">
-        <v>850.231688135016</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.264707017120813</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.528260069853473</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1999.455</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-105748.499999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.92953728708808</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.277152215543772</v>
+        <v>-0.0769838095605552</v>
       </c>
     </row>
   </sheetData>
@@ -1862,201 +1423,346 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44299</v>
+        <v>44386</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>201.556447682785</v>
+        <v>1661.73191635079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0966260418499097</v>
+        <v>0.387436294953374</v>
       </c>
       <c r="E2" t="n">
-        <v>0.550747337517402</v>
+        <v>0.843910837480766</v>
       </c>
       <c r="F2" t="n">
-        <v>1984.55571428571</v>
+        <v>1203.56357142857</v>
       </c>
       <c r="G2" t="n">
-        <v>626424.803571428</v>
+        <v>178933.317857143</v>
       </c>
       <c r="H2" t="n">
-        <v>2.30439669555911</v>
+        <v>3.22056096130097</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.259047593685675</v>
+        <v>-0.0737034358810179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44371</v>
+        <v>44452</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>416.243786340365</v>
+        <v>25.6084522525835</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214345900534267</v>
+        <v>0.0748083206536477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.89859430101436</v>
+        <v>0.0302828318577513</v>
       </c>
       <c r="F3" t="n">
-        <v>3363.41357142857</v>
+        <v>11714.8821428571</v>
       </c>
       <c r="G3" t="n">
-        <v>643352.432142857</v>
+        <v>3774027.50357143</v>
       </c>
       <c r="H3" t="n">
-        <v>2.61934776344354</v>
+        <v>1.40838333096844</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0464363400784758</v>
+        <v>-1.51880351481632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44510</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>41.9734413050142</v>
+        <v>326.494767171751</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0482196240014123</v>
+        <v>0.181034619271933</v>
       </c>
       <c r="E4" t="n">
-        <v>0.506400216436797</v>
+        <v>0.29923926144503</v>
       </c>
       <c r="F4" t="n">
-        <v>14294.7535714286</v>
+        <v>4287.97071428572</v>
       </c>
       <c r="G4" t="n">
-        <v>4980376.03928571</v>
+        <v>959279.58214286</v>
       </c>
       <c r="H4" t="n">
-        <v>1.62297457746762</v>
+        <v>2.51387622510069</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.295506117372047</v>
+        <v>-0.523981425813272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44517</v>
+        <v>44589</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>61.6453450829362</v>
+        <v>55.2594896825599</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0396467471682954</v>
+        <v>0.0466003004043193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.542257562907983</v>
+        <v>0.0701437122950006</v>
       </c>
       <c r="F5" t="n">
-        <v>9733.09499999999</v>
+        <v>3619.28785714286</v>
       </c>
       <c r="G5" t="n">
-        <v>7413961.79999999</v>
+        <v>1654299.02142857</v>
       </c>
       <c r="H5" t="n">
-        <v>1.78990028805065</v>
+        <v>1.74240686992049</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.26579438213295</v>
+        <v>-1.15401125318833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44659</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3696008298861</v>
+        <v>-59.2075325514556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0240540549037401</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.47259266099701</v>
-      </c>
+        <v>0.00694043951640586</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" t="n">
-        <v>5443.77642857143</v>
+        <v>-20267.6914285714</v>
       </c>
       <c r="G6" t="n">
-        <v>2896822.95</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.26409971922027</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.32551302691281</v>
-      </c>
+        <v>-90527182.4357143</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44666</v>
+        <v>44733</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>43.1380098171326</v>
+        <v>19.3061500671871</v>
       </c>
       <c r="D7" t="n">
-        <v>0.026222037675287</v>
-      </c>
-      <c r="E7"/>
+        <v>0.0247248402753767</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00399777034402538</v>
+      </c>
       <c r="F7" t="n">
-        <v>9272.565</v>
+        <v>20718.7864285714</v>
       </c>
       <c r="G7" t="n">
-        <v>14109328.5</v>
+        <v>24301261.3928571</v>
       </c>
       <c r="H7" t="n">
-        <v>1.63486010494421</v>
-      </c>
-      <c r="I7"/>
+        <v>1.28569567764907</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2.3981821579886</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44818</v>
+        <v>44806</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>268.141444612033</v>
+        <v>83.4160791046595</v>
       </c>
       <c r="D8" t="n">
-        <v>0.117343468865951</v>
+        <v>0.104270024651914</v>
       </c>
       <c r="E8" t="n">
-        <v>0.837560505687049</v>
+        <v>0.290562952226383</v>
       </c>
       <c r="F8" t="n">
-        <v>2237.625</v>
+        <v>11988.0964285714</v>
       </c>
       <c r="G8" t="n">
-        <v>444308.174999999</v>
+        <v>4242453.76071428</v>
       </c>
       <c r="H8" t="n">
-        <v>2.42836394481183</v>
+        <v>1.92124977238071</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0769838095605552</v>
+        <v>-0.536759760545043</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>62.1041048151678</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0624314324451668</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.100958463791928</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7245.89785714286</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3017604.06428571</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.79312030612925</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.995857266378117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.1205661719794</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.017179789481342</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.101064998910301</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6639.98142857143</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10435488.675</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.47886313097672</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.995399224349649</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>203.383280877396</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.223866557705922</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.292879350342034</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2950.095</v>
+      </c>
+      <c r="G11" t="n">
+        <v>466498.274999997</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.30831524887617</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.533311247467084</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.12054440834328</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0106085660132641</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0435957774013449</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7021.935</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16680177.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.852513199325168</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.36055557357783</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1159.08432338453</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.192383869915185</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.69658739105357</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3105.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>613482.825</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.06411503203648</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.157024390982315</v>
       </c>
     </row>
   </sheetData>
@@ -2104,172 +1810,164 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44386</v>
+        <v>44299</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>1661.73191635079</v>
+        <v>23.3064027849153</v>
       </c>
       <c r="D2" t="n">
-        <v>0.387436294953374</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.843910837480766</v>
-      </c>
+        <v>0.0288993102026876</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
-        <v>1203.56357142857</v>
+        <v>4290.66642857143</v>
       </c>
       <c r="G2" t="n">
-        <v>178933.317857143</v>
+        <v>2672451.18214286</v>
       </c>
       <c r="H2" t="n">
-        <v>3.22056096130097</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.0737034358810179</v>
-      </c>
+        <v>1.36747524772831</v>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44386</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>25.6084522525835</v>
+        <v>270.901397309407</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0748083206536477</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0302828318577513</v>
-      </c>
+        <v>0.233297132170326</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
-        <v>11714.8821428571</v>
+        <v>3691.38</v>
       </c>
       <c r="G3" t="n">
-        <v>3774027.50357143</v>
+        <v>424047.15</v>
       </c>
       <c r="H3" t="n">
-        <v>1.40838333096844</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-1.51880351481632</v>
-      </c>
+        <v>2.43281124512988</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44510</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>326.494767171751</v>
+        <v>2.04807802379181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.181034619271933</v>
+        <v>0.0334046106509795</v>
       </c>
       <c r="E4" t="n">
-        <v>0.29923926144503</v>
+        <v>0.47844128219725</v>
       </c>
       <c r="F4" t="n">
-        <v>4287.97071428572</v>
+        <v>24413.1324193548</v>
       </c>
       <c r="G4" t="n">
-        <v>959279.58214286</v>
+        <v>4019571.72048387</v>
       </c>
       <c r="H4" t="n">
-        <v>2.51387622510069</v>
+        <v>0.311346497546363</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.523981425813272</v>
+        <v>-0.320171354402254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44510</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>55.2594896825599</v>
+        <v>21.1919407049499</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0466003004043193</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0701437122950006</v>
-      </c>
+        <v>0.0277510769684758</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="n">
-        <v>3619.28785714286</v>
+        <v>9437.55</v>
       </c>
       <c r="G5" t="n">
-        <v>1654299.02142857</v>
+        <v>5271219.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1.74240686992049</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-1.15401125318833</v>
-      </c>
+        <v>1.32617073013491</v>
+      </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44659</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>-59.2075325514556</v>
+        <v>138.347849975591</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00694043951640586</v>
-      </c>
-      <c r="E6"/>
+        <v>0.00958213989251452</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.455538766986625</v>
+      </c>
       <c r="F6" t="n">
-        <v>-20267.6914285714</v>
+        <v>722.815714285718</v>
       </c>
       <c r="G6" t="n">
-        <v>-90527182.4357143</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I6"/>
+        <v>618555.867857144</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.14097241428295</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.341474658050028</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44733</v>
+        <v>44659</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>19.3061500671871</v>
+        <v>10.1562152863735</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0247248402753767</v>
+        <v>0.0160991553702436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00399777034402538</v>
+        <v>0.554639976552681</v>
       </c>
       <c r="F7" t="n">
-        <v>20718.7864285714</v>
+        <v>19692.375</v>
       </c>
       <c r="G7" t="n">
-        <v>24301261.3928571</v>
+        <v>12231930.525</v>
       </c>
       <c r="H7" t="n">
-        <v>1.28569567764907</v>
+        <v>1.00673189825654</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.3981821579886</v>
+        <v>-0.255988831169016</v>
       </c>
     </row>
     <row r="8">
@@ -2280,170 +1978,83 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>83.4160791046595</v>
+        <v>35.2877784497159</v>
       </c>
       <c r="D8" t="n">
-        <v>0.104270024651914</v>
+        <v>0.0598939505762173</v>
       </c>
       <c r="E8" t="n">
-        <v>0.290562952226383</v>
+        <v>0.578650992377742</v>
       </c>
       <c r="F8" t="n">
-        <v>11988.0964285714</v>
+        <v>22670.7385714286</v>
       </c>
       <c r="G8" t="n">
-        <v>4242453.76071428</v>
+        <v>9576420.99642858</v>
       </c>
       <c r="H8" t="n">
-        <v>1.92124977238071</v>
+        <v>1.54762431811064</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.536759760545043</v>
+        <v>-0.23758329773181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44879</v>
+        <v>45140</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>62.1041048151678</v>
+        <v>139.040343548826</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0624314324451668</v>
+        <v>0.114325713526605</v>
       </c>
       <c r="E9" t="n">
-        <v>0.100958463791928</v>
+        <v>0.603687349344395</v>
       </c>
       <c r="F9" t="n">
-        <v>7245.89785714286</v>
+        <v>6113.33357142857</v>
       </c>
       <c r="G9" t="n">
-        <v>3017604.06428571</v>
+        <v>962513.164285714</v>
       </c>
       <c r="H9" t="n">
-        <v>1.79312030612925</v>
+        <v>2.14314083218554</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.995857266378117</v>
+        <v>-0.219187924970591</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44959</v>
+        <v>45197</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1205661719794</v>
+        <v>18.5478970626159</v>
       </c>
       <c r="D10" t="n">
-        <v>0.017179789481342</v>
+        <v>0.0380123901994629</v>
       </c>
       <c r="E10" t="n">
-        <v>0.101064998910301</v>
+        <v>0.46420761962736</v>
       </c>
       <c r="F10" t="n">
-        <v>6639.98142857143</v>
+        <v>10782.8935714286</v>
       </c>
       <c r="G10" t="n">
-        <v>10435488.675</v>
+        <v>5673357.30000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.47886313097672</v>
+        <v>1.26829467697673</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.995399224349649</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="n">
-        <v>203.383280877396</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.223866557705922</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.292879350342034</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2950.095</v>
-      </c>
-      <c r="G11" t="n">
-        <v>466498.274999997</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.30831524887617</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.533311247467084</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7.12054440834328</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0106085660132641</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0435957774013449</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7021.935</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16680177.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.852513199325168</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-1.36055557357783</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1159.08432338453</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.192383869915185</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.69658739105357</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3105.9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>613482.825</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.06411503203648</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.157024390982315</v>
+        <v>-0.333287735196435</v>
       </c>
     </row>
   </sheetData>
@@ -2491,251 +2102,369 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44299</v>
+        <v>44292</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>23.3064027849153</v>
+        <v>1474.27392009435</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0288993102026876</v>
-      </c>
-      <c r="E2"/>
+        <v>0.609595398242257</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.642692214475338</v>
+      </c>
       <c r="F2" t="n">
-        <v>4290.66642857143</v>
+        <v>1356.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2672451.18214286</v>
+        <v>111270.525</v>
       </c>
       <c r="H2" t="n">
-        <v>1.36747524772831</v>
-      </c>
-      <c r="I2"/>
+        <v>3.16857818293498</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.191996961068096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44386</v>
+        <v>44452</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>270.901397309407</v>
+        <v>163.514515592335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.233297132170326</v>
-      </c>
-      <c r="E3"/>
+        <v>0.19909322659857</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.456852129234562</v>
+      </c>
       <c r="F3" t="n">
-        <v>3691.38</v>
+        <v>6115.665</v>
       </c>
       <c r="G3" t="n">
-        <v>424047.15</v>
+        <v>1170340.35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.43281124512988</v>
-      </c>
-      <c r="I3"/>
+        <v>2.21355631211454</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.340224346646562</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44589</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.04807802379181</v>
+        <v>65.6511558308027</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0334046106509795</v>
+        <v>0.09276270132275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.47844128219725</v>
+        <v>0.387986636389939</v>
       </c>
       <c r="F4" t="n">
-        <v>24413.1324193548</v>
+        <v>7616.01214285714</v>
       </c>
       <c r="G4" t="n">
-        <v>4019571.72048387</v>
+        <v>2101813.63928571</v>
       </c>
       <c r="H4" t="n">
-        <v>0.311346497546363</v>
+        <v>1.81724237652635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.320171354402254</v>
+        <v>-0.41118323276161</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44510</v>
+        <v>44665</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>21.1919407049499</v>
+        <v>33.6536236839781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0277510769684758</v>
-      </c>
-      <c r="E5"/>
+        <v>0.132219643097552</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.317914439292082</v>
+      </c>
       <c r="F5" t="n">
-        <v>9437.55</v>
+        <v>17828.6892857143</v>
       </c>
       <c r="G5" t="n">
-        <v>5271219.75</v>
+        <v>3640719.33214286</v>
       </c>
       <c r="H5" t="n">
-        <v>1.32617073013491</v>
-      </c>
-      <c r="I5"/>
+        <v>1.5270318341239</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.497689746503399</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44817</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>138.347849975591</v>
+        <v>1147.67621184873</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00958213989251452</v>
+        <v>0.370207050897618</v>
       </c>
       <c r="E6" t="n">
-        <v>0.455538766986625</v>
+        <v>0.810018775061474</v>
       </c>
       <c r="F6" t="n">
-        <v>722.815714285718</v>
+        <v>1394.12142857143</v>
       </c>
       <c r="G6" t="n">
-        <v>618555.867857144</v>
+        <v>158539.692857143</v>
       </c>
       <c r="H6" t="n">
-        <v>2.14097241428295</v>
+        <v>3.05981938001173</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.341474658050028</v>
+        <v>-0.0915049146878972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44659</v>
+        <v>44880</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>10.1562152863735</v>
+        <v>20.7914719322554</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0160991553702436</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.554639976552681</v>
-      </c>
+        <v>0.108285591446864</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="n">
-        <v>19692.375</v>
+        <v>9619.32857142857</v>
       </c>
       <c r="G7" t="n">
-        <v>12231930.525</v>
+        <v>1687826.05714286</v>
       </c>
       <c r="H7" t="n">
-        <v>1.00673189825654</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.255988831169016</v>
-      </c>
+        <v>1.31788523629769</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44806</v>
+        <v>44953</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>35.2877784497159</v>
+        <v>5.13894891976541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0598939505762173</v>
+        <v>0.0176083819768147</v>
       </c>
       <c r="E8" t="n">
-        <v>0.578650992377742</v>
+        <v>-0.0508658047240336</v>
       </c>
       <c r="F8" t="n">
-        <v>22670.7385714286</v>
+        <v>19459.2321428571</v>
       </c>
       <c r="G8" t="n">
-        <v>9576420.99642858</v>
+        <v>27627797.0464286</v>
       </c>
       <c r="H8" t="n">
-        <v>1.54762431811064</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.23758329773181</v>
+        <v>0.710874300897029</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45140</v>
+        <v>44998</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>139.040343548826</v>
+        <v>33.1790704053949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114325713526605</v>
+        <v>0.0942639400766061</v>
       </c>
       <c r="E9" t="n">
-        <v>0.603687349344395</v>
+        <v>0.0409990333617032</v>
       </c>
       <c r="F9" t="n">
-        <v>6113.33357142857</v>
+        <v>18083.6892857143</v>
       </c>
       <c r="G9" t="n">
-        <v>962513.164285714</v>
+        <v>4604184.19285714</v>
       </c>
       <c r="H9" t="n">
-        <v>2.14314083218554</v>
+        <v>1.52086421401315</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.219187924970591</v>
+        <v>-1.38722638256385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45197</v>
+        <v>45140</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5478970626159</v>
+        <v>657.928746316773</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0380123901994629</v>
+        <v>-0.624858780565361</v>
       </c>
       <c r="E10" t="n">
-        <v>0.46420761962736</v>
+        <v>0.489625120007815</v>
       </c>
       <c r="F10" t="n">
-        <v>10782.8935714286</v>
+        <v>1823.90571428572</v>
       </c>
       <c r="G10" t="n">
-        <v>5673357.30000001</v>
+        <v>-61297.0821428564</v>
       </c>
       <c r="H10" t="n">
-        <v>1.26829467697673</v>
+        <v>2.81817886206828</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.333287735196435</v>
+        <v>-0.310136308997868</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>133.328381136318</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0966021881464723</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.19084440881003</v>
+      </c>
+      <c r="F11" t="n">
+        <v>750.027857142865</v>
+      </c>
+      <c r="G11" t="n">
+        <v>273295.885714292</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.12492260596996</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.719320559102468</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17.3551452799212</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0456410932698102</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0833480434549802</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2880.99</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1527569.85</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.23942825350176</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.07910459051719</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>236.595392304735</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.229962718506469</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.287726779544469</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2535.975</v>
+      </c>
+      <c r="G13" t="n">
+        <v>628582.649999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.37400628248923</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.541019715213791</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="n">
+        <v>0.186462845955995</v>
+      </c>
+      <c r="F14" t="n">
+        <v>47179.08</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17329386.9</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="n">
+        <v>-0.729407691489453</v>
       </c>
     </row>
   </sheetData>
@@ -2789,363 +2518,224 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>1474.27392009435</v>
+        <v>79.9725579879591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.609595398242257</v>
+        <v>0.0836415522456026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.642692214475338</v>
+        <v>0.175235931608227</v>
       </c>
       <c r="F2" t="n">
-        <v>1356.6</v>
+        <v>2500.85785714285</v>
       </c>
       <c r="G2" t="n">
-        <v>111270.525</v>
+        <v>774402.396428567</v>
       </c>
       <c r="H2" t="n">
-        <v>3.16857818293498</v>
+        <v>1.90294098750518</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.191996961068096</v>
+        <v>-0.756376838240995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44371</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>163.514515592335</v>
+        <v>97.517092917943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19909322659857</v>
+        <v>0.0844166976160872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.456852129234562</v>
+        <v>0.428172659072591</v>
       </c>
       <c r="F3" t="n">
-        <v>6115.665</v>
+        <v>12305.535</v>
       </c>
       <c r="G3" t="n">
-        <v>1170340.35</v>
+        <v>5685082.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.21355631211454</v>
+        <v>1.9890807460505</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.340224346646562</v>
+        <v>-0.368381067992078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44589</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>65.6511558308027</v>
+        <v>14.3008118570891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09276270132275</v>
+        <v>0.10472695502504</v>
       </c>
       <c r="E4" t="n">
-        <v>0.387986636389939</v>
+        <v>0.227107949809334</v>
       </c>
       <c r="F4" t="n">
-        <v>7616.01214285714</v>
+        <v>13985.22</v>
       </c>
       <c r="G4" t="n">
-        <v>2101813.63928571</v>
+        <v>1949681.55</v>
       </c>
       <c r="H4" t="n">
-        <v>1.81724237652635</v>
+        <v>1.15536069306266</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.41118323276161</v>
+        <v>-0.643767663235581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44665</v>
+        <v>44517</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>33.6536236839781</v>
+        <v>19.273719443755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.132219643097552</v>
+        <v>0.0768117708525735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.317914439292082</v>
+        <v>0.258943438038391</v>
       </c>
       <c r="F5" t="n">
-        <v>17828.6892857143</v>
+        <v>10376.8242857143</v>
       </c>
       <c r="G5" t="n">
-        <v>3640719.33214286</v>
+        <v>2877506.33571429</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5270318341239</v>
+        <v>1.28496553292348</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.497689746503399</v>
+        <v>-0.586795090090482</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44817</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>1147.67621184873</v>
+        <v>6.79493167987407</v>
       </c>
       <c r="D6" t="n">
-        <v>0.370207050897618</v>
+        <v>0.0279077813421051</v>
       </c>
       <c r="E6" t="n">
-        <v>0.810018775061474</v>
+        <v>0.18522684647642</v>
       </c>
       <c r="F6" t="n">
-        <v>1394.12142857143</v>
+        <v>14716.8514285714</v>
       </c>
       <c r="G6" t="n">
-        <v>158539.692857143</v>
+        <v>4798781.61428571</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05981938001173</v>
+        <v>0.832185094445576</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0915049146878972</v>
+        <v>-0.732296067159545</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44880</v>
+        <v>44665</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7914719322554</v>
+        <v>5.52548180523963</v>
       </c>
       <c r="D7" t="n">
-        <v>0.108285591446864</v>
+        <v>0.0835954778785003</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
-        <v>9619.32857142857</v>
+        <v>18097.9692857143</v>
       </c>
       <c r="G7" t="n">
-        <v>1687826.05714286</v>
+        <v>2641234.08214286</v>
       </c>
       <c r="H7" t="n">
-        <v>1.31788523629769</v>
+        <v>0.74237015316871</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44953</v>
+        <v>44818</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>5.13894891976541</v>
+        <v>52.7801968701343</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0176083819768147</v>
+        <v>0.0490018181170012</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0508658047240336</v>
+        <v>0.346273489592434</v>
       </c>
       <c r="F8" t="n">
-        <v>19459.2321428571</v>
+        <v>7578.6</v>
       </c>
       <c r="G8" t="n">
-        <v>27627797.0464286</v>
+        <v>3433442.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.710874300897029</v>
-      </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
+        <v>1.72247100580547</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.460580756398657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44998</v>
+        <v>45279</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1790704053949</v>
+        <v>409.296138546743</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0942639400766061</v>
+        <v>0.0895346799829791</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0409990333617032</v>
+        <v>0.386132065900496</v>
       </c>
       <c r="F9" t="n">
-        <v>18083.6892857143</v>
+        <v>1954.575</v>
       </c>
       <c r="G9" t="n">
-        <v>4604184.19285714</v>
+        <v>458437.725</v>
       </c>
       <c r="H9" t="n">
-        <v>1.52086421401315</v>
+        <v>2.61203764736759</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.38722638256385</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45140</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="n">
-        <v>657.928746316773</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.624858780565361</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.489625120007815</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1823.90571428572</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-61297.0821428564</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.81817886206828</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.310136308997868</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45197</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>133.328381136318</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0966021881464723</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.19084440881003</v>
-      </c>
-      <c r="F11" t="n">
-        <v>750.027857142865</v>
-      </c>
-      <c r="G11" t="n">
-        <v>273295.885714292</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.12492260596996</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.719320559102468</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17.3551452799212</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0456410932698102</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0833480434549802</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2880.99</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1527569.85</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.23942825350176</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-1.07910459051719</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="n">
-        <v>236.595392304735</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.229962718506469</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.287726779544469</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2535.975</v>
-      </c>
-      <c r="G13" t="n">
-        <v>628582.649999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.37400628248923</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.541019715213791</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" t="n">
-        <v>0.162702002979764</v>
-      </c>
-      <c r="F14" t="n">
-        <v>47179.08</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17329386.9</v>
-      </c>
-      <c r="H14"/>
-      <c r="I14" t="n">
-        <v>-0.7886071005499</v>
+        <v>-0.413264131384523</v>
       </c>
     </row>
   </sheetData>
@@ -3199,25 +2789,25 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>79.9725579879591</v>
+        <v>110.528991754537</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0836415522456026</v>
+        <v>0.0578152666505854</v>
       </c>
       <c r="E2" t="n">
-        <v>0.175235931608227</v>
+        <v>0.334368448888413</v>
       </c>
       <c r="F2" t="n">
-        <v>2500.85785714285</v>
+        <v>2261.85</v>
       </c>
       <c r="G2" t="n">
-        <v>774402.396428567</v>
+        <v>1490548.95</v>
       </c>
       <c r="H2" t="n">
-        <v>1.90294098750518</v>
+        <v>2.04347620840636</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.756376838240995</v>
+        <v>-0.475774709463059</v>
       </c>
     </row>
     <row r="3">
@@ -3228,25 +2818,25 @@
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>97.517092917943</v>
+        <v>145.543610583516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0844166976160872</v>
+        <v>0.0876716470388422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.428172659072591</v>
+        <v>0.432978589290512</v>
       </c>
       <c r="F3" t="n">
-        <v>12305.535</v>
+        <v>4122.47571428571</v>
       </c>
       <c r="G3" t="n">
-        <v>5685082.2</v>
+        <v>1650464.00357143</v>
       </c>
       <c r="H3" t="n">
-        <v>1.9890807460505</v>
+        <v>2.16299314451045</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.368381067992078</v>
+        <v>-0.363533578895795</v>
       </c>
     </row>
     <row r="4">
@@ -3257,25 +2847,25 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3008118570891</v>
+        <v>19.0713037906123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10472695502504</v>
+        <v>0.111120888231963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.227107949809334</v>
+        <v>0.237758928017856</v>
       </c>
       <c r="F4" t="n">
-        <v>13985.22</v>
+        <v>7865.22</v>
       </c>
       <c r="G4" t="n">
-        <v>1949681.55</v>
+        <v>1033398.975</v>
       </c>
       <c r="H4" t="n">
-        <v>1.15536069306266</v>
+        <v>1.28038038416888</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.643767663235581</v>
+        <v>-0.623863166015831</v>
       </c>
     </row>
     <row r="5">
@@ -3286,25 +2876,25 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>19.273719443755</v>
+        <v>16.9350140609002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0768117708525735</v>
+        <v>0.0463166323010258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.258943438038391</v>
+        <v>0.218569566722467</v>
       </c>
       <c r="F5" t="n">
-        <v>10376.8242857143</v>
+        <v>11809.8514285714</v>
       </c>
       <c r="G5" t="n">
-        <v>2877506.33571429</v>
+        <v>10479710.4107143</v>
       </c>
       <c r="H5" t="n">
-        <v>1.28496553292348</v>
+        <v>1.2287855615693</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.586795090090482</v>
+        <v>-0.660410308647128</v>
       </c>
     </row>
     <row r="6">
@@ -3315,51 +2905,55 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>6.79493167987407</v>
+        <v>4.49444319884161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0279077813421051</v>
+        <v>0.0437964783271548</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18522684647642</v>
+        <v>0.184070989202584</v>
       </c>
       <c r="F6" t="n">
-        <v>14716.8514285714</v>
+        <v>11124.8485714286</v>
       </c>
       <c r="G6" t="n">
-        <v>4798781.61428571</v>
+        <v>2159105.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.832185094445576</v>
+        <v>0.652675896147369</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.732296067159545</v>
+        <v>-0.735014653766717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>5.52548180523963</v>
+        <v>2.89214023293876</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0835954778785003</v>
-      </c>
-      <c r="E7"/>
+        <v>0.0252018268584692</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.153543970343754</v>
+      </c>
       <c r="F7" t="n">
-        <v>18097.9692857143</v>
+        <v>17288.235</v>
       </c>
       <c r="G7" t="n">
-        <v>2641234.08214286</v>
+        <v>11318857.125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.74237015316871</v>
-      </c>
-      <c r="I7"/>
+        <v>0.461219347030154</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.813767233586602</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3369,54 +2963,83 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>52.7801968701343</v>
+        <v>105.628429740967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0490018181170012</v>
+        <v>0.142353917790553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.346273489592434</v>
+        <v>0.398722933657988</v>
       </c>
       <c r="F8" t="n">
-        <v>7578.6</v>
+        <v>7573.71857142857</v>
       </c>
       <c r="G8" t="n">
-        <v>3433442.4</v>
+        <v>2255825.98928571</v>
       </c>
       <c r="H8" t="n">
-        <v>1.72247100580547</v>
+        <v>2.02378082367035</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.460580756398657</v>
+        <v>-0.399328783964715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45279</v>
+        <v>44966</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>409.296138546743</v>
+        <v>8.00184819830957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0895346799829791</v>
+        <v>0.0131382698505472</v>
       </c>
       <c r="E9" t="n">
-        <v>0.386132065900496</v>
+        <v>0.110956390662781</v>
       </c>
       <c r="F9" t="n">
-        <v>1954.575</v>
+        <v>6248.55642857143</v>
       </c>
       <c r="G9" t="n">
-        <v>458437.725</v>
+        <v>6658394.97857143</v>
       </c>
       <c r="H9" t="n">
-        <v>2.61203764736759</v>
+        <v>0.903190308194961</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.413264131384523</v>
+        <v>-0.95484767901419</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>126.543034122329</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.154867311917387</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.327003484688787</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3951.225</v>
+      </c>
+      <c r="G10" t="n">
+        <v>714381.225</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.10223824332676</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.48544761928758</v>
       </c>
     </row>
   </sheetData>
@@ -3464,263 +3087,340 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44292</v>
+        <v>44302</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>110.528991754537</v>
+        <v>243.295049119533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0578152666505854</v>
+        <v>-0.415059873828465</v>
       </c>
       <c r="E2" t="n">
-        <v>0.334368448888413</v>
+        <v>0.190023104440148</v>
       </c>
       <c r="F2" t="n">
-        <v>2261.85</v>
+        <v>2055.11785714286</v>
       </c>
       <c r="G2" t="n">
-        <v>1490548.95</v>
+        <v>-165871.125</v>
       </c>
       <c r="H2" t="n">
-        <v>2.04347620840636</v>
+        <v>2.38613327143824</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.475774709463059</v>
+        <v>-0.721193591042821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44371</v>
+        <v>44386</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>145.543610583516</v>
+        <v>1444.94054069675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0876716470388422</v>
+        <v>0.577927133588421</v>
       </c>
       <c r="E3" t="n">
-        <v>0.432978589290512</v>
+        <v>0.835018144430228</v>
       </c>
       <c r="F3" t="n">
-        <v>4122.47571428571</v>
+        <v>1384.14</v>
       </c>
       <c r="G3" t="n">
-        <v>1650464.00357143</v>
+        <v>76640.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16299314451045</v>
+        <v>3.15984997624233</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.363533578895795</v>
+        <v>-0.0783040874621337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44589</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>19.0713037906123</v>
+        <v>60.5612033684141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111120888231963</v>
+        <v>0.166262713408938</v>
       </c>
       <c r="E4" t="n">
-        <v>0.237758928017856</v>
+        <v>-0.0713653021975958</v>
       </c>
       <c r="F4" t="n">
-        <v>7865.22</v>
+        <v>4953.66642857143</v>
       </c>
       <c r="G4" t="n">
-        <v>1033398.975</v>
+        <v>953414.764285715</v>
       </c>
       <c r="H4" t="n">
-        <v>1.28038038416888</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.623863166015831</v>
+        <v>1.78219449613319</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44517</v>
+        <v>44665</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9350140609002</v>
+        <v>156.869264340194</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0463166323010258</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.218569566722467</v>
-      </c>
+        <v>0.0999742912566901</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="n">
-        <v>11809.8514285714</v>
+        <v>3506.10428571429</v>
       </c>
       <c r="G5" t="n">
-        <v>10479710.4107143</v>
+        <v>1052101.76785714</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2287855615693</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.660410308647128</v>
-      </c>
+        <v>2.1955378598709</v>
+      </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44733</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>4.49444319884161</v>
+        <v>3.42172328934366</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0437964783271548</v>
+        <v>0.0375554805809119</v>
       </c>
       <c r="E6" t="n">
-        <v>0.184070989202584</v>
+        <v>-0.14320460248576</v>
       </c>
       <c r="F6" t="n">
-        <v>11124.8485714286</v>
+        <v>29225.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2159105.4</v>
+        <v>9727288.65000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.652675896147369</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.735014653766717</v>
+        <v>0.534244885751498</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44666</v>
+        <v>44817</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>2.89214023293876</v>
+        <v>173.070979705367</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0252018268584692</v>
+        <v>0.426859527793496</v>
       </c>
       <c r="E7" t="n">
-        <v>0.153543970343754</v>
+        <v>0.0430583138148867</v>
       </c>
       <c r="F7" t="n">
-        <v>17288.235</v>
+        <v>2600.08928571429</v>
       </c>
       <c r="G7" t="n">
-        <v>11318857.125</v>
+        <v>200400.675000005</v>
       </c>
       <c r="H7" t="n">
-        <v>0.461219347030154</v>
+        <v>2.23822425210174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.813767233586602</v>
+        <v>-1.36594298136875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44818</v>
+        <v>44879</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>105.628429740967</v>
+        <v>16.9540200057436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.142353917790553</v>
+        <v>0.131401183260687</v>
       </c>
       <c r="E8" t="n">
-        <v>0.398722933657988</v>
+        <v>-0.0888937886209107</v>
       </c>
       <c r="F8" t="n">
-        <v>7573.71857142857</v>
+        <v>20644.0714285714</v>
       </c>
       <c r="G8" t="n">
-        <v>2255825.98928571</v>
+        <v>3189276.075</v>
       </c>
       <c r="H8" t="n">
-        <v>2.02378082367035</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.399328783964715</v>
+        <v>1.22927269128908</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44966</v>
+        <v>44953</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>8.00184819830957</v>
+        <v>1.57548757401697</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0131382698505472</v>
+        <v>0.0192449199286524</v>
       </c>
       <c r="E9" t="n">
-        <v>0.110956390662781</v>
+        <v>0.0323948686912526</v>
       </c>
       <c r="F9" t="n">
-        <v>6248.55642857143</v>
+        <v>63472.4142857143</v>
       </c>
       <c r="G9" t="n">
-        <v>6658394.97857143</v>
+        <v>64313703.7285714</v>
       </c>
       <c r="H9" t="n">
-        <v>0.903190308194961</v>
+        <v>0.197414982211926</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.95484767901419</v>
+        <v>-1.48952377607612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>126.543034122329</v>
+        <v>17.4458643924238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.154867311917387</v>
+        <v>0.0323205086994282</v>
       </c>
       <c r="E10" t="n">
-        <v>0.327003484688787</v>
+        <v>0.146696588771965</v>
       </c>
       <c r="F10" t="n">
-        <v>3951.225</v>
+        <v>11464.035</v>
       </c>
       <c r="G10" t="n">
-        <v>714381.225</v>
+        <v>11705049.525</v>
       </c>
       <c r="H10" t="n">
-        <v>2.10223824332676</v>
+        <v>1.24169249236021</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.48544761928758</v>
+        <v>-0.833579984962012</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.617325749677</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.20143331114612</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.102308668556731</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1878.47571428571</v>
+      </c>
+      <c r="G11" t="n">
+        <v>141748.307142857</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.42516441963977</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.990087567198308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>160.293015632576</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.138009949764872</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.304619300450722</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2495.43</v>
+      </c>
+      <c r="G12" t="n">
+        <v>524364.15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.20491459947009</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.51624258355513</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>0.262243742214757</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3919.605</v>
+      </c>
+      <c r="G13" t="n">
+        <v>539592.75</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="n">
+        <v>-0.581294866352805</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -510,7 +510,7 @@
         <v>0.292536199651649</v>
       </c>
       <c r="E4" t="n">
-        <v>0.491693805811854</v>
+        <v>0.556155956335123</v>
       </c>
       <c r="F4" t="n">
         <v>3847.36714285714</v>
@@ -522,7 +522,7 @@
         <v>2.71586636394285</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.308305262766735</v>
+        <v>-0.254803407197853</v>
       </c>
     </row>
     <row r="5">
@@ -589,7 +589,7 @@
         <v>0.0406457351860475</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0569027203963497</v>
+        <v>0.0569053265008198</v>
       </c>
       <c r="F7" t="n">
         <v>34805.3871428571</v>
@@ -601,7 +601,7 @@
         <v>0.458353531187161</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.24486697042599</v>
+        <v>-1.24484708050043</v>
       </c>
     </row>
     <row r="8">
@@ -618,7 +618,7 @@
         <v>0.194918677610752</v>
       </c>
       <c r="E8" t="n">
-        <v>0.326424187469587</v>
+        <v>0.326470276576917</v>
       </c>
       <c r="F8" t="n">
         <v>2774.655</v>
@@ -630,7 +630,7 @@
         <v>2.45988099625789</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.486217668253406</v>
+        <v>-0.486156352846017</v>
       </c>
     </row>
     <row r="9">
@@ -647,7 +647,7 @@
         <v>0.0351128684887311</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0913046673568094</v>
+        <v>0.0868903014673715</v>
       </c>
       <c r="F9" t="n">
         <v>22291.3714285714</v>
@@ -659,7 +659,7 @@
         <v>1.0498032203381</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.03950702141972</v>
+        <v>-1.06102869598244</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>0.0129171130222743</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0686781937579025</v>
+        <v>0.0689949376511942</v>
       </c>
       <c r="F10" t="n">
         <v>16770.8035714286</v>
@@ -688,7 +688,7 @@
         <v>0.474416132053351</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.16318113534122</v>
+        <v>-1.16118277347733</v>
       </c>
     </row>
     <row r="11">
@@ -705,7 +705,7 @@
         <v>0.115971738074685</v>
       </c>
       <c r="E11" t="n">
-        <v>0.143757202817436</v>
+        <v>0.141394155033208</v>
       </c>
       <c r="F11" t="n">
         <v>4863.83357142857</v>
@@ -717,7 +717,7 @@
         <v>1.48911255303911</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.842370386182687</v>
+        <v>-0.849568543080074</v>
       </c>
     </row>
     <row r="12">
@@ -734,7 +734,7 @@
         <v>0.0391666376832519</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0770005487413572</v>
+        <v>0.0770541272743987</v>
       </c>
       <c r="F12" t="n">
         <v>9153.26142857143</v>
@@ -746,7 +746,7 @@
         <v>0.737394137804323</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.11350617983409</v>
+        <v>-1.11320409407092</v>
       </c>
     </row>
     <row r="13">
@@ -763,7 +763,7 @@
         <v>0.145089110762292</v>
       </c>
       <c r="E13" t="n">
-        <v>0.19325455560002</v>
+        <v>0.188932431571157</v>
       </c>
       <c r="F13" t="n">
         <v>11023.5042857143</v>
@@ -775,7 +775,7 @@
         <v>1.73583157510342</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.713870259641819</v>
+        <v>-0.723693485998537</v>
       </c>
     </row>
     <row r="14">
@@ -792,7 +792,7 @@
         <v>0.0366654380801947</v>
       </c>
       <c r="E14" t="n">
-        <v>0.038709265448834</v>
+        <v>0.0388449810466055</v>
       </c>
       <c r="F14" t="n">
         <v>24529.9435714286</v>
@@ -804,7 +804,7 @@
         <v>0.309273455177549</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.41218506982144</v>
+        <v>-1.41066508611846</v>
       </c>
     </row>
     <row r="15">
@@ -893,7 +893,7 @@
         <v>0.0308372725815327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.344292899072056</v>
+        <v>0.33357194499513</v>
       </c>
       <c r="F2" t="n">
         <v>5488.14642857143</v>
@@ -905,7 +905,7 @@
         <v>2.33975555583577</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.463071934383983</v>
+        <v>-0.476810482753012</v>
       </c>
     </row>
     <row r="3">
@@ -922,7 +922,7 @@
         <v>0.028469917352607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103446523483956</v>
+        <v>0.103246752096473</v>
       </c>
       <c r="F3" t="n">
         <v>24196.695</v>
@@ -934,7 +934,7 @@
         <v>0.315213954111133</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.985284100040337</v>
+        <v>-0.986123601354522</v>
       </c>
     </row>
     <row r="4">
@@ -951,7 +951,7 @@
         <v>0.230530622192957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.20838584321108</v>
+        <v>0.208368019852923</v>
       </c>
       <c r="F4" t="n">
         <v>7971.19071428572</v>
@@ -963,7 +963,7 @@
         <v>1.75168931383232</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.681131788367453</v>
+        <v>-0.681168935406929</v>
       </c>
     </row>
     <row r="5">
@@ -980,7 +980,7 @@
         <v>0.0173910258844274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.114937829610508</v>
+        <v>0.115660292693498</v>
       </c>
       <c r="F5" t="n">
         <v>11892.435</v>
@@ -992,7 +992,7 @@
         <v>0.623699217943341</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.93953700797733</v>
+        <v>-0.936815712992044</v>
       </c>
     </row>
     <row r="6">
@@ -1034,7 +1034,7 @@
         <v>0.0217811972641943</v>
       </c>
       <c r="E7" t="n">
-        <v>0.118623158203254</v>
+        <v>0.118618295568362</v>
       </c>
       <c r="F7" t="n">
         <v>8549.13</v>
@@ -1046,7 +1046,7 @@
         <v>0.767048083224665</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.925830517564636</v>
+        <v>-0.925848320654844</v>
       </c>
     </row>
     <row r="8">
@@ -1063,7 +1063,7 @@
         <v>0.125964440018116</v>
       </c>
       <c r="E8" t="n">
-        <v>0.326952273525759</v>
+        <v>0.32669127366084</v>
       </c>
       <c r="F8" t="n">
         <v>6376.45714285715</v>
@@ -1075,7 +1075,7 @@
         <v>1.97357180531061</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.485515638340187</v>
+        <v>-0.485862465927253</v>
       </c>
     </row>
     <row r="9">
@@ -1092,7 +1092,7 @@
         <v>0.0135347353218176</v>
       </c>
       <c r="E9" t="n">
-        <v>0.14792716324069</v>
+        <v>0.148399542142312</v>
       </c>
       <c r="F9" t="n">
         <v>121642.65</v>
@@ -1104,7 +1104,7 @@
         <v>0.61388413160249</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.829952071017485</v>
+        <v>-0.828567438985388</v>
       </c>
     </row>
     <row r="10">
@@ -1464,7 +1464,7 @@
         <v>0.0748083206536477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0302828318577513</v>
+        <v>0.0314608700934574</v>
       </c>
       <c r="F3" t="n">
         <v>11714.8821428571</v>
@@ -1476,7 +1476,7 @@
         <v>1.40838333096844</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.51880351481632</v>
+        <v>-1.50222927053785</v>
       </c>
     </row>
     <row r="4">
@@ -1493,7 +1493,7 @@
         <v>0.181034619271933</v>
       </c>
       <c r="E4" t="n">
-        <v>0.29923926144503</v>
+        <v>0.298854491442191</v>
       </c>
       <c r="F4" t="n">
         <v>4287.97071428572</v>
@@ -1505,7 +1505,7 @@
         <v>2.51387622510069</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.523981425813272</v>
+        <v>-0.524540212830461</v>
       </c>
     </row>
     <row r="5">
@@ -1522,7 +1522,7 @@
         <v>0.0466003004043193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0701437122950006</v>
+        <v>0.071022433807391</v>
       </c>
       <c r="F5" t="n">
         <v>3619.28785714286</v>
@@ -1534,7 +1534,7 @@
         <v>1.74240686992049</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.15401125318833</v>
+        <v>-1.1486044493111</v>
       </c>
     </row>
     <row r="6">
@@ -1576,7 +1576,7 @@
         <v>0.0247248402753767</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00399777034402538</v>
+        <v>0.00408688713481306</v>
       </c>
       <c r="F7" t="n">
         <v>20718.7864285714</v>
@@ -1588,7 +1588,7 @@
         <v>1.28569567764907</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.3981821579886</v>
+        <v>-2.38860735578112</v>
       </c>
     </row>
     <row r="8">
@@ -1605,7 +1605,7 @@
         <v>0.104270024651914</v>
       </c>
       <c r="E8" t="n">
-        <v>0.290562952226383</v>
+        <v>0.292886326762752</v>
       </c>
       <c r="F8" t="n">
         <v>11988.0964285714</v>
@@ -1617,7 +1617,7 @@
         <v>1.92124977238071</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.536759760545043</v>
+        <v>-0.533300902644435</v>
       </c>
     </row>
     <row r="9">
@@ -1663,7 +1663,7 @@
         <v>0.017179789481342</v>
       </c>
       <c r="E10" t="n">
-        <v>0.101064998910301</v>
+        <v>0.100905322589866</v>
       </c>
       <c r="F10" t="n">
         <v>6639.98142857143</v>
@@ -1675,7 +1675,7 @@
         <v>1.47886313097672</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.995399224349649</v>
+        <v>-0.996085924838993</v>
       </c>
     </row>
     <row r="11">
@@ -1692,7 +1692,7 @@
         <v>0.223866557705922</v>
       </c>
       <c r="E11" t="n">
-        <v>0.292879350342034</v>
+        <v>0.292268158933349</v>
       </c>
       <c r="F11" t="n">
         <v>2950.095</v>
@@ -1704,7 +1704,7 @@
         <v>2.30831524887617</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.533311247467084</v>
+        <v>-0.534218496147122</v>
       </c>
     </row>
     <row r="12">
@@ -1721,7 +1721,7 @@
         <v>0.0106085660132641</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0435957774013449</v>
+        <v>0.0398067631956158</v>
       </c>
       <c r="F12" t="n">
         <v>7021.935</v>
@@ -1733,7 +1733,7 @@
         <v>0.852513199325168</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.36055557357783</v>
+        <v>-1.40004313473525</v>
       </c>
     </row>
     <row r="13">
@@ -1984,7 +1984,7 @@
         <v>0.0598939505762173</v>
       </c>
       <c r="E8" t="n">
-        <v>0.578650992377742</v>
+        <v>0.578629035198701</v>
       </c>
       <c r="F8" t="n">
         <v>22670.7385714286</v>
@@ -1996,7 +1996,7 @@
         <v>1.54762431811064</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.23758329773181</v>
+        <v>-0.237599777549088</v>
       </c>
     </row>
     <row r="9">
@@ -2143,7 +2143,7 @@
         <v>0.19909322659857</v>
       </c>
       <c r="E3" t="n">
-        <v>0.456852129234562</v>
+        <v>0.456824240921209</v>
       </c>
       <c r="F3" t="n">
         <v>6115.665</v>
@@ -2155,7 +2155,7 @@
         <v>2.21355631211454</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.340224346646562</v>
+        <v>-0.340250858748654</v>
       </c>
     </row>
     <row r="4">
@@ -2172,7 +2172,7 @@
         <v>0.09276270132275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.387986636389939</v>
+        <v>0.38887615975603</v>
       </c>
       <c r="F4" t="n">
         <v>7616.01214285714</v>
@@ -2184,7 +2184,7 @@
         <v>1.81724237652635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.41118323276161</v>
+        <v>-0.410188680672972</v>
       </c>
     </row>
     <row r="5">
@@ -2230,7 +2230,7 @@
         <v>0.370207050897618</v>
       </c>
       <c r="E6" t="n">
-        <v>0.810018775061474</v>
+        <v>0.810515482511753</v>
       </c>
       <c r="F6" t="n">
         <v>1394.12142857143</v>
@@ -2242,7 +2242,7 @@
         <v>3.05981938001173</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0915049146878972</v>
+        <v>-0.0912386848189221</v>
       </c>
     </row>
     <row r="7">
@@ -2284,7 +2284,7 @@
         <v>0.0176083819768147</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0508658047240336</v>
+        <v>-0.0509851313580177</v>
       </c>
       <c r="F8" t="n">
         <v>19459.2321428571</v>
@@ -2313,7 +2313,7 @@
         <v>0.0942639400766061</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0409990333617032</v>
+        <v>0.0410550448373626</v>
       </c>
       <c r="F9" t="n">
         <v>18083.6892857143</v>
@@ -2325,7 +2325,7 @@
         <v>1.52086421401315</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.38722638256385</v>
+        <v>-1.38663346922879</v>
       </c>
     </row>
     <row r="10">
@@ -2371,7 +2371,7 @@
         <v>0.0966021881464723</v>
       </c>
       <c r="E11" t="n">
-        <v>0.19084440881003</v>
+        <v>0.190986898896875</v>
       </c>
       <c r="F11" t="n">
         <v>750.027857142865</v>
@@ -2383,7 +2383,7 @@
         <v>2.12492260596996</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.719320559102468</v>
+        <v>-0.718996422971846</v>
       </c>
     </row>
     <row r="12">
@@ -2400,7 +2400,7 @@
         <v>0.0456410932698102</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0833480434549802</v>
+        <v>0.0829762877707573</v>
       </c>
       <c r="F12" t="n">
         <v>2880.99</v>
@@ -2412,7 +2412,7 @@
         <v>1.23942825350176</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.07910459051719</v>
+        <v>-1.08104599872781</v>
       </c>
     </row>
     <row r="13">
@@ -2454,7 +2454,7 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>0.186462845955995</v>
+        <v>0.186952867332309</v>
       </c>
       <c r="F14" t="n">
         <v>47179.08</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>-0.729407691489453</v>
+        <v>-0.728267869600161</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +2582,7 @@
         <v>0.10472695502504</v>
       </c>
       <c r="E4" t="n">
-        <v>0.227107949809334</v>
+        <v>0.226952277503813</v>
       </c>
       <c r="F4" t="n">
         <v>13985.22</v>
@@ -2594,7 +2594,7 @@
         <v>1.15536069306266</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.643767663235581</v>
+        <v>-0.64406545468198</v>
       </c>
     </row>
     <row r="5">
@@ -2611,7 +2611,7 @@
         <v>0.0768117708525735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.258943438038391</v>
+        <v>0.258582477591671</v>
       </c>
       <c r="F5" t="n">
         <v>10376.8242857143</v>
@@ -2623,7 +2623,7 @@
         <v>1.28496553292348</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.586795090090482</v>
+        <v>-0.587400907696447</v>
       </c>
     </row>
     <row r="6">
@@ -2640,7 +2640,7 @@
         <v>0.0279077813421051</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18522684647642</v>
+        <v>0.185682797933314</v>
       </c>
       <c r="F6" t="n">
         <v>14716.8514285714</v>
@@ -2652,7 +2652,7 @@
         <v>0.832185094445576</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.732296067159545</v>
+        <v>-0.731228328401752</v>
       </c>
     </row>
     <row r="7">
@@ -2694,7 +2694,7 @@
         <v>0.0490018181170012</v>
       </c>
       <c r="E8" t="n">
-        <v>0.346273489592434</v>
+        <v>0.346783836740215</v>
       </c>
       <c r="F8" t="n">
         <v>7578.6</v>
@@ -2706,7 +2706,7 @@
         <v>1.72247100580547</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.460580756398657</v>
+        <v>-0.459941152770569</v>
       </c>
     </row>
     <row r="9">
@@ -2853,7 +2853,7 @@
         <v>0.111120888231963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.237758928017856</v>
+        <v>0.23773763726534</v>
       </c>
       <c r="F4" t="n">
         <v>7865.22</v>
@@ -2865,7 +2865,7 @@
         <v>1.28038038416888</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.623863166015831</v>
+        <v>-0.623902057806076</v>
       </c>
     </row>
     <row r="5">
@@ -2882,7 +2882,7 @@
         <v>0.0463166323010258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.218569566722467</v>
+        <v>0.21568387517109</v>
       </c>
       <c r="F5" t="n">
         <v>11809.8514285714</v>
@@ -2894,7 +2894,7 @@
         <v>1.2287855615693</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.660410308647128</v>
+        <v>-0.666182322148197</v>
       </c>
     </row>
     <row r="6">
@@ -2911,7 +2911,7 @@
         <v>0.0437964783271548</v>
       </c>
       <c r="E6" t="n">
-        <v>0.184070989202584</v>
+        <v>0.184310511172043</v>
       </c>
       <c r="F6" t="n">
         <v>11124.8485714286</v>
@@ -2923,7 +2923,7 @@
         <v>0.652675896147369</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.735014653766717</v>
+        <v>-0.734449896393269</v>
       </c>
     </row>
     <row r="7">
@@ -2969,7 +2969,7 @@
         <v>0.142353917790553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.398722933657988</v>
+        <v>0.398938311717069</v>
       </c>
       <c r="F8" t="n">
         <v>7573.71857142857</v>
@@ -2981,7 +2981,7 @@
         <v>2.02378082367035</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.399328783964715</v>
+        <v>-0.399094254569193</v>
       </c>
     </row>
     <row r="9">
@@ -2998,7 +2998,7 @@
         <v>0.0131382698505472</v>
       </c>
       <c r="E9" t="n">
-        <v>0.110956390662781</v>
+        <v>0.110887957954024</v>
       </c>
       <c r="F9" t="n">
         <v>6248.55642857143</v>
@@ -3010,7 +3010,7 @@
         <v>0.903190308194961</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.95484767901419</v>
+        <v>-0.955115614158115</v>
       </c>
     </row>
     <row r="10">
@@ -3027,7 +3027,7 @@
         <v>0.154867311917387</v>
       </c>
       <c r="E10" t="n">
-        <v>0.327003484688787</v>
+        <v>0.338755228520558</v>
       </c>
       <c r="F10" t="n">
         <v>3951.225</v>
@@ -3039,7 +3039,7 @@
         <v>2.10223824332676</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.48544761928758</v>
+        <v>-0.470113992943802</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3157,7 @@
         <v>0.166262713408938</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0713653021975958</v>
+        <v>-0.0718485345186965</v>
       </c>
       <c r="F4" t="n">
         <v>4953.66642857143</v>
@@ -3211,7 +3211,7 @@
         <v>0.0375554805809119</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.14320460248576</v>
+        <v>-0.14322728968482</v>
       </c>
       <c r="F6" t="n">
         <v>29225.04</v>
@@ -3240,7 +3240,7 @@
         <v>0.426859527793496</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0430583138148867</v>
+        <v>0.0430076588941056</v>
       </c>
       <c r="F7" t="n">
         <v>2600.08928571429</v>
@@ -3252,7 +3252,7 @@
         <v>2.23822425210174</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.36594298136875</v>
+        <v>-1.36645419746087</v>
       </c>
     </row>
     <row r="8">
@@ -3269,7 +3269,7 @@
         <v>0.131401183260687</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0888937886209107</v>
+        <v>-0.089021967023526</v>
       </c>
       <c r="F8" t="n">
         <v>20644.0714285714</v>
@@ -3298,7 +3298,7 @@
         <v>0.0192449199286524</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0323948686912526</v>
+        <v>0.0322295008782968</v>
       </c>
       <c r="F9" t="n">
         <v>63472.4142857143</v>
@@ -3310,7 +3310,7 @@
         <v>0.197414982211926</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.48952377607612</v>
+        <v>-1.49174642013085</v>
       </c>
     </row>
     <row r="10">
@@ -3327,7 +3327,7 @@
         <v>0.0323205086994282</v>
       </c>
       <c r="E10" t="n">
-        <v>0.146696588771965</v>
+        <v>0.146809310279103</v>
       </c>
       <c r="F10" t="n">
         <v>11464.035</v>
@@ -3339,7 +3339,7 @@
         <v>1.24169249236021</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.833579984962012</v>
+        <v>-0.833246401677268</v>
       </c>
     </row>
     <row r="11">
@@ -3356,7 +3356,7 @@
         <v>0.20143331114612</v>
       </c>
       <c r="E11" t="n">
-        <v>0.102308668556731</v>
+        <v>0.1019830414486</v>
       </c>
       <c r="F11" t="n">
         <v>1878.47571428571</v>
@@ -3368,7 +3368,7 @@
         <v>1.42516441963977</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.990087567198308</v>
+        <v>-0.991472040175493</v>
       </c>
     </row>
     <row r="12">
@@ -3410,7 +3410,7 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>0.262243742214757</v>
+        <v>0.262140092531933</v>
       </c>
       <c r="F13" t="n">
         <v>3919.605</v>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>-0.581294866352805</v>
+        <v>-0.581466551606639</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -7,20 +7,21 @@
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="5a" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="6a" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="14" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="15" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="5a" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="6a" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
@@ -842,6 +846,387 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>44302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>243.295049119533</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.415059873828465</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.190023104440148</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2055.11785714286</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-165871.125</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.38613327143824</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.721193591042821</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44386</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1444.94054069675</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.577927133588421</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.835018144430228</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1384.14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>76640.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.15984997624233</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.0783040874621337</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>60.5612033684141</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.166262713408938</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.0718485345186965</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4953.66642857143</v>
+      </c>
+      <c r="G4" t="n">
+        <v>953414.764285715</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.78219449613319</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>156.869264340194</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0999742912566901</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>3506.10428571429</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1052101.76785714</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.1955378598709</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.42172328934366</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0375554805809119</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.14322728968482</v>
+      </c>
+      <c r="F6" t="n">
+        <v>29225.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9727288.65000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.534244885751498</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>173.070979705367</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.426859527793496</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0430076588941056</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2600.08928571429</v>
+      </c>
+      <c r="G7" t="n">
+        <v>200400.675000005</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.23822425210174</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.36645419746087</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.9540200057436</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.131401183260687</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.089021967023526</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20644.0714285714</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3189276.075</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.22927269128908</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.57548757401697</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0192449199286524</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0322295008782968</v>
+      </c>
+      <c r="F9" t="n">
+        <v>63472.4142857143</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64313703.7285714</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.197414982211926</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.49174642013085</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17.4458643924238</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0323205086994282</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.146809310279103</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11464.035</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11705049.525</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.24169249236021</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.833246401677268</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.617325749677</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.20143331114612</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1019830414486</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1878.47571428571</v>
+      </c>
+      <c r="G11" t="n">
+        <v>141748.307142857</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.42516441963977</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.991472040175493</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>160.293015632576</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.138009949764872</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.304619300450722</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2495.43</v>
+      </c>
+      <c r="G12" t="n">
+        <v>524364.15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.20491459947009</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.51624258355513</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>0.262140092531933</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3919.605</v>
+      </c>
+      <c r="G13" t="n">
+        <v>539592.75</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="n">
+        <v>-0.581466551606639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -881,32 +1266,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44285</v>
+        <v>44292</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>218.653058116812</v>
+        <v>45.7971257985546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0308372725815327</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.33357194499513</v>
-      </c>
+        <v>0.0462709643091429</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
-        <v>5488.14642857143</v>
+        <v>5458.85785714287</v>
       </c>
       <c r="G2" t="n">
-        <v>4876410.9</v>
+        <v>3562871.65714287</v>
       </c>
       <c r="H2" t="n">
-        <v>2.33975555583577</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.476810482753012</v>
-      </c>
+        <v>1.6608382227856</v>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -916,54 +1297,54 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>2.06639791095437</v>
+        <v>7.31312382905134</v>
       </c>
       <c r="D3" t="n">
-        <v>0.028469917352607</v>
+        <v>0.0186472739593504</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103246752096473</v>
+        <v>0.47962197581167</v>
       </c>
       <c r="F3" t="n">
-        <v>24196.695</v>
+        <v>13674.0471428571</v>
       </c>
       <c r="G3" t="n">
-        <v>9603914.55</v>
+        <v>7186340.60357143</v>
       </c>
       <c r="H3" t="n">
-        <v>0.315213954111133</v>
+        <v>0.864102927153004</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.986123601354522</v>
+        <v>-0.319100926167242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>56.4532973967771</v>
+        <v>22.5234747698149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230530622192957</v>
+        <v>0.026820127000421</v>
       </c>
       <c r="E4" t="n">
-        <v>0.208368019852923</v>
+        <v>0.52571156242498</v>
       </c>
       <c r="F4" t="n">
-        <v>7971.19071428572</v>
+        <v>11099.5307142857</v>
       </c>
       <c r="G4" t="n">
-        <v>926679.107142858</v>
+        <v>11091201.1392857</v>
       </c>
       <c r="H4" t="n">
-        <v>1.75168931383232</v>
+        <v>1.35263539137228</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.681168935406929</v>
+        <v>-0.279252471065758</v>
       </c>
     </row>
     <row r="5">
@@ -974,137 +1355,137 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>4.20435343981279</v>
+        <v>13.3793659977175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0173910258844274</v>
+        <v>0.0205672011357402</v>
       </c>
       <c r="E5" t="n">
-        <v>0.115660292693498</v>
+        <v>0.537089994272753</v>
       </c>
       <c r="F5" t="n">
-        <v>11892.435</v>
+        <v>3737.09785714286</v>
       </c>
       <c r="G5" t="n">
-        <v>9368415.675</v>
+        <v>1835188.37142857</v>
       </c>
       <c r="H5" t="n">
-        <v>0.623699217943341</v>
+        <v>1.1264355341929</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.936815712992044</v>
+        <v>-0.269952938245627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44659</v>
+        <v>44666</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>45.7221685893927</v>
+        <v>8.55028667889765</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0816494874119976</v>
+        <v>0.0127442482204935</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>6561.36857142857</v>
+        <v>17543.2714285714</v>
       </c>
       <c r="G6" t="n">
-        <v>1149150.76071429</v>
+        <v>11838449.1321429</v>
       </c>
       <c r="H6" t="n">
-        <v>1.66012682067494</v>
+        <v>0.931980676245845</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44733</v>
+        <v>44818</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>5.84854833181856</v>
+        <v>80.2971338081475</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0217811972641943</v>
+        <v>0.0756138674831853</v>
       </c>
       <c r="E7" t="n">
-        <v>0.118618295568362</v>
+        <v>0.733067126241204</v>
       </c>
       <c r="F7" t="n">
-        <v>8549.13</v>
+        <v>4981.49785714286</v>
       </c>
       <c r="G7" t="n">
-        <v>3925004.625</v>
+        <v>1686547.05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.767048083224665</v>
+        <v>1.90470004349137</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.925848320654844</v>
+        <v>-0.134856255616212</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44806</v>
+        <v>44998</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>94.0961393698247</v>
+        <v>73.3277604235412</v>
       </c>
       <c r="D8" t="n">
-        <v>0.125964440018116</v>
+        <v>0.0601797177022106</v>
       </c>
       <c r="E8" t="n">
-        <v>0.32669127366084</v>
+        <v>0.604935952376543</v>
       </c>
       <c r="F8" t="n">
-        <v>6376.45714285715</v>
+        <v>6818.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1543943.21785715</v>
+        <v>2266112.325</v>
       </c>
       <c r="H8" t="n">
-        <v>1.97357180531061</v>
+        <v>1.8652684209761</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.485862465927253</v>
+        <v>-0.218290603863035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44998</v>
+        <v>45140</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>4.110400422878</v>
+        <v>203.61423579318</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0135347353218176</v>
+        <v>0.151213418262108</v>
       </c>
       <c r="E9" t="n">
-        <v>0.148399542142312</v>
+        <v>0.861815715904159</v>
       </c>
       <c r="F9" t="n">
-        <v>121642.65</v>
+        <v>6875.74714285714</v>
       </c>
       <c r="G9" t="n">
-        <v>139305352.5</v>
+        <v>682057.242857143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.61388413160249</v>
+        <v>2.30880813864651</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.828567438985388</v>
+        <v>-0.0645855904655424</v>
       </c>
     </row>
     <row r="10">
@@ -1115,25 +1496,25 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>850.231688135016</v>
+        <v>587.941323455919</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.264707017120813</v>
+        <v>0.116204075358259</v>
       </c>
       <c r="E10" t="n">
-        <v>0.528260069853473</v>
+        <v>1.08829296279805</v>
       </c>
       <c r="F10" t="n">
-        <v>1999.455</v>
+        <v>2041.02</v>
       </c>
       <c r="G10" t="n">
-        <v>-105748.499999999</v>
+        <v>298589.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92953728708808</v>
+        <v>2.7693339856495</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.277152215543772</v>
+        <v>0.0367458209135808</v>
       </c>
     </row>
   </sheetData>
@@ -1181,201 +1562,259 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44299</v>
+        <v>44285</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>201.556447682785</v>
+        <v>218.653058116812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0966260418499097</v>
+        <v>0.0308372725815327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.550747337517402</v>
+        <v>0.33357194499513</v>
       </c>
       <c r="F2" t="n">
-        <v>1984.55571428571</v>
+        <v>5488.14642857143</v>
       </c>
       <c r="G2" t="n">
-        <v>626424.803571428</v>
+        <v>4876410.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.30439669555911</v>
+        <v>2.33975555583577</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.259047593685675</v>
+        <v>-0.476810482753012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44371</v>
+        <v>44452</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>416.243786340365</v>
+        <v>2.06639791095437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214345900534267</v>
+        <v>0.028469917352607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.89859430101436</v>
+        <v>0.103246752096473</v>
       </c>
       <c r="F3" t="n">
-        <v>3363.41357142857</v>
+        <v>24196.695</v>
       </c>
       <c r="G3" t="n">
-        <v>643352.432142857</v>
+        <v>9603914.55</v>
       </c>
       <c r="H3" t="n">
-        <v>2.61934776344354</v>
+        <v>0.315213954111133</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0464363400784758</v>
+        <v>-0.986123601354522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44510</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>41.9734413050142</v>
+        <v>56.4532973967771</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0482196240014123</v>
+        <v>0.230530622192957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.506400216436797</v>
+        <v>0.208368019852923</v>
       </c>
       <c r="F4" t="n">
-        <v>14294.7535714286</v>
+        <v>7971.19071428572</v>
       </c>
       <c r="G4" t="n">
-        <v>4980376.03928571</v>
+        <v>926679.107142858</v>
       </c>
       <c r="H4" t="n">
-        <v>1.62297457746762</v>
+        <v>1.75168931383232</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.295506117372047</v>
+        <v>-0.681168935406929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44517</v>
+        <v>44589</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>61.6453450829362</v>
+        <v>4.20435343981279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0396467471682954</v>
+        <v>0.0173910258844274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.542257562907983</v>
+        <v>0.115660292693498</v>
       </c>
       <c r="F5" t="n">
-        <v>9733.09499999999</v>
+        <v>11892.435</v>
       </c>
       <c r="G5" t="n">
-        <v>7413961.79999999</v>
+        <v>9368415.675</v>
       </c>
       <c r="H5" t="n">
-        <v>1.78990028805065</v>
+        <v>0.623699217943341</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.26579438213295</v>
+        <v>-0.936815712992044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44659</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3696008298861</v>
+        <v>45.7221685893927</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0240540549037401</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.47259266099701</v>
-      </c>
+        <v>0.0816494874119976</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" t="n">
-        <v>5443.77642857143</v>
+        <v>6561.36857142857</v>
       </c>
       <c r="G6" t="n">
-        <v>2896822.95</v>
+        <v>1149150.76071429</v>
       </c>
       <c r="H6" t="n">
-        <v>1.26409971922027</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.32551302691281</v>
-      </c>
+        <v>1.66012682067494</v>
+      </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44666</v>
+        <v>44733</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>43.1380098171326</v>
+        <v>5.84854833181856</v>
       </c>
       <c r="D7" t="n">
-        <v>0.026222037675287</v>
-      </c>
-      <c r="E7"/>
+        <v>0.0217811972641943</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.118618295568362</v>
+      </c>
       <c r="F7" t="n">
-        <v>9272.565</v>
+        <v>8549.13</v>
       </c>
       <c r="G7" t="n">
-        <v>14109328.5</v>
+        <v>3925004.625</v>
       </c>
       <c r="H7" t="n">
-        <v>1.63486010494421</v>
-      </c>
-      <c r="I7"/>
+        <v>0.767048083224665</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.925848320654844</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44818</v>
+        <v>44806</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>268.141444612033</v>
+        <v>94.0961393698247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.117343468865951</v>
+        <v>0.125964440018116</v>
       </c>
       <c r="E8" t="n">
-        <v>0.837560505687049</v>
+        <v>0.32669127366084</v>
       </c>
       <c r="F8" t="n">
-        <v>2237.625</v>
+        <v>6376.45714285715</v>
       </c>
       <c r="G8" t="n">
-        <v>444308.174999999</v>
+        <v>1543943.21785715</v>
       </c>
       <c r="H8" t="n">
-        <v>2.42836394481183</v>
+        <v>1.97357180531061</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0769838095605552</v>
+        <v>-0.485862465927253</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.110400422878</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0135347353218176</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.148399542142312</v>
+      </c>
+      <c r="F9" t="n">
+        <v>121642.65</v>
+      </c>
+      <c r="G9" t="n">
+        <v>139305352.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.61388413160249</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.828567438985388</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>850.231688135016</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.264707017120813</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.528260069853473</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1999.455</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-105748.499999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.92953728708808</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.277152215543772</v>
       </c>
     </row>
   </sheetData>
@@ -1423,346 +1862,201 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44386</v>
+        <v>44299</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>1661.73191635079</v>
+        <v>201.556447682785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.387436294953374</v>
+        <v>0.0966260418499097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.843910837480766</v>
+        <v>0.550747337517402</v>
       </c>
       <c r="F2" t="n">
-        <v>1203.56357142857</v>
+        <v>1984.55571428571</v>
       </c>
       <c r="G2" t="n">
-        <v>178933.317857143</v>
+        <v>626424.803571428</v>
       </c>
       <c r="H2" t="n">
-        <v>3.22056096130097</v>
+        <v>2.30439669555911</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0737034358810179</v>
+        <v>-0.259047593685675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44371</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>25.6084522525835</v>
+        <v>416.243786340365</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0748083206536477</v>
+        <v>0.214345900534267</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0314608700934574</v>
+        <v>0.89859430101436</v>
       </c>
       <c r="F3" t="n">
-        <v>11714.8821428571</v>
+        <v>3363.41357142857</v>
       </c>
       <c r="G3" t="n">
-        <v>3774027.50357143</v>
+        <v>643352.432142857</v>
       </c>
       <c r="H3" t="n">
-        <v>1.40838333096844</v>
+        <v>2.61934776344354</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.50222927053785</v>
+        <v>-0.0464363400784758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44510</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>326.494767171751</v>
+        <v>41.9734413050142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.181034619271933</v>
+        <v>0.0482196240014123</v>
       </c>
       <c r="E4" t="n">
-        <v>0.298854491442191</v>
+        <v>0.506400216436797</v>
       </c>
       <c r="F4" t="n">
-        <v>4287.97071428572</v>
+        <v>14294.7535714286</v>
       </c>
       <c r="G4" t="n">
-        <v>959279.58214286</v>
+        <v>4980376.03928571</v>
       </c>
       <c r="H4" t="n">
-        <v>2.51387622510069</v>
+        <v>1.62297457746762</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.524540212830461</v>
+        <v>-0.295506117372047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44517</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>55.2594896825599</v>
+        <v>61.6453450829362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0466003004043193</v>
+        <v>0.0396467471682954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.071022433807391</v>
+        <v>0.542257562907983</v>
       </c>
       <c r="F5" t="n">
-        <v>3619.28785714286</v>
+        <v>9733.09499999999</v>
       </c>
       <c r="G5" t="n">
-        <v>1654299.02142857</v>
+        <v>7413961.79999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1.74240686992049</v>
+        <v>1.78990028805065</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.1486044493111</v>
+        <v>-0.26579438213295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44659</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>-59.2075325514556</v>
+        <v>18.3696008298861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00694043951640586</v>
-      </c>
-      <c r="E6"/>
+        <v>0.0240540549037401</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.47259266099701</v>
+      </c>
       <c r="F6" t="n">
-        <v>-20267.6914285714</v>
+        <v>5443.77642857143</v>
       </c>
       <c r="G6" t="n">
-        <v>-90527182.4357143</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I6"/>
+        <v>2896822.95</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.26409971922027</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.32551302691281</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44733</v>
+        <v>44666</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>19.3061500671871</v>
+        <v>43.1380098171326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0247248402753767</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.00408688713481306</v>
-      </c>
+        <v>0.026222037675287</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="n">
-        <v>20718.7864285714</v>
+        <v>9272.565</v>
       </c>
       <c r="G7" t="n">
-        <v>24301261.3928571</v>
+        <v>14109328.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.28569567764907</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-2.38860735578112</v>
-      </c>
+        <v>1.63486010494421</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44806</v>
+        <v>44818</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>83.4160791046595</v>
+        <v>268.141444612033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.104270024651914</v>
+        <v>0.117343468865951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.292886326762752</v>
+        <v>0.837560505687049</v>
       </c>
       <c r="F8" t="n">
-        <v>11988.0964285714</v>
+        <v>2237.625</v>
       </c>
       <c r="G8" t="n">
-        <v>4242453.76071428</v>
+        <v>444308.174999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1.92124977238071</v>
+        <v>2.42836394481183</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.533300902644435</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>62.1041048151678</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0624314324451668</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.100958463791928</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7245.89785714286</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3017604.06428571</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.79312030612925</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.995857266378117</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>44959</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="n">
-        <v>30.1205661719794</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.017179789481342</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.100905322589866</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6639.98142857143</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10435488.675</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.47886313097672</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.996085924838993</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="n">
-        <v>203.383280877396</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.223866557705922</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.292268158933349</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2950.095</v>
-      </c>
-      <c r="G11" t="n">
-        <v>466498.274999997</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.30831524887617</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.534218496147122</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7.12054440834328</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0106085660132641</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0398067631956158</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7021.935</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16680177.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.852513199325168</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-1.40004313473525</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1159.08432338453</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.192383869915185</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.69658739105357</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3105.9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>613482.825</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.06411503203648</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.157024390982315</v>
+        <v>-0.0769838095605552</v>
       </c>
     </row>
   </sheetData>
@@ -1810,164 +2104,172 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44299</v>
+        <v>44386</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>23.3064027849153</v>
+        <v>1661.73191635079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0288993102026876</v>
-      </c>
-      <c r="E2"/>
+        <v>0.387436294953374</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.843910837480766</v>
+      </c>
       <c r="F2" t="n">
-        <v>4290.66642857143</v>
+        <v>1203.56357142857</v>
       </c>
       <c r="G2" t="n">
-        <v>2672451.18214286</v>
+        <v>178933.317857143</v>
       </c>
       <c r="H2" t="n">
-        <v>1.36747524772831</v>
-      </c>
-      <c r="I2"/>
+        <v>3.22056096130097</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.0737034358810179</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44386</v>
+        <v>44452</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>270.901397309407</v>
+        <v>25.6084522525835</v>
       </c>
       <c r="D3" t="n">
-        <v>0.233297132170326</v>
-      </c>
-      <c r="E3"/>
+        <v>0.0748083206536477</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0314608700934574</v>
+      </c>
       <c r="F3" t="n">
-        <v>3691.38</v>
+        <v>11714.8821428571</v>
       </c>
       <c r="G3" t="n">
-        <v>424047.15</v>
+        <v>3774027.50357143</v>
       </c>
       <c r="H3" t="n">
-        <v>2.43281124512988</v>
-      </c>
-      <c r="I3"/>
+        <v>1.40838333096844</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.50222927053785</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44510</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>2.04807802379181</v>
+        <v>326.494767171751</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0334046106509795</v>
+        <v>0.181034619271933</v>
       </c>
       <c r="E4" t="n">
-        <v>0.47844128219725</v>
+        <v>0.298854491442191</v>
       </c>
       <c r="F4" t="n">
-        <v>24413.1324193548</v>
+        <v>4287.97071428572</v>
       </c>
       <c r="G4" t="n">
-        <v>4019571.72048387</v>
+        <v>959279.58214286</v>
       </c>
       <c r="H4" t="n">
-        <v>0.311346497546363</v>
+        <v>2.51387622510069</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.320171354402254</v>
+        <v>-0.524540212830461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44510</v>
+        <v>44589</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>21.1919407049499</v>
+        <v>55.2594896825599</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0277510769684758</v>
-      </c>
-      <c r="E5"/>
+        <v>0.0466003004043193</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.071022433807391</v>
+      </c>
       <c r="F5" t="n">
-        <v>9437.55</v>
+        <v>3619.28785714286</v>
       </c>
       <c r="G5" t="n">
-        <v>5271219.75</v>
+        <v>1654299.02142857</v>
       </c>
       <c r="H5" t="n">
-        <v>1.32617073013491</v>
-      </c>
-      <c r="I5"/>
+        <v>1.74240686992049</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1.1486044493111</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44659</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>138.347849975591</v>
+        <v>-59.2075325514556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00958213989251452</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.455538766986625</v>
-      </c>
+        <v>0.00694043951640586</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" t="n">
-        <v>722.815714285718</v>
+        <v>-20267.6914285714</v>
       </c>
       <c r="G6" t="n">
-        <v>618555.867857144</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.14097241428295</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.341474658050028</v>
-      </c>
+        <v>-90527182.4357143</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44659</v>
+        <v>44733</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>10.1562152863735</v>
+        <v>19.3061500671871</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0160991553702436</v>
+        <v>0.0247248402753767</v>
       </c>
       <c r="E7" t="n">
-        <v>0.554639976552681</v>
+        <v>0.00408688713481306</v>
       </c>
       <c r="F7" t="n">
-        <v>19692.375</v>
+        <v>20718.7864285714</v>
       </c>
       <c r="G7" t="n">
-        <v>12231930.525</v>
+        <v>24301261.3928571</v>
       </c>
       <c r="H7" t="n">
-        <v>1.00673189825654</v>
+        <v>1.28569567764907</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.255988831169016</v>
+        <v>-2.38860735578112</v>
       </c>
     </row>
     <row r="8">
@@ -1978,83 +2280,170 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>35.2877784497159</v>
+        <v>83.4160791046595</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0598939505762173</v>
+        <v>0.104270024651914</v>
       </c>
       <c r="E8" t="n">
-        <v>0.578629035198701</v>
+        <v>0.292886326762752</v>
       </c>
       <c r="F8" t="n">
-        <v>22670.7385714286</v>
+        <v>11988.0964285714</v>
       </c>
       <c r="G8" t="n">
-        <v>9576420.99642858</v>
+        <v>4242453.76071428</v>
       </c>
       <c r="H8" t="n">
-        <v>1.54762431811064</v>
+        <v>1.92124977238071</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.237599777549088</v>
+        <v>-0.533300902644435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45140</v>
+        <v>44879</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>139.040343548826</v>
+        <v>62.1041048151678</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114325713526605</v>
+        <v>0.0624314324451668</v>
       </c>
       <c r="E9" t="n">
-        <v>0.603687349344395</v>
+        <v>0.100958463791928</v>
       </c>
       <c r="F9" t="n">
-        <v>6113.33357142857</v>
+        <v>7245.89785714286</v>
       </c>
       <c r="G9" t="n">
-        <v>962513.164285714</v>
+        <v>3017604.06428571</v>
       </c>
       <c r="H9" t="n">
-        <v>2.14314083218554</v>
+        <v>1.79312030612925</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.219187924970591</v>
+        <v>-0.995857266378117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45197</v>
+        <v>44959</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5478970626159</v>
+        <v>30.1205661719794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0380123901994629</v>
+        <v>0.017179789481342</v>
       </c>
       <c r="E10" t="n">
-        <v>0.46420761962736</v>
+        <v>0.100905322589866</v>
       </c>
       <c r="F10" t="n">
-        <v>10782.8935714286</v>
+        <v>6639.98142857143</v>
       </c>
       <c r="G10" t="n">
-        <v>5673357.30000001</v>
+        <v>10435488.675</v>
       </c>
       <c r="H10" t="n">
-        <v>1.26829467697673</v>
+        <v>1.47886313097672</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.333287735196435</v>
+        <v>-0.996085924838993</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>203.383280877396</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.223866557705922</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.292268158933349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2950.095</v>
+      </c>
+      <c r="G11" t="n">
+        <v>466498.274999997</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.30831524887617</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.534218496147122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.12054440834328</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0106085660132641</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0398067631956158</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7021.935</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16680177.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.852513199325168</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.40004313473525</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1159.08432338453</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.192383869915185</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.69658739105357</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3105.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>613482.825</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.06411503203648</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.157024390982315</v>
       </c>
     </row>
   </sheetData>
@@ -2102,369 +2491,251 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44292</v>
+        <v>44299</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>1474.27392009435</v>
+        <v>23.3064027849153</v>
       </c>
       <c r="D2" t="n">
-        <v>0.609595398242257</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.642692214475338</v>
-      </c>
+        <v>0.0288993102026876</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
-        <v>1356.6</v>
+        <v>4290.66642857143</v>
       </c>
       <c r="G2" t="n">
-        <v>111270.525</v>
+        <v>2672451.18214286</v>
       </c>
       <c r="H2" t="n">
-        <v>3.16857818293498</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.191996961068096</v>
-      </c>
+        <v>1.36747524772831</v>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44386</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>163.514515592335</v>
+        <v>270.901397309407</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19909322659857</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.456824240921209</v>
-      </c>
+        <v>0.233297132170326</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
-        <v>6115.665</v>
+        <v>3691.38</v>
       </c>
       <c r="G3" t="n">
-        <v>1170340.35</v>
+        <v>424047.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.21355631211454</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.340250858748654</v>
-      </c>
+        <v>2.43281124512988</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44589</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>65.6511558308027</v>
+        <v>2.04807802379181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09276270132275</v>
+        <v>0.0334046106509795</v>
       </c>
       <c r="E4" t="n">
-        <v>0.38887615975603</v>
+        <v>0.47844128219725</v>
       </c>
       <c r="F4" t="n">
-        <v>7616.01214285714</v>
+        <v>24413.1324193548</v>
       </c>
       <c r="G4" t="n">
-        <v>2101813.63928571</v>
+        <v>4019571.72048387</v>
       </c>
       <c r="H4" t="n">
-        <v>1.81724237652635</v>
+        <v>0.311346497546363</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.410188680672972</v>
+        <v>-0.320171354402254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44665</v>
+        <v>44510</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>33.6536236839781</v>
+        <v>21.1919407049499</v>
       </c>
       <c r="D5" t="n">
-        <v>0.132219643097552</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.317914439292082</v>
-      </c>
+        <v>0.0277510769684758</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="n">
-        <v>17828.6892857143</v>
+        <v>9437.55</v>
       </c>
       <c r="G5" t="n">
-        <v>3640719.33214286</v>
+        <v>5271219.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5270318341239</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.497689746503399</v>
-      </c>
+        <v>1.32617073013491</v>
+      </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44817</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>1147.67621184873</v>
+        <v>138.347849975591</v>
       </c>
       <c r="D6" t="n">
-        <v>0.370207050897618</v>
+        <v>0.00958213989251452</v>
       </c>
       <c r="E6" t="n">
-        <v>0.810515482511753</v>
+        <v>0.455538766986625</v>
       </c>
       <c r="F6" t="n">
-        <v>1394.12142857143</v>
+        <v>722.815714285718</v>
       </c>
       <c r="G6" t="n">
-        <v>158539.692857143</v>
+        <v>618555.867857144</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05981938001173</v>
+        <v>2.14097241428295</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0912386848189221</v>
+        <v>-0.341474658050028</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44880</v>
+        <v>44659</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7914719322554</v>
+        <v>10.1562152863735</v>
       </c>
       <c r="D7" t="n">
-        <v>0.108285591446864</v>
-      </c>
-      <c r="E7"/>
+        <v>0.0160991553702436</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.554639976552681</v>
+      </c>
       <c r="F7" t="n">
-        <v>9619.32857142857</v>
+        <v>19692.375</v>
       </c>
       <c r="G7" t="n">
-        <v>1687826.05714286</v>
+        <v>12231930.525</v>
       </c>
       <c r="H7" t="n">
-        <v>1.31788523629769</v>
-      </c>
-      <c r="I7"/>
+        <v>1.00673189825654</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.255988831169016</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44953</v>
+        <v>44806</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>5.13894891976541</v>
+        <v>35.2877784497159</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0176083819768147</v>
+        <v>0.0598939505762173</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0509851313580177</v>
+        <v>0.578629035198701</v>
       </c>
       <c r="F8" t="n">
-        <v>19459.2321428571</v>
+        <v>22670.7385714286</v>
       </c>
       <c r="G8" t="n">
-        <v>27627797.0464286</v>
+        <v>9576420.99642858</v>
       </c>
       <c r="H8" t="n">
-        <v>0.710874300897029</v>
-      </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
+        <v>1.54762431811064</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.237599777549088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44998</v>
+        <v>45140</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1790704053949</v>
+        <v>139.040343548826</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0942639400766061</v>
+        <v>0.114325713526605</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0410550448373626</v>
+        <v>0.603687349344395</v>
       </c>
       <c r="F9" t="n">
-        <v>18083.6892857143</v>
+        <v>6113.33357142857</v>
       </c>
       <c r="G9" t="n">
-        <v>4604184.19285714</v>
+        <v>962513.164285714</v>
       </c>
       <c r="H9" t="n">
-        <v>1.52086421401315</v>
+        <v>2.14314083218554</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.38663346922879</v>
+        <v>-0.219187924970591</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45140</v>
+        <v>45197</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>657.928746316773</v>
+        <v>18.5478970626159</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.624858780565361</v>
+        <v>0.0380123901994629</v>
       </c>
       <c r="E10" t="n">
-        <v>0.489625120007815</v>
+        <v>0.46420761962736</v>
       </c>
       <c r="F10" t="n">
-        <v>1823.90571428572</v>
+        <v>10782.8935714286</v>
       </c>
       <c r="G10" t="n">
-        <v>-61297.0821428564</v>
+        <v>5673357.30000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2.81817886206828</v>
+        <v>1.26829467697673</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.310136308997868</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45197</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>133.328381136318</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0966021881464723</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.190986898896875</v>
-      </c>
-      <c r="F11" t="n">
-        <v>750.027857142865</v>
-      </c>
-      <c r="G11" t="n">
-        <v>273295.885714292</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.12492260596996</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.718996422971846</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17.3551452799212</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0456410932698102</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0829762877707573</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2880.99</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1527569.85</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.23942825350176</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-1.08104599872781</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>236.595392304735</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.229962718506469</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.287726779544469</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2535.975</v>
-      </c>
-      <c r="G13" t="n">
-        <v>628582.649999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.37400628248923</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.541019715213791</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" t="n">
-        <v>0.186952867332309</v>
-      </c>
-      <c r="F14" t="n">
-        <v>47179.08</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17329386.9</v>
-      </c>
-      <c r="H14"/>
-      <c r="I14" t="n">
-        <v>-0.728267869600161</v>
+        <v>-0.333287735196435</v>
       </c>
     </row>
   </sheetData>
@@ -2518,224 +2789,363 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>79.9725579879591</v>
+        <v>1474.27392009435</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0836415522456026</v>
+        <v>0.609595398242257</v>
       </c>
       <c r="E2" t="n">
-        <v>0.175235931608227</v>
+        <v>0.642692214475338</v>
       </c>
       <c r="F2" t="n">
-        <v>2500.85785714285</v>
+        <v>1356.6</v>
       </c>
       <c r="G2" t="n">
-        <v>774402.396428567</v>
+        <v>111270.525</v>
       </c>
       <c r="H2" t="n">
-        <v>1.90294098750518</v>
+        <v>3.16857818293498</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.756376838240995</v>
+        <v>-0.191996961068096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44371</v>
+        <v>44452</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>97.517092917943</v>
+        <v>163.514515592335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0844166976160872</v>
+        <v>0.19909322659857</v>
       </c>
       <c r="E3" t="n">
-        <v>0.428172659072591</v>
+        <v>0.456824240921209</v>
       </c>
       <c r="F3" t="n">
-        <v>12305.535</v>
+        <v>6115.665</v>
       </c>
       <c r="G3" t="n">
-        <v>5685082.2</v>
+        <v>1170340.35</v>
       </c>
       <c r="H3" t="n">
-        <v>1.9890807460505</v>
+        <v>2.21355631211454</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.368381067992078</v>
+        <v>-0.340250858748654</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44589</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3008118570891</v>
+        <v>65.6511558308027</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10472695502504</v>
+        <v>0.09276270132275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.226952277503813</v>
+        <v>0.38887615975603</v>
       </c>
       <c r="F4" t="n">
-        <v>13985.22</v>
+        <v>7616.01214285714</v>
       </c>
       <c r="G4" t="n">
-        <v>1949681.55</v>
+        <v>2101813.63928571</v>
       </c>
       <c r="H4" t="n">
-        <v>1.15536069306266</v>
+        <v>1.81724237652635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.64406545468198</v>
+        <v>-0.410188680672972</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44517</v>
+        <v>44665</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>19.273719443755</v>
+        <v>33.6536236839781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0768117708525735</v>
+        <v>0.132219643097552</v>
       </c>
       <c r="E5" t="n">
-        <v>0.258582477591671</v>
+        <v>0.317914439292082</v>
       </c>
       <c r="F5" t="n">
-        <v>10376.8242857143</v>
+        <v>17828.6892857143</v>
       </c>
       <c r="G5" t="n">
-        <v>2877506.33571429</v>
+        <v>3640719.33214286</v>
       </c>
       <c r="H5" t="n">
-        <v>1.28496553292348</v>
+        <v>1.5270318341239</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.587400907696447</v>
+        <v>-0.497689746503399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44817</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>6.79493167987407</v>
+        <v>1147.67621184873</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0279077813421051</v>
+        <v>0.370207050897618</v>
       </c>
       <c r="E6" t="n">
-        <v>0.185682797933314</v>
+        <v>0.810515482511753</v>
       </c>
       <c r="F6" t="n">
-        <v>14716.8514285714</v>
+        <v>1394.12142857143</v>
       </c>
       <c r="G6" t="n">
-        <v>4798781.61428571</v>
+        <v>158539.692857143</v>
       </c>
       <c r="H6" t="n">
-        <v>0.832185094445576</v>
+        <v>3.05981938001173</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.731228328401752</v>
+        <v>-0.0912386848189221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44665</v>
+        <v>44880</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>5.52548180523963</v>
+        <v>20.7914719322554</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0835954778785003</v>
+        <v>0.108285591446864</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
-        <v>18097.9692857143</v>
+        <v>9619.32857142857</v>
       </c>
       <c r="G7" t="n">
-        <v>2641234.08214286</v>
+        <v>1687826.05714286</v>
       </c>
       <c r="H7" t="n">
-        <v>0.74237015316871</v>
+        <v>1.31788523629769</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44818</v>
+        <v>44953</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>52.7801968701343</v>
+        <v>5.13894891976541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0490018181170012</v>
+        <v>0.0176083819768147</v>
       </c>
       <c r="E8" t="n">
-        <v>0.346783836740215</v>
+        <v>-0.0509851313580177</v>
       </c>
       <c r="F8" t="n">
-        <v>7578.6</v>
+        <v>19459.2321428571</v>
       </c>
       <c r="G8" t="n">
-        <v>3433442.4</v>
+        <v>27627797.0464286</v>
       </c>
       <c r="H8" t="n">
-        <v>1.72247100580547</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.459941152770569</v>
+        <v>0.710874300897029</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45279</v>
+        <v>44998</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>409.296138546743</v>
+        <v>33.1790704053949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0895346799829791</v>
+        <v>0.0942639400766061</v>
       </c>
       <c r="E9" t="n">
-        <v>0.386132065900496</v>
+        <v>0.0410550448373626</v>
       </c>
       <c r="F9" t="n">
-        <v>1954.575</v>
+        <v>18083.6892857143</v>
       </c>
       <c r="G9" t="n">
-        <v>458437.725</v>
+        <v>4604184.19285714</v>
       </c>
       <c r="H9" t="n">
-        <v>2.61203764736759</v>
+        <v>1.52086421401315</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.413264131384523</v>
+        <v>-1.38663346922879</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>657.928746316773</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.624858780565361</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.489625120007815</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1823.90571428572</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-61297.0821428564</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.81817886206828</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.310136308997868</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>133.328381136318</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0966021881464723</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.190986898896875</v>
+      </c>
+      <c r="F11" t="n">
+        <v>750.027857142865</v>
+      </c>
+      <c r="G11" t="n">
+        <v>273295.885714292</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.12492260596996</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.718996422971846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17.3551452799212</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0456410932698102</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0829762877707573</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2880.99</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1527569.85</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.23942825350176</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.08104599872781</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>236.595392304735</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.229962718506469</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.287726779544469</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2535.975</v>
+      </c>
+      <c r="G13" t="n">
+        <v>628582.649999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.37400628248923</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.541019715213791</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="n">
+        <v>0.186952867332309</v>
+      </c>
+      <c r="F14" t="n">
+        <v>47179.08</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17329386.9</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="n">
+        <v>-0.728267869600161</v>
       </c>
     </row>
   </sheetData>
@@ -2789,25 +3199,25 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>110.528991754537</v>
+        <v>79.9725579879591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0578152666505854</v>
+        <v>0.0836415522456026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.334368448888413</v>
+        <v>0.175235931608227</v>
       </c>
       <c r="F2" t="n">
-        <v>2261.85</v>
+        <v>2500.85785714285</v>
       </c>
       <c r="G2" t="n">
-        <v>1490548.95</v>
+        <v>774402.396428567</v>
       </c>
       <c r="H2" t="n">
-        <v>2.04347620840636</v>
+        <v>1.90294098750518</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.475774709463059</v>
+        <v>-0.756376838240995</v>
       </c>
     </row>
     <row r="3">
@@ -2818,25 +3228,25 @@
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>145.543610583516</v>
+        <v>97.517092917943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0876716470388422</v>
+        <v>0.0844166976160872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.432978589290512</v>
+        <v>0.428172659072591</v>
       </c>
       <c r="F3" t="n">
-        <v>4122.47571428571</v>
+        <v>12305.535</v>
       </c>
       <c r="G3" t="n">
-        <v>1650464.00357143</v>
+        <v>5685082.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16299314451045</v>
+        <v>1.9890807460505</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.363533578895795</v>
+        <v>-0.368381067992078</v>
       </c>
     </row>
     <row r="4">
@@ -2847,25 +3257,25 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>19.0713037906123</v>
+        <v>14.3008118570891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111120888231963</v>
+        <v>0.10472695502504</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23773763726534</v>
+        <v>0.226952277503813</v>
       </c>
       <c r="F4" t="n">
-        <v>7865.22</v>
+        <v>13985.22</v>
       </c>
       <c r="G4" t="n">
-        <v>1033398.975</v>
+        <v>1949681.55</v>
       </c>
       <c r="H4" t="n">
-        <v>1.28038038416888</v>
+        <v>1.15536069306266</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.623902057806076</v>
+        <v>-0.64406545468198</v>
       </c>
     </row>
     <row r="5">
@@ -2876,25 +3286,25 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9350140609002</v>
+        <v>19.273719443755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0463166323010258</v>
+        <v>0.0768117708525735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21568387517109</v>
+        <v>0.258582477591671</v>
       </c>
       <c r="F5" t="n">
-        <v>11809.8514285714</v>
+        <v>10376.8242857143</v>
       </c>
       <c r="G5" t="n">
-        <v>10479710.4107143</v>
+        <v>2877506.33571429</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2287855615693</v>
+        <v>1.28496553292348</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.666182322148197</v>
+        <v>-0.587400907696447</v>
       </c>
     </row>
     <row r="6">
@@ -2905,55 +3315,51 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>4.49444319884161</v>
+        <v>6.79493167987407</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0437964783271548</v>
+        <v>0.0279077813421051</v>
       </c>
       <c r="E6" t="n">
-        <v>0.184310511172043</v>
+        <v>0.185682797933314</v>
       </c>
       <c r="F6" t="n">
-        <v>11124.8485714286</v>
+        <v>14716.8514285714</v>
       </c>
       <c r="G6" t="n">
-        <v>2159105.4</v>
+        <v>4798781.61428571</v>
       </c>
       <c r="H6" t="n">
-        <v>0.652675896147369</v>
+        <v>0.832185094445576</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.734449896393269</v>
+        <v>-0.731228328401752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44666</v>
+        <v>44665</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>2.89214023293876</v>
+        <v>5.52548180523963</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0252018268584692</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.153543970343754</v>
-      </c>
+        <v>0.0835954778785003</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="n">
-        <v>17288.235</v>
+        <v>18097.9692857143</v>
       </c>
       <c r="G7" t="n">
-        <v>11318857.125</v>
+        <v>2641234.08214286</v>
       </c>
       <c r="H7" t="n">
-        <v>0.461219347030154</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.813767233586602</v>
-      </c>
+        <v>0.74237015316871</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2963,83 +3369,54 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>105.628429740967</v>
+        <v>52.7801968701343</v>
       </c>
       <c r="D8" t="n">
-        <v>0.142353917790553</v>
+        <v>0.0490018181170012</v>
       </c>
       <c r="E8" t="n">
-        <v>0.398938311717069</v>
+        <v>0.346783836740215</v>
       </c>
       <c r="F8" t="n">
-        <v>7573.71857142857</v>
+        <v>7578.6</v>
       </c>
       <c r="G8" t="n">
-        <v>2255825.98928571</v>
+        <v>3433442.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.02378082367035</v>
+        <v>1.72247100580547</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.399094254569193</v>
+        <v>-0.459941152770569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44966</v>
+        <v>45279</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>8.00184819830957</v>
+        <v>409.296138546743</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0131382698505472</v>
+        <v>0.0895346799829791</v>
       </c>
       <c r="E9" t="n">
-        <v>0.110887957954024</v>
+        <v>0.386132065900496</v>
       </c>
       <c r="F9" t="n">
-        <v>6248.55642857143</v>
+        <v>1954.575</v>
       </c>
       <c r="G9" t="n">
-        <v>6658394.97857143</v>
+        <v>458437.725</v>
       </c>
       <c r="H9" t="n">
-        <v>0.903190308194961</v>
+        <v>2.61203764736759</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.955115614158115</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>44998</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="n">
-        <v>126.543034122329</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.154867311917387</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.338755228520558</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3951.225</v>
-      </c>
-      <c r="G10" t="n">
-        <v>714381.225</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.10223824332676</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.470113992943802</v>
+        <v>-0.413264131384523</v>
       </c>
     </row>
   </sheetData>
@@ -3087,340 +3464,263 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44302</v>
+        <v>44292</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>243.295049119533</v>
+        <v>110.528991754537</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.415059873828465</v>
+        <v>0.0578152666505854</v>
       </c>
       <c r="E2" t="n">
-        <v>0.190023104440148</v>
+        <v>0.334368448888413</v>
       </c>
       <c r="F2" t="n">
-        <v>2055.11785714286</v>
+        <v>2261.85</v>
       </c>
       <c r="G2" t="n">
-        <v>-165871.125</v>
+        <v>1490548.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.38613327143824</v>
+        <v>2.04347620840636</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.721193591042821</v>
+        <v>-0.475774709463059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44386</v>
+        <v>44371</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>1444.94054069675</v>
+        <v>145.543610583516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.577927133588421</v>
+        <v>0.0876716470388422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.835018144430228</v>
+        <v>0.432978589290512</v>
       </c>
       <c r="F3" t="n">
-        <v>1384.14</v>
+        <v>4122.47571428571</v>
       </c>
       <c r="G3" t="n">
-        <v>76640.25</v>
+        <v>1650464.00357143</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15984997624233</v>
+        <v>2.16299314451045</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0783040874621337</v>
+        <v>-0.363533578895795</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44589</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>60.5612033684141</v>
+        <v>19.0713037906123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.166262713408938</v>
+        <v>0.111120888231963</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0718485345186965</v>
+        <v>0.23773763726534</v>
       </c>
       <c r="F4" t="n">
-        <v>4953.66642857143</v>
+        <v>7865.22</v>
       </c>
       <c r="G4" t="n">
-        <v>953414.764285715</v>
+        <v>1033398.975</v>
       </c>
       <c r="H4" t="n">
-        <v>1.78219449613319</v>
-      </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
+        <v>1.28038038416888</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.623902057806076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44665</v>
+        <v>44517</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>156.869264340194</v>
+        <v>16.9350140609002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0999742912566901</v>
-      </c>
-      <c r="E5"/>
+        <v>0.0463166323010258</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.21568387517109</v>
+      </c>
       <c r="F5" t="n">
-        <v>3506.10428571429</v>
+        <v>11809.8514285714</v>
       </c>
       <c r="G5" t="n">
-        <v>1052101.76785714</v>
+        <v>10479710.4107143</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1955378598709</v>
-      </c>
-      <c r="I5"/>
+        <v>1.2287855615693</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.666182322148197</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44733</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>3.42172328934366</v>
+        <v>4.49444319884161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0375554805809119</v>
+        <v>0.0437964783271548</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.14322728968482</v>
+        <v>0.184310511172043</v>
       </c>
       <c r="F6" t="n">
-        <v>29225.04</v>
+        <v>11124.8485714286</v>
       </c>
       <c r="G6" t="n">
-        <v>9727288.65000001</v>
+        <v>2159105.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.534244885751498</v>
-      </c>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
+        <v>0.652675896147369</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.734449896393269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44817</v>
+        <v>44666</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>173.070979705367</v>
+        <v>2.89214023293876</v>
       </c>
       <c r="D7" t="n">
-        <v>0.426859527793496</v>
+        <v>0.0252018268584692</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0430076588941056</v>
+        <v>0.153543970343754</v>
       </c>
       <c r="F7" t="n">
-        <v>2600.08928571429</v>
+        <v>17288.235</v>
       </c>
       <c r="G7" t="n">
-        <v>200400.675000005</v>
+        <v>11318857.125</v>
       </c>
       <c r="H7" t="n">
-        <v>2.23822425210174</v>
+        <v>0.461219347030154</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.36645419746087</v>
+        <v>-0.813767233586602</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44879</v>
+        <v>44818</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>16.9540200057436</v>
+        <v>105.628429740967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131401183260687</v>
+        <v>0.142353917790553</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.089021967023526</v>
+        <v>0.398938311717069</v>
       </c>
       <c r="F8" t="n">
-        <v>20644.0714285714</v>
+        <v>7573.71857142857</v>
       </c>
       <c r="G8" t="n">
-        <v>3189276.075</v>
+        <v>2255825.98928571</v>
       </c>
       <c r="H8" t="n">
-        <v>1.22927269128908</v>
-      </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
+        <v>2.02378082367035</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.399094254569193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44953</v>
+        <v>44966</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>1.57548757401697</v>
+        <v>8.00184819830957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0192449199286524</v>
+        <v>0.0131382698505472</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0322295008782968</v>
+        <v>0.110887957954024</v>
       </c>
       <c r="F9" t="n">
-        <v>63472.4142857143</v>
+        <v>6248.55642857143</v>
       </c>
       <c r="G9" t="n">
-        <v>64313703.7285714</v>
+        <v>6658394.97857143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.197414982211926</v>
+        <v>0.903190308194961</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.49174642013085</v>
+        <v>-0.955115614158115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44999</v>
+        <v>44998</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>17.4458643924238</v>
+        <v>126.543034122329</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0323205086994282</v>
+        <v>0.154867311917387</v>
       </c>
       <c r="E10" t="n">
-        <v>0.146809310279103</v>
+        <v>0.338755228520558</v>
       </c>
       <c r="F10" t="n">
-        <v>11464.035</v>
+        <v>3951.225</v>
       </c>
       <c r="G10" t="n">
-        <v>11705049.525</v>
+        <v>714381.225</v>
       </c>
       <c r="H10" t="n">
-        <v>1.24169249236021</v>
+        <v>2.10223824332676</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.833246401677268</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="n">
-        <v>26.617325749677</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.20143331114612</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1019830414486</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1878.47571428571</v>
-      </c>
-      <c r="G11" t="n">
-        <v>141748.307142857</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.42516441963977</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.991472040175493</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>160.293015632576</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.138009949764872</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.304619300450722</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2495.43</v>
-      </c>
-      <c r="G12" t="n">
-        <v>524364.15</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.20491459947009</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0.51624258355513</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" t="n">
-        <v>0.262140092531933</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3919.605</v>
-      </c>
-      <c r="G13" t="n">
-        <v>539592.75</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13" t="n">
-        <v>-0.581466551606639</v>
+        <v>-0.470113992943802</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -1221,6 +1221,60 @@
         <v>-0.581466551606639</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="n">
+        <v>66.8680497183789</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.118977054787886</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.187721276250633</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9720.63642857143</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2369351.44285714</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.82521865669926</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.726486501834764</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.9608765878692</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.267181902314957</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>31288.2532258065</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7026281.26112903</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.50461868215803</v>
+      </c>
+      <c r="I15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2059,6 +2113,35 @@
         <v>-0.0769838095605552</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>169.269068682683</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.107799050498668</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.450104463163472</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6498.52928571428</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3014186.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.22857760472607</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.34668668064593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2446,6 +2529,31 @@
         <v>-0.157024390982315</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>75.9375823448159</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0810203587599588</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="n">
+        <v>19753.065</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9264541.425</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.88045676621674</v>
+      </c>
+      <c r="I14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -1235,7 +1235,7 @@
         <v>0.118977054787886</v>
       </c>
       <c r="E14" t="n">
-        <v>0.187721276250633</v>
+        <v>0.192172782267643</v>
       </c>
       <c r="F14" t="n">
         <v>9720.63642857143</v>
@@ -1247,7 +1247,7 @@
         <v>1.82521865669926</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.726486501834764</v>
+        <v>-0.716308122120189</v>
       </c>
     </row>
     <row r="15">
@@ -2160,7 +2160,7 @@
         <v>0.107799050498668</v>
       </c>
       <c r="E9" t="n">
-        <v>0.450104463163472</v>
+        <v>0.454264338179026</v>
       </c>
       <c r="F9" t="n">
         <v>6498.52928571428</v>
@@ -2172,7 +2172,7 @@
         <v>2.22857760472607</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.34668668064593</v>
+        <v>-0.342691355943412</v>
       </c>
     </row>
     <row r="10">
@@ -2188,7 +2188,9 @@
       <c r="D10" t="n">
         <v>0.339378791429092</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="n">
+        <v>0.720675185686036</v>
+      </c>
       <c r="F10" t="n">
         <v>2077.485</v>
       </c>
@@ -2198,7 +2200,9 @@
       <c r="H10" t="n">
         <v>2.42282479274965</v>
       </c>
-      <c r="I10"/>
+      <c r="I10" t="n">
+        <v>-0.142260431326373</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2600,7 +2604,9 @@
       <c r="D14" t="n">
         <v>0.0810203587599588</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" t="n">
+        <v>0.140700754388522</v>
+      </c>
       <c r="F14" t="n">
         <v>19753.065</v>
       </c>
@@ -2610,7 +2616,9 @@
       <c r="H14" t="n">
         <v>1.88045676621674</v>
       </c>
-      <c r="I14"/>
+      <c r="I14" t="n">
+        <v>-0.85170357402301</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -7,21 +7,20 @@
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="14" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="15" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="5a" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="6a" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="7" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5a" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="6a" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -51,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
@@ -846,474 +842,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>44302</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>243.295049119533</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.415059873828465</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.190023104440148</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2055.11785714286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-165871.125</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.38613327143824</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.721193591042821</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44386</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1444.94054069675</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.577927133588421</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.835018144430228</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1384.14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>76640.25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.15984997624233</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.0783040874621337</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>44589</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="n">
-        <v>60.5612033684141</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.166262713408938</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.0718485345186965</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4953.66642857143</v>
-      </c>
-      <c r="G4" t="n">
-        <v>953414.764285715</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.78219449613319</v>
-      </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>44665</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="n">
-        <v>156.869264340194</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0999742912566901</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
-        <v>3506.10428571429</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1052101.76785714</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.1955378598709</v>
-      </c>
-      <c r="I5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>44733</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.42172328934366</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0375554805809119</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.14322728968482</v>
-      </c>
-      <c r="F6" t="n">
-        <v>29225.04</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9727288.65000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.534244885751498</v>
-      </c>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>44817</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="n">
-        <v>173.070979705367</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.426859527793496</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0430076588941056</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2600.08928571429</v>
-      </c>
-      <c r="G7" t="n">
-        <v>200400.675000005</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.23822425210174</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-1.36645419746087</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16.9540200057436</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.131401183260687</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.089021967023526</v>
-      </c>
-      <c r="F8" t="n">
-        <v>20644.0714285714</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3189276.075</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.22927269128908</v>
-      </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>44953</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.57548757401697</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0192449199286524</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0322295008782968</v>
-      </c>
-      <c r="F9" t="n">
-        <v>63472.4142857143</v>
-      </c>
-      <c r="G9" t="n">
-        <v>64313703.7285714</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.197414982211926</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-1.49174642013085</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17.4458643924238</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0323205086994282</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.146809310279103</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11464.035</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11705049.525</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.24169249236021</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.833246401677268</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="n">
-        <v>26.617325749677</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.20143331114612</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1019830414486</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1878.47571428571</v>
-      </c>
-      <c r="G11" t="n">
-        <v>141748.307142857</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.42516441963977</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.991472040175493</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="n">
-        <v>160.293015632576</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.138009949764872</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.304619300450722</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2495.43</v>
-      </c>
-      <c r="G12" t="n">
-        <v>524364.15</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.20491459947009</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0.51624258355513</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" t="n">
-        <v>0.262140092531933</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3919.605</v>
-      </c>
-      <c r="G13" t="n">
-        <v>539592.75</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13" t="n">
-        <v>-0.581466551606639</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="n">
-        <v>66.8680497183789</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.118977054787886</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.192172782267643</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9720.63642857143</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2369351.44285714</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.82521865669926</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-0.716308122120189</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>31.9608765878692</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.267181902314957</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.223306204924098</v>
-      </c>
-      <c r="F15" t="n">
-        <v>31288.2532258065</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7026281.26112903</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.50461868215803</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-0.651099209186256</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-14106.3619692481</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.558006314839873</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.250826695779266</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-70.8899999999999</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-11306.7</v>
-      </c>
-      <c r="H16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-0.600626242910576</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -1353,28 +881,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44292</v>
+        <v>44285</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>45.7971257985546</v>
+        <v>218.653058116812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0462709643091429</v>
-      </c>
-      <c r="E2"/>
+        <v>0.0308372725815327</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.33357194499513</v>
+      </c>
       <c r="F2" t="n">
-        <v>5458.85785714287</v>
+        <v>5488.14642857143</v>
       </c>
       <c r="G2" t="n">
-        <v>3562871.65714287</v>
+        <v>4876410.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.6608382227856</v>
-      </c>
-      <c r="I2"/>
+        <v>2.33975555583577</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.476810482753012</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1384,54 +916,54 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>7.31312382905134</v>
+        <v>2.06639791095437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0186472739593504</v>
+        <v>0.028469917352607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.47962197581167</v>
+        <v>0.103246752096473</v>
       </c>
       <c r="F3" t="n">
-        <v>13674.0471428571</v>
+        <v>24196.695</v>
       </c>
       <c r="G3" t="n">
-        <v>7186340.60357143</v>
+        <v>9603914.55</v>
       </c>
       <c r="H3" t="n">
-        <v>0.864102927153004</v>
+        <v>0.315213954111133</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.319100926167242</v>
+        <v>-0.986123601354522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44517</v>
+        <v>44510</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5234747698149</v>
+        <v>56.4532973967771</v>
       </c>
       <c r="D4" t="n">
-        <v>0.026820127000421</v>
+        <v>0.230530622192957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.52571156242498</v>
+        <v>0.208368019852923</v>
       </c>
       <c r="F4" t="n">
-        <v>11099.5307142857</v>
+        <v>7971.19071428572</v>
       </c>
       <c r="G4" t="n">
-        <v>11091201.1392857</v>
+        <v>926679.107142858</v>
       </c>
       <c r="H4" t="n">
-        <v>1.35263539137228</v>
+        <v>1.75168931383232</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.279252471065758</v>
+        <v>-0.681168935406929</v>
       </c>
     </row>
     <row r="5">
@@ -1442,137 +974,137 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>13.3793659977175</v>
+        <v>4.20435343981279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0205672011357402</v>
+        <v>0.0173910258844274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.537089994272753</v>
+        <v>0.115660292693498</v>
       </c>
       <c r="F5" t="n">
-        <v>3737.09785714286</v>
+        <v>11892.435</v>
       </c>
       <c r="G5" t="n">
-        <v>1835188.37142857</v>
+        <v>9368415.675</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1264355341929</v>
+        <v>0.623699217943341</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.269952938245627</v>
+        <v>-0.936815712992044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44666</v>
+        <v>44659</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>8.55028667889765</v>
+        <v>45.7221685893927</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0127442482204935</v>
+        <v>0.0816494874119976</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>17543.2714285714</v>
+        <v>6561.36857142857</v>
       </c>
       <c r="G6" t="n">
-        <v>11838449.1321429</v>
+        <v>1149150.76071429</v>
       </c>
       <c r="H6" t="n">
-        <v>0.931980676245845</v>
+        <v>1.66012682067494</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44818</v>
+        <v>44733</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>80.2971338081475</v>
+        <v>5.84854833181856</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0756138674831853</v>
+        <v>0.0217811972641943</v>
       </c>
       <c r="E7" t="n">
-        <v>0.733067126241204</v>
+        <v>0.118618295568362</v>
       </c>
       <c r="F7" t="n">
-        <v>4981.49785714286</v>
+        <v>8549.13</v>
       </c>
       <c r="G7" t="n">
-        <v>1686547.05</v>
+        <v>3925004.625</v>
       </c>
       <c r="H7" t="n">
-        <v>1.90470004349137</v>
+        <v>0.767048083224665</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.134856255616212</v>
+        <v>-0.925848320654844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44998</v>
+        <v>44806</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>73.3277604235412</v>
+        <v>94.0961393698247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0601797177022106</v>
+        <v>0.125964440018116</v>
       </c>
       <c r="E8" t="n">
-        <v>0.604935952376543</v>
+        <v>0.32669127366084</v>
       </c>
       <c r="F8" t="n">
-        <v>6818.7</v>
+        <v>6376.45714285715</v>
       </c>
       <c r="G8" t="n">
-        <v>2266112.325</v>
+        <v>1543943.21785715</v>
       </c>
       <c r="H8" t="n">
-        <v>1.8652684209761</v>
+        <v>1.97357180531061</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.218290603863035</v>
+        <v>-0.485862465927253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45140</v>
+        <v>44998</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>203.61423579318</v>
+        <v>4.110400422878</v>
       </c>
       <c r="D9" t="n">
-        <v>0.151213418262108</v>
+        <v>0.0135347353218176</v>
       </c>
       <c r="E9" t="n">
-        <v>0.861815715904159</v>
+        <v>0.148399542142312</v>
       </c>
       <c r="F9" t="n">
-        <v>6875.74714285714</v>
+        <v>121642.65</v>
       </c>
       <c r="G9" t="n">
-        <v>682057.242857143</v>
+        <v>139305352.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.30880813864651</v>
+        <v>0.61388413160249</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0645855904655424</v>
+        <v>-0.828567438985388</v>
       </c>
     </row>
     <row r="10">
@@ -1583,25 +1115,25 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>587.941323455919</v>
+        <v>850.231688135016</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116204075358259</v>
+        <v>-0.264707017120813</v>
       </c>
       <c r="E10" t="n">
-        <v>1.08829296279805</v>
+        <v>0.528260069853473</v>
       </c>
       <c r="F10" t="n">
-        <v>2041.02</v>
+        <v>1999.455</v>
       </c>
       <c r="G10" t="n">
-        <v>298589.7</v>
+        <v>-105748.499999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7693339856495</v>
+        <v>2.92953728708808</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0367458209135808</v>
+        <v>-0.277152215543772</v>
       </c>
     </row>
   </sheetData>
@@ -1649,259 +1181,259 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44285</v>
+        <v>44299</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>218.653058116812</v>
+        <v>201.556447682785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0308372725815327</v>
+        <v>0.0966260418499097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33357194499513</v>
+        <v>0.550747337517402</v>
       </c>
       <c r="F2" t="n">
-        <v>5488.14642857143</v>
+        <v>1984.55571428571</v>
       </c>
       <c r="G2" t="n">
-        <v>4876410.9</v>
+        <v>626424.803571428</v>
       </c>
       <c r="H2" t="n">
-        <v>2.33975555583577</v>
+        <v>2.30439669555911</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.476810482753012</v>
+        <v>-0.259047593685675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44371</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>2.06639791095437</v>
+        <v>416.243786340365</v>
       </c>
       <c r="D3" t="n">
-        <v>0.028469917352607</v>
+        <v>0.214345900534267</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103246752096473</v>
+        <v>0.89859430101436</v>
       </c>
       <c r="F3" t="n">
-        <v>24196.695</v>
+        <v>3363.41357142857</v>
       </c>
       <c r="G3" t="n">
-        <v>9603914.55</v>
+        <v>643352.432142857</v>
       </c>
       <c r="H3" t="n">
-        <v>0.315213954111133</v>
+        <v>2.61934776344354</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.986123601354522</v>
+        <v>-0.0464363400784758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44510</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>56.4532973967771</v>
+        <v>41.9734413050142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230530622192957</v>
+        <v>0.0482196240014123</v>
       </c>
       <c r="E4" t="n">
-        <v>0.208368019852923</v>
+        <v>0.506400216436797</v>
       </c>
       <c r="F4" t="n">
-        <v>7971.19071428572</v>
+        <v>14294.7535714286</v>
       </c>
       <c r="G4" t="n">
-        <v>926679.107142858</v>
+        <v>4980376.03928571</v>
       </c>
       <c r="H4" t="n">
-        <v>1.75168931383232</v>
+        <v>1.62297457746762</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.681168935406929</v>
+        <v>-0.295506117372047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44517</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>4.20435343981279</v>
+        <v>61.6453450829362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0173910258844274</v>
+        <v>0.0396467471682954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.115660292693498</v>
+        <v>0.542257562907983</v>
       </c>
       <c r="F5" t="n">
-        <v>11892.435</v>
+        <v>9733.09499999999</v>
       </c>
       <c r="G5" t="n">
-        <v>9368415.675</v>
+        <v>7413961.79999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.623699217943341</v>
+        <v>1.78990028805065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.936815712992044</v>
+        <v>-0.26579438213295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44659</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>45.7221685893927</v>
+        <v>18.3696008298861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0816494874119976</v>
-      </c>
-      <c r="E6"/>
+        <v>0.0240540549037401</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.47259266099701</v>
+      </c>
       <c r="F6" t="n">
-        <v>6561.36857142857</v>
+        <v>5443.77642857143</v>
       </c>
       <c r="G6" t="n">
-        <v>1149150.76071429</v>
+        <v>2896822.95</v>
       </c>
       <c r="H6" t="n">
-        <v>1.66012682067494</v>
-      </c>
-      <c r="I6"/>
+        <v>1.26409971922027</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.32551302691281</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44733</v>
+        <v>44666</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>5.84854833181856</v>
+        <v>43.1380098171326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0217811972641943</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.118618295568362</v>
-      </c>
+        <v>0.026222037675287</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="n">
-        <v>8549.13</v>
+        <v>9272.565</v>
       </c>
       <c r="G7" t="n">
-        <v>3925004.625</v>
+        <v>14109328.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.767048083224665</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.925848320654844</v>
-      </c>
+        <v>1.63486010494421</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44806</v>
+        <v>44818</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>94.0961393698247</v>
+        <v>268.141444612033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.125964440018116</v>
+        <v>0.117343468865951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.32669127366084</v>
+        <v>0.837560505687049</v>
       </c>
       <c r="F8" t="n">
-        <v>6376.45714285715</v>
+        <v>2237.625</v>
       </c>
       <c r="G8" t="n">
-        <v>1543943.21785715</v>
+        <v>444308.174999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1.97357180531061</v>
+        <v>2.42836394481183</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.485862465927253</v>
+        <v>-0.0769838095605552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44998</v>
+        <v>45376</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>4.110400422878</v>
+        <v>169.269068682683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0135347353218176</v>
+        <v>0.107799050498668</v>
       </c>
       <c r="E9" t="n">
-        <v>0.148399542142312</v>
+        <v>0.454264338179026</v>
       </c>
       <c r="F9" t="n">
-        <v>121642.65</v>
+        <v>6498.52928571428</v>
       </c>
       <c r="G9" t="n">
-        <v>139305352.5</v>
+        <v>3014186.7</v>
       </c>
       <c r="H9" t="n">
-        <v>0.61388413160249</v>
+        <v>2.22857760472607</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.828567438985388</v>
+        <v>-0.342691355943412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45279</v>
+        <v>45548</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>850.231688135016</v>
+        <v>264.743187074756</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.264707017120813</v>
+        <v>0.339378791429092</v>
       </c>
       <c r="E10" t="n">
-        <v>0.528260069853473</v>
+        <v>0.720675185686036</v>
       </c>
       <c r="F10" t="n">
-        <v>1999.455</v>
+        <v>2077.485</v>
       </c>
       <c r="G10" t="n">
-        <v>-105748.499999999</v>
+        <v>391771.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92953728708808</v>
+        <v>2.42282479274965</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.277152215543772</v>
+        <v>-0.142260431326373</v>
       </c>
     </row>
   </sheetData>
@@ -1949,259 +1481,375 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44299</v>
+        <v>44386</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>201.556447682785</v>
+        <v>1661.73191635079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0966260418499097</v>
+        <v>0.387436294953374</v>
       </c>
       <c r="E2" t="n">
-        <v>0.550747337517402</v>
+        <v>0.843910837480766</v>
       </c>
       <c r="F2" t="n">
-        <v>1984.55571428571</v>
+        <v>1203.56357142857</v>
       </c>
       <c r="G2" t="n">
-        <v>626424.803571428</v>
+        <v>178933.317857143</v>
       </c>
       <c r="H2" t="n">
-        <v>2.30439669555911</v>
+        <v>3.22056096130097</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.259047593685675</v>
+        <v>-0.0737034358810179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44371</v>
+        <v>44452</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>416.243786340365</v>
+        <v>25.6084522525835</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214345900534267</v>
+        <v>0.0748083206536477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.89859430101436</v>
+        <v>0.0314608700934574</v>
       </c>
       <c r="F3" t="n">
-        <v>3363.41357142857</v>
+        <v>11714.8821428571</v>
       </c>
       <c r="G3" t="n">
-        <v>643352.432142857</v>
+        <v>3774027.50357143</v>
       </c>
       <c r="H3" t="n">
-        <v>2.61934776344354</v>
+        <v>1.40838333096844</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0464363400784758</v>
+        <v>-1.50222927053785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44510</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>41.9734413050142</v>
+        <v>326.494767171751</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0482196240014123</v>
+        <v>0.181034619271933</v>
       </c>
       <c r="E4" t="n">
-        <v>0.506400216436797</v>
+        <v>0.298854491442191</v>
       </c>
       <c r="F4" t="n">
-        <v>14294.7535714286</v>
+        <v>4287.97071428572</v>
       </c>
       <c r="G4" t="n">
-        <v>4980376.03928571</v>
+        <v>959279.58214286</v>
       </c>
       <c r="H4" t="n">
-        <v>1.62297457746762</v>
+        <v>2.51387622510069</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.295506117372047</v>
+        <v>-0.524540212830461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44517</v>
+        <v>44589</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>61.6453450829362</v>
+        <v>55.2594896825599</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0396467471682954</v>
+        <v>0.0466003004043193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.542257562907983</v>
+        <v>0.071022433807391</v>
       </c>
       <c r="F5" t="n">
-        <v>9733.09499999999</v>
+        <v>3619.28785714286</v>
       </c>
       <c r="G5" t="n">
-        <v>7413961.79999999</v>
+        <v>1654299.02142857</v>
       </c>
       <c r="H5" t="n">
-        <v>1.78990028805065</v>
+        <v>1.74240686992049</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.26579438213295</v>
+        <v>-1.1486044493111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44659</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3696008298861</v>
+        <v>-59.2075325514556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0240540549037401</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.47259266099701</v>
-      </c>
+        <v>0.00694043951640586</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" t="n">
-        <v>5443.77642857143</v>
+        <v>-20267.6914285714</v>
       </c>
       <c r="G6" t="n">
-        <v>2896822.95</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.26409971922027</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.32551302691281</v>
-      </c>
+        <v>-90527182.4357143</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44666</v>
+        <v>44733</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>43.1380098171326</v>
+        <v>19.3061500671871</v>
       </c>
       <c r="D7" t="n">
-        <v>0.026222037675287</v>
-      </c>
-      <c r="E7"/>
+        <v>0.0247248402753767</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00408688713481306</v>
+      </c>
       <c r="F7" t="n">
-        <v>9272.565</v>
+        <v>20718.7864285714</v>
       </c>
       <c r="G7" t="n">
-        <v>14109328.5</v>
+        <v>24301261.3928571</v>
       </c>
       <c r="H7" t="n">
-        <v>1.63486010494421</v>
-      </c>
-      <c r="I7"/>
+        <v>1.28569567764907</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2.38860735578112</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44818</v>
+        <v>44806</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>268.141444612033</v>
+        <v>83.4160791046595</v>
       </c>
       <c r="D8" t="n">
-        <v>0.117343468865951</v>
+        <v>0.104270024651914</v>
       </c>
       <c r="E8" t="n">
-        <v>0.837560505687049</v>
+        <v>0.292886326762752</v>
       </c>
       <c r="F8" t="n">
-        <v>2237.625</v>
+        <v>11988.0964285714</v>
       </c>
       <c r="G8" t="n">
-        <v>444308.174999999</v>
+        <v>4242453.76071428</v>
       </c>
       <c r="H8" t="n">
-        <v>2.42836394481183</v>
+        <v>1.92124977238071</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0769838095605552</v>
+        <v>-0.533300902644435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45376</v>
+        <v>44879</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>169.269068682683</v>
+        <v>62.1041048151678</v>
       </c>
       <c r="D9" t="n">
-        <v>0.107799050498668</v>
+        <v>0.0624314324451668</v>
       </c>
       <c r="E9" t="n">
-        <v>0.454264338179026</v>
+        <v>0.100958463791928</v>
       </c>
       <c r="F9" t="n">
-        <v>6498.52928571428</v>
+        <v>7245.89785714286</v>
       </c>
       <c r="G9" t="n">
-        <v>3014186.7</v>
+        <v>3017604.06428571</v>
       </c>
       <c r="H9" t="n">
-        <v>2.22857760472607</v>
+        <v>1.79312030612925</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.342691355943412</v>
+        <v>-0.995857266378117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45548</v>
+        <v>44959</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>264.743187074756</v>
+        <v>30.1205661719794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.339378791429092</v>
+        <v>0.017179789481342</v>
       </c>
       <c r="E10" t="n">
-        <v>0.720675185686036</v>
+        <v>0.100905322589866</v>
       </c>
       <c r="F10" t="n">
-        <v>2077.485</v>
+        <v>6639.98142857143</v>
       </c>
       <c r="G10" t="n">
-        <v>391771.8</v>
+        <v>10435488.675</v>
       </c>
       <c r="H10" t="n">
-        <v>2.42282479274965</v>
+        <v>1.47886313097672</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.142260431326373</v>
+        <v>-0.996085924838993</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>203.383280877396</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.223866557705922</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.292268158933349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2950.095</v>
+      </c>
+      <c r="G11" t="n">
+        <v>466498.274999997</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.30831524887617</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.534218496147122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.12054440834328</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0106085660132641</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0398067631956158</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7021.935</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16680177.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.852513199325168</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.40004313473525</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1159.08432338453</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.192383869915185</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.69658739105357</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3105.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>613482.825</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.06411503203648</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.157024390982315</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>75.9375823448159</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0810203587599588</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.140700754388522</v>
+      </c>
+      <c r="F14" t="n">
+        <v>19753.065</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9264541.425</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.88045676621674</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.85170357402301</v>
       </c>
     </row>
   </sheetData>
@@ -2249,172 +1897,154 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44386</v>
+        <v>44299</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="n">
-        <v>1661.73191635079</v>
-      </c>
+      <c r="C2"/>
       <c r="D2" t="n">
-        <v>0.387436294953374</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.843910837480766</v>
-      </c>
+        <v>0.0288993102026876</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
-        <v>1203.56357142857</v>
+        <v>4290.66642857143</v>
       </c>
       <c r="G2" t="n">
-        <v>178933.317857143</v>
+        <v>2672451.18214286</v>
       </c>
       <c r="H2" t="n">
-        <v>3.22056096130097</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.0737034358810179</v>
-      </c>
+        <v>1.36747524772831</v>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44386</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
-        <v>25.6084522525835</v>
-      </c>
+      <c r="C3"/>
       <c r="D3" t="n">
-        <v>0.0748083206536477</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0314608700934574</v>
-      </c>
+        <v>0.233297132170326</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
-        <v>11714.8821428571</v>
+        <v>3691.38</v>
       </c>
       <c r="G3" t="n">
-        <v>3774027.50357143</v>
+        <v>424047.15</v>
       </c>
       <c r="H3" t="n">
-        <v>1.40838333096844</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-1.50222927053785</v>
-      </c>
+        <v>2.43281124512988</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44510</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="n">
-        <v>326.494767171751</v>
-      </c>
+      <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.181034619271933</v>
+        <v>0.0334046106509795</v>
       </c>
       <c r="E4" t="n">
-        <v>0.298854491442191</v>
+        <v>0.47844128219725</v>
       </c>
       <c r="F4" t="n">
-        <v>4287.97071428572</v>
+        <v>24413.1324193548</v>
       </c>
       <c r="G4" t="n">
-        <v>959279.58214286</v>
+        <v>4019571.72048387</v>
       </c>
       <c r="H4" t="n">
-        <v>2.51387622510069</v>
+        <v>0.311346497546363</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.524540212830461</v>
+        <v>-0.320171354402254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44510</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="n">
-        <v>55.2594896825599</v>
-      </c>
+      <c r="C5"/>
       <c r="D5" t="n">
-        <v>0.0466003004043193</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.071022433807391</v>
-      </c>
+        <v>0.0277510769684758</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="n">
-        <v>3619.28785714286</v>
+        <v>9437.55</v>
       </c>
       <c r="G5" t="n">
-        <v>1654299.02142857</v>
+        <v>5271219.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1.74240686992049</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-1.1486044493111</v>
-      </c>
+        <v>1.32617073013491</v>
+      </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44659</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="n">
-        <v>-59.2075325514556</v>
-      </c>
+      <c r="C6"/>
       <c r="D6" t="n">
-        <v>0.00694043951640586</v>
-      </c>
-      <c r="E6"/>
+        <v>0.00958213989251452</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.455538766986625</v>
+      </c>
       <c r="F6" t="n">
-        <v>-20267.6914285714</v>
+        <v>722.815714285718</v>
       </c>
       <c r="G6" t="n">
-        <v>-90527182.4357143</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I6"/>
+        <v>618555.867857144</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.14097241428295</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.341474658050028</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44733</v>
+        <v>44659</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>19.3061500671871</v>
+        <v>10.1562152863735</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0247248402753767</v>
+        <v>0.0160991553702436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00408688713481306</v>
+        <v>0.554639976552681</v>
       </c>
       <c r="F7" t="n">
-        <v>20718.7864285714</v>
+        <v>19692.375</v>
       </c>
       <c r="G7" t="n">
-        <v>24301261.3928571</v>
+        <v>12231930.525</v>
       </c>
       <c r="H7" t="n">
-        <v>1.28569567764907</v>
+        <v>1.00673189825654</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.38860735578112</v>
+        <v>-0.255988831169016</v>
       </c>
     </row>
     <row r="8">
@@ -2425,199 +2055,81 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>83.4160791046595</v>
+        <v>35.2877784497159</v>
       </c>
       <c r="D8" t="n">
-        <v>0.104270024651914</v>
+        <v>0.0598939505762173</v>
       </c>
       <c r="E8" t="n">
-        <v>0.292886326762752</v>
+        <v>0.578629035198701</v>
       </c>
       <c r="F8" t="n">
-        <v>11988.0964285714</v>
+        <v>22670.7385714286</v>
       </c>
       <c r="G8" t="n">
-        <v>4242453.76071428</v>
+        <v>9576420.99642858</v>
       </c>
       <c r="H8" t="n">
-        <v>1.92124977238071</v>
+        <v>1.54762431811064</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.533300902644435</v>
+        <v>-0.237599777549088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44879</v>
+        <v>45140</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>62.1041048151678</v>
+        <v>139.040343548826</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0624314324451668</v>
+        <v>0.114325713526605</v>
       </c>
       <c r="E9" t="n">
-        <v>0.100958463791928</v>
+        <v>0.603687349344395</v>
       </c>
       <c r="F9" t="n">
-        <v>7245.89785714286</v>
+        <v>6113.33357142857</v>
       </c>
       <c r="G9" t="n">
-        <v>3017604.06428571</v>
+        <v>962513.164285714</v>
       </c>
       <c r="H9" t="n">
-        <v>1.79312030612925</v>
+        <v>2.14314083218554</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.995857266378117</v>
+        <v>-0.219187924970591</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44959</v>
+        <v>45197</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
-        <v>30.1205661719794</v>
-      </c>
+      <c r="C10"/>
       <c r="D10" t="n">
-        <v>0.017179789481342</v>
+        <v>0.0380123901994629</v>
       </c>
       <c r="E10" t="n">
-        <v>0.100905322589866</v>
+        <v>0.46420761962736</v>
       </c>
       <c r="F10" t="n">
-        <v>6639.98142857143</v>
+        <v>10782.8935714286</v>
       </c>
       <c r="G10" t="n">
-        <v>10435488.675</v>
+        <v>5673357.30000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.47886313097672</v>
+        <v>1.26829467697673</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.996085924838993</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="n">
-        <v>203.383280877396</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.223866557705922</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.292268158933349</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2950.095</v>
-      </c>
-      <c r="G11" t="n">
-        <v>466498.274999997</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.30831524887617</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.534218496147122</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7.12054440834328</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0106085660132641</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0398067631956158</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7021.935</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16680177.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.852513199325168</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-1.40004313473525</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1159.08432338453</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.192383869915185</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.69658739105357</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3105.9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>613482.825</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.06411503203648</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.157024390982315</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>75.9375823448159</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0810203587599588</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.140700754388522</v>
-      </c>
-      <c r="F14" t="n">
-        <v>19753.065</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9264541.425</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.88045676621674</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-0.85170357402301</v>
+        <v>-0.333287735196435</v>
       </c>
     </row>
   </sheetData>
@@ -2665,251 +2177,369 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44299</v>
+        <v>44292</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>23.3064027849153</v>
+        <v>1474.27392009435</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0288993102026876</v>
-      </c>
-      <c r="E2"/>
+        <v>0.609595398242257</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.642692214475338</v>
+      </c>
       <c r="F2" t="n">
-        <v>4290.66642857143</v>
+        <v>1356.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2672451.18214286</v>
+        <v>111270.525</v>
       </c>
       <c r="H2" t="n">
-        <v>1.36747524772831</v>
-      </c>
-      <c r="I2"/>
+        <v>3.16857818293498</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.191996961068096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44386</v>
+        <v>44452</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>270.901397309407</v>
+        <v>163.514515592335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.233297132170326</v>
-      </c>
-      <c r="E3"/>
+        <v>0.19909322659857</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.456824240921209</v>
+      </c>
       <c r="F3" t="n">
-        <v>3691.38</v>
+        <v>6115.665</v>
       </c>
       <c r="G3" t="n">
-        <v>424047.15</v>
+        <v>1170340.35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.43281124512988</v>
-      </c>
-      <c r="I3"/>
+        <v>2.21355631211454</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.340250858748654</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44589</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.04807802379181</v>
+        <v>65.6511558308027</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0334046106509795</v>
+        <v>0.09276270132275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.47844128219725</v>
+        <v>0.38887615975603</v>
       </c>
       <c r="F4" t="n">
-        <v>24413.1324193548</v>
+        <v>7616.01214285714</v>
       </c>
       <c r="G4" t="n">
-        <v>4019571.72048387</v>
+        <v>2101813.63928571</v>
       </c>
       <c r="H4" t="n">
-        <v>0.311346497546363</v>
+        <v>1.81724237652635</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.320171354402254</v>
+        <v>-0.410188680672972</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44510</v>
+        <v>44665</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>21.1919407049499</v>
+        <v>33.6536236839781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0277510769684758</v>
-      </c>
-      <c r="E5"/>
+        <v>0.132219643097552</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.317914439292082</v>
+      </c>
       <c r="F5" t="n">
-        <v>9437.55</v>
+        <v>17828.6892857143</v>
       </c>
       <c r="G5" t="n">
-        <v>5271219.75</v>
+        <v>3640719.33214286</v>
       </c>
       <c r="H5" t="n">
-        <v>1.32617073013491</v>
-      </c>
-      <c r="I5"/>
+        <v>1.5270318341239</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.497689746503399</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44817</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>138.347849975591</v>
+        <v>1147.67621184873</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00958213989251452</v>
+        <v>0.370207050897618</v>
       </c>
       <c r="E6" t="n">
-        <v>0.455538766986625</v>
+        <v>0.810515482511753</v>
       </c>
       <c r="F6" t="n">
-        <v>722.815714285718</v>
+        <v>1394.12142857143</v>
       </c>
       <c r="G6" t="n">
-        <v>618555.867857144</v>
+        <v>158539.692857143</v>
       </c>
       <c r="H6" t="n">
-        <v>2.14097241428295</v>
+        <v>3.05981938001173</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.341474658050028</v>
+        <v>-0.0912386848189221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44659</v>
+        <v>44880</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>10.1562152863735</v>
+        <v>20.7914719322554</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0160991553702436</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.554639976552681</v>
-      </c>
+        <v>0.108285591446864</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="n">
-        <v>19692.375</v>
+        <v>9619.32857142857</v>
       </c>
       <c r="G7" t="n">
-        <v>12231930.525</v>
+        <v>1687826.05714286</v>
       </c>
       <c r="H7" t="n">
-        <v>1.00673189825654</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.255988831169016</v>
-      </c>
+        <v>1.31788523629769</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44806</v>
+        <v>44953</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>35.2877784497159</v>
+        <v>5.13894891976541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0598939505762173</v>
+        <v>0.0176083819768147</v>
       </c>
       <c r="E8" t="n">
-        <v>0.578629035198701</v>
+        <v>-0.0509851313580177</v>
       </c>
       <c r="F8" t="n">
-        <v>22670.7385714286</v>
+        <v>19459.2321428571</v>
       </c>
       <c r="G8" t="n">
-        <v>9576420.99642858</v>
+        <v>27627797.0464286</v>
       </c>
       <c r="H8" t="n">
-        <v>1.54762431811064</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.237599777549088</v>
+        <v>0.710874300897029</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45140</v>
+        <v>44998</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>139.040343548826</v>
+        <v>33.1790704053949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114325713526605</v>
+        <v>0.0942639400766061</v>
       </c>
       <c r="E9" t="n">
-        <v>0.603687349344395</v>
+        <v>0.0410550448373626</v>
       </c>
       <c r="F9" t="n">
-        <v>6113.33357142857</v>
+        <v>18083.6892857143</v>
       </c>
       <c r="G9" t="n">
-        <v>962513.164285714</v>
+        <v>4604184.19285714</v>
       </c>
       <c r="H9" t="n">
-        <v>2.14314083218554</v>
+        <v>1.52086421401315</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.219187924970591</v>
+        <v>-1.38663346922879</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45197</v>
+        <v>45140</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5478970626159</v>
+        <v>657.928746316773</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0380123901994629</v>
+        <v>-0.624858780565361</v>
       </c>
       <c r="E10" t="n">
-        <v>0.46420761962736</v>
+        <v>0.489625120007815</v>
       </c>
       <c r="F10" t="n">
-        <v>10782.8935714286</v>
+        <v>1823.90571428572</v>
       </c>
       <c r="G10" t="n">
-        <v>5673357.30000001</v>
+        <v>-61297.0821428564</v>
       </c>
       <c r="H10" t="n">
-        <v>1.26829467697673</v>
+        <v>2.81817886206828</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.333287735196435</v>
+        <v>-0.310136308997868</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>133.328381136318</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0966021881464723</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.190986898896875</v>
+      </c>
+      <c r="F11" t="n">
+        <v>750.027857142865</v>
+      </c>
+      <c r="G11" t="n">
+        <v>273295.885714292</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.12492260596996</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.718996422971846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17.3551452799212</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0456410932698102</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0829762877707573</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2880.99</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1527569.85</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.23942825350176</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.08104599872781</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>236.595392304735</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.229962718506469</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.287726779544469</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2535.975</v>
+      </c>
+      <c r="G13" t="n">
+        <v>628582.649999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.37400628248923</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.541019715213791</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="n">
+        <v>0.186952867332309</v>
+      </c>
+      <c r="F14" t="n">
+        <v>47179.08</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17329386.9</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="n">
+        <v>-0.728267869600161</v>
       </c>
     </row>
   </sheetData>
@@ -2962,364 +2592,221 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="n">
-        <v>1474.27392009435</v>
-      </c>
+      <c r="C2"/>
       <c r="D2" t="n">
-        <v>0.609595398242257</v>
+        <v>0.0836415522456026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.642692214475338</v>
+        <v>0.175235931608227</v>
       </c>
       <c r="F2" t="n">
-        <v>1356.6</v>
+        <v>2500.85785714285</v>
       </c>
       <c r="G2" t="n">
-        <v>111270.525</v>
+        <v>774402.396428567</v>
       </c>
       <c r="H2" t="n">
-        <v>3.16857818293498</v>
+        <v>1.90294098750518</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.191996961068096</v>
+        <v>-0.756376838240995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44371</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>163.514515592335</v>
+        <v>97.517092917943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19909322659857</v>
+        <v>0.0844166976160872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.456824240921209</v>
+        <v>0.428172659072591</v>
       </c>
       <c r="F3" t="n">
-        <v>6115.665</v>
+        <v>12305.535</v>
       </c>
       <c r="G3" t="n">
-        <v>1170340.35</v>
+        <v>5685082.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.21355631211454</v>
+        <v>1.9890807460505</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.340250858748654</v>
+        <v>-0.368381067992078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44589</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>65.6511558308027</v>
+        <v>14.3008118570891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09276270132275</v>
+        <v>0.10472695502504</v>
       </c>
       <c r="E4" t="n">
-        <v>0.38887615975603</v>
+        <v>0.226952277503813</v>
       </c>
       <c r="F4" t="n">
-        <v>7616.01214285714</v>
+        <v>13985.22</v>
       </c>
       <c r="G4" t="n">
-        <v>2101813.63928571</v>
+        <v>1949681.55</v>
       </c>
       <c r="H4" t="n">
-        <v>1.81724237652635</v>
+        <v>1.15536069306266</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.410188680672972</v>
+        <v>-0.64406545468198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44665</v>
+        <v>44517</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>33.6536236839781</v>
+        <v>19.273719443755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.132219643097552</v>
+        <v>0.0768117708525735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.317914439292082</v>
+        <v>0.258582477591671</v>
       </c>
       <c r="F5" t="n">
-        <v>17828.6892857143</v>
+        <v>10376.8242857143</v>
       </c>
       <c r="G5" t="n">
-        <v>3640719.33214286</v>
+        <v>2877506.33571429</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5270318341239</v>
+        <v>1.28496553292348</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.497689746503399</v>
+        <v>-0.587400907696447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44817</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>1147.67621184873</v>
+        <v>6.79493167987407</v>
       </c>
       <c r="D6" t="n">
-        <v>0.370207050897618</v>
+        <v>0.0279077813421051</v>
       </c>
       <c r="E6" t="n">
-        <v>0.810515482511753</v>
+        <v>0.185682797933314</v>
       </c>
       <c r="F6" t="n">
-        <v>1394.12142857143</v>
+        <v>14716.8514285714</v>
       </c>
       <c r="G6" t="n">
-        <v>158539.692857143</v>
+        <v>4798781.61428571</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05981938001173</v>
+        <v>0.832185094445576</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0912386848189221</v>
+        <v>-0.731228328401752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44880</v>
+        <v>44665</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="n">
-        <v>20.7914719322554</v>
-      </c>
+      <c r="C7"/>
       <c r="D7" t="n">
-        <v>0.108285591446864</v>
+        <v>0.0835954778785003</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
-        <v>9619.32857142857</v>
+        <v>18097.9692857143</v>
       </c>
       <c r="G7" t="n">
-        <v>1687826.05714286</v>
+        <v>2641234.08214286</v>
       </c>
       <c r="H7" t="n">
-        <v>1.31788523629769</v>
+        <v>0.74237015316871</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44953</v>
+        <v>44818</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>5.13894891976541</v>
+        <v>52.7801968701343</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0176083819768147</v>
+        <v>0.0490018181170012</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0509851313580177</v>
+        <v>0.346783836740215</v>
       </c>
       <c r="F8" t="n">
-        <v>19459.2321428571</v>
+        <v>7578.6</v>
       </c>
       <c r="G8" t="n">
-        <v>27627797.0464286</v>
+        <v>3433442.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.710874300897029</v>
-      </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
+        <v>1.72247100580547</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.459941152770569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44998</v>
+        <v>45279</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1790704053949</v>
+        <v>409.296138546743</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0942639400766061</v>
+        <v>0.0895346799829791</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0410550448373626</v>
+        <v>0.386132065900496</v>
       </c>
       <c r="F9" t="n">
-        <v>18083.6892857143</v>
+        <v>1954.575</v>
       </c>
       <c r="G9" t="n">
-        <v>4604184.19285714</v>
+        <v>458437.725</v>
       </c>
       <c r="H9" t="n">
-        <v>1.52086421401315</v>
+        <v>2.61203764736759</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.38663346922879</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45140</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="n">
-        <v>657.928746316773</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.624858780565361</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.489625120007815</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1823.90571428572</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-61297.0821428564</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.81817886206828</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.310136308997868</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45197</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>133.328381136318</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0966021881464723</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.190986898896875</v>
-      </c>
-      <c r="F11" t="n">
-        <v>750.027857142865</v>
-      </c>
-      <c r="G11" t="n">
-        <v>273295.885714292</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.12492260596996</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.718996422971846</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17.3551452799212</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0456410932698102</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0829762877707573</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2880.99</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1527569.85</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.23942825350176</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-1.08104599872781</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="n">
-        <v>236.595392304735</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.229962718506469</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.287726779544469</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2535.975</v>
-      </c>
-      <c r="G13" t="n">
-        <v>628582.649999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.37400628248923</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.541019715213791</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" t="n">
-        <v>0.186952867332309</v>
-      </c>
-      <c r="F14" t="n">
-        <v>47179.08</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17329386.9</v>
-      </c>
-      <c r="H14"/>
-      <c r="I14" t="n">
-        <v>-0.728267869600161</v>
+        <v>-0.413264131384523</v>
       </c>
     </row>
   </sheetData>
@@ -3373,25 +2860,25 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>79.9725579879591</v>
+        <v>110.528991754537</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0836415522456026</v>
+        <v>0.0578152666505854</v>
       </c>
       <c r="E2" t="n">
-        <v>0.175235931608227</v>
+        <v>0.334368448888413</v>
       </c>
       <c r="F2" t="n">
-        <v>2500.85785714285</v>
+        <v>2261.85</v>
       </c>
       <c r="G2" t="n">
-        <v>774402.396428567</v>
+        <v>1490548.95</v>
       </c>
       <c r="H2" t="n">
-        <v>1.90294098750518</v>
+        <v>2.04347620840636</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.756376838240995</v>
+        <v>-0.475774709463059</v>
       </c>
     </row>
     <row r="3">
@@ -3402,25 +2889,25 @@
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>97.517092917943</v>
+        <v>145.543610583516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0844166976160872</v>
+        <v>0.0876716470388422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.428172659072591</v>
+        <v>0.432978589290512</v>
       </c>
       <c r="F3" t="n">
-        <v>12305.535</v>
+        <v>4122.47571428571</v>
       </c>
       <c r="G3" t="n">
-        <v>5685082.2</v>
+        <v>1650464.00357143</v>
       </c>
       <c r="H3" t="n">
-        <v>1.9890807460505</v>
+        <v>2.16299314451045</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.368381067992078</v>
+        <v>-0.363533578895795</v>
       </c>
     </row>
     <row r="4">
@@ -3431,25 +2918,25 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3008118570891</v>
+        <v>19.0713037906123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10472695502504</v>
+        <v>0.111120888231963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.226952277503813</v>
+        <v>0.23773763726534</v>
       </c>
       <c r="F4" t="n">
-        <v>13985.22</v>
+        <v>7865.22</v>
       </c>
       <c r="G4" t="n">
-        <v>1949681.55</v>
+        <v>1033398.975</v>
       </c>
       <c r="H4" t="n">
-        <v>1.15536069306266</v>
+        <v>1.28038038416888</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.64406545468198</v>
+        <v>-0.623902057806076</v>
       </c>
     </row>
     <row r="5">
@@ -3460,25 +2947,25 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>19.273719443755</v>
+        <v>16.9350140609002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0768117708525735</v>
+        <v>0.0463166323010258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.258582477591671</v>
+        <v>0.21568387517109</v>
       </c>
       <c r="F5" t="n">
-        <v>10376.8242857143</v>
+        <v>11809.8514285714</v>
       </c>
       <c r="G5" t="n">
-        <v>2877506.33571429</v>
+        <v>10479710.4107143</v>
       </c>
       <c r="H5" t="n">
-        <v>1.28496553292348</v>
+        <v>1.2287855615693</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.587400907696447</v>
+        <v>-0.666182322148197</v>
       </c>
     </row>
     <row r="6">
@@ -3489,51 +2976,55 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>6.79493167987407</v>
+        <v>4.49444319884161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0279077813421051</v>
+        <v>0.0437964783271548</v>
       </c>
       <c r="E6" t="n">
-        <v>0.185682797933314</v>
+        <v>0.184310511172043</v>
       </c>
       <c r="F6" t="n">
-        <v>14716.8514285714</v>
+        <v>11124.8485714286</v>
       </c>
       <c r="G6" t="n">
-        <v>4798781.61428571</v>
+        <v>2159105.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.832185094445576</v>
+        <v>0.652675896147369</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.731228328401752</v>
+        <v>-0.734449896393269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>5.52548180523963</v>
+        <v>2.89214023293876</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0835954778785003</v>
-      </c>
-      <c r="E7"/>
+        <v>0.0252018268584692</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.153543970343754</v>
+      </c>
       <c r="F7" t="n">
-        <v>18097.9692857143</v>
+        <v>17288.235</v>
       </c>
       <c r="G7" t="n">
-        <v>2641234.08214286</v>
+        <v>11318857.125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.74237015316871</v>
-      </c>
-      <c r="I7"/>
+        <v>0.461219347030154</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.813767233586602</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3543,54 +3034,83 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>52.7801968701343</v>
+        <v>105.628429740967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0490018181170012</v>
+        <v>0.142353917790553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.346783836740215</v>
+        <v>0.398938311717069</v>
       </c>
       <c r="F8" t="n">
-        <v>7578.6</v>
+        <v>7573.71857142857</v>
       </c>
       <c r="G8" t="n">
-        <v>3433442.4</v>
+        <v>2255825.98928571</v>
       </c>
       <c r="H8" t="n">
-        <v>1.72247100580547</v>
+        <v>2.02378082367035</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.459941152770569</v>
+        <v>-0.399094254569193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45279</v>
+        <v>44966</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>409.296138546743</v>
+        <v>8.00184819830957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0895346799829791</v>
+        <v>0.0131382698505472</v>
       </c>
       <c r="E9" t="n">
-        <v>0.386132065900496</v>
+        <v>0.110887957954024</v>
       </c>
       <c r="F9" t="n">
-        <v>1954.575</v>
+        <v>6248.55642857143</v>
       </c>
       <c r="G9" t="n">
-        <v>458437.725</v>
+        <v>6658394.97857143</v>
       </c>
       <c r="H9" t="n">
-        <v>2.61203764736759</v>
+        <v>0.903190308194961</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.413264131384523</v>
+        <v>-0.955115614158115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>126.543034122329</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.154867311917387</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.338755228520558</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3951.225</v>
+      </c>
+      <c r="G10" t="n">
+        <v>714381.225</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.10223824332676</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.470113992943802</v>
       </c>
     </row>
   </sheetData>
@@ -3638,263 +3158,427 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44292</v>
+        <v>44302</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>110.528991754537</v>
+        <v>243.295049119533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0578152666505854</v>
+        <v>-0.415059873828465</v>
       </c>
       <c r="E2" t="n">
-        <v>0.334368448888413</v>
+        <v>0.190023104440148</v>
       </c>
       <c r="F2" t="n">
-        <v>2261.85</v>
+        <v>2055.11785714286</v>
       </c>
       <c r="G2" t="n">
-        <v>1490548.95</v>
+        <v>-165871.125</v>
       </c>
       <c r="H2" t="n">
-        <v>2.04347620840636</v>
+        <v>2.38613327143824</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.475774709463059</v>
+        <v>-0.721193591042821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44371</v>
+        <v>44386</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>145.543610583516</v>
+        <v>1444.94054069675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0876716470388422</v>
+        <v>0.577927133588421</v>
       </c>
       <c r="E3" t="n">
-        <v>0.432978589290512</v>
+        <v>0.835018144430228</v>
       </c>
       <c r="F3" t="n">
-        <v>4122.47571428571</v>
+        <v>1384.14</v>
       </c>
       <c r="G3" t="n">
-        <v>1650464.00357143</v>
+        <v>76640.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16299314451045</v>
+        <v>3.15984997624233</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.363533578895795</v>
+        <v>-0.0783040874621337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44589</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>19.0713037906123</v>
+        <v>60.5612033684141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111120888231963</v>
+        <v>0.166262713408938</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23773763726534</v>
+        <v>-0.0718485345186965</v>
       </c>
       <c r="F4" t="n">
-        <v>7865.22</v>
+        <v>4953.66642857143</v>
       </c>
       <c r="G4" t="n">
-        <v>1033398.975</v>
+        <v>953414.764285715</v>
       </c>
       <c r="H4" t="n">
-        <v>1.28038038416888</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.623902057806076</v>
+        <v>1.78219449613319</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44517</v>
+        <v>44665</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9350140609002</v>
+        <v>156.869264340194</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0463166323010258</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.21568387517109</v>
-      </c>
+        <v>0.0999742912566901</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="n">
-        <v>11809.8514285714</v>
+        <v>3506.10428571429</v>
       </c>
       <c r="G5" t="n">
-        <v>10479710.4107143</v>
+        <v>1052101.76785714</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2287855615693</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.666182322148197</v>
-      </c>
+        <v>2.1955378598709</v>
+      </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44733</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>4.49444319884161</v>
+        <v>3.42172328934366</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0437964783271548</v>
+        <v>0.0375554805809119</v>
       </c>
       <c r="E6" t="n">
-        <v>0.184310511172043</v>
+        <v>-0.14322728968482</v>
       </c>
       <c r="F6" t="n">
-        <v>11124.8485714286</v>
+        <v>29225.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2159105.4</v>
+        <v>9727288.65000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.652675896147369</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.734449896393269</v>
+        <v>0.534244885751498</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44666</v>
+        <v>44817</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>2.89214023293876</v>
+        <v>173.070979705367</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0252018268584692</v>
+        <v>0.426859527793496</v>
       </c>
       <c r="E7" t="n">
-        <v>0.153543970343754</v>
+        <v>0.0430076588941056</v>
       </c>
       <c r="F7" t="n">
-        <v>17288.235</v>
+        <v>2600.08928571429</v>
       </c>
       <c r="G7" t="n">
-        <v>11318857.125</v>
+        <v>200400.675000005</v>
       </c>
       <c r="H7" t="n">
-        <v>0.461219347030154</v>
+        <v>2.23822425210174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.813767233586602</v>
+        <v>-1.36645419746087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44818</v>
+        <v>44879</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>105.628429740967</v>
+        <v>16.9540200057436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.142353917790553</v>
+        <v>0.131401183260687</v>
       </c>
       <c r="E8" t="n">
-        <v>0.398938311717069</v>
+        <v>-0.089021967023526</v>
       </c>
       <c r="F8" t="n">
-        <v>7573.71857142857</v>
+        <v>20644.0714285714</v>
       </c>
       <c r="G8" t="n">
-        <v>2255825.98928571</v>
+        <v>3189276.075</v>
       </c>
       <c r="H8" t="n">
-        <v>2.02378082367035</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.399094254569193</v>
+        <v>1.22927269128908</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44966</v>
+        <v>44953</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>8.00184819830957</v>
+        <v>1.57548757401697</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0131382698505472</v>
+        <v>0.0192449199286524</v>
       </c>
       <c r="E9" t="n">
-        <v>0.110887957954024</v>
+        <v>0.0322295008782968</v>
       </c>
       <c r="F9" t="n">
-        <v>6248.55642857143</v>
+        <v>63472.4142857143</v>
       </c>
       <c r="G9" t="n">
-        <v>6658394.97857143</v>
+        <v>64313703.7285714</v>
       </c>
       <c r="H9" t="n">
-        <v>0.903190308194961</v>
+        <v>0.197414982211926</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.955115614158115</v>
+        <v>-1.49174642013085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>126.543034122329</v>
+        <v>17.4458643924238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.154867311917387</v>
+        <v>0.0323205086994282</v>
       </c>
       <c r="E10" t="n">
-        <v>0.338755228520558</v>
+        <v>0.146809310279103</v>
       </c>
       <c r="F10" t="n">
-        <v>3951.225</v>
+        <v>11464.035</v>
       </c>
       <c r="G10" t="n">
-        <v>714381.225</v>
+        <v>11705049.525</v>
       </c>
       <c r="H10" t="n">
-        <v>2.10223824332676</v>
+        <v>1.24169249236021</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.470113992943802</v>
+        <v>-0.833246401677268</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.617325749677</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.20143331114612</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1019830414486</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1878.47571428571</v>
+      </c>
+      <c r="G11" t="n">
+        <v>141748.307142857</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.42516441963977</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.991472040175493</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>160.293015632576</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.138009949764872</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.304619300450722</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2495.43</v>
+      </c>
+      <c r="G12" t="n">
+        <v>524364.15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.20491459947009</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.51624258355513</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>0.262140092531933</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3919.605</v>
+      </c>
+      <c r="G13" t="n">
+        <v>539592.75</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="n">
+        <v>-0.581466551606639</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>66.8680497183789</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.118977054787886</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.192172782267643</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9720.63642857143</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2369351.44285714</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.82521865669926</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.716308122120189</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.9608765878692</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.267181902314957</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.223306204924098</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31288.2532258065</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7026281.26112903</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.50461868215803</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.651099209186256</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-14106.3619692481</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.558006314839873</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.250826695779266</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-70.8899999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-11306.7</v>
+      </c>
+      <c r="H16" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.600626242910576</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -676,7 +676,7 @@
         <v>0.0129171130222743</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0689949376511942</v>
+        <v>0.0737493884820792</v>
       </c>
       <c r="F10" t="n">
         <v>16770.8035714286</v>
@@ -688,7 +688,7 @@
         <v>0.474416132053351</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.16118277347733</v>
+        <v>-1.132241576434</v>
       </c>
     </row>
     <row r="11">
@@ -893,7 +893,7 @@
         <v>0.0308372725815327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33357194499513</v>
+        <v>0.379672047525913</v>
       </c>
       <c r="F2" t="n">
         <v>5488.14642857143</v>
@@ -905,7 +905,7 @@
         <v>2.33975555583577</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.476810482753012</v>
+        <v>-0.420591375607413</v>
       </c>
     </row>
     <row r="3">
@@ -1092,7 +1092,7 @@
         <v>0.0135347353218176</v>
       </c>
       <c r="E9" t="n">
-        <v>0.148399542142312</v>
+        <v>0.165373945293345</v>
       </c>
       <c r="F9" t="n">
         <v>121642.65</v>
@@ -1104,7 +1104,7 @@
         <v>0.61388413160249</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.828567438985388</v>
+        <v>-0.781532912598794</v>
       </c>
     </row>
     <row r="10">
@@ -1193,7 +1193,7 @@
         <v>0.0966260418499097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.550747337517402</v>
+        <v>0.561339555564486</v>
       </c>
       <c r="F2" t="n">
         <v>1984.55571428571</v>
@@ -1205,7 +1205,7 @@
         <v>2.30439669555911</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.259047593685675</v>
+        <v>-0.250774353543541</v>
       </c>
     </row>
     <row r="3">
@@ -1522,7 +1522,7 @@
         <v>0.0748083206536477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0314608700934574</v>
+        <v>0.034222043709788</v>
       </c>
       <c r="F3" t="n">
         <v>11714.8821428571</v>
@@ -1534,7 +1534,7 @@
         <v>1.40838333096844</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.50222927053785</v>
+        <v>-1.46569405834312</v>
       </c>
     </row>
     <row r="4">
@@ -1634,7 +1634,7 @@
         <v>0.0247248402753767</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00408688713481306</v>
+        <v>0.00834527817815949</v>
       </c>
       <c r="F7" t="n">
         <v>20718.7864285714</v>
@@ -1646,7 +1646,7 @@
         <v>1.28569567764907</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.38860735578112</v>
+        <v>-2.07855918214518</v>
       </c>
     </row>
     <row r="8">
@@ -1778,9 +1778,7 @@
       <c r="D12" t="n">
         <v>0.0106085660132641</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.0398067631956158</v>
-      </c>
+      <c r="E12"/>
       <c r="F12" t="n">
         <v>7021.935</v>
       </c>
@@ -1790,9 +1788,7 @@
       <c r="H12" t="n">
         <v>0.852513199325168</v>
       </c>
-      <c r="I12" t="n">
-        <v>-1.40004313473525</v>
-      </c>
+      <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2189,7 +2185,7 @@
         <v>0.609595398242257</v>
       </c>
       <c r="E2" t="n">
-        <v>0.642692214475338</v>
+        <v>0.86093343378606</v>
       </c>
       <c r="F2" t="n">
         <v>1356.6</v>
@@ -2201,7 +2197,7 @@
         <v>3.16857818293498</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.191996961068096</v>
+        <v>-0.0650304263128752</v>
       </c>
     </row>
     <row r="3">
@@ -2358,9 +2354,7 @@
       <c r="D8" t="n">
         <v>0.0176083819768147</v>
       </c>
-      <c r="E8" t="n">
-        <v>-0.0509851313580177</v>
-      </c>
+      <c r="E8"/>
       <c r="F8" t="n">
         <v>19459.2321428571</v>
       </c>
@@ -2370,9 +2364,7 @@
       <c r="H8" t="n">
         <v>0.710874300897029</v>
       </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2387,9 +2379,7 @@
       <c r="D9" t="n">
         <v>0.0942639400766061</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.0410550448373626</v>
-      </c>
+      <c r="E9"/>
       <c r="F9" t="n">
         <v>18083.6892857143</v>
       </c>
@@ -2399,9 +2389,7 @@
       <c r="H9" t="n">
         <v>1.52086421401315</v>
       </c>
-      <c r="I9" t="n">
-        <v>-1.38663346922879</v>
-      </c>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2416,9 +2404,7 @@
       <c r="D10" t="n">
         <v>-0.624858780565361</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.489625120007815</v>
-      </c>
+      <c r="E10"/>
       <c r="F10" t="n">
         <v>1823.90571428572</v>
       </c>
@@ -2428,9 +2414,7 @@
       <c r="H10" t="n">
         <v>2.81817886206828</v>
       </c>
-      <c r="I10" t="n">
-        <v>-0.310136308997868</v>
-      </c>
+      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2445,9 +2429,7 @@
       <c r="D11" t="n">
         <v>0.0966021881464723</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.190986898896875</v>
-      </c>
+      <c r="E11"/>
       <c r="F11" t="n">
         <v>750.027857142865</v>
       </c>
@@ -2457,9 +2439,7 @@
       <c r="H11" t="n">
         <v>2.12492260596996</v>
       </c>
-      <c r="I11" t="n">
-        <v>-0.718996422971846</v>
-      </c>
+      <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2474,9 +2454,7 @@
       <c r="D12" t="n">
         <v>0.0456410932698102</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.0829762877707573</v>
-      </c>
+      <c r="E12"/>
       <c r="F12" t="n">
         <v>2880.99</v>
       </c>
@@ -2486,9 +2464,7 @@
       <c r="H12" t="n">
         <v>1.23942825350176</v>
       </c>
-      <c r="I12" t="n">
-        <v>-1.08104599872781</v>
-      </c>
+      <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2503,9 +2479,7 @@
       <c r="D13" t="n">
         <v>0.229962718506469</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.287726779544469</v>
-      </c>
+      <c r="E13"/>
       <c r="F13" t="n">
         <v>2535.975</v>
       </c>
@@ -2515,9 +2489,7 @@
       <c r="H13" t="n">
         <v>2.37400628248923</v>
       </c>
-      <c r="I13" t="n">
-        <v>-0.541019715213791</v>
-      </c>
+      <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2528,9 +2500,7 @@
       </c>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" t="n">
-        <v>0.186952867332309</v>
-      </c>
+      <c r="E14"/>
       <c r="F14" t="n">
         <v>47179.08</v>
       </c>
@@ -2538,9 +2508,7 @@
         <v>17329386.9</v>
       </c>
       <c r="H14"/>
-      <c r="I14" t="n">
-        <v>-0.728267869600161</v>
-      </c>
+      <c r="I14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2596,9 +2564,7 @@
       <c r="D2" t="n">
         <v>0.0836415522456026</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.175235931608227</v>
-      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
         <v>2500.85785714285</v>
       </c>
@@ -2608,9 +2574,7 @@
       <c r="H2" t="n">
         <v>1.90294098750518</v>
       </c>
-      <c r="I2" t="n">
-        <v>-0.756376838240995</v>
-      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2866,7 +2830,7 @@
         <v>0.0578152666505854</v>
       </c>
       <c r="E2" t="n">
-        <v>0.334368448888413</v>
+        <v>0.395076636764844</v>
       </c>
       <c r="F2" t="n">
         <v>2261.85</v>
@@ -2878,7 +2842,7 @@
         <v>2.04347620840636</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.475774709463059</v>
+        <v>-0.403318651979182</v>
       </c>
     </row>
     <row r="3">
@@ -3010,9 +2974,7 @@
       <c r="D7" t="n">
         <v>0.0252018268584692</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.153543970343754</v>
-      </c>
+      <c r="E7"/>
       <c r="F7" t="n">
         <v>17288.235</v>
       </c>
@@ -3022,9 +2984,7 @@
       <c r="H7" t="n">
         <v>0.461219347030154</v>
       </c>
-      <c r="I7" t="n">
-        <v>-0.813767233586602</v>
-      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3169,9 +3129,7 @@
       <c r="D2" t="n">
         <v>-0.415059873828465</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.190023104440148</v>
-      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
         <v>2055.11785714286</v>
       </c>
@@ -3181,9 +3139,7 @@
       <c r="H2" t="n">
         <v>2.38613327143824</v>
       </c>
-      <c r="I2" t="n">
-        <v>-0.721193591042821</v>
-      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -3227,9 +3183,7 @@
       <c r="D4" t="n">
         <v>0.166262713408938</v>
       </c>
-      <c r="E4" t="n">
-        <v>-0.0718485345186965</v>
-      </c>
+      <c r="E4"/>
       <c r="F4" t="n">
         <v>4953.66642857143</v>
       </c>
@@ -3239,9 +3193,7 @@
       <c r="H4" t="n">
         <v>1.78219449613319</v>
       </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3281,9 +3233,7 @@
       <c r="D6" t="n">
         <v>0.0375554805809119</v>
       </c>
-      <c r="E6" t="n">
-        <v>-0.14322728968482</v>
-      </c>
+      <c r="E6"/>
       <c r="F6" t="n">
         <v>29225.04</v>
       </c>
@@ -3293,9 +3243,7 @@
       <c r="H6" t="n">
         <v>0.534244885751498</v>
       </c>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -3339,9 +3287,7 @@
       <c r="D8" t="n">
         <v>0.131401183260687</v>
       </c>
-      <c r="E8" t="n">
-        <v>-0.089021967023526</v>
-      </c>
+      <c r="E8"/>
       <c r="F8" t="n">
         <v>20644.0714285714</v>
       </c>
@@ -3351,9 +3297,7 @@
       <c r="H8" t="n">
         <v>1.22927269128908</v>
       </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -2379,7 +2379,9 @@
       <c r="D9" t="n">
         <v>0.0942639400766061</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="n">
+        <v>0.0428521383936709</v>
+      </c>
       <c r="F9" t="n">
         <v>18083.6892857143</v>
       </c>
@@ -2389,7 +2391,9 @@
       <c r="H9" t="n">
         <v>1.52086421401315</v>
       </c>
-      <c r="I9"/>
+      <c r="I9" t="n">
+        <v>-1.36802750117604</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2404,7 +2408,9 @@
       <c r="D10" t="n">
         <v>-0.624858780565361</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="n">
+        <v>0.489625120007815</v>
+      </c>
       <c r="F10" t="n">
         <v>1823.90571428572</v>
       </c>
@@ -2414,7 +2420,9 @@
       <c r="H10" t="n">
         <v>2.81817886206828</v>
       </c>
-      <c r="I10"/>
+      <c r="I10" t="n">
+        <v>-0.310136308997868</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2429,7 +2437,9 @@
       <c r="D11" t="n">
         <v>0.0966021881464723</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" t="n">
+        <v>0.190986898896875</v>
+      </c>
       <c r="F11" t="n">
         <v>750.027857142865</v>
       </c>
@@ -2439,7 +2449,9 @@
       <c r="H11" t="n">
         <v>2.12492260596996</v>
       </c>
-      <c r="I11"/>
+      <c r="I11" t="n">
+        <v>-0.718996422971846</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2454,7 +2466,9 @@
       <c r="D12" t="n">
         <v>0.0456410932698102</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="n">
+        <v>0.0829762877707573</v>
+      </c>
       <c r="F12" t="n">
         <v>2880.99</v>
       </c>
@@ -2464,7 +2478,9 @@
       <c r="H12" t="n">
         <v>1.23942825350176</v>
       </c>
-      <c r="I12"/>
+      <c r="I12" t="n">
+        <v>-1.08104599872781</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2479,7 +2495,9 @@
       <c r="D13" t="n">
         <v>0.229962718506469</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="n">
+        <v>0.287726779544469</v>
+      </c>
       <c r="F13" t="n">
         <v>2535.975</v>
       </c>
@@ -2489,7 +2507,9 @@
       <c r="H13" t="n">
         <v>2.37400628248923</v>
       </c>
-      <c r="I13"/>
+      <c r="I13" t="n">
+        <v>-0.541019715213791</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2500,7 +2520,9 @@
       </c>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14"/>
+      <c r="E14" t="n">
+        <v>0.186952867332309</v>
+      </c>
       <c r="F14" t="n">
         <v>47179.08</v>
       </c>
@@ -2508,7 +2530,9 @@
         <v>17329386.9</v>
       </c>
       <c r="H14"/>
-      <c r="I14"/>
+      <c r="I14" t="n">
+        <v>-0.728267869600161</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -455,7 +455,9 @@
       <c r="D2" t="n">
         <v>0.13596180717365</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="n">
+        <v>0.0852566116243344</v>
+      </c>
       <c r="F2" t="n">
         <v>6744.45857142857</v>
       </c>
@@ -465,7 +467,9 @@
       <c r="H2" t="n">
         <v>1.17105290868724</v>
       </c>
-      <c r="I2"/>
+      <c r="I2" t="n">
+        <v>-1.06927193162433</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -538,7 +542,9 @@
       <c r="D5" t="n">
         <v>0.0872003372604311</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="F5" t="n">
         <v>17274.5014285714</v>
       </c>
@@ -548,7 +554,9 @@
       <c r="H5" t="n">
         <v>1.06362447391267</v>
       </c>
-      <c r="I5"/>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1778,7 +1786,9 @@
       <c r="D12" t="n">
         <v>0.0106085660132641</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="n">
+        <v>0.051919185656553</v>
+      </c>
       <c r="F12" t="n">
         <v>7021.935</v>
       </c>
@@ -1788,7 +1798,9 @@
       <c r="H12" t="n">
         <v>0.852513199325168</v>
       </c>
-      <c r="I12"/>
+      <c r="I12" t="n">
+        <v>-1.2846721279881</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1902,7 +1914,9 @@
       <c r="D2" t="n">
         <v>0.0288993102026876</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="n">
+        <v>0.471279518165097</v>
+      </c>
       <c r="F2" t="n">
         <v>4290.66642857143</v>
       </c>
@@ -1912,7 +1926,9 @@
       <c r="H2" t="n">
         <v>1.36747524772831</v>
       </c>
-      <c r="I2"/>
+      <c r="I2" t="n">
+        <v>-0.326721434293338</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1925,7 +1941,9 @@
       <c r="D3" t="n">
         <v>0.233297132170326</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="F3" t="n">
         <v>3691.38</v>
       </c>
@@ -1935,7 +1953,9 @@
       <c r="H3" t="n">
         <v>2.43281124512988</v>
       </c>
-      <c r="I3"/>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2329,7 +2349,9 @@
       <c r="D7" t="n">
         <v>0.108285591446864</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="n">
+        <v>0.183565739858753</v>
+      </c>
       <c r="F7" t="n">
         <v>9619.32857142857</v>
       </c>
@@ -2339,7 +2361,9 @@
       <c r="H7" t="n">
         <v>1.31788523629769</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>-0.736208370948997</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2354,7 +2378,9 @@
       <c r="D8" t="n">
         <v>0.0176083819768147</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="F8" t="n">
         <v>19459.2321428571</v>
       </c>
@@ -2364,7 +2390,9 @@
       <c r="H8" t="n">
         <v>0.710874300897029</v>
       </c>
-      <c r="I8"/>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2584,11 +2612,15 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="n">
+        <v>79.9725579879591</v>
+      </c>
       <c r="D2" t="n">
         <v>0.0836415522456026</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="n">
+        <v>0.364493365047336</v>
+      </c>
       <c r="F2" t="n">
         <v>2500.85785714285</v>
       </c>
@@ -2598,7 +2630,9 @@
       <c r="H2" t="n">
         <v>1.90294098750518</v>
       </c>
-      <c r="I2"/>
+      <c r="I2" t="n">
+        <v>-0.438310372831757</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2998,7 +3032,9 @@
       <c r="D7" t="n">
         <v>0.0252018268584692</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="n">
+        <v>0.165702278222738</v>
+      </c>
       <c r="F7" t="n">
         <v>17288.235</v>
       </c>
@@ -3008,7 +3044,9 @@
       <c r="H7" t="n">
         <v>0.461219347030154</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>-0.780671520471659</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3153,7 +3191,9 @@
       <c r="D2" t="n">
         <v>-0.415059873828465</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="n">
+        <v>0.216207962250635</v>
+      </c>
       <c r="F2" t="n">
         <v>2055.11785714286</v>
       </c>
@@ -3163,7 +3203,9 @@
       <c r="H2" t="n">
         <v>2.38613327143824</v>
       </c>
-      <c r="I2"/>
+      <c r="I2" t="n">
+        <v>-0.665128316405647</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -3207,7 +3249,9 @@
       <c r="D4" t="n">
         <v>0.166262713408938</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="F4" t="n">
         <v>4953.66642857143</v>
       </c>
@@ -3217,7 +3261,9 @@
       <c r="H4" t="n">
         <v>1.78219449613319</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3257,7 +3303,9 @@
       <c r="D6" t="n">
         <v>0.0375554805809119</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="F6" t="n">
         <v>29225.04</v>
       </c>
@@ -3267,7 +3315,9 @@
       <c r="H6" t="n">
         <v>0.534244885751498</v>
       </c>
-      <c r="I6"/>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -3311,7 +3361,9 @@
       <c r="D8" t="n">
         <v>0.131401183260687</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="F8" t="n">
         <v>20644.0714285714</v>
       </c>
@@ -3321,7 +3373,9 @@
       <c r="H8" t="n">
         <v>1.22927269128908</v>
       </c>
-      <c r="I8"/>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -1144,6 +1144,29 @@
         <v>-0.277152215543772</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>0.297576481764534</v>
+      </c>
+      <c r="F11" t="n">
+        <v>47354.2485483871</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9030254.92693548</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="n">
+        <v>-0.526401395180895</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2148,6 +2171,29 @@
         <v>-0.333287735196435</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>0.423142070899526</v>
+      </c>
+      <c r="F11" t="n">
+        <v>105390.800806452</v>
+      </c>
+      <c r="G11" t="n">
+        <v>75844401.8767742</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="n">
+        <v>-0.373513792794024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2562,6 +2608,29 @@
         <v>-0.728267869600161</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" t="n">
+        <v>0.239089827931722</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17688.0174193548</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4866718.14435484</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15" t="n">
+        <v>-0.621438900534565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2831,6 +2900,29 @@
         <v>-0.413264131384523</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="n">
+        <v>0.106130731104437</v>
+      </c>
+      <c r="F10" t="n">
+        <v>70191.3082258065</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24594782.4179032</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="n">
+        <v>-0.974158844028764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3135,6 +3227,29 @@
         <v>-0.470113992943802</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>0.344179054308522</v>
+      </c>
+      <c r="F11" t="n">
+        <v>33057.2951612903</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6315668.79629032</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="n">
+        <v>-0.463215563046863</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3582,22 +3697,22 @@
         <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>-14106.3619692481</v>
+        <v>373.761564416404</v>
       </c>
       <c r="D16" t="n">
-        <v>0.558006314839873</v>
+        <v>0.294695879487908</v>
       </c>
       <c r="E16" t="n">
         <v>0.250826695779266</v>
       </c>
       <c r="F16" t="n">
-        <v>-70.8899999999999</v>
+        <v>2675.5025</v>
       </c>
       <c r="G16" t="n">
-        <v>-11306.7</v>
-      </c>
-      <c r="H16" t="e">
-        <v>#NUM!</v>
+        <v>808018.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.57259463888307</v>
       </c>
       <c r="I16" t="n">
         <v>-0.600626242910576</v>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -456,7 +456,7 @@
         <v>0.13596180717365</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0852566116243344</v>
+        <v>0.495256611624334</v>
       </c>
       <c r="F2" t="n">
         <v>6744.45857142857</v>
@@ -468,7 +468,7 @@
         <v>1.17105290868724</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.06927193162433</v>
+        <v>-0.305169717964482</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>0.399047598709821</v>
       </c>
       <c r="E3" t="n">
-        <v>0.571842117623629</v>
+        <v>0.981842117623629</v>
       </c>
       <c r="F3" t="n">
         <v>2949.00214285714</v>
@@ -497,7 +497,7 @@
         <v>2.60950615792082</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.242723860908932</v>
+        <v>-0.00795834210862098</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0.292536199651649</v>
       </c>
       <c r="E4" t="n">
-        <v>0.556155956335123</v>
+        <v>0.935344421041347</v>
       </c>
       <c r="F4" t="n">
         <v>3847.36714285714</v>
@@ -526,7 +526,7 @@
         <v>2.71586636394285</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.254803407197853</v>
+        <v>-0.029028439807222</v>
       </c>
     </row>
     <row r="5">
@@ -829,7 +829,7 @@
         <v>0.274291524526629</v>
       </c>
       <c r="E15" t="n">
-        <v>0.335585069806503</v>
+        <v>0.535585069806503</v>
       </c>
       <c r="F15" t="n">
         <v>1871.40857142857</v>
@@ -841,7 +841,7 @@
         <v>2.50598263608201</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.47419736919282</v>
+        <v>-0.271171538065976</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1100,7 @@
         <v>0.0135347353218176</v>
       </c>
       <c r="E9" t="n">
-        <v>0.165373945293345</v>
+        <v>0.135373945293345</v>
       </c>
       <c r="F9" t="n">
         <v>121642.65</v>
@@ -1112,7 +1112,7 @@
         <v>0.61388413160249</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.781532912598794</v>
+        <v>-0.868464913968208</v>
       </c>
     </row>
     <row r="10">
@@ -1129,7 +1129,7 @@
         <v>-0.264707017120813</v>
       </c>
       <c r="E10" t="n">
-        <v>0.528260069853473</v>
+        <v>0.508260069853473</v>
       </c>
       <c r="F10" t="n">
         <v>1999.455</v>
@@ -1141,7 +1141,7 @@
         <v>2.92953728708808</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.277152215543772</v>
+        <v>-0.29391400818727</v>
       </c>
     </row>
     <row r="11">
@@ -1154,7 +1154,7 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>0.297576481764534</v>
+        <v>0.277576481764534</v>
       </c>
       <c r="F11" t="n">
         <v>47354.2485483871</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>-0.526401395180895</v>
+        <v>-0.556617333147187</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1224,7 @@
         <v>0.0966260418499097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.561339555564486</v>
+        <v>0.451339555564486</v>
       </c>
       <c r="F2" t="n">
         <v>1984.55571428571</v>
@@ -1236,7 +1236,7 @@
         <v>2.30439669555911</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.250774353543541</v>
+        <v>-0.345496603083917</v>
       </c>
     </row>
     <row r="3">
@@ -1253,7 +1253,7 @@
         <v>0.214345900534267</v>
       </c>
       <c r="E3" t="n">
-        <v>0.89859430101436</v>
+        <v>0.78859430101436</v>
       </c>
       <c r="F3" t="n">
         <v>3363.41357142857</v>
@@ -1265,7 +1265,7 @@
         <v>2.61934776344354</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0464363400784758</v>
+        <v>-0.103146365795587</v>
       </c>
     </row>
     <row r="4">
@@ -1282,7 +1282,7 @@
         <v>0.0482196240014123</v>
       </c>
       <c r="E4" t="n">
-        <v>0.506400216436797</v>
+        <v>0.396400216436797</v>
       </c>
       <c r="F4" t="n">
         <v>14294.7535714286</v>
@@ -1294,7 +1294,7 @@
         <v>1.62297457746762</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.295506117372047</v>
+        <v>-0.401866117059414</v>
       </c>
     </row>
     <row r="5">
@@ -1311,7 +1311,7 @@
         <v>0.0396467471682954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.542257562907983</v>
+        <v>0.432257562907983</v>
       </c>
       <c r="F5" t="n">
         <v>9733.09499999999</v>
@@ -1323,7 +1323,7 @@
         <v>1.78990028805065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.26579438213295</v>
+        <v>-0.364257399441037</v>
       </c>
     </row>
     <row r="6">
@@ -1340,7 +1340,7 @@
         <v>0.0240540549037401</v>
       </c>
       <c r="E6" t="n">
-        <v>0.47259266099701</v>
+        <v>0.36259266099701</v>
       </c>
       <c r="F6" t="n">
         <v>5443.77642857143</v>
@@ -1352,7 +1352,7 @@
         <v>1.26409971922027</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.32551302691281</v>
+        <v>-0.440580990424616</v>
       </c>
     </row>
     <row r="7">
@@ -1394,7 +1394,7 @@
         <v>0.117343468865951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.837560505687049</v>
+        <v>0.727560505687049</v>
       </c>
       <c r="F8" t="n">
         <v>2237.625</v>
@@ -1406,7 +1406,7 @@
         <v>2.42836394481183</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0769838095605552</v>
+        <v>-0.138130883863241</v>
       </c>
     </row>
     <row r="9">
@@ -1423,7 +1423,7 @@
         <v>0.107799050498668</v>
       </c>
       <c r="E9" t="n">
-        <v>0.454264338179026</v>
+        <v>0.464264338179026</v>
       </c>
       <c r="F9" t="n">
         <v>6498.52928571428</v>
@@ -1435,7 +1435,7 @@
         <v>2.22857760472607</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.342691355943412</v>
+        <v>-0.333234674780698</v>
       </c>
     </row>
     <row r="10">
@@ -1452,7 +1452,7 @@
         <v>0.339378791429092</v>
       </c>
       <c r="E10" t="n">
-        <v>0.720675185686036</v>
+        <v>0.730675185686036</v>
       </c>
       <c r="F10" t="n">
         <v>2077.485</v>
@@ -1464,7 +1464,7 @@
         <v>2.42282479274965</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.142260431326373</v>
+        <v>-0.136275641392456</v>
       </c>
     </row>
   </sheetData>
@@ -1752,7 +1752,7 @@
         <v>0.017179789481342</v>
       </c>
       <c r="E10" t="n">
-        <v>0.100905322589866</v>
+        <v>0.130905322589866</v>
       </c>
       <c r="F10" t="n">
         <v>6639.98142857143</v>
@@ -1764,7 +1764,7 @@
         <v>1.47886313097672</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.996085924838993</v>
+        <v>-0.883042694744787</v>
       </c>
     </row>
     <row r="11">
@@ -1781,7 +1781,7 @@
         <v>0.223866557705922</v>
       </c>
       <c r="E11" t="n">
-        <v>0.292268158933349</v>
+        <v>0.322268158933349</v>
       </c>
       <c r="F11" t="n">
         <v>2950.095</v>
@@ -1793,7 +1793,7 @@
         <v>2.30831524887617</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.534218496147122</v>
+        <v>-0.491782601973442</v>
       </c>
     </row>
     <row r="12">
@@ -1810,7 +1810,7 @@
         <v>0.0106085660132641</v>
       </c>
       <c r="E12" t="n">
-        <v>0.051919185656553</v>
+        <v>0.0819191856565531</v>
       </c>
       <c r="F12" t="n">
         <v>7021.935</v>
@@ -1822,7 +1822,7 @@
         <v>0.852513199325168</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.2846721279881</v>
+        <v>-1.08661437358777</v>
       </c>
     </row>
     <row r="13">
@@ -1839,7 +1839,7 @@
         <v>0.192383869915185</v>
       </c>
       <c r="E13" t="n">
-        <v>0.69658739105357</v>
+        <v>0.75658739105357</v>
       </c>
       <c r="F13" t="n">
         <v>3105.9</v>
@@ -1851,7 +1851,7 @@
         <v>3.06411503203648</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.157024390982315</v>
+        <v>-0.121140900740191</v>
       </c>
     </row>
     <row r="14">
@@ -1868,7 +1868,7 @@
         <v>0.0810203587599588</v>
       </c>
       <c r="E14" t="n">
-        <v>0.140700754388522</v>
+        <v>0.200700754388522</v>
       </c>
       <c r="F14" t="n">
         <v>19753.065</v>
@@ -1880,7 +1880,7 @@
         <v>1.88045676621674</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.85170357402301</v>
+        <v>-0.697450995095193</v>
       </c>
     </row>
   </sheetData>
@@ -2129,7 +2129,7 @@
         <v>0.114325713526605</v>
       </c>
       <c r="E9" t="n">
-        <v>0.603687349344395</v>
+        <v>0.693687349344395</v>
       </c>
       <c r="F9" t="n">
         <v>6113.33357142857</v>
@@ -2141,7 +2141,7 @@
         <v>2.14314083218554</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.219187924970591</v>
+        <v>-0.158836225581222</v>
       </c>
     </row>
     <row r="10">
@@ -2151,12 +2151,14 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" t="n">
+        <v>18.5478970626159</v>
+      </c>
       <c r="D10" t="n">
         <v>0.0380123901994629</v>
       </c>
       <c r="E10" t="n">
-        <v>0.46420761962736</v>
+        <v>0.55420761962736</v>
       </c>
       <c r="F10" t="n">
         <v>10782.8935714286</v>
@@ -2168,7 +2170,7 @@
         <v>1.26829467697673</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.333287735196435</v>
+        <v>-0.256327507533635</v>
       </c>
     </row>
     <row r="11">
@@ -2181,7 +2183,7 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>0.423142070899526</v>
+        <v>0.523142070899526</v>
       </c>
       <c r="F11" t="n">
         <v>105390.800806452</v>
@@ -2191,7 +2193,7 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>-0.373513792794024</v>
+        <v>-0.281380352760151</v>
       </c>
     </row>
   </sheetData>
@@ -2251,7 +2253,7 @@
         <v>0.609595398242257</v>
       </c>
       <c r="E2" t="n">
-        <v>0.86093343378606</v>
+        <v>0.776922527221678</v>
       </c>
       <c r="F2" t="n">
         <v>1356.6</v>
@@ -2263,7 +2265,7 @@
         <v>3.16857818293498</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0650304263128752</v>
+        <v>-0.109622285803481</v>
       </c>
     </row>
     <row r="3">
@@ -2424,8 +2426,8 @@
       <c r="D8" t="n">
         <v>0.0176083819768147</v>
       </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
+      <c r="E8" t="n">
+        <v>0.119014868641982</v>
       </c>
       <c r="F8" t="n">
         <v>19459.2321428571</v>
@@ -2436,8 +2438,8 @@
       <c r="H8" t="n">
         <v>0.710874300897029</v>
       </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
+      <c r="I8" t="n">
+        <v>-0.924398778390773</v>
       </c>
     </row>
     <row r="9">
@@ -2454,7 +2456,7 @@
         <v>0.0942639400766061</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0428521383936709</v>
+        <v>0.211055044837363</v>
       </c>
       <c r="F9" t="n">
         <v>18083.6892857143</v>
@@ -2466,7 +2468,7 @@
         <v>1.52086421401315</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.36802750117604</v>
+        <v>-0.675604262467908</v>
       </c>
     </row>
     <row r="10">
@@ -2483,7 +2485,7 @@
         <v>-0.624858780565361</v>
       </c>
       <c r="E10" t="n">
-        <v>0.489625120007815</v>
+        <v>0.659625120007815</v>
       </c>
       <c r="F10" t="n">
         <v>1823.90571428572</v>
@@ -2495,7 +2497,7 @@
         <v>2.81817886206828</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.310136308997868</v>
+        <v>-0.180702813802158</v>
       </c>
     </row>
     <row r="11">
@@ -2512,7 +2514,7 @@
         <v>0.0966021881464723</v>
       </c>
       <c r="E11" t="n">
-        <v>0.190986898896875</v>
+        <v>0.360986898896875</v>
       </c>
       <c r="F11" t="n">
         <v>750.027857142865</v>
@@ -2524,7 +2526,7 @@
         <v>2.12492260596996</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.718996422971846</v>
+        <v>-0.442508559424093</v>
       </c>
     </row>
     <row r="12">
@@ -2541,7 +2543,7 @@
         <v>0.0456410932698102</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0829762877707573</v>
+        <v>0.252976287770757</v>
       </c>
       <c r="F12" t="n">
         <v>2880.99</v>
@@ -2553,7 +2555,7 @@
         <v>1.23942825350176</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.08104599872781</v>
+        <v>-0.596920184646056</v>
       </c>
     </row>
     <row r="13">
@@ -2570,7 +2572,7 @@
         <v>0.229962718506469</v>
       </c>
       <c r="E13" t="n">
-        <v>0.287726779544469</v>
+        <v>0.447726779544469</v>
       </c>
       <c r="F13" t="n">
         <v>2535.975</v>
@@ -2582,7 +2584,7 @@
         <v>2.37400628248923</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.541019715213791</v>
+        <v>-0.348986928711107</v>
       </c>
     </row>
     <row r="14">
@@ -2595,7 +2597,7 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>0.186952867332309</v>
+        <v>0.346952867332309</v>
       </c>
       <c r="F14" t="n">
         <v>47179.08</v>
@@ -2605,7 +2607,7 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>-0.728267869600161</v>
+        <v>-0.459729519006806</v>
       </c>
     </row>
     <row r="15">
@@ -2618,7 +2620,7 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>0.239089827931722</v>
+        <v>0.399089827931722</v>
       </c>
       <c r="F15" t="n">
         <v>17688.0174193548</v>
@@ -2628,7 +2630,7 @@
       </c>
       <c r="H15"/>
       <c r="I15" t="n">
-        <v>-0.621438900534565</v>
+        <v>-0.398929341445296</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +2887,7 @@
         <v>0.0895346799829791</v>
       </c>
       <c r="E9" t="n">
-        <v>0.386132065900496</v>
+        <v>0.586132065900496</v>
       </c>
       <c r="F9" t="n">
         <v>1954.575</v>
@@ -2897,7 +2899,7 @@
         <v>2.61203764736759</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.413264131384523</v>
+        <v>-0.232004518743436</v>
       </c>
     </row>
     <row r="10">
@@ -2910,7 +2912,7 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.106130731104437</v>
+        <v>0.306130731104437</v>
       </c>
       <c r="F10" t="n">
         <v>70191.3082258065</v>
@@ -2920,7 +2922,7 @@
       </c>
       <c r="H10"/>
       <c r="I10" t="n">
-        <v>-0.974158844028764</v>
+        <v>-0.51409307132012</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +2982,7 @@
         <v>0.0578152666505854</v>
       </c>
       <c r="E2" t="n">
-        <v>0.395076636764844</v>
+        <v>0.365076636764844</v>
       </c>
       <c r="F2" t="n">
         <v>2261.85</v>
@@ -2992,7 +2994,7 @@
         <v>2.04347620840636</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.403318651979182</v>
+        <v>-0.437615959021695</v>
       </c>
     </row>
     <row r="3">
@@ -3009,7 +3011,7 @@
         <v>0.0876716470388422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.432978589290512</v>
+        <v>0.402978589290512</v>
       </c>
       <c r="F3" t="n">
         <v>4122.47571428571</v>
@@ -3021,7 +3023,7 @@
         <v>2.16299314451045</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.363533578895795</v>
+        <v>-0.394718027804303</v>
       </c>
     </row>
     <row r="4">
@@ -3038,7 +3040,7 @@
         <v>0.111120888231963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23773763726534</v>
+        <v>0.20773763726534</v>
       </c>
       <c r="F4" t="n">
         <v>7865.22</v>
@@ -3050,7 +3052,7 @@
         <v>1.28038038416888</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.623902057806076</v>
+        <v>-0.682484812199451</v>
       </c>
     </row>
     <row r="5">
@@ -3067,7 +3069,7 @@
         <v>0.0463166323010258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21568387517109</v>
+        <v>0.18568387517109</v>
       </c>
       <c r="F5" t="n">
         <v>11809.8514285714</v>
@@ -3079,7 +3081,7 @@
         <v>1.2287855615693</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.666182322148197</v>
+        <v>-0.731225808851906</v>
       </c>
     </row>
     <row r="6">
@@ -3096,7 +3098,7 @@
         <v>0.0437964783271548</v>
       </c>
       <c r="E6" t="n">
-        <v>0.184310511172043</v>
+        <v>0.154310511172043</v>
       </c>
       <c r="F6" t="n">
         <v>11124.8485714286</v>
@@ -3108,7 +3110,7 @@
         <v>0.652675896147369</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.734449896393269</v>
+        <v>-0.811604490083723</v>
       </c>
     </row>
     <row r="7">
@@ -3125,7 +3127,7 @@
         <v>0.0252018268584692</v>
       </c>
       <c r="E7" t="n">
-        <v>0.165702278222738</v>
+        <v>0.135702278222738</v>
       </c>
       <c r="F7" t="n">
         <v>17288.235</v>
@@ -3137,7 +3139,7 @@
         <v>0.461219347030154</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.780671520471659</v>
+        <v>-0.867412861174027</v>
       </c>
     </row>
     <row r="8">
@@ -3154,7 +3156,7 @@
         <v>0.142353917790553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.398938311717069</v>
+        <v>0.368938311717069</v>
       </c>
       <c r="F8" t="n">
         <v>7573.71857142857</v>
@@ -3166,7 +3168,7 @@
         <v>2.02378082367035</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.399094254569193</v>
+        <v>-0.433046243923686</v>
       </c>
     </row>
     <row r="9">
@@ -3237,7 +3239,7 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>0.344179054308522</v>
+        <v>0.334179054308522</v>
       </c>
       <c r="F11" t="n">
         <v>33057.2951612903</v>
@@ -3247,7 +3249,7 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>-0.463215563046863</v>
+        <v>-0.476020774320848</v>
       </c>
     </row>
   </sheetData>
@@ -3307,7 +3309,7 @@
         <v>-0.415059873828465</v>
       </c>
       <c r="E2" t="n">
-        <v>0.216207962250635</v>
+        <v>0.360023104440148</v>
       </c>
       <c r="F2" t="n">
         <v>2055.11785714286</v>
@@ -3319,7 +3321,7 @@
         <v>2.38613327143824</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.665128316405647</v>
+        <v>-0.443669627541359</v>
       </c>
     </row>
     <row r="3">
@@ -3336,7 +3338,7 @@
         <v>0.577927133588421</v>
       </c>
       <c r="E3" t="n">
-        <v>0.835018144430228</v>
+        <v>1.00501814443023</v>
       </c>
       <c r="F3" t="n">
         <v>1384.14</v>
@@ -3348,7 +3350,7 @@
         <v>3.15984997624233</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0783040874621337</v>
+        <v>0.00217390250754501</v>
       </c>
     </row>
     <row r="4">
@@ -3364,8 +3366,8 @@
       <c r="D4" t="n">
         <v>0.166262713408938</v>
       </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
+      <c r="E4" t="n">
+        <v>0.0981514654813035</v>
       </c>
       <c r="F4" t="n">
         <v>4953.66642857143</v>
@@ -3376,8 +3378,8 @@
       <c r="H4" t="n">
         <v>1.78219449613319</v>
       </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
+      <c r="I4" t="n">
+        <v>-1.00810321164531</v>
       </c>
     </row>
     <row r="5">
@@ -3418,8 +3420,8 @@
       <c r="D6" t="n">
         <v>0.0375554805809119</v>
       </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
+      <c r="E6" t="n">
+        <v>0.0267727103151798</v>
       </c>
       <c r="F6" t="n">
         <v>29225.04</v>
@@ -3430,8 +3432,8 @@
       <c r="H6" t="n">
         <v>0.534244885751498</v>
       </c>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
+      <c r="I6" t="n">
+        <v>-1.57230766111248</v>
       </c>
     </row>
     <row r="7">
@@ -3448,7 +3450,7 @@
         <v>0.426859527793496</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0430076588941056</v>
+        <v>0.213007658894106</v>
       </c>
       <c r="F7" t="n">
         <v>2600.08928571429</v>
@@ -3460,7 +3462,7 @@
         <v>2.23822425210174</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.36645419746087</v>
+        <v>-0.671604780807045</v>
       </c>
     </row>
     <row r="8">
@@ -3476,8 +3478,8 @@
       <c r="D8" t="n">
         <v>0.131401183260687</v>
       </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
+      <c r="E8" t="n">
+        <v>0.080978032976474</v>
       </c>
       <c r="F8" t="n">
         <v>20644.0714285714</v>
@@ -3488,8 +3490,8 @@
       <c r="H8" t="n">
         <v>1.22927269128908</v>
       </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
+      <c r="I8" t="n">
+        <v>-1.09163277681234</v>
       </c>
     </row>
     <row r="9">

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -1154,7 +1154,7 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>0.277576481764534</v>
+        <v>0.274027142180158</v>
       </c>
       <c r="F11" t="n">
         <v>47354.2485483871</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>-0.556617333147187</v>
+        <v>-0.562206418510747</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2183,7 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>0.523142070899526</v>
+        <v>0.519697920654582</v>
       </c>
       <c r="F11" t="n">
         <v>105390.800806452</v>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>-0.281380352760151</v>
+        <v>-0.28424902081433</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +2620,7 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>0.399089827931722</v>
+        <v>0.391295963011507</v>
       </c>
       <c r="F15" t="n">
         <v>17688.0174193548</v>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="H15"/>
       <c r="I15" t="n">
-        <v>-0.398929341445296</v>
+        <v>-0.407494632679106</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2912,7 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.306130731104437</v>
+        <v>0.303866762065075</v>
       </c>
       <c r="F10" t="n">
         <v>70191.3082258065</v>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="H10"/>
       <c r="I10" t="n">
-        <v>-0.51409307132012</v>
+        <v>-0.517316801865353</v>
       </c>
     </row>
   </sheetData>
@@ -3239,7 +3239,7 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>0.334179054308522</v>
+        <v>0.327860796281033</v>
       </c>
       <c r="F11" t="n">
         <v>33057.2951612903</v>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>-0.476020774320848</v>
+        <v>-0.484310510676503</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -12,15 +12,17 @@
     <sheet name="5" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="5a" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="6a" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="6.3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="6a" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="9.2" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -67,6 +69,9 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
+    <t xml:space="preserve">6.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">6a</t>
   </si>
   <si>
@@ -74,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2</t>
   </si>
 </sst>
 </file>
@@ -850,6 +858,542 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>44302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>243.295049119533</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.415059873828465</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.360023104440148</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2055.11785714286</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-165871.125</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.38613327143824</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.443669627541359</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44386</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1444.94054069675</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.577927133588421</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.00501814443023</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1384.14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>76640.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.15984997624233</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00217390250754501</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>60.5612033684141</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.166262713408938</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0981514654813035</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4953.66642857143</v>
+      </c>
+      <c r="G4" t="n">
+        <v>953414.764285715</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.78219449613319</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1.00810321164531</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>156.869264340194</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0999742912566901</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>3506.10428571429</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1052101.76785714</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.1955378598709</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.42172328934366</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0375554805809119</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0267727103151798</v>
+      </c>
+      <c r="F6" t="n">
+        <v>29225.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9727288.65000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.534244885751498</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.57230766111248</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>173.070979705367</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.426859527793496</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.213007658894106</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2600.08928571429</v>
+      </c>
+      <c r="G7" t="n">
+        <v>200400.675000005</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.23822425210174</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.671604780807045</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.9540200057436</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.131401183260687</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.080978032976474</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20644.0714285714</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3189276.075</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.22927269128908</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1.09163277681234</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.57548757401697</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0192449199286524</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0322295008782968</v>
+      </c>
+      <c r="F9" t="n">
+        <v>63472.4142857143</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64313703.7285714</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.197414982211926</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.49174642013085</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17.4458643924238</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0323205086994282</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.146809310279103</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11464.035</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11705049.525</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.24169249236021</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.833246401677268</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.617325749677</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.20143331114612</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1019830414486</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1878.47571428571</v>
+      </c>
+      <c r="G11" t="n">
+        <v>141748.307142857</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.42516441963977</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.991472040175493</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>160.293015632576</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.138009949764872</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.304619300450722</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2495.43</v>
+      </c>
+      <c r="G12" t="n">
+        <v>524364.15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.20491459947009</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.51624258355513</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>0.262140092531933</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3919.605</v>
+      </c>
+      <c r="G13" t="n">
+        <v>539592.75</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="n">
+        <v>-0.581466551606639</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="n">
+        <v>66.8680497183789</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.118977054787886</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.192172782267643</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9720.63642857143</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2369351.44285714</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.82521865669926</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.716308122120189</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.9608765878692</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.267181902314957</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.223306204924098</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31288.2532258065</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7026281.26112903</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.50461868215803</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.651099209186256</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>373.761564416404</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.294695879487908</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.250826695779266</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2675.5025</v>
+      </c>
+      <c r="G16" t="n">
+        <v>808018.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.57259463888307</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.600626242910576</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.16347687845669</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0426113595968632</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="n">
+        <v>42974.64</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24204610.455</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.065757757061125</v>
+      </c>
+      <c r="I2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -2678,252 +3222,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44292</v>
+        <v>45727</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>79.9725579879591</v>
+        <v>41.4323433756513</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0836415522456026</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.364493365047336</v>
-      </c>
+        <v>0.0386159600206019</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
-        <v>2500.85785714285</v>
+        <v>24135.7335483871</v>
       </c>
       <c r="G2" t="n">
-        <v>774402.396428567</v>
+        <v>13750432.1472581</v>
       </c>
       <c r="H2" t="n">
-        <v>1.90294098750518</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.438310372831757</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44371</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="n">
-        <v>97.517092917943</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0844166976160872</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.428172659072591</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12305.535</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5685082.2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.9890807460505</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.368381067992078</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>44452</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14.3008118570891</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.10472695502504</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.226952277503813</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13985.22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1949681.55</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.15536069306266</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.64406545468198</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>44517</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="n">
-        <v>19.273719443755</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0768117708525735</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.258582477591671</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10376.8242857143</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2877506.33571429</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.28496553292348</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.587400907696447</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>44589</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.79493167987407</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0279077813421051</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.185682797933314</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14716.8514285714</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4798781.61428571</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.832185094445576</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.731228328401752</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>44665</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7" t="n">
-        <v>0.0835954778785003</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="n">
-        <v>18097.9692857143</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2641234.08214286</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.74237015316871</v>
-      </c>
-      <c r="I7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>44818</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>52.7801968701343</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0490018181170012</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.346783836740215</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7578.6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3433442.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.72247100580547</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.459941152770569</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="n">
-        <v>409.296138546743</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0895346799829791</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.586132065900496</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1954.575</v>
-      </c>
-      <c r="G9" t="n">
-        <v>458437.725</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.61203764736759</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.232004518743436</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45684</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" t="n">
-        <v>0.303866762065075</v>
-      </c>
-      <c r="F10" t="n">
-        <v>70191.3082258065</v>
-      </c>
-      <c r="G10" t="n">
-        <v>24594782.4179032</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10" t="n">
-        <v>-0.517316801865353</v>
-      </c>
+        <v>1.61733949729379</v>
+      </c>
+      <c r="I2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2976,25 +3296,25 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>110.528991754537</v>
+        <v>79.9725579879591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0578152666505854</v>
+        <v>0.0836415522456026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.365076636764844</v>
+        <v>0.364493365047336</v>
       </c>
       <c r="F2" t="n">
-        <v>2261.85</v>
+        <v>2500.85785714285</v>
       </c>
       <c r="G2" t="n">
-        <v>1490548.95</v>
+        <v>774402.396428567</v>
       </c>
       <c r="H2" t="n">
-        <v>2.04347620840636</v>
+        <v>1.90294098750518</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.437615959021695</v>
+        <v>-0.438310372831757</v>
       </c>
     </row>
     <row r="3">
@@ -3005,25 +3325,25 @@
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>145.543610583516</v>
+        <v>97.517092917943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0876716470388422</v>
+        <v>0.0844166976160872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.402978589290512</v>
+        <v>0.428172659072591</v>
       </c>
       <c r="F3" t="n">
-        <v>4122.47571428571</v>
+        <v>12305.535</v>
       </c>
       <c r="G3" t="n">
-        <v>1650464.00357143</v>
+        <v>5685082.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16299314451045</v>
+        <v>1.9890807460505</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.394718027804303</v>
+        <v>-0.368381067992078</v>
       </c>
     </row>
     <row r="4">
@@ -3034,25 +3354,25 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>19.0713037906123</v>
+        <v>14.3008118570891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111120888231963</v>
+        <v>0.10472695502504</v>
       </c>
       <c r="E4" t="n">
-        <v>0.20773763726534</v>
+        <v>0.226952277503813</v>
       </c>
       <c r="F4" t="n">
-        <v>7865.22</v>
+        <v>13985.22</v>
       </c>
       <c r="G4" t="n">
-        <v>1033398.975</v>
+        <v>1949681.55</v>
       </c>
       <c r="H4" t="n">
-        <v>1.28038038416888</v>
+        <v>1.15536069306266</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.682484812199451</v>
+        <v>-0.64406545468198</v>
       </c>
     </row>
     <row r="5">
@@ -3063,25 +3383,25 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9350140609002</v>
+        <v>19.273719443755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0463166323010258</v>
+        <v>0.0768117708525735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.18568387517109</v>
+        <v>0.258582477591671</v>
       </c>
       <c r="F5" t="n">
-        <v>11809.8514285714</v>
+        <v>10376.8242857143</v>
       </c>
       <c r="G5" t="n">
-        <v>10479710.4107143</v>
+        <v>2877506.33571429</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2287855615693</v>
+        <v>1.28496553292348</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.731225808851906</v>
+        <v>-0.587400907696447</v>
       </c>
     </row>
     <row r="6">
@@ -3092,55 +3412,49 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>4.49444319884161</v>
+        <v>6.79493167987407</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0437964783271548</v>
+        <v>0.0279077813421051</v>
       </c>
       <c r="E6" t="n">
-        <v>0.154310511172043</v>
+        <v>0.185682797933314</v>
       </c>
       <c r="F6" t="n">
-        <v>11124.8485714286</v>
+        <v>14716.8514285714</v>
       </c>
       <c r="G6" t="n">
-        <v>2159105.4</v>
+        <v>4798781.61428571</v>
       </c>
       <c r="H6" t="n">
-        <v>0.652675896147369</v>
+        <v>0.832185094445576</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.811604490083723</v>
+        <v>-0.731228328401752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44666</v>
+        <v>44665</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.89214023293876</v>
-      </c>
+      <c r="C7"/>
       <c r="D7" t="n">
-        <v>0.0252018268584692</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.135702278222738</v>
-      </c>
+        <v>0.0835954778785003</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="n">
-        <v>17288.235</v>
+        <v>18097.9692857143</v>
       </c>
       <c r="G7" t="n">
-        <v>11318857.125</v>
+        <v>2641234.08214286</v>
       </c>
       <c r="H7" t="n">
-        <v>0.461219347030154</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.867412861174027</v>
-      </c>
+        <v>0.74237015316871</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3150,106 +3464,77 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>105.628429740967</v>
+        <v>52.7801968701343</v>
       </c>
       <c r="D8" t="n">
-        <v>0.142353917790553</v>
+        <v>0.0490018181170012</v>
       </c>
       <c r="E8" t="n">
-        <v>0.368938311717069</v>
+        <v>0.346783836740215</v>
       </c>
       <c r="F8" t="n">
-        <v>7573.71857142857</v>
+        <v>7578.6</v>
       </c>
       <c r="G8" t="n">
-        <v>2255825.98928571</v>
+        <v>3433442.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.02378082367035</v>
+        <v>1.72247100580547</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.433046243923686</v>
+        <v>-0.459941152770569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44966</v>
+        <v>45279</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>8.00184819830957</v>
+        <v>409.296138546743</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0131382698505472</v>
+        <v>0.0895346799829791</v>
       </c>
       <c r="E9" t="n">
-        <v>0.110887957954024</v>
+        <v>0.586132065900496</v>
       </c>
       <c r="F9" t="n">
-        <v>6248.55642857143</v>
+        <v>1954.575</v>
       </c>
       <c r="G9" t="n">
-        <v>6658394.97857143</v>
+        <v>458437.725</v>
       </c>
       <c r="H9" t="n">
-        <v>0.903190308194961</v>
+        <v>2.61203764736759</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.955115614158115</v>
+        <v>-0.232004518743436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44998</v>
+        <v>45684</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="n">
-        <v>126.543034122329</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.154867311917387</v>
-      </c>
+      <c r="C10"/>
+      <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.338755228520558</v>
+        <v>0.303866762065075</v>
       </c>
       <c r="F10" t="n">
-        <v>3951.225</v>
+        <v>70191.3082258065</v>
       </c>
       <c r="G10" t="n">
-        <v>714381.225</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.10223824332676</v>
-      </c>
+        <v>24594782.4179032</v>
+      </c>
+      <c r="H10"/>
       <c r="I10" t="n">
-        <v>-0.470113992943802</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45684</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" t="n">
-        <v>0.327860796281033</v>
-      </c>
-      <c r="F11" t="n">
-        <v>33057.2951612903</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6315668.79629032</v>
-      </c>
-      <c r="H11"/>
-      <c r="I11" t="n">
-        <v>-0.484310510676503</v>
+        <v>-0.517316801865353</v>
       </c>
     </row>
   </sheetData>
@@ -3297,427 +3582,286 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44302</v>
+        <v>44292</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>243.295049119533</v>
+        <v>110.528991754537</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.415059873828465</v>
+        <v>0.0578152666505854</v>
       </c>
       <c r="E2" t="n">
-        <v>0.360023104440148</v>
+        <v>0.365076636764844</v>
       </c>
       <c r="F2" t="n">
-        <v>2055.11785714286</v>
+        <v>2261.85</v>
       </c>
       <c r="G2" t="n">
-        <v>-165871.125</v>
+        <v>1490548.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.38613327143824</v>
+        <v>2.04347620840636</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.443669627541359</v>
+        <v>-0.437615959021695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44386</v>
+        <v>44371</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>1444.94054069675</v>
+        <v>145.543610583516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.577927133588421</v>
+        <v>0.0876716470388422</v>
       </c>
       <c r="E3" t="n">
-        <v>1.00501814443023</v>
+        <v>0.402978589290512</v>
       </c>
       <c r="F3" t="n">
-        <v>1384.14</v>
+        <v>4122.47571428571</v>
       </c>
       <c r="G3" t="n">
-        <v>76640.25</v>
+        <v>1650464.00357143</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15984997624233</v>
+        <v>2.16299314451045</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00217390250754501</v>
+        <v>-0.394718027804303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44589</v>
+        <v>44452</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>60.5612033684141</v>
+        <v>19.0713037906123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.166262713408938</v>
+        <v>0.111120888231963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0981514654813035</v>
+        <v>0.20773763726534</v>
       </c>
       <c r="F4" t="n">
-        <v>4953.66642857143</v>
+        <v>7865.22</v>
       </c>
       <c r="G4" t="n">
-        <v>953414.764285715</v>
+        <v>1033398.975</v>
       </c>
       <c r="H4" t="n">
-        <v>1.78219449613319</v>
+        <v>1.28038038416888</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.00810321164531</v>
+        <v>-0.682484812199451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44665</v>
+        <v>44517</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>156.869264340194</v>
+        <v>16.9350140609002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0999742912566901</v>
-      </c>
-      <c r="E5"/>
+        <v>0.0463166323010258</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.18568387517109</v>
+      </c>
       <c r="F5" t="n">
-        <v>3506.10428571429</v>
+        <v>11809.8514285714</v>
       </c>
       <c r="G5" t="n">
-        <v>1052101.76785714</v>
+        <v>10479710.4107143</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1955378598709</v>
-      </c>
-      <c r="I5"/>
+        <v>1.2287855615693</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.731225808851906</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44733</v>
+        <v>44589</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>3.42172328934366</v>
+        <v>4.49444319884161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0375554805809119</v>
+        <v>0.0437964783271548</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0267727103151798</v>
+        <v>0.154310511172043</v>
       </c>
       <c r="F6" t="n">
-        <v>29225.04</v>
+        <v>11124.8485714286</v>
       </c>
       <c r="G6" t="n">
-        <v>9727288.65000001</v>
+        <v>2159105.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.534244885751498</v>
+        <v>0.652675896147369</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.57230766111248</v>
+        <v>-0.811604490083723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44817</v>
+        <v>44666</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>173.070979705367</v>
+        <v>2.89214023293876</v>
       </c>
       <c r="D7" t="n">
-        <v>0.426859527793496</v>
+        <v>0.0252018268584692</v>
       </c>
       <c r="E7" t="n">
-        <v>0.213007658894106</v>
+        <v>0.135702278222738</v>
       </c>
       <c r="F7" t="n">
-        <v>2600.08928571429</v>
+        <v>17288.235</v>
       </c>
       <c r="G7" t="n">
-        <v>200400.675000005</v>
+        <v>11318857.125</v>
       </c>
       <c r="H7" t="n">
-        <v>2.23822425210174</v>
+        <v>0.461219347030154</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.671604780807045</v>
+        <v>-0.867412861174027</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44879</v>
+        <v>44818</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>16.9540200057436</v>
+        <v>105.628429740967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131401183260687</v>
+        <v>0.142353917790553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.080978032976474</v>
+        <v>0.368938311717069</v>
       </c>
       <c r="F8" t="n">
-        <v>20644.0714285714</v>
+        <v>7573.71857142857</v>
       </c>
       <c r="G8" t="n">
-        <v>3189276.075</v>
+        <v>2255825.98928571</v>
       </c>
       <c r="H8" t="n">
-        <v>1.22927269128908</v>
+        <v>2.02378082367035</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.09163277681234</v>
+        <v>-0.433046243923686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44953</v>
+        <v>44966</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>1.57548757401697</v>
+        <v>8.00184819830957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0192449199286524</v>
+        <v>0.0131382698505472</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0322295008782968</v>
+        <v>0.110887957954024</v>
       </c>
       <c r="F9" t="n">
-        <v>63472.4142857143</v>
+        <v>6248.55642857143</v>
       </c>
       <c r="G9" t="n">
-        <v>64313703.7285714</v>
+        <v>6658394.97857143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.197414982211926</v>
+        <v>0.903190308194961</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.49174642013085</v>
+        <v>-0.955115614158115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44999</v>
+        <v>44998</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>17.4458643924238</v>
+        <v>126.543034122329</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0323205086994282</v>
+        <v>0.154867311917387</v>
       </c>
       <c r="E10" t="n">
-        <v>0.146809310279103</v>
+        <v>0.338755228520558</v>
       </c>
       <c r="F10" t="n">
-        <v>11464.035</v>
+        <v>3951.225</v>
       </c>
       <c r="G10" t="n">
-        <v>11705049.525</v>
+        <v>714381.225</v>
       </c>
       <c r="H10" t="n">
-        <v>1.24169249236021</v>
+        <v>2.10223824332676</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.833246401677268</v>
+        <v>-0.470113992943802</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45231</v>
+        <v>45684</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="n">
-        <v>26.617325749677</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.20143331114612</v>
-      </c>
+      <c r="C11"/>
+      <c r="D11"/>
       <c r="E11" t="n">
-        <v>0.1019830414486</v>
+        <v>0.327860796281033</v>
       </c>
       <c r="F11" t="n">
-        <v>1878.47571428571</v>
+        <v>33057.2951612903</v>
       </c>
       <c r="G11" t="n">
-        <v>141748.307142857</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.42516441963977</v>
-      </c>
+        <v>6315668.79629032</v>
+      </c>
+      <c r="H11"/>
       <c r="I11" t="n">
-        <v>-0.991472040175493</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>160.293015632576</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.138009949764872</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.304619300450722</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2495.43</v>
-      </c>
-      <c r="G12" t="n">
-        <v>524364.15</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.20491459947009</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0.51624258355513</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" t="n">
-        <v>0.262140092531933</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3919.605</v>
-      </c>
-      <c r="G13" t="n">
-        <v>539592.75</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13" t="n">
-        <v>-0.581466551606639</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="n">
-        <v>66.8680497183789</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.118977054787886</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.192172782267643</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9720.63642857143</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2369351.44285714</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.82521865669926</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-0.716308122120189</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="n">
-        <v>31.9608765878692</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.267181902314957</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.223306204924098</v>
-      </c>
-      <c r="F15" t="n">
-        <v>31288.2532258065</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7026281.26112903</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.50461868215803</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-0.651099209186256</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="n">
-        <v>373.761564416404</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.294695879487908</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.250826695779266</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2675.5025</v>
-      </c>
-      <c r="G16" t="n">
-        <v>808018.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.57259463888307</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-0.600626242910576</v>
+        <v>-0.484310510676503</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -12,17 +12,15 @@
     <sheet name="5" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="5a" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="6.3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="6a" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="7" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="9.2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="6a" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -69,9 +67,6 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">6a</t>
   </si>
   <si>
@@ -79,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2</t>
   </si>
 </sst>
 </file>
@@ -858,542 +850,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>44302</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>243.295049119533</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.415059873828465</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.360023104440148</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2055.11785714286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-165871.125</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.38613327143824</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.443669627541359</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44386</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1444.94054069675</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.577927133588421</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.00501814443023</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1384.14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>76640.25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.15984997624233</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.00217390250754501</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>44589</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="n">
-        <v>60.5612033684141</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.166262713408938</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0981514654813035</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4953.66642857143</v>
-      </c>
-      <c r="G4" t="n">
-        <v>953414.764285715</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.78219449613319</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-1.00810321164531</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>44665</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="n">
-        <v>156.869264340194</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0999742912566901</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
-        <v>3506.10428571429</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1052101.76785714</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.1955378598709</v>
-      </c>
-      <c r="I5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>44733</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.42172328934366</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0375554805809119</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0267727103151798</v>
-      </c>
-      <c r="F6" t="n">
-        <v>29225.04</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9727288.65000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.534244885751498</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-1.57230766111248</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>44817</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="n">
-        <v>173.070979705367</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.426859527793496</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.213007658894106</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2600.08928571429</v>
-      </c>
-      <c r="G7" t="n">
-        <v>200400.675000005</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.23822425210174</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.671604780807045</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16.9540200057436</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.131401183260687</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.080978032976474</v>
-      </c>
-      <c r="F8" t="n">
-        <v>20644.0714285714</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3189276.075</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.22927269128908</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-1.09163277681234</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>44953</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.57548757401697</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0192449199286524</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0322295008782968</v>
-      </c>
-      <c r="F9" t="n">
-        <v>63472.4142857143</v>
-      </c>
-      <c r="G9" t="n">
-        <v>64313703.7285714</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.197414982211926</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-1.49174642013085</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17.4458643924238</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0323205086994282</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.146809310279103</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11464.035</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11705049.525</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.24169249236021</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.833246401677268</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="n">
-        <v>26.617325749677</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.20143331114612</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1019830414486</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1878.47571428571</v>
-      </c>
-      <c r="G11" t="n">
-        <v>141748.307142857</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.42516441963977</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.991472040175493</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="n">
-        <v>160.293015632576</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.138009949764872</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.304619300450722</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2495.43</v>
-      </c>
-      <c r="G12" t="n">
-        <v>524364.15</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.20491459947009</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0.51624258355513</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" t="n">
-        <v>0.262140092531933</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3919.605</v>
-      </c>
-      <c r="G13" t="n">
-        <v>539592.75</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13" t="n">
-        <v>-0.581466551606639</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="n">
-        <v>66.8680497183789</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.118977054787886</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.192172782267643</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9720.63642857143</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2369351.44285714</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.82521865669926</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-0.716308122120189</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>31.9608765878692</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.267181902314957</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.223306204924098</v>
-      </c>
-      <c r="F15" t="n">
-        <v>31288.2532258065</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7026281.26112903</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.50461868215803</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-0.651099209186256</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="n">
-        <v>373.761564416404</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.294695879487908</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.250826695779266</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2675.5025</v>
-      </c>
-      <c r="G16" t="n">
-        <v>808018.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.57259463888307</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-0.600626242910576</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>45727</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.16347687845669</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0426113595968632</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" t="n">
-        <v>42974.64</v>
-      </c>
-      <c r="G2" t="n">
-        <v>24204610.455</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.065757757061125</v>
-      </c>
-      <c r="I2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -3222,28 +2678,252 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45727</v>
+        <v>44292</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>41.4323433756513</v>
+        <v>79.9725579879591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0386159600206019</v>
-      </c>
-      <c r="E2"/>
+        <v>0.0836415522456026</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.364493365047336</v>
+      </c>
       <c r="F2" t="n">
-        <v>24135.7335483871</v>
+        <v>2500.85785714285</v>
       </c>
       <c r="G2" t="n">
-        <v>13750432.1472581</v>
+        <v>774402.396428567</v>
       </c>
       <c r="H2" t="n">
-        <v>1.61733949729379</v>
-      </c>
-      <c r="I2"/>
+        <v>1.90294098750518</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.438310372831757</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44371</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>97.517092917943</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0844166976160872</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.428172659072591</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12305.535</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5685082.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.9890807460505</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.368381067992078</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.3008118570891</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.10472695502504</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.226952277503813</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13985.22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1949681.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.15536069306266</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.64406545468198</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44517</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19.273719443755</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0768117708525735</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.258582477591671</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10376.8242857143</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2877506.33571429</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.28496553292348</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.587400907696447</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.79493167987407</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0279077813421051</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.185682797933314</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14716.8514285714</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4798781.61428571</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.832185094445576</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.731228328401752</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>0.0835954778785003</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>18097.9692857143</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2641234.08214286</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.74237015316871</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>52.7801968701343</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0490018181170012</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.346783836740215</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7578.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3433442.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.72247100580547</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.459941152770569</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>409.296138546743</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0895346799829791</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.586132065900496</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1954.575</v>
+      </c>
+      <c r="G9" t="n">
+        <v>458437.725</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.61203764736759</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.232004518743436</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="n">
+        <v>0.303866762065075</v>
+      </c>
+      <c r="F10" t="n">
+        <v>70191.3082258065</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24594782.4179032</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="n">
+        <v>-0.517316801865353</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3296,25 +2976,25 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>79.9725579879591</v>
+        <v>110.528991754537</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0836415522456026</v>
+        <v>0.0578152666505854</v>
       </c>
       <c r="E2" t="n">
-        <v>0.364493365047336</v>
+        <v>0.365076636764844</v>
       </c>
       <c r="F2" t="n">
-        <v>2500.85785714285</v>
+        <v>2261.85</v>
       </c>
       <c r="G2" t="n">
-        <v>774402.396428567</v>
+        <v>1490548.95</v>
       </c>
       <c r="H2" t="n">
-        <v>1.90294098750518</v>
+        <v>2.04347620840636</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.438310372831757</v>
+        <v>-0.437615959021695</v>
       </c>
     </row>
     <row r="3">
@@ -3325,25 +3005,25 @@
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>97.517092917943</v>
+        <v>145.543610583516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0844166976160872</v>
+        <v>0.0876716470388422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.428172659072591</v>
+        <v>0.402978589290512</v>
       </c>
       <c r="F3" t="n">
-        <v>12305.535</v>
+        <v>4122.47571428571</v>
       </c>
       <c r="G3" t="n">
-        <v>5685082.2</v>
+        <v>1650464.00357143</v>
       </c>
       <c r="H3" t="n">
-        <v>1.9890807460505</v>
+        <v>2.16299314451045</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.368381067992078</v>
+        <v>-0.394718027804303</v>
       </c>
     </row>
     <row r="4">
@@ -3354,25 +3034,25 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3008118570891</v>
+        <v>19.0713037906123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10472695502504</v>
+        <v>0.111120888231963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.226952277503813</v>
+        <v>0.20773763726534</v>
       </c>
       <c r="F4" t="n">
-        <v>13985.22</v>
+        <v>7865.22</v>
       </c>
       <c r="G4" t="n">
-        <v>1949681.55</v>
+        <v>1033398.975</v>
       </c>
       <c r="H4" t="n">
-        <v>1.15536069306266</v>
+        <v>1.28038038416888</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.64406545468198</v>
+        <v>-0.682484812199451</v>
       </c>
     </row>
     <row r="5">
@@ -3383,25 +3063,25 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>19.273719443755</v>
+        <v>16.9350140609002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0768117708525735</v>
+        <v>0.0463166323010258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.258582477591671</v>
+        <v>0.18568387517109</v>
       </c>
       <c r="F5" t="n">
-        <v>10376.8242857143</v>
+        <v>11809.8514285714</v>
       </c>
       <c r="G5" t="n">
-        <v>2877506.33571429</v>
+        <v>10479710.4107143</v>
       </c>
       <c r="H5" t="n">
-        <v>1.28496553292348</v>
+        <v>1.2287855615693</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.587400907696447</v>
+        <v>-0.731225808851906</v>
       </c>
     </row>
     <row r="6">
@@ -3412,49 +3092,55 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>6.79493167987407</v>
+        <v>4.49444319884161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0279077813421051</v>
+        <v>0.0437964783271548</v>
       </c>
       <c r="E6" t="n">
-        <v>0.185682797933314</v>
+        <v>0.154310511172043</v>
       </c>
       <c r="F6" t="n">
-        <v>14716.8514285714</v>
+        <v>11124.8485714286</v>
       </c>
       <c r="G6" t="n">
-        <v>4798781.61428571</v>
+        <v>2159105.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.832185094445576</v>
+        <v>0.652675896147369</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.731228328401752</v>
+        <v>-0.811604490083723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="n">
+        <v>2.89214023293876</v>
+      </c>
       <c r="D7" t="n">
-        <v>0.0835954778785003</v>
-      </c>
-      <c r="E7"/>
+        <v>0.0252018268584692</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.135702278222738</v>
+      </c>
       <c r="F7" t="n">
-        <v>18097.9692857143</v>
+        <v>17288.235</v>
       </c>
       <c r="G7" t="n">
-        <v>2641234.08214286</v>
+        <v>11318857.125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.74237015316871</v>
-      </c>
-      <c r="I7"/>
+        <v>0.461219347030154</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.867412861174027</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3464,77 +3150,106 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>52.7801968701343</v>
+        <v>105.628429740967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0490018181170012</v>
+        <v>0.142353917790553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.346783836740215</v>
+        <v>0.368938311717069</v>
       </c>
       <c r="F8" t="n">
-        <v>7578.6</v>
+        <v>7573.71857142857</v>
       </c>
       <c r="G8" t="n">
-        <v>3433442.4</v>
+        <v>2255825.98928571</v>
       </c>
       <c r="H8" t="n">
-        <v>1.72247100580547</v>
+        <v>2.02378082367035</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.459941152770569</v>
+        <v>-0.433046243923686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45279</v>
+        <v>44966</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>409.296138546743</v>
+        <v>8.00184819830957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0895346799829791</v>
+        <v>0.0131382698505472</v>
       </c>
       <c r="E9" t="n">
-        <v>0.586132065900496</v>
+        <v>0.110887957954024</v>
       </c>
       <c r="F9" t="n">
-        <v>1954.575</v>
+        <v>6248.55642857143</v>
       </c>
       <c r="G9" t="n">
-        <v>458437.725</v>
+        <v>6658394.97857143</v>
       </c>
       <c r="H9" t="n">
-        <v>2.61203764736759</v>
+        <v>0.903190308194961</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.232004518743436</v>
+        <v>-0.955115614158115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45684</v>
+        <v>44998</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="C10" t="n">
+        <v>126.543034122329</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.154867311917387</v>
+      </c>
       <c r="E10" t="n">
-        <v>0.303866762065075</v>
+        <v>0.338755228520558</v>
       </c>
       <c r="F10" t="n">
-        <v>70191.3082258065</v>
+        <v>3951.225</v>
       </c>
       <c r="G10" t="n">
-        <v>24594782.4179032</v>
-      </c>
-      <c r="H10"/>
+        <v>714381.225</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.10223824332676</v>
+      </c>
       <c r="I10" t="n">
-        <v>-0.517316801865353</v>
+        <v>-0.470113992943802</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>0.327860796281033</v>
+      </c>
+      <c r="F11" t="n">
+        <v>33057.2951612903</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6315668.79629032</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="n">
+        <v>-0.484310510676503</v>
       </c>
     </row>
   </sheetData>
@@ -3582,286 +3297,427 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44292</v>
+        <v>44302</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>110.528991754537</v>
+        <v>243.295049119533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0578152666505854</v>
+        <v>-0.415059873828465</v>
       </c>
       <c r="E2" t="n">
-        <v>0.365076636764844</v>
+        <v>0.360023104440148</v>
       </c>
       <c r="F2" t="n">
-        <v>2261.85</v>
+        <v>2055.11785714286</v>
       </c>
       <c r="G2" t="n">
-        <v>1490548.95</v>
+        <v>-165871.125</v>
       </c>
       <c r="H2" t="n">
-        <v>2.04347620840636</v>
+        <v>2.38613327143824</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.437615959021695</v>
+        <v>-0.443669627541359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44371</v>
+        <v>44386</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>145.543610583516</v>
+        <v>1444.94054069675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0876716470388422</v>
+        <v>0.577927133588421</v>
       </c>
       <c r="E3" t="n">
-        <v>0.402978589290512</v>
+        <v>1.00501814443023</v>
       </c>
       <c r="F3" t="n">
-        <v>4122.47571428571</v>
+        <v>1384.14</v>
       </c>
       <c r="G3" t="n">
-        <v>1650464.00357143</v>
+        <v>76640.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16299314451045</v>
+        <v>3.15984997624233</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.394718027804303</v>
+        <v>0.00217390250754501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44589</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>19.0713037906123</v>
+        <v>60.5612033684141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111120888231963</v>
+        <v>0.166262713408938</v>
       </c>
       <c r="E4" t="n">
-        <v>0.20773763726534</v>
+        <v>0.0981514654813035</v>
       </c>
       <c r="F4" t="n">
-        <v>7865.22</v>
+        <v>4953.66642857143</v>
       </c>
       <c r="G4" t="n">
-        <v>1033398.975</v>
+        <v>953414.764285715</v>
       </c>
       <c r="H4" t="n">
-        <v>1.28038038416888</v>
+        <v>1.78219449613319</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.682484812199451</v>
+        <v>-1.00810321164531</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44517</v>
+        <v>44665</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9350140609002</v>
+        <v>156.869264340194</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0463166323010258</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.18568387517109</v>
-      </c>
+        <v>0.0999742912566901</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="n">
-        <v>11809.8514285714</v>
+        <v>3506.10428571429</v>
       </c>
       <c r="G5" t="n">
-        <v>10479710.4107143</v>
+        <v>1052101.76785714</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2287855615693</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.731225808851906</v>
-      </c>
+        <v>2.1955378598709</v>
+      </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44733</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>4.49444319884161</v>
+        <v>3.42172328934366</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0437964783271548</v>
+        <v>0.0375554805809119</v>
       </c>
       <c r="E6" t="n">
-        <v>0.154310511172043</v>
+        <v>0.0267727103151798</v>
       </c>
       <c r="F6" t="n">
-        <v>11124.8485714286</v>
+        <v>29225.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2159105.4</v>
+        <v>9727288.65000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.652675896147369</v>
+        <v>0.534244885751498</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.811604490083723</v>
+        <v>-1.57230766111248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44666</v>
+        <v>44817</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>2.89214023293876</v>
+        <v>173.070979705367</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0252018268584692</v>
+        <v>0.426859527793496</v>
       </c>
       <c r="E7" t="n">
-        <v>0.135702278222738</v>
+        <v>0.213007658894106</v>
       </c>
       <c r="F7" t="n">
-        <v>17288.235</v>
+        <v>2600.08928571429</v>
       </c>
       <c r="G7" t="n">
-        <v>11318857.125</v>
+        <v>200400.675000005</v>
       </c>
       <c r="H7" t="n">
-        <v>0.461219347030154</v>
+        <v>2.23822425210174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.867412861174027</v>
+        <v>-0.671604780807045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44818</v>
+        <v>44879</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>105.628429740967</v>
+        <v>16.9540200057436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.142353917790553</v>
+        <v>0.131401183260687</v>
       </c>
       <c r="E8" t="n">
-        <v>0.368938311717069</v>
+        <v>0.080978032976474</v>
       </c>
       <c r="F8" t="n">
-        <v>7573.71857142857</v>
+        <v>20644.0714285714</v>
       </c>
       <c r="G8" t="n">
-        <v>2255825.98928571</v>
+        <v>3189276.075</v>
       </c>
       <c r="H8" t="n">
-        <v>2.02378082367035</v>
+        <v>1.22927269128908</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.433046243923686</v>
+        <v>-1.09163277681234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44966</v>
+        <v>44953</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>8.00184819830957</v>
+        <v>1.57548757401697</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0131382698505472</v>
+        <v>0.0192449199286524</v>
       </c>
       <c r="E9" t="n">
-        <v>0.110887957954024</v>
+        <v>0.0322295008782968</v>
       </c>
       <c r="F9" t="n">
-        <v>6248.55642857143</v>
+        <v>63472.4142857143</v>
       </c>
       <c r="G9" t="n">
-        <v>6658394.97857143</v>
+        <v>64313703.7285714</v>
       </c>
       <c r="H9" t="n">
-        <v>0.903190308194961</v>
+        <v>0.197414982211926</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.955115614158115</v>
+        <v>-1.49174642013085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>126.543034122329</v>
+        <v>17.4458643924238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.154867311917387</v>
+        <v>0.0323205086994282</v>
       </c>
       <c r="E10" t="n">
-        <v>0.338755228520558</v>
+        <v>0.146809310279103</v>
       </c>
       <c r="F10" t="n">
-        <v>3951.225</v>
+        <v>11464.035</v>
       </c>
       <c r="G10" t="n">
-        <v>714381.225</v>
+        <v>11705049.525</v>
       </c>
       <c r="H10" t="n">
-        <v>2.10223824332676</v>
+        <v>1.24169249236021</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.470113992943802</v>
+        <v>-0.833246401677268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45684</v>
+        <v>45231</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="C11" t="n">
+        <v>26.617325749677</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.20143331114612</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.327860796281033</v>
+        <v>0.1019830414486</v>
       </c>
       <c r="F11" t="n">
-        <v>33057.2951612903</v>
+        <v>1878.47571428571</v>
       </c>
       <c r="G11" t="n">
-        <v>6315668.79629032</v>
-      </c>
-      <c r="H11"/>
+        <v>141748.307142857</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.42516441963977</v>
+      </c>
       <c r="I11" t="n">
-        <v>-0.484310510676503</v>
+        <v>-0.991472040175493</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>160.293015632576</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.138009949764872</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.304619300450722</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2495.43</v>
+      </c>
+      <c r="G12" t="n">
+        <v>524364.15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.20491459947009</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.51624258355513</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>0.262140092531933</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3919.605</v>
+      </c>
+      <c r="G13" t="n">
+        <v>539592.75</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="n">
+        <v>-0.581466551606639</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>66.8680497183789</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.118977054787886</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.192172782267643</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9720.63642857143</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2369351.44285714</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.82521865669926</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.716308122120189</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.9608765878692</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.267181902314957</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.223306204924098</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31288.2532258065</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7026281.26112903</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.50461868215803</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.651099209186256</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>373.761564416404</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.294695879487908</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.250826695779266</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2675.5025</v>
+      </c>
+      <c r="G16" t="n">
+        <v>808018.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.57259463888307</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.600626242910576</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_DG.xlsx
+++ b/04_Output/rC_DG.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t xml:space="preserve">date</t>
+    <t xml:space="preserve">Date</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -34,13 +34,13 @@
     <t xml:space="preserve">u_mean</t>
   </si>
   <si>
-    <t xml:space="preserve">depth_mean</t>
-  </si>
-  <si>
     <t xml:space="preserve">m_0</t>
   </si>
   <si>
     <t xml:space="preserve">m_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depth</t>
   </si>
   <si>
     <t xml:space="preserve">logQ</t>
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -444,28 +444,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44299</v>
+        <v>44299.6070601852</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>14.8269870651483</v>
+        <v>14.8308321134974</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13596180717365</v>
+        <v>0.140735527178123</v>
       </c>
       <c r="E2" t="n">
+        <v>6742.71</v>
+      </c>
+      <c r="F2" t="n">
+        <v>963001.124999999</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.495256611624334</v>
       </c>
-      <c r="F2" t="n">
-        <v>6744.45857142857</v>
-      </c>
-      <c r="G2" t="n">
-        <v>997071.310714285</v>
-      </c>
       <c r="H2" t="n">
-        <v>1.17105290868724</v>
+        <v>1.17116551867248</v>
       </c>
       <c r="I2" t="n">
         <v>-0.305169717964482</v>
@@ -473,28 +473,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44386</v>
+        <v>44386.4945601852</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>406.917303504357</v>
+        <v>407.7181037031</v>
       </c>
       <c r="D3" t="n">
-        <v>0.399047598709821</v>
+        <v>0.430819627950223</v>
       </c>
       <c r="E3" t="n">
+        <v>2943.21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>189236.775</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.981842117623629</v>
       </c>
-      <c r="F3" t="n">
-        <v>2949.00214285714</v>
-      </c>
-      <c r="G3" t="n">
-        <v>204705.803571429</v>
-      </c>
       <c r="H3" t="n">
-        <v>2.60950615792082</v>
+        <v>2.61035999564103</v>
       </c>
       <c r="I3" t="n">
         <v>-0.00795834210862098</v>
@@ -502,28 +502,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44459</v>
+        <v>44459.4813657407</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>519.836014016264</v>
+        <v>448.640730746022</v>
       </c>
       <c r="D4" t="n">
-        <v>0.292536199651649</v>
+        <v>0.293545595183859</v>
       </c>
       <c r="E4" t="n">
+        <v>4457.91</v>
+      </c>
+      <c r="F4" t="n">
+        <v>516338.6625</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.935344421041347</v>
       </c>
-      <c r="F4" t="n">
-        <v>3847.36714285714</v>
-      </c>
-      <c r="G4" t="n">
-        <v>447159.985714286</v>
-      </c>
       <c r="H4" t="n">
-        <v>2.71586636394285</v>
+        <v>2.65189869932997</v>
       </c>
       <c r="I4" t="n">
         <v>-0.029028439807222</v>
@@ -531,28 +531,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44589.6355324074</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>11.5777581672607</v>
+        <v>11.570950319257</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0872003372604311</v>
-      </c>
-      <c r="E5" t="e">
+        <v>0.0894756882431561</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17284.665</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3245377.35</v>
+      </c>
+      <c r="G5" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F5" t="n">
-        <v>17274.5014285714</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3328102.08214286</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.06362447391267</v>
+        <v>1.06336902891378</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -560,53 +560,57 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44665</v>
+        <v>44665.4285763889</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>20.8538613531028</v>
+        <v>20.774321276956</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160062138915729</v>
-      </c>
-      <c r="E6"/>
+        <v>0.165477450836541</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4813.635</v>
+      </c>
       <c r="F6" t="n">
-        <v>4795.275</v>
+        <v>677782.35</v>
       </c>
       <c r="G6" t="n">
-        <v>698040.825</v>
+        <v>0.121438684695551</v>
       </c>
       <c r="H6" t="n">
-        <v>1.31918648180763</v>
-      </c>
-      <c r="I6"/>
+        <v>1.31752684374434</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.915642945274004</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44733</v>
+        <v>44733.6073958333</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>2.87311845116259</v>
+        <v>2.70415710071092</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0406457351860475</v>
+        <v>0.0394194244062739</v>
       </c>
       <c r="E7" t="n">
+        <v>36980.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16886136.975</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0569053265008198</v>
       </c>
-      <c r="F7" t="n">
-        <v>34805.3871428571</v>
-      </c>
-      <c r="G7" t="n">
-        <v>15413596.6714286</v>
-      </c>
       <c r="H7" t="n">
-        <v>0.458353531187161</v>
+        <v>0.43203191877475</v>
       </c>
       <c r="I7" t="n">
         <v>-1.24484708050043</v>
@@ -614,7 +618,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44817</v>
+        <v>44817.4501041667</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -623,16 +627,16 @@
         <v>288.324133991433</v>
       </c>
       <c r="D8" t="n">
-        <v>0.194918677610752</v>
+        <v>0.20007724806211</v>
       </c>
       <c r="E8" t="n">
+        <v>2774.655</v>
+      </c>
+      <c r="F8" t="n">
+        <v>524207.325</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.326470276576917</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2774.655</v>
-      </c>
-      <c r="G8" t="n">
-        <v>538080.6</v>
       </c>
       <c r="H8" t="n">
         <v>2.45988099625789</v>
@@ -643,28 +647,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44879</v>
+        <v>44879.5018518518</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>11.2151018074899</v>
+        <v>11.2383896196839</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0351128684887311</v>
+        <v>0.035452565186293</v>
       </c>
       <c r="E9" t="n">
+        <v>22245.18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12549264</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0868903014673715</v>
       </c>
-      <c r="F9" t="n">
-        <v>22291.3714285714</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12696981.1285714</v>
-      </c>
       <c r="H9" t="n">
-        <v>1.0498032203381</v>
+        <v>1.05070408441893</v>
       </c>
       <c r="I9" t="n">
         <v>-1.06102869598244</v>
@@ -672,28 +676,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44959</v>
+        <v>44959.4382986111</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.98137175043788</v>
+        <v>2.99555325097659</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0129171130222743</v>
+        <v>0.0129343118476802</v>
       </c>
       <c r="E10" t="n">
+        <v>16691.4075</v>
+      </c>
+      <c r="F10" t="n">
+        <v>28390452.4125</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0737493884820792</v>
       </c>
-      <c r="F10" t="n">
-        <v>16770.8035714286</v>
-      </c>
-      <c r="G10" t="n">
-        <v>28563478.3821429</v>
-      </c>
       <c r="H10" t="n">
-        <v>0.474416132053351</v>
+        <v>0.476477044306865</v>
       </c>
       <c r="I10" t="n">
         <v>-1.132241576434</v>
@@ -701,28 +705,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44999</v>
+        <v>44999.4122569444</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>30.839871018848</v>
+        <v>31.3174303422056</v>
       </c>
       <c r="D11" t="n">
-        <v>0.115971738074685</v>
+        <v>0.120299174078361</v>
       </c>
       <c r="E11" t="n">
+        <v>4789.665</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1353696.825</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.141394155033208</v>
       </c>
-      <c r="F11" t="n">
-        <v>4863.83357142857</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1425953.80714286</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.48911255303911</v>
+        <v>1.49578612011695</v>
       </c>
       <c r="I11" t="n">
         <v>-0.849568543080074</v>
@@ -730,28 +734,28 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45078</v>
+        <v>45078.4410416667</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>5.46253380723155</v>
+        <v>5.45837375941399</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0391666376832519</v>
+        <v>0.0396523554451878</v>
       </c>
       <c r="E12" t="n">
+        <v>9160.23749999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3696219.2625</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.0770541272743987</v>
       </c>
-      <c r="F12" t="n">
-        <v>9153.26142857143</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3739207.43571429</v>
-      </c>
       <c r="H12" t="n">
-        <v>0.737394137804323</v>
+        <v>0.737063270449576</v>
       </c>
       <c r="I12" t="n">
         <v>-1.11320409407092</v>
@@ -759,28 +763,28 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45142</v>
+        <v>45142.3834375</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>54.429152876328</v>
+        <v>54.3429529417199</v>
       </c>
       <c r="D13" t="n">
-        <v>0.145089110762292</v>
+        <v>0.148187682198135</v>
       </c>
       <c r="E13" t="n">
+        <v>11040.99</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2533231.2</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.188932431571157</v>
       </c>
-      <c r="F13" t="n">
-        <v>11023.5042857143</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2583234.15</v>
-      </c>
       <c r="H13" t="n">
-        <v>1.73583157510342</v>
+        <v>1.73514323385092</v>
       </c>
       <c r="I13" t="n">
         <v>-0.723693485998537</v>
@@ -788,28 +792,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45198</v>
+        <v>45198.478912037</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>2.03832511291375</v>
+        <v>2.03493743381366</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0366654380801947</v>
+        <v>0.0369340237272239</v>
       </c>
       <c r="E14" t="n">
+        <v>24570.78</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16631534.775</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.0388449810466055</v>
       </c>
-      <c r="F14" t="n">
-        <v>24529.9435714286</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16725521.9464286</v>
-      </c>
       <c r="H14" t="n">
-        <v>0.309273455177549</v>
+        <v>0.308551060948367</v>
       </c>
       <c r="I14" t="n">
         <v>-1.41066508611846</v>
@@ -817,28 +821,28 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45279</v>
+        <v>45279.6390046296</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>320.614113433273</v>
+        <v>319.99744002048</v>
       </c>
       <c r="D15" t="n">
-        <v>0.274291524526629</v>
+        <v>0.291544269755896</v>
       </c>
       <c r="E15" t="n">
+        <v>1875.015</v>
+      </c>
+      <c r="F15" t="n">
+        <v>147920.4</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.535585069806503</v>
       </c>
-      <c r="F15" t="n">
-        <v>1871.40857142857</v>
-      </c>
-      <c r="G15" t="n">
-        <v>156922.082142857</v>
-      </c>
       <c r="H15" t="n">
-        <v>2.50598263608201</v>
+        <v>2.50514650397795</v>
       </c>
       <c r="I15" t="n">
         <v>-0.271171538065976</v>
@@ -889,28 +893,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44285</v>
+        <v>44285.5834490741</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>218.653058116812</v>
+        <v>218.990290517994</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0308372725815327</v>
+        <v>0.0309968718775368</v>
       </c>
       <c r="E2" t="n">
+        <v>5479.695</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4843832.1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.379672047525913</v>
       </c>
-      <c r="F2" t="n">
-        <v>5488.14642857143</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4876410.9</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.33975555583577</v>
+        <v>2.34042485973539</v>
       </c>
       <c r="I2" t="n">
         <v>-0.420591375607413</v>
@@ -918,7 +922,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44452.4862268518</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -927,16 +931,16 @@
         <v>2.06639791095437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.028469917352607</v>
+        <v>0.0288331372797624</v>
       </c>
       <c r="E3" t="n">
+        <v>24196.695</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9482931.075</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.103246752096473</v>
-      </c>
-      <c r="F3" t="n">
-        <v>24196.695</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9603914.55</v>
       </c>
       <c r="H3" t="n">
         <v>0.315213954111133</v>
@@ -947,28 +951,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44510</v>
+        <v>44510.4972916667</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>56.4532973967771</v>
+        <v>56.5221364237125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230530622192957</v>
+        <v>0.241784626809712</v>
       </c>
       <c r="E4" t="n">
+        <v>7961.4825</v>
+      </c>
+      <c r="F4" t="n">
+        <v>882470.212500001</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.208368019852923</v>
       </c>
-      <c r="F4" t="n">
-        <v>7971.19071428572</v>
-      </c>
-      <c r="G4" t="n">
-        <v>926679.107142858</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.75168931383232</v>
+        <v>1.75221856894959</v>
       </c>
       <c r="I4" t="n">
         <v>-0.681168935406929</v>
@@ -976,7 +980,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44589.4987268519</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -985,16 +989,16 @@
         <v>4.20435343981279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0173910258844274</v>
+        <v>0.0175021133685972</v>
       </c>
       <c r="E5" t="n">
+        <v>11892.435</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9308953.5</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.115660292693498</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11892.435</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9368415.675</v>
       </c>
       <c r="H5" t="n">
         <v>0.623699217943341</v>
@@ -1005,53 +1009,57 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44659</v>
+        <v>44659.4744097222</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>45.7221685893927</v>
+        <v>45.4832826194732</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0816494874119976</v>
-      </c>
-      <c r="E6"/>
+        <v>0.0838792983220004</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6595.83</v>
+      </c>
       <c r="F6" t="n">
-        <v>6561.36857142857</v>
+        <v>1124477.325</v>
       </c>
       <c r="G6" t="n">
-        <v>1149150.76071429</v>
+        <v>0.228331858481899</v>
       </c>
       <c r="H6" t="n">
-        <v>1.66012682067494</v>
-      </c>
-      <c r="I6"/>
+        <v>1.65785180104818</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.641433488432674</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44733</v>
+        <v>44733.5671180556</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>5.84854833181856</v>
+        <v>5.97435805522697</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0217811972641943</v>
+        <v>0.022474426095808</v>
       </c>
       <c r="E7" t="n">
+        <v>8369.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3723832.575</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.118618295568362</v>
       </c>
-      <c r="F7" t="n">
-        <v>8549.13</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3925004.625</v>
-      </c>
       <c r="H7" t="n">
-        <v>0.767048083224665</v>
+        <v>0.776291247184989</v>
       </c>
       <c r="I7" t="n">
         <v>-0.925848320654844</v>
@@ -1059,28 +1067,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44806</v>
+        <v>44806.6316666667</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>94.0961393698247</v>
+        <v>93.4244377308606</v>
       </c>
       <c r="D8" t="n">
-        <v>0.125964440018116</v>
+        <v>0.12684022981768</v>
       </c>
       <c r="E8" t="n">
+        <v>6422.3025</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1544306.775</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.32669127366084</v>
       </c>
-      <c r="F8" t="n">
-        <v>6376.45714285715</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1543943.21785715</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.97357180531061</v>
+        <v>1.97046049275535</v>
       </c>
       <c r="I8" t="n">
         <v>-0.485862465927253</v>
@@ -1088,7 +1096,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44998</v>
+        <v>44998.4143055556</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1097,16 +1105,16 @@
         <v>4.110400422878</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0135347353218176</v>
+        <v>0.0135940877021369</v>
       </c>
       <c r="E9" t="n">
+        <v>121642.65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>138697139.25</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.135373945293345</v>
-      </c>
-      <c r="F9" t="n">
-        <v>121642.65</v>
-      </c>
-      <c r="G9" t="n">
-        <v>139305352.5</v>
       </c>
       <c r="H9" t="n">
         <v>0.61388413160249</v>
@@ -1117,7 +1125,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45279</v>
+        <v>45279.4553240741</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1126,16 +1134,16 @@
         <v>850.231688135016</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.264707017120813</v>
+        <v>-0.241843557572622</v>
       </c>
       <c r="E10" t="n">
+        <v>1999.455</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-115745.774999999</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.508260069853473</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1999.455</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-105748.499999999</v>
       </c>
       <c r="H10" t="n">
         <v>2.92953728708808</v>
@@ -1146,7 +1154,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45684</v>
+        <v>45684.4784953704</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1154,13 +1162,13 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" t="n">
+        <v>47311.8075</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8972847.5625</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.274027142180158</v>
-      </c>
-      <c r="F11" t="n">
-        <v>47354.2485483871</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9030254.92693548</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
@@ -1212,28 +1220,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44299</v>
+        <v>44299.4327546296</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>201.556447682785</v>
+        <v>201.02876470337</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0966260418499097</v>
+        <v>0.0981487171133349</v>
       </c>
       <c r="E2" t="n">
+        <v>1989.765</v>
+      </c>
+      <c r="F2" t="n">
+        <v>618325.275</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.451339555564486</v>
       </c>
-      <c r="F2" t="n">
-        <v>1984.55571428571</v>
-      </c>
-      <c r="G2" t="n">
-        <v>626424.803571428</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.30439669555911</v>
+        <v>2.30325820397847</v>
       </c>
       <c r="I2" t="n">
         <v>-0.345496603083917</v>
@@ -1241,28 +1249,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44371</v>
+        <v>44371.5383101852</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>416.243786340365</v>
+        <v>416.586696898958</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214345900534267</v>
+        <v>0.220130977236849</v>
       </c>
       <c r="E3" t="n">
+        <v>3360.645</v>
+      </c>
+      <c r="F3" t="n">
+        <v>625929.375</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.78859430101436</v>
       </c>
-      <c r="F3" t="n">
-        <v>3363.41357142857</v>
-      </c>
-      <c r="G3" t="n">
-        <v>643352.432142857</v>
-      </c>
       <c r="H3" t="n">
-        <v>2.61934776344354</v>
+        <v>2.6197053972593</v>
       </c>
       <c r="I3" t="n">
         <v>-0.103146365795587</v>
@@ -1270,28 +1278,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44452.5806712963</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>41.9734413050142</v>
+        <v>41.9351828845745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0482196240014123</v>
+        <v>0.0489091635491955</v>
       </c>
       <c r="E4" t="n">
+        <v>14307.795</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4914640.5</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.396400216436797</v>
       </c>
-      <c r="F4" t="n">
-        <v>14294.7535714286</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4980376.03928571</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.62297457746762</v>
+        <v>1.62257854137013</v>
       </c>
       <c r="I4" t="n">
         <v>-0.401866117059414</v>
@@ -1299,7 +1307,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44517</v>
+        <v>44517.5952430556</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1308,16 +1316,16 @@
         <v>61.6453450829362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0396467471682954</v>
+        <v>0.0399087091719966</v>
       </c>
       <c r="E5" t="n">
+        <v>9733.09499999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7365296.32499999</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.432257562907983</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9733.09499999999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7413961.79999999</v>
       </c>
       <c r="H5" t="n">
         <v>1.78990028805065</v>
@@ -1328,28 +1336,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44589.409837963</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3696008298861</v>
+        <v>18.2968722411747</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0240540549037401</v>
+        <v>0.0242701147963556</v>
       </c>
       <c r="E6" t="n">
+        <v>5465.415</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2882446.6875</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.36259266099701</v>
       </c>
-      <c r="F6" t="n">
-        <v>5443.77642857143</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2896822.95</v>
-      </c>
       <c r="H6" t="n">
-        <v>1.26409971922027</v>
+        <v>1.26237685560502</v>
       </c>
       <c r="I6" t="n">
         <v>-0.440580990424616</v>
@@ -1357,53 +1365,57 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44666</v>
+        <v>44666.4556712963</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>43.1380098171326</v>
+        <v>43.9945996628914</v>
       </c>
       <c r="D7" t="n">
-        <v>0.026222037675287</v>
-      </c>
-      <c r="E7"/>
+        <v>0.0263230183069692</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9092.025</v>
+      </c>
       <c r="F7" t="n">
-        <v>9272.565</v>
+        <v>13781542.575</v>
       </c>
       <c r="G7" t="n">
-        <v>14109328.5</v>
+        <v>0.358180048120251</v>
       </c>
       <c r="H7" t="n">
-        <v>1.63486010494421</v>
-      </c>
-      <c r="I7"/>
+        <v>1.64339937011015</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.445898609532798</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44818</v>
+        <v>44818.553587963</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>268.141444612033</v>
+        <v>266.592020900815</v>
       </c>
       <c r="D8" t="n">
-        <v>0.117343468865951</v>
+        <v>0.12002906671336</v>
       </c>
       <c r="E8" t="n">
+        <v>2250.63</v>
+      </c>
+      <c r="F8" t="n">
+        <v>436891.5</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.727560505687049</v>
       </c>
-      <c r="F8" t="n">
-        <v>2237.625</v>
-      </c>
-      <c r="G8" t="n">
-        <v>444308.174999999</v>
-      </c>
       <c r="H8" t="n">
-        <v>2.42836394481183</v>
+        <v>2.42584714683851</v>
       </c>
       <c r="I8" t="n">
         <v>-0.138130883863241</v>
@@ -1411,28 +1423,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45376</v>
+        <v>45376.5417361111</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>169.269068682683</v>
+        <v>169.838398763576</v>
       </c>
       <c r="D9" t="n">
-        <v>0.107799050498668</v>
+        <v>0.109018175418867</v>
       </c>
       <c r="E9" t="n">
+        <v>6476.745</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2970488.625</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.464264338179026</v>
       </c>
-      <c r="F9" t="n">
-        <v>6498.52928571428</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3014186.7</v>
-      </c>
       <c r="H9" t="n">
-        <v>2.22857760472607</v>
+        <v>2.23003588664887</v>
       </c>
       <c r="I9" t="n">
         <v>-0.333234674780698</v>
@@ -1440,28 +1452,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45548</v>
+        <v>45548.5381944444</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>264.743187074756</v>
+        <v>277.785143292941</v>
       </c>
       <c r="D10" t="n">
-        <v>0.339378791429092</v>
+        <v>0.348230215625679</v>
       </c>
       <c r="E10" t="n">
+        <v>1979.9475</v>
+      </c>
+      <c r="F10" t="n">
+        <v>363887.55</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.730675185686036</v>
       </c>
-      <c r="F10" t="n">
-        <v>2077.485</v>
-      </c>
-      <c r="G10" t="n">
-        <v>391771.8</v>
-      </c>
       <c r="H10" t="n">
-        <v>2.42282479274965</v>
+        <v>2.44370901476937</v>
       </c>
       <c r="I10" t="n">
         <v>-0.136275641392456</v>
@@ -1512,28 +1524,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44386</v>
+        <v>44386.4699074074</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>1661.73191635079</v>
+        <v>1636.03196806466</v>
       </c>
       <c r="D2" t="n">
-        <v>0.387436294953374</v>
+        <v>0.396878831214562</v>
       </c>
       <c r="E2" t="n">
+        <v>1222.47</v>
+      </c>
+      <c r="F2" t="n">
+        <v>177420.075</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.843910837480766</v>
       </c>
-      <c r="F2" t="n">
-        <v>1203.56357142857</v>
-      </c>
-      <c r="G2" t="n">
-        <v>178933.317857143</v>
-      </c>
       <c r="H2" t="n">
-        <v>3.22056096130097</v>
+        <v>3.21379178553239</v>
       </c>
       <c r="I2" t="n">
         <v>-0.0737034358810179</v>
@@ -1541,28 +1553,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44452.4521990741</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>25.6084522525835</v>
+        <v>25.6016057327116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0748083206536477</v>
+        <v>0.0759786519411232</v>
       </c>
       <c r="E3" t="n">
+        <v>11718.015</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3716888.2875</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.034222043709788</v>
       </c>
-      <c r="F3" t="n">
-        <v>11714.8821428571</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3774027.50357143</v>
-      </c>
       <c r="H3" t="n">
-        <v>1.40838333096844</v>
+        <v>1.408267205116</v>
       </c>
       <c r="I3" t="n">
         <v>-1.46569405834312</v>
@@ -1570,28 +1582,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44510</v>
+        <v>44510.55875</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>326.494767171751</v>
+        <v>330.774555876091</v>
       </c>
       <c r="D4" t="n">
-        <v>0.181034619271933</v>
+        <v>0.191393786853366</v>
       </c>
       <c r="E4" t="n">
+        <v>4232.49000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>895618.650000004</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.298854491442191</v>
       </c>
-      <c r="F4" t="n">
-        <v>4287.97071428572</v>
-      </c>
-      <c r="G4" t="n">
-        <v>959279.58214286</v>
-      </c>
       <c r="H4" t="n">
-        <v>2.51387622510069</v>
+        <v>2.51953209499294</v>
       </c>
       <c r="I4" t="n">
         <v>-0.524540212830461</v>
@@ -1599,28 +1611,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44589</v>
+        <v>44589.5438657407</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>55.2594896825599</v>
+        <v>55.3112641389419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0466003004043193</v>
+        <v>0.0471128862246587</v>
       </c>
       <c r="E5" t="n">
+        <v>3615.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1634768.6625</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.071022433807391</v>
       </c>
-      <c r="F5" t="n">
-        <v>3619.28785714286</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1654299.02142857</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.74240686992049</v>
+        <v>1.74281358438298</v>
       </c>
       <c r="I5" t="n">
         <v>-1.1486044493111</v>
@@ -1628,53 +1640,57 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44659</v>
+        <v>44659.3709259259</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>-59.2075325514556</v>
+        <v>-59.4087051575667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00694043951640586</v>
-      </c>
-      <c r="E6"/>
+        <v>0.00694739227240407</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-20199.06</v>
+      </c>
       <c r="F6" t="n">
-        <v>-20267.6914285714</v>
+        <v>-90130344.66</v>
       </c>
       <c r="G6" t="n">
-        <v>-90527182.4357143</v>
+        <v>0.324647521652516</v>
       </c>
       <c r="H6" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="I6"/>
+      <c r="I6" t="n">
+        <v>-0.488587908166998</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44733</v>
+        <v>44733.4761458333</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>19.3061500671871</v>
+        <v>19.2912258922976</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0247248402753767</v>
+        <v>0.0248330615616558</v>
       </c>
       <c r="E7" t="n">
+        <v>20734.815</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24214075.8</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.00834527817815949</v>
       </c>
-      <c r="F7" t="n">
-        <v>20718.7864285714</v>
-      </c>
-      <c r="G7" t="n">
-        <v>24301261.3928571</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.28569567764907</v>
+        <v>1.28535982646938</v>
       </c>
       <c r="I7" t="n">
         <v>-2.07855918214518</v>
@@ -1682,28 +1698,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44806</v>
+        <v>44806.4722916667</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>83.4160791046595</v>
+        <v>83.2410398304213</v>
       </c>
       <c r="D8" t="n">
-        <v>0.104270024651914</v>
+        <v>0.105688034741436</v>
       </c>
       <c r="E8" t="n">
+        <v>12013.305</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4194334.35</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.292886326762752</v>
       </c>
-      <c r="F8" t="n">
-        <v>11988.0964285714</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4242453.76071428</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.92124977238071</v>
+        <v>1.92033749669328</v>
       </c>
       <c r="I8" t="n">
         <v>-0.533300902644435</v>
@@ -1711,28 +1727,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44879</v>
+        <v>44879.6313657407</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>62.1041048151678</v>
+        <v>61.9260231727179</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0624314324451668</v>
+        <v>0.0632171712840964</v>
       </c>
       <c r="E9" t="n">
+        <v>7266.735</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2988667.575</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.100958463791928</v>
       </c>
-      <c r="F9" t="n">
-        <v>7245.89785714286</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3017604.06428571</v>
-      </c>
       <c r="H9" t="n">
-        <v>1.79312030612925</v>
+        <v>1.79187319094773</v>
       </c>
       <c r="I9" t="n">
         <v>-0.995857266378117</v>
@@ -1740,28 +1756,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44959</v>
+        <v>44959.5792708333</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1205661719794</v>
+        <v>29.8974107721118</v>
       </c>
       <c r="D10" t="n">
-        <v>0.017179789481342</v>
+        <v>0.0172537556916114</v>
       </c>
       <c r="E10" t="n">
+        <v>6689.5425</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10468309.0875</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.130905322589866</v>
       </c>
-      <c r="F10" t="n">
-        <v>6639.98142857143</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10435488.675</v>
-      </c>
       <c r="H10" t="n">
-        <v>1.47886313097672</v>
+        <v>1.47563357842225</v>
       </c>
       <c r="I10" t="n">
         <v>-0.883042694744787</v>
@@ -1769,28 +1785,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44999</v>
+        <v>44999.5518402778</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>203.383280877396</v>
+        <v>190.121297387734</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223866557705922</v>
+        <v>0.173101167545784</v>
       </c>
       <c r="E11" t="n">
+        <v>3155.88</v>
+      </c>
+      <c r="F11" t="n">
+        <v>645392.249999998</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.322268158933349</v>
       </c>
-      <c r="F11" t="n">
-        <v>2950.095</v>
-      </c>
-      <c r="G11" t="n">
-        <v>466498.274999997</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.30831524887617</v>
+        <v>2.27903076925838</v>
       </c>
       <c r="I11" t="n">
         <v>-0.491782601973442</v>
@@ -1798,7 +1814,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45047</v>
+        <v>45047.569525463</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1807,16 +1823,16 @@
         <v>7.12054440834328</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0106085660132641</v>
+        <v>0.0106309428106033</v>
       </c>
       <c r="E12" t="n">
+        <v>7021.935</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16645067.625</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.0819191856565531</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7021.935</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16680177.3</v>
       </c>
       <c r="H12" t="n">
         <v>0.852513199325168</v>
@@ -1827,7 +1843,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45279</v>
+        <v>45279.4299768519</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1836,16 +1852,16 @@
         <v>1159.08432338453</v>
       </c>
       <c r="D13" t="n">
-        <v>0.192383869915185</v>
+        <v>0.197380288837762</v>
       </c>
       <c r="E13" t="n">
+        <v>3105.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>597953.325</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.75658739105357</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3105.9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>613482.825</v>
       </c>
       <c r="H13" t="n">
         <v>3.06411503203648</v>
@@ -1856,7 +1872,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45376</v>
+        <v>45376.3972916667</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1865,16 +1881,16 @@
         <v>75.9375823448159</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0810203587599588</v>
+        <v>0.081893389257021</v>
       </c>
       <c r="E14" t="n">
+        <v>19753.065</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9165776.1</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.200700754388522</v>
-      </c>
-      <c r="F14" t="n">
-        <v>19753.065</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9264541.425</v>
       </c>
       <c r="H14" t="n">
         <v>1.88045676621674</v>
@@ -1928,26 +1944,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44299</v>
+        <v>44299.4938657407</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="n">
+        <v>23.2169121274701</v>
+      </c>
       <c r="D2" t="n">
-        <v>0.0288993102026876</v>
+        <v>0.0291436573977775</v>
       </c>
       <c r="E2" t="n">
+        <v>4307.205</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2660259.45</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.471279518165097</v>
       </c>
-      <c r="F2" t="n">
-        <v>4290.66642857143</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2672451.18214286</v>
-      </c>
       <c r="H2" t="n">
-        <v>1.36747524772831</v>
+        <v>1.365804457643</v>
       </c>
       <c r="I2" t="n">
         <v>-0.326721434293338</v>
@@ -1955,23 +1973,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44386</v>
+        <v>44386.4313657407</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="n">
+        <v>270.901397309407</v>
+      </c>
       <c r="D3" t="n">
-        <v>0.233297132170326</v>
-      </c>
-      <c r="E3" t="e">
+        <v>0.243913614787338</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3691.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>405590.25</v>
+      </c>
+      <c r="G3" t="e">
         <v>#NUM!</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3691.38</v>
-      </c>
-      <c r="G3" t="n">
-        <v>424047.15</v>
       </c>
       <c r="H3" t="n">
         <v>2.43281124512988</v>
@@ -1982,26 +2002,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44452.4125231481</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="n">
+        <v>1.96604019451215</v>
+      </c>
       <c r="D4" t="n">
-        <v>0.0334046106509795</v>
+        <v>0.0337409970566135</v>
       </c>
       <c r="E4" t="n">
+        <v>25431.83</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4145552.2125</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.47844128219725</v>
       </c>
-      <c r="F4" t="n">
-        <v>24413.1324193548</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4019571.72048387</v>
-      </c>
       <c r="H4" t="n">
-        <v>0.311346497546363</v>
+        <v>0.293592392476986</v>
       </c>
       <c r="I4" t="n">
         <v>-0.320171354402254</v>
@@ -2009,49 +2031,57 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44510</v>
+        <v>44510.6486805556</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="n">
+        <v>21.1919407049499</v>
+      </c>
       <c r="D5" t="n">
-        <v>0.0277510769684758</v>
-      </c>
-      <c r="E5"/>
+        <v>0.028001747500781</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9437.55</v>
+      </c>
       <c r="F5" t="n">
-        <v>9437.55</v>
+        <v>5224032</v>
       </c>
       <c r="G5" t="n">
-        <v>5271219.75</v>
+        <v>0.50247664495329</v>
       </c>
       <c r="H5" t="n">
         <v>1.32617073013491</v>
       </c>
-      <c r="I5"/>
+      <c r="I5" t="n">
+        <v>-0.298884119387333</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44589.5744212963</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="n">
+        <v>139.607284708116</v>
+      </c>
       <c r="D6" t="n">
-        <v>0.00958213989251452</v>
+        <v>0.00959627710876</v>
       </c>
       <c r="E6" t="n">
+        <v>716.295000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>612072.675000001</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.455538766986625</v>
       </c>
-      <c r="F6" t="n">
-        <v>722.815714285718</v>
-      </c>
-      <c r="G6" t="n">
-        <v>618555.867857144</v>
-      </c>
       <c r="H6" t="n">
-        <v>2.14097241428295</v>
+        <v>2.14490808036447</v>
       </c>
       <c r="I6" t="n">
         <v>-0.341474658050028</v>
@@ -2059,7 +2089,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44659</v>
+        <v>44659.4698958333</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -2068,16 +2098,16 @@
         <v>10.1562152863735</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0160991553702436</v>
+        <v>0.0162297983932237</v>
       </c>
       <c r="E7" t="n">
+        <v>19692.375</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12133468.65</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.554639976552681</v>
-      </c>
-      <c r="F7" t="n">
-        <v>19692.375</v>
-      </c>
-      <c r="G7" t="n">
-        <v>12231930.525</v>
       </c>
       <c r="H7" t="n">
         <v>1.00673189825654</v>
@@ -2088,28 +2118,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44806</v>
+        <v>44806.5677777778</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>35.2877784497159</v>
+        <v>35.1860086355262</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0598939505762173</v>
+        <v>0.0603196236104491</v>
       </c>
       <c r="E8" t="n">
+        <v>22736.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9536343.375</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.578629035198701</v>
       </c>
-      <c r="F8" t="n">
-        <v>22670.7385714286</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9576420.99642858</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.54762431811064</v>
+        <v>1.54637000494604</v>
       </c>
       <c r="I8" t="n">
         <v>-0.237599777549088</v>
@@ -2117,28 +2147,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45140</v>
+        <v>45140.4841435185</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>139.040343548826</v>
+        <v>144.908635105566</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114325713526605</v>
+        <v>0.12066224441846</v>
       </c>
       <c r="E9" t="n">
+        <v>5865.765</v>
+      </c>
+      <c r="F9" t="n">
+        <v>875035.6875</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.693687349344395</v>
       </c>
-      <c r="F9" t="n">
-        <v>6113.33357142857</v>
-      </c>
-      <c r="G9" t="n">
-        <v>962513.164285714</v>
-      </c>
       <c r="H9" t="n">
-        <v>2.14314083218554</v>
+        <v>2.16109426585046</v>
       </c>
       <c r="I9" t="n">
         <v>-0.158836225581222</v>
@@ -2146,28 +2176,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45197</v>
+        <v>45197.4275347222</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5478970626159</v>
+        <v>18.6132002489516</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0380123901994629</v>
+        <v>0.0385079170266907</v>
       </c>
       <c r="E10" t="n">
+        <v>10745.0625</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5580703.05</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.55420761962736</v>
       </c>
-      <c r="F10" t="n">
-        <v>10782.8935714286</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5673357.30000001</v>
-      </c>
       <c r="H10" t="n">
-        <v>1.26829467697673</v>
+        <v>1.269821049701</v>
       </c>
       <c r="I10" t="n">
         <v>-0.256327507533635</v>
@@ -2175,7 +2205,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45684</v>
+        <v>45684.4465509259</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -2183,13 +2213,13 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" t="n">
+        <v>105280.575</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75669084.285</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.519697920654582</v>
-      </c>
-      <c r="F11" t="n">
-        <v>105390.800806452</v>
-      </c>
-      <c r="G11" t="n">
-        <v>75844401.8767742</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
@@ -2241,28 +2271,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44292</v>
+        <v>44292.6855324074</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>1474.27392009435</v>
+        <v>1376.47196470726</v>
       </c>
       <c r="D2" t="n">
-        <v>0.609595398242257</v>
+        <v>0.648509611554352</v>
       </c>
       <c r="E2" t="n">
+        <v>1452.99</v>
+      </c>
+      <c r="F2" t="n">
+        <v>112025.325</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.776922527221678</v>
       </c>
-      <c r="F2" t="n">
-        <v>1356.6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>111270.525</v>
-      </c>
       <c r="H2" t="n">
-        <v>3.16857818293498</v>
+        <v>3.13876737032657</v>
       </c>
       <c r="I2" t="n">
         <v>-0.109622285803481</v>
@@ -2270,7 +2300,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44452</v>
+        <v>44452.6084490741</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -2279,16 +2309,16 @@
         <v>163.514515592335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19909322659857</v>
+        <v>0.204434637572699</v>
       </c>
       <c r="E3" t="n">
+        <v>6115.665</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1139762.025</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.456824240921209</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6115.665</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1170340.35</v>
       </c>
       <c r="H3" t="n">
         <v>2.21355631211454</v>
@@ -2299,28 +2329,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44589</v>
+        <v>44589.6695601852</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>65.6511558308027</v>
+        <v>65.3921732107884</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09276270132275</v>
+        <v>0.0942787293270622</v>
       </c>
       <c r="E4" t="n">
+        <v>7646.175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2076206.175</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.38887615975603</v>
       </c>
-      <c r="F4" t="n">
-        <v>7616.01214285714</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2101813.63928571</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.81724237652635</v>
+        <v>1.81552577072827</v>
       </c>
       <c r="I4" t="n">
         <v>-0.410188680672972</v>
@@ -2328,28 +2358,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44665</v>
+        <v>44665.5667708333</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>33.6536236839781</v>
+        <v>33.6206498031091</v>
       </c>
       <c r="D5" t="n">
-        <v>0.132219643097552</v>
+        <v>0.135576128321251</v>
       </c>
       <c r="E5" t="n">
+        <v>17846.175</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3554067.6</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.317914439292082</v>
       </c>
-      <c r="F5" t="n">
-        <v>17828.6892857143</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3640719.33214286</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.5270318341239</v>
+        <v>1.52660610301117</v>
       </c>
       <c r="I5" t="n">
         <v>-0.497689746503399</v>
@@ -2357,28 +2387,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44817</v>
+        <v>44817.6487152778</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>1147.67621184873</v>
+        <v>1221.6724696109</v>
       </c>
       <c r="D6" t="n">
-        <v>0.370207050897618</v>
+        <v>0.769787461283801</v>
       </c>
       <c r="E6" t="n">
+        <v>1309.68</v>
+      </c>
+      <c r="F6" t="n">
+        <v>71626.9499999976</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.810515482511753</v>
       </c>
-      <c r="F6" t="n">
-        <v>1394.12142857143</v>
-      </c>
-      <c r="G6" t="n">
-        <v>158539.692857143</v>
-      </c>
       <c r="H6" t="n">
-        <v>3.05981938001173</v>
+        <v>3.08695478716117</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0912386848189221</v>
@@ -2386,28 +2416,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44880</v>
+        <v>44880.6008101852</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7914719322554</v>
+        <v>20.830599317173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.108285591446864</v>
+        <v>0.11282859276538</v>
       </c>
       <c r="E7" t="n">
+        <v>9601.26</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1616823.67499999</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.183565739858753</v>
       </c>
-      <c r="F7" t="n">
-        <v>9619.32857142857</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1687826.05714286</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.31788523629769</v>
+        <v>1.31870176521404</v>
       </c>
       <c r="I7" t="n">
         <v>-0.736208370948997</v>
@@ -2415,28 +2445,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44953</v>
+        <v>44953.5476388889</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>5.13894891976541</v>
+        <v>5.12392271126221</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0176083819768147</v>
+        <v>0.017662504410174</v>
       </c>
       <c r="E8" t="n">
+        <v>19516.2975</v>
+      </c>
+      <c r="F8" t="n">
+        <v>27623910.3</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.119014868641982</v>
       </c>
-      <c r="F8" t="n">
-        <v>19459.2321428571</v>
-      </c>
-      <c r="G8" t="n">
-        <v>27627797.0464286</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.710874300897029</v>
+        <v>0.709602570267519</v>
       </c>
       <c r="I8" t="n">
         <v>-0.924398778390773</v>
@@ -2444,28 +2474,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44998</v>
+        <v>44998.6080555556</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1790704053949</v>
+        <v>33.1477199133684</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0942639400766061</v>
+        <v>0.0959738782206115</v>
       </c>
       <c r="E9" t="n">
+        <v>18100.7925</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4526429.775</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.211055044837363</v>
       </c>
-      <c r="F9" t="n">
-        <v>18083.6892857143</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4604184.19285714</v>
-      </c>
       <c r="H9" t="n">
-        <v>1.52086421401315</v>
+        <v>1.5204536605508</v>
       </c>
       <c r="I9" t="n">
         <v>-0.675604262467908</v>
@@ -2473,28 +2503,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45140</v>
+        <v>45140.6931712963</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>657.928746316773</v>
+        <v>660.196738628112</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.624858780565361</v>
+        <v>-0.520835073068891</v>
       </c>
       <c r="E10" t="n">
+        <v>1817.64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-73287.0000000003</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.659625120007815</v>
       </c>
-      <c r="F10" t="n">
-        <v>1823.90571428572</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-61297.0821428564</v>
-      </c>
       <c r="H10" t="n">
-        <v>2.81817886206828</v>
+        <v>2.81967337458485</v>
       </c>
       <c r="I10" t="n">
         <v>-0.180702813802158</v>
@@ -2502,28 +2532,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45197</v>
+        <v>45197.6053125</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>133.328381136318</v>
+        <v>129.083891621164</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0966021881464723</v>
+        <v>0.0938164335971077</v>
       </c>
       <c r="E11" t="n">
+        <v>774.690000000004</v>
+      </c>
+      <c r="F11" t="n">
+        <v>290664.300000004</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.360986898896875</v>
       </c>
-      <c r="F11" t="n">
-        <v>750.027857142865</v>
-      </c>
-      <c r="G11" t="n">
-        <v>273295.885714292</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.12492260596996</v>
+        <v>2.11087205003927</v>
       </c>
       <c r="I11" t="n">
         <v>-0.442508559424093</v>
@@ -2531,28 +2561,28 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45231</v>
+        <v>45231.5688657407</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>17.3551452799212</v>
+        <v>17.4152616904298</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0456410932698102</v>
+        <v>0.0461429737538231</v>
       </c>
       <c r="E12" t="n">
+        <v>2871.045</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1505739.3</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.252976287770757</v>
       </c>
-      <c r="F12" t="n">
-        <v>2880.99</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1527569.85</v>
-      </c>
       <c r="H12" t="n">
-        <v>1.23942825350176</v>
+        <v>1.24093000476932</v>
       </c>
       <c r="I12" t="n">
         <v>-0.596920184646056</v>
@@ -2560,7 +2590,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45296</v>
+        <v>45296.6073611111</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -2569,16 +2599,16 @@
         <v>236.595392304735</v>
       </c>
       <c r="D13" t="n">
-        <v>0.229962718506469</v>
+        <v>0.234697067244096</v>
       </c>
       <c r="E13" t="n">
+        <v>2535.975</v>
+      </c>
+      <c r="F13" t="n">
+        <v>615902.774999999</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.447726779544469</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2535.975</v>
-      </c>
-      <c r="G13" t="n">
-        <v>628582.649999999</v>
       </c>
       <c r="H13" t="n">
         <v>2.37400628248923</v>
@@ -2589,7 +2619,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45331</v>
+        <v>45331.432037037</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -2597,13 +2627,13 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" t="n">
+        <v>47178.06</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17093496.6</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.346952867332309</v>
-      </c>
-      <c r="F14" t="n">
-        <v>47179.08</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17329386.9</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
@@ -2612,7 +2642,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45684</v>
+        <v>45684.6125231481</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -2620,13 +2650,13 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="n">
+        <v>17617.44</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4829662.005</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.391295963011507</v>
-      </c>
-      <c r="F15" t="n">
-        <v>17688.0174193548</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4866718.14435484</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="n">
@@ -2678,28 +2708,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44292</v>
+        <v>44292.6153935185</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>79.9725579879591</v>
+        <v>80.1792808720299</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0836415522456026</v>
+        <v>0.0854043075688791</v>
       </c>
       <c r="E2" t="n">
+        <v>2494.41</v>
+      </c>
+      <c r="F2" t="n">
+        <v>756463.237499999</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.364493365047336</v>
       </c>
-      <c r="F2" t="n">
-        <v>2500.85785714285</v>
-      </c>
-      <c r="G2" t="n">
-        <v>774402.396428567</v>
-      </c>
       <c r="H2" t="n">
-        <v>1.90294098750518</v>
+        <v>1.90406215674476</v>
       </c>
       <c r="I2" t="n">
         <v>-0.438310372831757</v>
@@ -2707,28 +2737,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44371</v>
+        <v>44371.4813657407</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>97.517092917943</v>
+        <v>97.6891628527189</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0844166976160872</v>
+        <v>0.0853583962849015</v>
       </c>
       <c r="E3" t="n">
+        <v>12283.86</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5612459.475</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.428172659072591</v>
       </c>
-      <c r="F3" t="n">
-        <v>12305.535</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5685082.2</v>
-      </c>
       <c r="H3" t="n">
-        <v>1.9890807460505</v>
+        <v>1.98984638793256</v>
       </c>
       <c r="I3" t="n">
         <v>-0.368381067992078</v>
@@ -2736,7 +2766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44452.6320601852</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -2745,16 +2775,16 @@
         <v>14.3008118570891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10472695502504</v>
+        <v>0.108622753028858</v>
       </c>
       <c r="E4" t="n">
+        <v>13985.22</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1879755.45</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.226952277503813</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13985.22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1949681.55</v>
       </c>
       <c r="H4" t="n">
         <v>1.15536069306266</v>
@@ -2765,28 +2795,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44517</v>
+        <v>44517.6660763889</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>19.273719443755</v>
+        <v>19.2526320754626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0768117708525735</v>
+        <v>0.0781875702834405</v>
       </c>
       <c r="E5" t="n">
+        <v>10388.19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2829969.6</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.258582477591671</v>
       </c>
-      <c r="F5" t="n">
-        <v>10376.8242857143</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2877506.33571429</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.28496553292348</v>
+        <v>1.2844901113878</v>
       </c>
       <c r="I5" t="n">
         <v>-0.587400907696447</v>
@@ -2794,28 +2824,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44589.6688657407</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>6.79493167987407</v>
+        <v>6.81656288449675</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0279077813421051</v>
+        <v>0.0283440749138616</v>
       </c>
       <c r="E6" t="n">
+        <v>14670.15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4709921.4</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.185682797933314</v>
       </c>
-      <c r="F6" t="n">
-        <v>14716.8514285714</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4798781.61428571</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.832185094445576</v>
+        <v>0.833565445540546</v>
       </c>
       <c r="I6" t="n">
         <v>-0.731228328401752</v>
@@ -2823,30 +2853,36 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44665</v>
+        <v>44665.5674652778</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="n">
+        <v>5.52933269524834</v>
+      </c>
       <c r="D7" t="n">
-        <v>0.0835954778785003</v>
-      </c>
-      <c r="E7"/>
+        <v>0.0865643214300721</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18085.365</v>
+      </c>
       <c r="F7" t="n">
-        <v>18097.9692857143</v>
+        <v>2548872.9</v>
       </c>
       <c r="G7" t="n">
-        <v>2641234.08214286</v>
+        <v>0.209608316441513</v>
       </c>
       <c r="H7" t="n">
-        <v>0.74237015316871</v>
-      </c>
-      <c r="I7"/>
+        <v>0.742672721854738</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.678591490233127</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44818</v>
+        <v>44818.4938657407</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -2855,16 +2891,16 @@
         <v>52.7801968701343</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0490018181170012</v>
+        <v>0.0495486591948861</v>
       </c>
       <c r="E8" t="n">
+        <v>7578.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3395549.4</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.346783836740215</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7578.6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3433442.4</v>
       </c>
       <c r="H8" t="n">
         <v>1.72247100580547</v>
@@ -2875,28 +2911,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45279</v>
+        <v>45279.5674768519</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>409.296138546743</v>
+        <v>406.643538815396</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0895346799829791</v>
+        <v>0.0913138679960434</v>
       </c>
       <c r="E9" t="n">
+        <v>1967.325</v>
+      </c>
+      <c r="F9" t="n">
+        <v>452437.575000001</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.586132065900496</v>
       </c>
-      <c r="F9" t="n">
-        <v>1954.575</v>
-      </c>
-      <c r="G9" t="n">
-        <v>458437.725</v>
-      </c>
       <c r="H9" t="n">
-        <v>2.61203764736759</v>
+        <v>2.60921387615882</v>
       </c>
       <c r="I9" t="n">
         <v>-0.232004518743436</v>
@@ -2904,7 +2940,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45684</v>
+        <v>45684.582662037</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2912,13 +2948,13 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
+        <v>70079.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24480940.185</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.303866762065075</v>
-      </c>
-      <c r="F10" t="n">
-        <v>70191.3082258065</v>
-      </c>
-      <c r="G10" t="n">
-        <v>24594782.4179032</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="n">
@@ -2970,7 +3006,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44292</v>
+        <v>44292.5445601852</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2979,16 +3015,16 @@
         <v>110.528991754537</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0578152666505854</v>
+        <v>0.0582572824404321</v>
       </c>
       <c r="E2" t="n">
+        <v>2261.85</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1479239.7</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.365076636764844</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2261.85</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1490548.95</v>
       </c>
       <c r="H2" t="n">
         <v>2.04347620840636</v>
@@ -2999,28 +3035,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44371</v>
+        <v>44371.5931712963</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>145.543610583516</v>
+        <v>145.261215981639</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0876716470388422</v>
+        <v>0.0887009145456758</v>
       </c>
       <c r="E3" t="n">
+        <v>4130.49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1634483.7</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.402978589290512</v>
       </c>
-      <c r="F3" t="n">
-        <v>4122.47571428571</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1650464.00357143</v>
-      </c>
       <c r="H3" t="n">
-        <v>2.16299314451045</v>
+        <v>2.1621496753197</v>
       </c>
       <c r="I3" t="n">
         <v>-0.394718027804303</v>
@@ -3028,28 +3064,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44452</v>
+        <v>44452.5466435185</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>19.0713037906123</v>
+        <v>19.0096721211752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111120888231963</v>
+        <v>0.115018374888459</v>
       </c>
       <c r="E4" t="n">
+        <v>7890.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1001618.325</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.20773763726534</v>
       </c>
-      <c r="F4" t="n">
-        <v>7865.22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1033398.975</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.28038038416888</v>
+        <v>1.27897462621882</v>
       </c>
       <c r="I4" t="n">
         <v>-0.682484812199451</v>
@@ -3057,28 +3093,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44517</v>
+        <v>44517.5244097222</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9350140609002</v>
+        <v>17.0734960650927</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0463166323010258</v>
+        <v>0.0467154226076758</v>
       </c>
       <c r="E5" t="n">
+        <v>11714.0625</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10305974.8125</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.18568387517109</v>
       </c>
-      <c r="F5" t="n">
-        <v>11809.8514285714</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10479710.4107143</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.2287855615693</v>
+        <v>1.23232245880176</v>
       </c>
       <c r="I5" t="n">
         <v>-0.731225808851906</v>
@@ -3086,28 +3122,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44589</v>
+        <v>44589.4438657407</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>4.49444319884161</v>
+        <v>4.49710858403589</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0437964783271548</v>
+        <v>0.0449514608738104</v>
       </c>
       <c r="E6" t="n">
+        <v>11118.255</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2102382.5625</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.154310511172043</v>
       </c>
-      <c r="F6" t="n">
-        <v>11124.8485714286</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2159105.4</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.652675896147369</v>
+        <v>0.652933373865094</v>
       </c>
       <c r="I6" t="n">
         <v>-0.811604490083723</v>
@@ -3115,28 +3151,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44666</v>
+        <v>44666.5452546296</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>2.89214023293876</v>
+        <v>2.88754040751858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0252018268584692</v>
+        <v>0.0253800440355002</v>
       </c>
       <c r="E7" t="n">
+        <v>17315.775</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11257281</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.135702278222738</v>
       </c>
-      <c r="F7" t="n">
-        <v>17288.235</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11318857.125</v>
-      </c>
       <c r="H7" t="n">
-        <v>0.461219347030154</v>
+        <v>0.46052807035113</v>
       </c>
       <c r="I7" t="n">
         <v>-0.867412861174027</v>
@@ -3144,28 +3180,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44818</v>
+        <v>44818.6133101852</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>105.628429740967</v>
+        <v>105.368942767542</v>
       </c>
       <c r="D8" t="n">
-        <v>0.142353917790553</v>
+        <v>0.144330317918993</v>
       </c>
       <c r="E8" t="n">
+        <v>7592.37</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2230414.875</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.368938311717069</v>
       </c>
-      <c r="F8" t="n">
-        <v>7573.71857142857</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2255825.98928571</v>
-      </c>
       <c r="H8" t="n">
-        <v>2.02378082367035</v>
+        <v>2.02271262252492</v>
       </c>
       <c r="I8" t="n">
         <v>-0.433046243923686</v>
@@ -3173,28 +3209,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44966</v>
+        <v>44966.4577546296</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>8.00184819830957</v>
+        <v>7.66440336835198</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0131382698505472</v>
+        <v>0.0131811634365342</v>
       </c>
       <c r="E9" t="n">
+        <v>6523.66500000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6928926.30000001</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.110887957954024</v>
       </c>
-      <c r="F9" t="n">
-        <v>6248.55642857143</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6658394.97857143</v>
-      </c>
       <c r="H9" t="n">
-        <v>0.903190308194961</v>
+        <v>0.88447835306939</v>
       </c>
       <c r="I9" t="n">
         <v>-0.955115614158115</v>
@@ -3202,28 +3238,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44998</v>
+        <v>44998.5250694444</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>126.543034122329</v>
+        <v>125.026099198208</v>
       </c>
       <c r="D10" t="n">
-        <v>0.154867311917387</v>
+        <v>0.158934750191826</v>
       </c>
       <c r="E10" t="n">
+        <v>3999.165</v>
+      </c>
+      <c r="F10" t="n">
+        <v>704544.6</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.338755228520558</v>
       </c>
-      <c r="F10" t="n">
-        <v>3951.225</v>
-      </c>
-      <c r="G10" t="n">
-        <v>714381.225</v>
-      </c>
       <c r="H10" t="n">
-        <v>2.10223824332676</v>
+        <v>2.097000681445</v>
       </c>
       <c r="I10" t="n">
         <v>-0.470113992943802</v>
@@ -3231,7 +3267,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45684</v>
+        <v>45684.5284953704</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -3239,13 +3275,13 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" t="n">
+        <v>32923.56</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6246297.675</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.327860796281033</v>
-      </c>
-      <c r="F11" t="n">
-        <v>33057.2951612903</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6315668.79629032</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
@@ -3297,28 +3333,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44302</v>
+        <v>44302.5167824074</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>243.295049119533</v>
+        <v>295.076646158839</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.415059873828465</v>
+        <v>-0.179837618403249</v>
       </c>
       <c r="E2" t="n">
+        <v>1694.475</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-315645.374999998</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.360023104440148</v>
       </c>
-      <c r="F2" t="n">
-        <v>2055.11785714286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-165871.125</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.38613327143824</v>
+        <v>2.46993483862331</v>
       </c>
       <c r="I2" t="n">
         <v>-0.443669627541359</v>
@@ -3326,28 +3362,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44386</v>
+        <v>44386.5424768519</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>1444.94054069675</v>
+        <v>1448.9446249588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.577927133588421</v>
+        <v>0.636332243488483</v>
       </c>
       <c r="E3" t="n">
+        <v>1380.315</v>
+      </c>
+      <c r="F3" t="n">
+        <v>69413.55</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.00501814443023</v>
       </c>
-      <c r="F3" t="n">
-        <v>1384.14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>76640.25</v>
-      </c>
       <c r="H3" t="n">
-        <v>3.15984997624233</v>
+        <v>3.16105178813896</v>
       </c>
       <c r="I3" t="n">
         <v>0.00217390250754501</v>
@@ -3355,28 +3391,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44589</v>
+        <v>44589.6049768519</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>60.5612033684141</v>
+        <v>60.3287312566173</v>
       </c>
       <c r="D4" t="n">
-        <v>0.166262713408938</v>
+        <v>0.170235193503023</v>
       </c>
       <c r="E4" t="n">
+        <v>4972.755</v>
+      </c>
+      <c r="F4" t="n">
+        <v>934754.775</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0981514654813035</v>
       </c>
-      <c r="F4" t="n">
-        <v>4953.66642857143</v>
-      </c>
-      <c r="G4" t="n">
-        <v>953414.764285715</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.78219449613319</v>
+        <v>1.78052419198234</v>
       </c>
       <c r="I4" t="n">
         <v>-1.00810321164531</v>
@@ -3384,53 +3420,57 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44665</v>
+        <v>44665.4653819444</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>156.869264340194</v>
+        <v>162.880436874946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0999742912566901</v>
-      </c>
-      <c r="E5"/>
+        <v>0.10084878394279</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3376.71</v>
+      </c>
       <c r="F5" t="n">
-        <v>3506.10428571429</v>
+        <v>1004487.075</v>
       </c>
       <c r="G5" t="n">
-        <v>1052101.76785714</v>
+        <v>0.201896367732129</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1955378598709</v>
-      </c>
-      <c r="I5"/>
+        <v>2.21186892551499</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.694871494271234</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44733</v>
+        <v>44733.6407291667</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>3.42172328934366</v>
+        <v>3.42175314548935</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0375554805809119</v>
+        <v>0.0381279127314033</v>
       </c>
       <c r="E6" t="n">
+        <v>29224.785</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9581164.725</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0267727103151798</v>
       </c>
-      <c r="F6" t="n">
-        <v>29225.04</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9727288.65000001</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.534244885751498</v>
+        <v>0.534248675158665</v>
       </c>
       <c r="I6" t="n">
         <v>-1.57230766111248</v>
@@ -3438,28 +3478,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44817</v>
+        <v>44817.5355208333</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>173.070979705367</v>
+        <v>184.844022452387</v>
       </c>
       <c r="D7" t="n">
-        <v>0.426859527793496</v>
+        <v>-110.209228071763</v>
       </c>
       <c r="E7" t="n">
+        <v>2434.48500000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-726.749999989534</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.213007658894106</v>
       </c>
-      <c r="F7" t="n">
-        <v>2600.08928571429</v>
-      </c>
-      <c r="G7" t="n">
-        <v>200400.675000005</v>
-      </c>
       <c r="H7" t="n">
-        <v>2.23822425210174</v>
+        <v>2.26680541077648</v>
       </c>
       <c r="I7" t="n">
         <v>-0.671604780807045</v>
@@ -3467,28 +3507,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44879</v>
+        <v>44879.5539351852</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>16.9540200057436</v>
+        <v>16.9811082744574</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131401183260687</v>
+        <v>0.13597861546666</v>
       </c>
       <c r="E8" t="n">
+        <v>20611.14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3076999.575</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.080978032976474</v>
       </c>
-      <c r="F8" t="n">
-        <v>20644.0714285714</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3189276.075</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.22927269128908</v>
+        <v>1.22996603112432</v>
       </c>
       <c r="I8" t="n">
         <v>-1.09163277681234</v>
@@ -3496,28 +3536,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44953</v>
+        <v>44953.63375</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>1.57548757401697</v>
+        <v>1.57730895949344</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0192449199286524</v>
+        <v>0.0193465004159673</v>
       </c>
       <c r="E9" t="n">
+        <v>63399.12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>63902143.2</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0322295008782968</v>
       </c>
-      <c r="F9" t="n">
-        <v>63472.4142857143</v>
-      </c>
-      <c r="G9" t="n">
-        <v>64313703.7285714</v>
-      </c>
       <c r="H9" t="n">
-        <v>0.197414982211926</v>
+        <v>0.197916770222312</v>
       </c>
       <c r="I9" t="n">
         <v>-1.49174642013085</v>
@@ -3525,28 +3565,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44999</v>
+        <v>44999.4580902778</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>17.4458643924238</v>
+        <v>17.0380754130775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0323205086994282</v>
+        <v>0.0320683913904686</v>
       </c>
       <c r="E10" t="n">
+        <v>11738.415</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12079423.95</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.146809310279103</v>
       </c>
-      <c r="F10" t="n">
-        <v>11464.035</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11705049.525</v>
-      </c>
       <c r="H10" t="n">
-        <v>1.24169249236021</v>
+        <v>1.23142053616508</v>
       </c>
       <c r="I10" t="n">
         <v>-0.833246401677268</v>
@@ -3554,28 +3594,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45231</v>
+        <v>45231.6105324074</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>26.617325749677</v>
+        <v>26.7355374110375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.20143331114612</v>
+        <v>0.216314895846472</v>
       </c>
       <c r="E11" t="n">
+        <v>1870.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>131412.975</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.1019830414486</v>
       </c>
-      <c r="F11" t="n">
-        <v>1878.47571428571</v>
-      </c>
-      <c r="G11" t="n">
-        <v>141748.307142857</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.42516441963977</v>
+        <v>1.42708891827748</v>
       </c>
       <c r="I11" t="n">
         <v>-0.991472040175493</v>
@@ -3583,7 +3623,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45296</v>
+        <v>45296.6077083333</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -3592,16 +3632,16 @@
         <v>160.293015632576</v>
       </c>
       <c r="D12" t="n">
-        <v>0.138009949764872</v>
+        <v>0.141373916508917</v>
       </c>
       <c r="E12" t="n">
+        <v>2495.43</v>
+      </c>
+      <c r="F12" t="n">
+        <v>511887</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.304619300450722</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2495.43</v>
-      </c>
-      <c r="G12" t="n">
-        <v>524364.15</v>
       </c>
       <c r="H12" t="n">
         <v>2.20491459947009</v>
@@ -3612,7 +3652,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45331</v>
+        <v>45331.5028703704</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -3620,13 +3660,13 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" t="n">
+        <v>3919.605</v>
+      </c>
+      <c r="F13" t="n">
+        <v>519994.725</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.262140092531933</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3919.605</v>
-      </c>
-      <c r="G13" t="n">
-        <v>539592.75</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
@@ -3635,28 +3675,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45376</v>
+        <v>45376.6452083333</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>66.8680497183789</v>
+        <v>66.9517265176476</v>
       </c>
       <c r="D14" t="n">
-        <v>0.118977054787886</v>
+        <v>0.121519936802292</v>
       </c>
       <c r="E14" t="n">
+        <v>9708.4875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2316871.9875</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.192172782267643</v>
       </c>
-      <c r="F14" t="n">
-        <v>9720.63642857143</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2369351.44285714</v>
-      </c>
       <c r="H14" t="n">
-        <v>1.82521865669926</v>
+        <v>1.82576178086138</v>
       </c>
       <c r="I14" t="n">
         <v>-0.716308122120189</v>
@@ -3664,28 +3704,28 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45527</v>
+        <v>45527.554537037</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>31.9608765878692</v>
+        <v>31.8450445607709</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267181902314957</v>
+        <v>0.268117748249557</v>
       </c>
       <c r="E15" t="n">
+        <v>31402.06</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7027224.465</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.223306204924098</v>
       </c>
-      <c r="F15" t="n">
-        <v>31288.2532258065</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7026281.26112903</v>
-      </c>
       <c r="H15" t="n">
-        <v>1.50461868215803</v>
+        <v>1.50304186093037</v>
       </c>
       <c r="I15" t="n">
         <v>-0.651099209186256</v>
@@ -3693,28 +3733,28 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45548</v>
+        <v>45548.5673611111</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>373.761564416404</v>
+        <v>373.83163595079</v>
       </c>
       <c r="D16" t="n">
-        <v>0.294695879487908</v>
+        <v>0.294700163507004</v>
       </c>
       <c r="E16" t="n">
+        <v>2675.001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>807855.3</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.250826695779266</v>
       </c>
-      <c r="F16" t="n">
-        <v>2675.5025</v>
-      </c>
-      <c r="G16" t="n">
-        <v>808018.5</v>
-      </c>
       <c r="H16" t="n">
-        <v>2.57259463888307</v>
+        <v>2.57267605128971</v>
       </c>
       <c r="I16" t="n">
         <v>-0.600626242910576</v>
